--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>['21', '41', '51']</t>
+  </si>
+  <si>
+    <t>['67']</t>
   </si>
   <si>
     <t>['90+5']</t>
@@ -1131,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2008,7 +2011,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2214,7 +2217,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2420,7 +2423,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2626,7 +2629,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2832,7 +2835,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3038,7 +3041,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3116,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10">
         <v>2.5</v>
@@ -3450,7 +3453,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3862,7 +3865,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4480,7 +4483,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4686,7 +4689,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5098,7 +5101,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5304,7 +5307,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5922,7 +5925,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6334,7 +6337,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6746,7 +6749,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6952,7 +6955,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7033,7 +7036,7 @@
         <v>1</v>
       </c>
       <c r="AQ29">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR29">
         <v>0.9</v>
@@ -7158,7 +7161,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7364,7 +7367,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7776,7 +7779,7 @@
         <v>98</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8884,7 +8887,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38">
         <v>1.6</v>
@@ -9012,7 +9015,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9424,7 +9427,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9630,7 +9633,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10660,7 +10663,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11072,7 +11075,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11278,7 +11281,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11896,7 +11899,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11977,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR53">
         <v>1.08</v>
@@ -12102,7 +12105,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12720,7 +12723,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12926,7 +12929,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13132,7 +13135,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13210,7 +13213,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ59">
         <v>1.6</v>
@@ -13338,7 +13341,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13956,7 +13959,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14162,7 +14165,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14986,7 +14989,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15398,7 +15401,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15604,7 +15607,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15888,7 +15891,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ72">
         <v>0.17</v>
@@ -16016,7 +16019,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16097,7 +16100,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR73">
         <v>1.55</v>
@@ -16222,7 +16225,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16634,7 +16637,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16840,7 +16843,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17046,7 +17049,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -18282,7 +18285,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18488,7 +18491,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19106,7 +19109,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19312,7 +19315,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19724,7 +19727,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20342,7 +20345,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20548,7 +20551,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20629,7 +20632,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ95">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -20960,7 +20963,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21166,7 +21169,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21578,7 +21581,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21990,7 +21993,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22814,7 +22817,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23226,7 +23229,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23432,7 +23435,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23638,7 +23641,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23844,7 +23847,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24050,7 +24053,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24256,7 +24259,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24668,7 +24671,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25492,7 +25495,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25904,7 +25907,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -27346,7 +27349,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28170,7 +28173,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28376,7 +28379,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q133">
         <v>3.4</v>
@@ -28582,7 +28585,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28788,7 +28791,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -28994,7 +28997,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29200,7 +29203,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29406,7 +29409,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29612,7 +29615,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29818,7 +29821,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30514,7 +30517,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ143">
         <v>0.83</v>
@@ -31054,7 +31057,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -32084,7 +32087,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32496,7 +32499,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32653,6 +32656,212 @@
       </c>
       <c r="BP153">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7345606</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45372.79166666666</v>
+      </c>
+      <c r="F154">
+        <v>9</v>
+      </c>
+      <c r="G154" t="s">
+        <v>78</v>
+      </c>
+      <c r="H154" t="s">
+        <v>81</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>185</v>
+      </c>
+      <c r="P154" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q154">
+        <v>3.6</v>
+      </c>
+      <c r="R154">
+        <v>1.8</v>
+      </c>
+      <c r="S154">
+        <v>4</v>
+      </c>
+      <c r="T154">
+        <v>1.62</v>
+      </c>
+      <c r="U154">
+        <v>2.2</v>
+      </c>
+      <c r="V154">
+        <v>4</v>
+      </c>
+      <c r="W154">
+        <v>1.22</v>
+      </c>
+      <c r="X154">
+        <v>13</v>
+      </c>
+      <c r="Y154">
+        <v>1.04</v>
+      </c>
+      <c r="Z154">
+        <v>2.63</v>
+      </c>
+      <c r="AA154">
+        <v>2.88</v>
+      </c>
+      <c r="AB154">
+        <v>3</v>
+      </c>
+      <c r="AC154">
+        <v>1.18</v>
+      </c>
+      <c r="AD154">
+        <v>6</v>
+      </c>
+      <c r="AE154">
+        <v>1.75</v>
+      </c>
+      <c r="AF154">
+        <v>2.24</v>
+      </c>
+      <c r="AG154">
+        <v>3.1</v>
+      </c>
+      <c r="AH154">
+        <v>1.36</v>
+      </c>
+      <c r="AI154">
+        <v>2.38</v>
+      </c>
+      <c r="AJ154">
+        <v>1.53</v>
+      </c>
+      <c r="AK154">
+        <v>1.43</v>
+      </c>
+      <c r="AL154">
+        <v>1.52</v>
+      </c>
+      <c r="AM154">
+        <v>1.52</v>
+      </c>
+      <c r="AN154">
+        <v>1.6</v>
+      </c>
+      <c r="AO154">
+        <v>3</v>
+      </c>
+      <c r="AP154">
+        <v>1.83</v>
+      </c>
+      <c r="AQ154">
+        <v>2.4</v>
+      </c>
+      <c r="AR154">
+        <v>1.68</v>
+      </c>
+      <c r="AS154">
+        <v>1.48</v>
+      </c>
+      <c r="AT154">
+        <v>3.16</v>
+      </c>
+      <c r="AU154">
+        <v>3</v>
+      </c>
+      <c r="AV154">
+        <v>4</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
+        <v>5</v>
+      </c>
+      <c r="AY154">
+        <v>8</v>
+      </c>
+      <c r="AZ154">
+        <v>9</v>
+      </c>
+      <c r="BA154">
+        <v>3</v>
+      </c>
+      <c r="BB154">
+        <v>6</v>
+      </c>
+      <c r="BC154">
+        <v>9</v>
+      </c>
+      <c r="BD154">
+        <v>1.75</v>
+      </c>
+      <c r="BE154">
+        <v>8</v>
+      </c>
+      <c r="BF154">
+        <v>2.38</v>
+      </c>
+      <c r="BG154">
+        <v>1.32</v>
+      </c>
+      <c r="BH154">
+        <v>3.1</v>
+      </c>
+      <c r="BI154">
+        <v>1.6</v>
+      </c>
+      <c r="BJ154">
+        <v>2.22</v>
+      </c>
+      <c r="BK154">
+        <v>1.95</v>
+      </c>
+      <c r="BL154">
+        <v>1.77</v>
+      </c>
+      <c r="BM154">
+        <v>2.95</v>
+      </c>
+      <c r="BN154">
+        <v>1.37</v>
+      </c>
+      <c r="BO154">
+        <v>4.1</v>
+      </c>
+      <c r="BP154">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['67']</t>
   </si>
   <si>
+    <t>['45+1', '90+3']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -773,6 +776,9 @@
   </si>
   <si>
     <t>['16', '90+7']</t>
+  </si>
+  <si>
+    <t>['11', '26']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP154"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2011,7 +2017,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2217,7 +2223,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2423,7 +2429,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2629,7 +2635,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2835,7 +2841,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3041,7 +3047,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3453,7 +3459,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3534,7 +3540,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ12">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3865,7 +3871,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4483,7 +4489,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4689,7 +4695,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5101,7 +5107,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5179,7 +5185,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -5307,7 +5313,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5925,7 +5931,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6337,7 +6343,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6749,7 +6755,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6955,7 +6961,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7161,7 +7167,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7367,7 +7373,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7779,7 +7785,7 @@
         <v>98</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -8890,7 +8896,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR38">
         <v>1.15</v>
@@ -9015,7 +9021,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9427,7 +9433,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9633,7 +9639,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10663,7 +10669,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11075,7 +11081,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11281,7 +11287,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11899,7 +11905,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12105,7 +12111,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12389,7 +12395,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ55">
         <v>0.83</v>
@@ -12723,7 +12729,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12929,7 +12935,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13135,7 +13141,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13341,7 +13347,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13834,7 +13840,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ62">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.97</v>
@@ -13959,7 +13965,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14165,7 +14171,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14989,7 +14995,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15401,7 +15407,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15607,7 +15613,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16019,7 +16025,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16225,7 +16231,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16637,7 +16643,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16843,7 +16849,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17049,7 +17055,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17127,7 +17133,7 @@
         <v>2</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -18285,7 +18291,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18491,7 +18497,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19109,7 +19115,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19315,7 +19321,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19727,7 +19733,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20345,7 +20351,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20423,7 +20429,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
         <v>1.2</v>
@@ -20551,7 +20557,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20963,7 +20969,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21169,7 +21175,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21581,7 +21587,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21993,7 +21999,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22817,7 +22823,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -22898,7 +22904,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ106">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23229,7 +23235,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23435,7 +23441,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23641,7 +23647,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23847,7 +23853,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24053,7 +24059,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24259,7 +24265,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24671,7 +24677,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25495,7 +25501,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25907,7 +25913,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26603,7 +26609,7 @@
         <v>0.25</v>
       </c>
       <c r="AP124">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ124">
         <v>0.83</v>
@@ -27349,7 +27355,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28173,7 +28179,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28379,7 +28385,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q133">
         <v>3.4</v>
@@ -28585,7 +28591,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28791,7 +28797,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -28872,7 +28878,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ135">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AR135">
         <v>1.67</v>
@@ -28997,7 +29003,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29203,7 +29209,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29409,7 +29415,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29615,7 +29621,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29821,7 +29827,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31057,7 +31063,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -32087,7 +32093,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32499,7 +32505,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32862,6 +32868,212 @@
       </c>
       <c r="BP154">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7345648</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45378.89583333334</v>
+      </c>
+      <c r="F155">
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>87</v>
+      </c>
+      <c r="H155" t="s">
+        <v>93</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>2</v>
+      </c>
+      <c r="K155">
+        <v>3</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>2</v>
+      </c>
+      <c r="N155">
+        <v>4</v>
+      </c>
+      <c r="O155" t="s">
+        <v>186</v>
+      </c>
+      <c r="P155" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q155">
+        <v>2.75</v>
+      </c>
+      <c r="R155">
+        <v>1.91</v>
+      </c>
+      <c r="S155">
+        <v>5</v>
+      </c>
+      <c r="T155">
+        <v>1.61</v>
+      </c>
+      <c r="U155">
+        <v>2.21</v>
+      </c>
+      <c r="V155">
+        <v>3.71</v>
+      </c>
+      <c r="W155">
+        <v>1.24</v>
+      </c>
+      <c r="X155">
+        <v>11</v>
+      </c>
+      <c r="Y155">
+        <v>1.03</v>
+      </c>
+      <c r="Z155">
+        <v>1.95</v>
+      </c>
+      <c r="AA155">
+        <v>3.25</v>
+      </c>
+      <c r="AB155">
+        <v>4.5</v>
+      </c>
+      <c r="AC155">
+        <v>1.08</v>
+      </c>
+      <c r="AD155">
+        <v>5.95</v>
+      </c>
+      <c r="AE155">
+        <v>1.57</v>
+      </c>
+      <c r="AF155">
+        <v>2.38</v>
+      </c>
+      <c r="AG155">
+        <v>2.7</v>
+      </c>
+      <c r="AH155">
+        <v>1.44</v>
+      </c>
+      <c r="AI155">
+        <v>2.25</v>
+      </c>
+      <c r="AJ155">
+        <v>1.57</v>
+      </c>
+      <c r="AK155">
+        <v>1.25</v>
+      </c>
+      <c r="AL155">
+        <v>1.33</v>
+      </c>
+      <c r="AM155">
+        <v>1.72</v>
+      </c>
+      <c r="AN155">
+        <v>1.4</v>
+      </c>
+      <c r="AO155">
+        <v>1.6</v>
+      </c>
+      <c r="AP155">
+        <v>1.33</v>
+      </c>
+      <c r="AQ155">
+        <v>1.5</v>
+      </c>
+      <c r="AR155">
+        <v>1.3</v>
+      </c>
+      <c r="AS155">
+        <v>1.26</v>
+      </c>
+      <c r="AT155">
+        <v>2.56</v>
+      </c>
+      <c r="AU155">
+        <v>6</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>7</v>
+      </c>
+      <c r="AX155">
+        <v>8</v>
+      </c>
+      <c r="AY155">
+        <v>13</v>
+      </c>
+      <c r="AZ155">
+        <v>12</v>
+      </c>
+      <c r="BA155">
+        <v>5</v>
+      </c>
+      <c r="BB155">
+        <v>5</v>
+      </c>
+      <c r="BC155">
+        <v>10</v>
+      </c>
+      <c r="BD155">
+        <v>1.67</v>
+      </c>
+      <c r="BE155">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF155">
+        <v>2.71</v>
+      </c>
+      <c r="BG155">
+        <v>1.36</v>
+      </c>
+      <c r="BH155">
+        <v>2.9</v>
+      </c>
+      <c r="BI155">
+        <v>1.62</v>
+      </c>
+      <c r="BJ155">
+        <v>2.16</v>
+      </c>
+      <c r="BK155">
+        <v>2</v>
+      </c>
+      <c r="BL155">
+        <v>1.71</v>
+      </c>
+      <c r="BM155">
+        <v>2.55</v>
+      </c>
+      <c r="BN155">
+        <v>1.45</v>
+      </c>
+      <c r="BO155">
+        <v>3.4</v>
+      </c>
+      <c r="BP155">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,15 @@
     <t>['45+1', '90+3']</t>
   </si>
   <si>
+    <t>['51']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -587,9 +596,6 @@
   </si>
   <si>
     <t>['44', '81']</t>
-  </si>
-  <si>
-    <t>['48']</t>
   </si>
   <si>
     <t>['86', '90+1']</t>
@@ -779,6 +785,15 @@
   </si>
   <si>
     <t>['11', '26']</t>
+  </si>
+  <si>
+    <t>['19', '44']</t>
+  </si>
+  <si>
+    <t>['82', '90+5']</t>
+  </si>
+  <si>
+    <t>['36', '39', '42', '76']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ2">
         <v>1</v>
@@ -1683,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ3">
         <v>0.83</v>
@@ -2017,7 +2032,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2223,7 +2238,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2429,7 +2444,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2635,7 +2650,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2841,7 +2856,7 @@
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>4.33</v>
@@ -3047,7 +3062,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3459,7 +3474,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3871,7 +3886,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -3952,7 +3967,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4158,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="AQ15">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4361,7 +4376,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
         <v>0.2</v>
@@ -4489,7 +4504,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4695,7 +4710,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4979,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ19">
         <v>1.2</v>
@@ -5107,7 +5122,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5313,7 +5328,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5803,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ23">
         <v>0.83</v>
@@ -5931,7 +5946,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6343,7 +6358,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6755,7 +6770,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6836,7 +6851,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ28">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>0</v>
@@ -6961,7 +6976,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7167,7 +7182,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7373,7 +7388,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7785,7 +7800,7 @@
         <v>98</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>3.5</v>
@@ -7866,7 +7881,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8484,7 +8499,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -9021,7 +9036,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9099,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ39">
         <v>1</v>
@@ -9433,7 +9448,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9639,7 +9654,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9926,7 +9941,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ43">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.78</v>
@@ -10129,7 +10144,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>0.67</v>
@@ -10669,7 +10684,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11081,7 +11096,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11287,7 +11302,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11905,7 +11920,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12111,7 +12126,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12729,7 +12744,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12807,7 +12822,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -12935,7 +12950,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13141,7 +13156,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13222,7 +13237,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ59">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR59">
         <v>1.29</v>
@@ -13347,7 +13362,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13965,7 +13980,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14043,7 +14058,7 @@
         <v>1.33</v>
       </c>
       <c r="AP63">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ63">
         <v>1.5</v>
@@ -14171,7 +14186,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14458,7 +14473,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ65">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -14995,7 +15010,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15282,7 +15297,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ69">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15407,7 +15422,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15613,7 +15628,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15694,7 +15709,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR71">
         <v>2.17</v>
@@ -16025,7 +16040,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16231,7 +16246,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16309,7 +16324,7 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16643,7 +16658,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16721,7 +16736,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ76">
         <v>1.83</v>
@@ -16849,7 +16864,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17055,7 +17070,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -18291,7 +18306,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18497,7 +18512,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18575,7 +18590,7 @@
         <v>0</v>
       </c>
       <c r="AP85">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ85">
         <v>0.83</v>
@@ -19115,7 +19130,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19321,7 +19336,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19608,7 +19623,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ90">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR90">
         <v>1.4</v>
@@ -19733,7 +19748,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20020,7 +20035,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ92">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR92">
         <v>2.48</v>
@@ -20351,7 +20366,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20557,7 +20572,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20635,7 +20650,7 @@
         <v>3</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ95">
         <v>2.4</v>
@@ -20841,7 +20856,7 @@
         <v>0.5</v>
       </c>
       <c r="AP96">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -20969,7 +20984,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21175,7 +21190,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21587,7 +21602,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21999,7 +22014,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22080,7 +22095,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ102">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR102">
         <v>1.31</v>
@@ -22283,7 +22298,7 @@
         <v>0.33</v>
       </c>
       <c r="AP103">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ103">
         <v>0.83</v>
@@ -22823,7 +22838,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23235,7 +23250,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23316,7 +23331,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ108">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR108">
         <v>1.65</v>
@@ -23441,7 +23456,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23647,7 +23662,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23728,7 +23743,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ110">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR110">
         <v>2.03</v>
@@ -23853,7 +23868,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23931,7 +23946,7 @@
         <v>2</v>
       </c>
       <c r="AP111">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ111">
         <v>2.5</v>
@@ -24059,7 +24074,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24140,7 +24155,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ112">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR112">
         <v>1.69</v>
@@ -24265,7 +24280,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24549,7 +24564,7 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ114">
         <v>0.5</v>
@@ -24677,7 +24692,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25501,7 +25516,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25913,7 +25928,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -27230,7 +27245,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ127">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR127">
         <v>1.95</v>
@@ -27355,7 +27370,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27436,7 +27451,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ128">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR128">
         <v>1.32</v>
@@ -28051,7 +28066,7 @@
         <v>3</v>
       </c>
       <c r="AP131">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AQ131">
         <v>1.8</v>
@@ -28179,7 +28194,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28385,7 +28400,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q133">
         <v>3.4</v>
@@ -28466,7 +28481,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ133">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR133">
         <v>1.06</v>
@@ -28591,7 +28606,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28797,7 +28812,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -28875,7 +28890,7 @@
         <v>2</v>
       </c>
       <c r="AP135">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ135">
         <v>1.5</v>
@@ -29003,7 +29018,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29209,7 +29224,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29287,7 +29302,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ137">
         <v>2.5</v>
@@ -29415,7 +29430,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29621,7 +29636,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29827,7 +29842,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -29908,7 +29923,7 @@
         <v>1</v>
       </c>
       <c r="AQ140">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR140">
         <v>1.2</v>
@@ -31063,7 +31078,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -32093,7 +32108,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32505,7 +32520,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32917,7 +32932,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33074,6 +33089,830 @@
       </c>
       <c r="BP155">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7345645</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45379.83333333334</v>
+      </c>
+      <c r="F156">
+        <v>12</v>
+      </c>
+      <c r="G156" t="s">
+        <v>86</v>
+      </c>
+      <c r="H156" t="s">
+        <v>74</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>3</v>
+      </c>
+      <c r="O156" t="s">
+        <v>187</v>
+      </c>
+      <c r="P156" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q156">
+        <v>2.75</v>
+      </c>
+      <c r="R156">
+        <v>1.95</v>
+      </c>
+      <c r="S156">
+        <v>4.75</v>
+      </c>
+      <c r="T156">
+        <v>1.53</v>
+      </c>
+      <c r="U156">
+        <v>2.35</v>
+      </c>
+      <c r="V156">
+        <v>3.55</v>
+      </c>
+      <c r="W156">
+        <v>1.25</v>
+      </c>
+      <c r="X156">
+        <v>10.5</v>
+      </c>
+      <c r="Y156">
+        <v>1.04</v>
+      </c>
+      <c r="Z156">
+        <v>2</v>
+      </c>
+      <c r="AA156">
+        <v>3.3</v>
+      </c>
+      <c r="AB156">
+        <v>3.8</v>
+      </c>
+      <c r="AC156">
+        <v>1.09</v>
+      </c>
+      <c r="AD156">
+        <v>7</v>
+      </c>
+      <c r="AE156">
+        <v>1.48</v>
+      </c>
+      <c r="AF156">
+        <v>2.65</v>
+      </c>
+      <c r="AG156">
+        <v>2.4</v>
+      </c>
+      <c r="AH156">
+        <v>1.53</v>
+      </c>
+      <c r="AI156">
+        <v>2.1</v>
+      </c>
+      <c r="AJ156">
+        <v>1.67</v>
+      </c>
+      <c r="AK156">
+        <v>1.25</v>
+      </c>
+      <c r="AL156">
+        <v>1.28</v>
+      </c>
+      <c r="AM156">
+        <v>1.77</v>
+      </c>
+      <c r="AN156">
+        <v>2.5</v>
+      </c>
+      <c r="AO156">
+        <v>1.6</v>
+      </c>
+      <c r="AP156">
+        <v>2</v>
+      </c>
+      <c r="AQ156">
+        <v>1.83</v>
+      </c>
+      <c r="AR156">
+        <v>1.28</v>
+      </c>
+      <c r="AS156">
+        <v>1.08</v>
+      </c>
+      <c r="AT156">
+        <v>2.36</v>
+      </c>
+      <c r="AU156">
+        <v>6</v>
+      </c>
+      <c r="AV156">
+        <v>5</v>
+      </c>
+      <c r="AW156">
+        <v>5</v>
+      </c>
+      <c r="AX156">
+        <v>7</v>
+      </c>
+      <c r="AY156">
+        <v>11</v>
+      </c>
+      <c r="AZ156">
+        <v>12</v>
+      </c>
+      <c r="BA156">
+        <v>5</v>
+      </c>
+      <c r="BB156">
+        <v>7</v>
+      </c>
+      <c r="BC156">
+        <v>12</v>
+      </c>
+      <c r="BD156">
+        <v>1.59</v>
+      </c>
+      <c r="BE156">
+        <v>8.5</v>
+      </c>
+      <c r="BF156">
+        <v>2.91</v>
+      </c>
+      <c r="BG156">
+        <v>1.29</v>
+      </c>
+      <c r="BH156">
+        <v>3.4</v>
+      </c>
+      <c r="BI156">
+        <v>1.51</v>
+      </c>
+      <c r="BJ156">
+        <v>2.37</v>
+      </c>
+      <c r="BK156">
+        <v>2.2</v>
+      </c>
+      <c r="BL156">
+        <v>1.8</v>
+      </c>
+      <c r="BM156">
+        <v>2.47</v>
+      </c>
+      <c r="BN156">
+        <v>1.48</v>
+      </c>
+      <c r="BO156">
+        <v>3</v>
+      </c>
+      <c r="BP156">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7345646</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45379.875</v>
+      </c>
+      <c r="F157">
+        <v>12</v>
+      </c>
+      <c r="G157" t="s">
+        <v>70</v>
+      </c>
+      <c r="H157" t="s">
+        <v>89</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>0</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+      <c r="M157">
+        <v>2</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>188</v>
+      </c>
+      <c r="P157" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q157">
+        <v>3.2</v>
+      </c>
+      <c r="R157">
+        <v>1.91</v>
+      </c>
+      <c r="S157">
+        <v>4</v>
+      </c>
+      <c r="T157">
+        <v>1.57</v>
+      </c>
+      <c r="U157">
+        <v>2.29</v>
+      </c>
+      <c r="V157">
+        <v>3.68</v>
+      </c>
+      <c r="W157">
+        <v>1.24</v>
+      </c>
+      <c r="X157">
+        <v>11</v>
+      </c>
+      <c r="Y157">
+        <v>1.04</v>
+      </c>
+      <c r="Z157">
+        <v>2.38</v>
+      </c>
+      <c r="AA157">
+        <v>3.25</v>
+      </c>
+      <c r="AB157">
+        <v>3.1</v>
+      </c>
+      <c r="AC157">
+        <v>1.09</v>
+      </c>
+      <c r="AD157">
+        <v>6.71</v>
+      </c>
+      <c r="AE157">
+        <v>1.51</v>
+      </c>
+      <c r="AF157">
+        <v>2.48</v>
+      </c>
+      <c r="AG157">
+        <v>2.6</v>
+      </c>
+      <c r="AH157">
+        <v>1.48</v>
+      </c>
+      <c r="AI157">
+        <v>2.2</v>
+      </c>
+      <c r="AJ157">
+        <v>1.62</v>
+      </c>
+      <c r="AK157">
+        <v>1.3</v>
+      </c>
+      <c r="AL157">
+        <v>1.32</v>
+      </c>
+      <c r="AM157">
+        <v>1.68</v>
+      </c>
+      <c r="AN157">
+        <v>1.33</v>
+      </c>
+      <c r="AO157">
+        <v>0.6</v>
+      </c>
+      <c r="AP157">
+        <v>1.14</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>1.55</v>
+      </c>
+      <c r="AS157">
+        <v>1.31</v>
+      </c>
+      <c r="AT157">
+        <v>2.86</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>5</v>
+      </c>
+      <c r="AW157">
+        <v>6</v>
+      </c>
+      <c r="AX157">
+        <v>3</v>
+      </c>
+      <c r="AY157">
+        <v>10</v>
+      </c>
+      <c r="AZ157">
+        <v>8</v>
+      </c>
+      <c r="BA157">
+        <v>5</v>
+      </c>
+      <c r="BB157">
+        <v>1</v>
+      </c>
+      <c r="BC157">
+        <v>6</v>
+      </c>
+      <c r="BD157">
+        <v>1.82</v>
+      </c>
+      <c r="BE157">
+        <v>7.9</v>
+      </c>
+      <c r="BF157">
+        <v>2.42</v>
+      </c>
+      <c r="BG157">
+        <v>1.36</v>
+      </c>
+      <c r="BH157">
+        <v>2.9</v>
+      </c>
+      <c r="BI157">
+        <v>1.67</v>
+      </c>
+      <c r="BJ157">
+        <v>2.07</v>
+      </c>
+      <c r="BK157">
+        <v>2.13</v>
+      </c>
+      <c r="BL157">
+        <v>1.63</v>
+      </c>
+      <c r="BM157">
+        <v>2.9</v>
+      </c>
+      <c r="BN157">
+        <v>1.36</v>
+      </c>
+      <c r="BO157">
+        <v>3.2</v>
+      </c>
+      <c r="BP157">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7345650</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45380.75</v>
+      </c>
+      <c r="F158">
+        <v>12</v>
+      </c>
+      <c r="G158" t="s">
+        <v>90</v>
+      </c>
+      <c r="H158" t="s">
+        <v>83</v>
+      </c>
+      <c r="I158">
+        <v>1</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>170</v>
+      </c>
+      <c r="P158" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q158">
+        <v>3.6</v>
+      </c>
+      <c r="R158">
+        <v>2</v>
+      </c>
+      <c r="S158">
+        <v>3.4</v>
+      </c>
+      <c r="T158">
+        <v>1.51</v>
+      </c>
+      <c r="U158">
+        <v>2.42</v>
+      </c>
+      <c r="V158">
+        <v>3.41</v>
+      </c>
+      <c r="W158">
+        <v>1.28</v>
+      </c>
+      <c r="X158">
+        <v>10</v>
+      </c>
+      <c r="Y158">
+        <v>1.05</v>
+      </c>
+      <c r="Z158">
+        <v>2.88</v>
+      </c>
+      <c r="AA158">
+        <v>3.1</v>
+      </c>
+      <c r="AB158">
+        <v>2.63</v>
+      </c>
+      <c r="AC158">
+        <v>1.08</v>
+      </c>
+      <c r="AD158">
+        <v>7.15</v>
+      </c>
+      <c r="AE158">
+        <v>1.45</v>
+      </c>
+      <c r="AF158">
+        <v>2.69</v>
+      </c>
+      <c r="AG158">
+        <v>2.35</v>
+      </c>
+      <c r="AH158">
+        <v>1.57</v>
+      </c>
+      <c r="AI158">
+        <v>1.91</v>
+      </c>
+      <c r="AJ158">
+        <v>1.8</v>
+      </c>
+      <c r="AK158">
+        <v>1.5</v>
+      </c>
+      <c r="AL158">
+        <v>1.33</v>
+      </c>
+      <c r="AM158">
+        <v>1.44</v>
+      </c>
+      <c r="AN158">
+        <v>1.6</v>
+      </c>
+      <c r="AO158">
+        <v>1.6</v>
+      </c>
+      <c r="AP158">
+        <v>1.83</v>
+      </c>
+      <c r="AQ158">
+        <v>1.33</v>
+      </c>
+      <c r="AR158">
+        <v>1.69</v>
+      </c>
+      <c r="AS158">
+        <v>1.24</v>
+      </c>
+      <c r="AT158">
+        <v>2.93</v>
+      </c>
+      <c r="AU158">
+        <v>4</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>7</v>
+      </c>
+      <c r="AX158">
+        <v>13</v>
+      </c>
+      <c r="AY158">
+        <v>11</v>
+      </c>
+      <c r="AZ158">
+        <v>18</v>
+      </c>
+      <c r="BA158">
+        <v>4</v>
+      </c>
+      <c r="BB158">
+        <v>9</v>
+      </c>
+      <c r="BC158">
+        <v>13</v>
+      </c>
+      <c r="BD158">
+        <v>1.95</v>
+      </c>
+      <c r="BE158">
+        <v>7.9</v>
+      </c>
+      <c r="BF158">
+        <v>2.18</v>
+      </c>
+      <c r="BG158">
+        <v>1.27</v>
+      </c>
+      <c r="BH158">
+        <v>3.55</v>
+      </c>
+      <c r="BI158">
+        <v>1.5</v>
+      </c>
+      <c r="BJ158">
+        <v>2.4</v>
+      </c>
+      <c r="BK158">
+        <v>2.38</v>
+      </c>
+      <c r="BL158">
+        <v>1.9</v>
+      </c>
+      <c r="BM158">
+        <v>2.4</v>
+      </c>
+      <c r="BN158">
+        <v>1.5</v>
+      </c>
+      <c r="BO158">
+        <v>3.2</v>
+      </c>
+      <c r="BP158">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7345647</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45380.75</v>
+      </c>
+      <c r="F159">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>71</v>
+      </c>
+      <c r="H159" t="s">
+        <v>91</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>3</v>
+      </c>
+      <c r="K159">
+        <v>4</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>4</v>
+      </c>
+      <c r="N159">
+        <v>5</v>
+      </c>
+      <c r="O159" t="s">
+        <v>189</v>
+      </c>
+      <c r="P159" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q159">
+        <v>3.6</v>
+      </c>
+      <c r="R159">
+        <v>1.91</v>
+      </c>
+      <c r="S159">
+        <v>3.6</v>
+      </c>
+      <c r="T159">
+        <v>1.57</v>
+      </c>
+      <c r="U159">
+        <v>2.27</v>
+      </c>
+      <c r="V159">
+        <v>3.68</v>
+      </c>
+      <c r="W159">
+        <v>1.24</v>
+      </c>
+      <c r="X159">
+        <v>11</v>
+      </c>
+      <c r="Y159">
+        <v>1.04</v>
+      </c>
+      <c r="Z159">
+        <v>2.8</v>
+      </c>
+      <c r="AA159">
+        <v>3.1</v>
+      </c>
+      <c r="AB159">
+        <v>2.8</v>
+      </c>
+      <c r="AC159">
+        <v>1.11</v>
+      </c>
+      <c r="AD159">
+        <v>6.28</v>
+      </c>
+      <c r="AE159">
+        <v>1.51</v>
+      </c>
+      <c r="AF159">
+        <v>2.48</v>
+      </c>
+      <c r="AG159">
+        <v>2.5</v>
+      </c>
+      <c r="AH159">
+        <v>1.5</v>
+      </c>
+      <c r="AI159">
+        <v>2.1</v>
+      </c>
+      <c r="AJ159">
+        <v>1.67</v>
+      </c>
+      <c r="AK159">
+        <v>1.52</v>
+      </c>
+      <c r="AL159">
+        <v>1.35</v>
+      </c>
+      <c r="AM159">
+        <v>1.4</v>
+      </c>
+      <c r="AN159">
+        <v>0.8</v>
+      </c>
+      <c r="AO159">
+        <v>0.4</v>
+      </c>
+      <c r="AP159">
+        <v>0.67</v>
+      </c>
+      <c r="AQ159">
+        <v>0.83</v>
+      </c>
+      <c r="AR159">
+        <v>1.64</v>
+      </c>
+      <c r="AS159">
+        <v>1.16</v>
+      </c>
+      <c r="AT159">
+        <v>2.8</v>
+      </c>
+      <c r="AU159">
+        <v>3</v>
+      </c>
+      <c r="AV159">
+        <v>6</v>
+      </c>
+      <c r="AW159">
+        <v>4</v>
+      </c>
+      <c r="AX159">
+        <v>5</v>
+      </c>
+      <c r="AY159">
+        <v>7</v>
+      </c>
+      <c r="AZ159">
+        <v>11</v>
+      </c>
+      <c r="BA159">
+        <v>5</v>
+      </c>
+      <c r="BB159">
+        <v>4</v>
+      </c>
+      <c r="BC159">
+        <v>9</v>
+      </c>
+      <c r="BD159">
+        <v>2.05</v>
+      </c>
+      <c r="BE159">
+        <v>7.4</v>
+      </c>
+      <c r="BF159">
+        <v>2.1</v>
+      </c>
+      <c r="BG159">
+        <v>1.39</v>
+      </c>
+      <c r="BH159">
+        <v>2.77</v>
+      </c>
+      <c r="BI159">
+        <v>1.73</v>
+      </c>
+      <c r="BJ159">
+        <v>1.99</v>
+      </c>
+      <c r="BK159">
+        <v>2.23</v>
+      </c>
+      <c r="BL159">
+        <v>1.58</v>
+      </c>
+      <c r="BM159">
+        <v>3.05</v>
+      </c>
+      <c r="BN159">
+        <v>1.33</v>
+      </c>
+      <c r="BO159">
+        <v>4.1</v>
+      </c>
+      <c r="BP159">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1155,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4582,7 +4582,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -6439,7 +6439,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ26">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -10350,7 +10350,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.83</v>
@@ -12207,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.2</v>
@@ -14885,7 +14885,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ67">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR67">
         <v>1.68</v>
@@ -19002,7 +19002,7 @@
         <v>0.5</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ87">
         <v>0.8</v>
@@ -21886,7 +21886,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ101">
         <v>0.57</v>
@@ -23537,7 +23537,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR109">
         <v>2.06</v>
@@ -27657,7 +27657,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ129">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28478,7 +28478,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -33643,22 +33643,22 @@
         <v>2.93</v>
       </c>
       <c r="AU158">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV158">
         <v>5</v>
       </c>
       <c r="AW158">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX158">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AY158">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ158">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BA158">
         <v>4</v>
@@ -33849,13 +33849,13 @@
         <v>2.8</v>
       </c>
       <c r="AU159">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV159">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW159">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX159">
         <v>5</v>
@@ -33864,7 +33864,7 @@
         <v>7</v>
       </c>
       <c r="AZ159">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA159">
         <v>5</v>
@@ -33913,6 +33913,212 @@
       </c>
       <c r="BP159">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7345644</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45380.85416666666</v>
+      </c>
+      <c r="F160">
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>84</v>
+      </c>
+      <c r="H160" t="s">
+        <v>82</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>0</v>
+      </c>
+      <c r="K160">
+        <v>0</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>1</v>
+      </c>
+      <c r="O160" t="s">
+        <v>99</v>
+      </c>
+      <c r="P160" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q160">
+        <v>4.5</v>
+      </c>
+      <c r="R160">
+        <v>2.05</v>
+      </c>
+      <c r="S160">
+        <v>2.75</v>
+      </c>
+      <c r="T160">
+        <v>1.52</v>
+      </c>
+      <c r="U160">
+        <v>2.39</v>
+      </c>
+      <c r="V160">
+        <v>3.52</v>
+      </c>
+      <c r="W160">
+        <v>1.26</v>
+      </c>
+      <c r="X160">
+        <v>10</v>
+      </c>
+      <c r="Y160">
+        <v>1.05</v>
+      </c>
+      <c r="Z160">
+        <v>4</v>
+      </c>
+      <c r="AA160">
+        <v>3.25</v>
+      </c>
+      <c r="AB160">
+        <v>2</v>
+      </c>
+      <c r="AC160">
+        <v>1.08</v>
+      </c>
+      <c r="AD160">
+        <v>7.15</v>
+      </c>
+      <c r="AE160">
+        <v>1.46</v>
+      </c>
+      <c r="AF160">
+        <v>2.65</v>
+      </c>
+      <c r="AG160">
+        <v>2.15</v>
+      </c>
+      <c r="AH160">
+        <v>1.67</v>
+      </c>
+      <c r="AI160">
+        <v>1.91</v>
+      </c>
+      <c r="AJ160">
+        <v>1.8</v>
+      </c>
+      <c r="AK160">
+        <v>1.83</v>
+      </c>
+      <c r="AL160">
+        <v>1.3</v>
+      </c>
+      <c r="AM160">
+        <v>1.25</v>
+      </c>
+      <c r="AN160">
+        <v>1.2</v>
+      </c>
+      <c r="AO160">
+        <v>1.8</v>
+      </c>
+      <c r="AP160">
+        <v>1.5</v>
+      </c>
+      <c r="AQ160">
+        <v>1.5</v>
+      </c>
+      <c r="AR160">
+        <v>1.18</v>
+      </c>
+      <c r="AS160">
+        <v>1.52</v>
+      </c>
+      <c r="AT160">
+        <v>2.7</v>
+      </c>
+      <c r="AU160">
+        <v>4</v>
+      </c>
+      <c r="AV160">
+        <v>5</v>
+      </c>
+      <c r="AW160">
+        <v>9</v>
+      </c>
+      <c r="AX160">
+        <v>9</v>
+      </c>
+      <c r="AY160">
+        <v>13</v>
+      </c>
+      <c r="AZ160">
+        <v>14</v>
+      </c>
+      <c r="BA160">
+        <v>0</v>
+      </c>
+      <c r="BB160">
+        <v>5</v>
+      </c>
+      <c r="BC160">
+        <v>5</v>
+      </c>
+      <c r="BD160">
+        <v>2.32</v>
+      </c>
+      <c r="BE160">
+        <v>7.7</v>
+      </c>
+      <c r="BF160">
+        <v>1.89</v>
+      </c>
+      <c r="BG160">
+        <v>1.27</v>
+      </c>
+      <c r="BH160">
+        <v>3.55</v>
+      </c>
+      <c r="BI160">
+        <v>1.53</v>
+      </c>
+      <c r="BJ160">
+        <v>2.33</v>
+      </c>
+      <c r="BK160">
+        <v>2</v>
+      </c>
+      <c r="BL160">
+        <v>1.8</v>
+      </c>
+      <c r="BM160">
+        <v>2.5</v>
+      </c>
+      <c r="BN160">
+        <v>1.47</v>
+      </c>
+      <c r="BO160">
+        <v>2.95</v>
+      </c>
+      <c r="BP160">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,15 @@
     <t>['40']</t>
   </si>
   <si>
+    <t>['42', '84']</t>
+  </si>
+  <si>
+    <t>['13']</t>
+  </si>
+  <si>
+    <t>['39', '73']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -599,9 +608,6 @@
   </si>
   <si>
     <t>['86', '90+1']</t>
-  </si>
-  <si>
-    <t>['13']</t>
   </si>
   <si>
     <t>['84']</t>
@@ -794,6 +800,9 @@
   </si>
   <si>
     <t>['36', '39', '42', '76']</t>
+  </si>
+  <si>
+    <t>['24', '53', '90+4']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP160"/>
+  <dimension ref="A1:BP165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1504,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2032,7 +2041,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2110,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2238,7 +2247,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2319,7 +2328,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ6">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2444,7 +2453,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2522,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2650,7 +2659,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3062,7 +3071,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3474,7 +3483,7 @@
         <v>98</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.5</v>
@@ -3886,7 +3895,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4504,7 +4513,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4710,7 +4719,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4788,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
         <v>0.67</v>
@@ -5122,7 +5131,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5203,7 +5212,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5328,7 +5337,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5615,7 +5624,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5946,7 +5955,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6027,7 +6036,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6358,7 +6367,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6642,7 +6651,7 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -6770,7 +6779,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6976,7 +6985,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7054,7 +7063,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ29">
         <v>2.4</v>
@@ -7182,7 +7191,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7388,7 +7397,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7466,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ31">
         <v>0.57</v>
@@ -8087,7 +8096,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.54</v>
@@ -9036,7 +9045,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9323,7 +9332,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR40">
         <v>2.22</v>
@@ -9448,7 +9457,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9654,7 +9663,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9732,7 +9741,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ42">
         <v>1.5</v>
@@ -10684,7 +10693,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10765,7 +10774,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR47">
         <v>1.55</v>
@@ -11096,7 +11105,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11177,7 +11186,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ49">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11302,7 +11311,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11586,7 +11595,7 @@
         <v>1.5</v>
       </c>
       <c r="AP51">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ51">
         <v>1.5</v>
@@ -11792,7 +11801,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ52">
         <v>0.83</v>
@@ -11920,7 +11929,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12126,7 +12135,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12744,7 +12753,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12950,7 +12959,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13031,7 +13040,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR58">
         <v>1.08</v>
@@ -13156,7 +13165,7 @@
         <v>128</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q59">
         <v>4.33</v>
@@ -13362,7 +13371,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13440,7 +13449,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
         <v>0.5</v>
@@ -13980,7 +13989,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14186,7 +14195,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14264,7 +14273,7 @@
         <v>1.5</v>
       </c>
       <c r="AP64">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ64">
         <v>2.5</v>
@@ -14676,7 +14685,7 @@
         <v>0</v>
       </c>
       <c r="AP66">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -15010,7 +15019,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15091,7 +15100,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15422,7 +15431,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15628,7 +15637,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15706,7 +15715,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -16040,7 +16049,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16246,7 +16255,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16658,7 +16667,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16864,7 +16873,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17070,7 +17079,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17563,7 +17572,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR80">
         <v>1.9</v>
@@ -18306,7 +18315,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18512,7 +18521,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18799,7 +18808,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ86">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR86">
         <v>1.78</v>
@@ -19005,7 +19014,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ87">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.09</v>
@@ -19130,7 +19139,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19336,7 +19345,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19620,7 +19629,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ90">
         <v>1.83</v>
@@ -19748,7 +19757,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20032,7 +20041,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20366,7 +20375,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20572,7 +20581,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20859,7 +20868,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR96">
         <v>1.56</v>
@@ -20984,7 +20993,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21190,7 +21199,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21474,7 +21483,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ99">
         <v>0.2</v>
@@ -21602,7 +21611,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21680,7 +21689,7 @@
         <v>3</v>
       </c>
       <c r="AP100">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ100">
         <v>1.8</v>
@@ -22014,7 +22023,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22507,7 +22516,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ104">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR104">
         <v>1.49</v>
@@ -22713,7 +22722,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ105">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR105">
         <v>1.26</v>
@@ -22838,7 +22847,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -22916,7 +22925,7 @@
         <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ106">
         <v>1.5</v>
@@ -23125,7 +23134,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ107">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23250,7 +23259,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23456,7 +23465,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23534,7 +23543,7 @@
         <v>2.33</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ109">
         <v>1.5</v>
@@ -23662,7 +23671,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23868,7 +23877,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24074,7 +24083,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24152,7 +24161,7 @@
         <v>0.33</v>
       </c>
       <c r="AP112">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ112">
         <v>0.83</v>
@@ -24280,7 +24289,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24361,7 +24370,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ113">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR113">
         <v>1.66</v>
@@ -24692,7 +24701,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25516,7 +25525,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25928,7 +25937,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -27242,7 +27251,7 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ127">
         <v>1.83</v>
@@ -27370,7 +27379,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27448,7 +27457,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ128">
         <v>1.33</v>
@@ -27863,7 +27872,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ130">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR130">
         <v>1.26</v>
@@ -28194,7 +28203,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28275,7 +28284,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR132">
         <v>2.04</v>
@@ -28400,7 +28409,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q133">
         <v>3.4</v>
@@ -28606,7 +28615,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28684,7 +28693,7 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ134">
         <v>0.2</v>
@@ -28812,7 +28821,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29018,7 +29027,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29096,10 +29105,10 @@
         <v>2</v>
       </c>
       <c r="AP136">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ136">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR136">
         <v>1.72</v>
@@ -29224,7 +29233,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29430,7 +29439,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29511,7 +29520,7 @@
         <v>0.6</v>
       </c>
       <c r="AQ138">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR138">
         <v>1.38</v>
@@ -29636,7 +29645,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29717,7 +29726,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ139">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
         <v>1.56</v>
@@ -29842,7 +29851,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -29920,7 +29929,7 @@
         <v>0.25</v>
       </c>
       <c r="AP140">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ140">
         <v>0.83</v>
@@ -31078,7 +31087,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -32108,7 +32117,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32520,7 +32529,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32932,7 +32941,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33138,7 +33147,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33344,7 +33353,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33756,7 +33765,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34119,6 +34128,1036 @@
       </c>
       <c r="BP160">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7345651</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45381.70833333334</v>
+      </c>
+      <c r="F161">
+        <v>12</v>
+      </c>
+      <c r="G161" t="s">
+        <v>92</v>
+      </c>
+      <c r="H161" t="s">
+        <v>78</v>
+      </c>
+      <c r="I161">
+        <v>1</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>2</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>3</v>
+      </c>
+      <c r="O161" t="s">
+        <v>190</v>
+      </c>
+      <c r="P161" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q161">
+        <v>2.75</v>
+      </c>
+      <c r="R161">
+        <v>1.83</v>
+      </c>
+      <c r="S161">
+        <v>5.5</v>
+      </c>
+      <c r="T161">
+        <v>1.62</v>
+      </c>
+      <c r="U161">
+        <v>2.19</v>
+      </c>
+      <c r="V161">
+        <v>4.1</v>
+      </c>
+      <c r="W161">
+        <v>1.2</v>
+      </c>
+      <c r="X161">
+        <v>13</v>
+      </c>
+      <c r="Y161">
+        <v>1.02</v>
+      </c>
+      <c r="Z161">
+        <v>2</v>
+      </c>
+      <c r="AA161">
+        <v>3.1</v>
+      </c>
+      <c r="AB161">
+        <v>4.33</v>
+      </c>
+      <c r="AC161">
+        <v>1.12</v>
+      </c>
+      <c r="AD161">
+        <v>5.87</v>
+      </c>
+      <c r="AE161">
+        <v>1.62</v>
+      </c>
+      <c r="AF161">
+        <v>2.25</v>
+      </c>
+      <c r="AG161">
+        <v>3.1</v>
+      </c>
+      <c r="AH161">
+        <v>1.36</v>
+      </c>
+      <c r="AI161">
+        <v>2.5</v>
+      </c>
+      <c r="AJ161">
+        <v>1.5</v>
+      </c>
+      <c r="AK161">
+        <v>1.22</v>
+      </c>
+      <c r="AL161">
+        <v>1.32</v>
+      </c>
+      <c r="AM161">
+        <v>1.83</v>
+      </c>
+      <c r="AN161">
+        <v>2.2</v>
+      </c>
+      <c r="AO161">
+        <v>0.8</v>
+      </c>
+      <c r="AP161">
+        <v>2.33</v>
+      </c>
+      <c r="AQ161">
+        <v>0.67</v>
+      </c>
+      <c r="AR161">
+        <v>1.7</v>
+      </c>
+      <c r="AS161">
+        <v>1.21</v>
+      </c>
+      <c r="AT161">
+        <v>2.91</v>
+      </c>
+      <c r="AU161">
+        <v>10</v>
+      </c>
+      <c r="AV161">
+        <v>3</v>
+      </c>
+      <c r="AW161">
+        <v>3</v>
+      </c>
+      <c r="AX161">
+        <v>3</v>
+      </c>
+      <c r="AY161">
+        <v>13</v>
+      </c>
+      <c r="AZ161">
+        <v>6</v>
+      </c>
+      <c r="BA161">
+        <v>10</v>
+      </c>
+      <c r="BB161">
+        <v>3</v>
+      </c>
+      <c r="BC161">
+        <v>13</v>
+      </c>
+      <c r="BD161">
+        <v>1.57</v>
+      </c>
+      <c r="BE161">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF161">
+        <v>3</v>
+      </c>
+      <c r="BG161">
+        <v>1.45</v>
+      </c>
+      <c r="BH161">
+        <v>2.48</v>
+      </c>
+      <c r="BI161">
+        <v>1.88</v>
+      </c>
+      <c r="BJ161">
+        <v>1.92</v>
+      </c>
+      <c r="BK161">
+        <v>2.38</v>
+      </c>
+      <c r="BL161">
+        <v>1.49</v>
+      </c>
+      <c r="BM161">
+        <v>3.3</v>
+      </c>
+      <c r="BN161">
+        <v>1.29</v>
+      </c>
+      <c r="BO161">
+        <v>4</v>
+      </c>
+      <c r="BP161">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7345649</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45381.79166666666</v>
+      </c>
+      <c r="F162">
+        <v>12</v>
+      </c>
+      <c r="G162" t="s">
+        <v>73</v>
+      </c>
+      <c r="H162" t="s">
+        <v>80</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>3</v>
+      </c>
+      <c r="N162">
+        <v>4</v>
+      </c>
+      <c r="O162" t="s">
+        <v>148</v>
+      </c>
+      <c r="P162" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q162">
+        <v>5</v>
+      </c>
+      <c r="R162">
+        <v>2.1</v>
+      </c>
+      <c r="S162">
+        <v>2.5</v>
+      </c>
+      <c r="T162">
+        <v>1.5</v>
+      </c>
+      <c r="U162">
+        <v>2.44</v>
+      </c>
+      <c r="V162">
+        <v>3.35</v>
+      </c>
+      <c r="W162">
+        <v>1.29</v>
+      </c>
+      <c r="X162">
+        <v>9.5</v>
+      </c>
+      <c r="Y162">
+        <v>1.05</v>
+      </c>
+      <c r="Z162">
+        <v>5</v>
+      </c>
+      <c r="AA162">
+        <v>3.4</v>
+      </c>
+      <c r="AB162">
+        <v>1.8</v>
+      </c>
+      <c r="AC162">
+        <v>1.07</v>
+      </c>
+      <c r="AD162">
+        <v>7.61</v>
+      </c>
+      <c r="AE162">
+        <v>1.43</v>
+      </c>
+      <c r="AF162">
+        <v>2.75</v>
+      </c>
+      <c r="AG162">
+        <v>2.1</v>
+      </c>
+      <c r="AH162">
+        <v>1.7</v>
+      </c>
+      <c r="AI162">
+        <v>1.91</v>
+      </c>
+      <c r="AJ162">
+        <v>1.8</v>
+      </c>
+      <c r="AK162">
+        <v>1.92</v>
+      </c>
+      <c r="AL162">
+        <v>1.28</v>
+      </c>
+      <c r="AM162">
+        <v>1.22</v>
+      </c>
+      <c r="AN162">
+        <v>1</v>
+      </c>
+      <c r="AO162">
+        <v>1.6</v>
+      </c>
+      <c r="AP162">
+        <v>0.83</v>
+      </c>
+      <c r="AQ162">
+        <v>1.83</v>
+      </c>
+      <c r="AR162">
+        <v>1.29</v>
+      </c>
+      <c r="AS162">
+        <v>1.36</v>
+      </c>
+      <c r="AT162">
+        <v>2.65</v>
+      </c>
+      <c r="AU162">
+        <v>3</v>
+      </c>
+      <c r="AV162">
+        <v>6</v>
+      </c>
+      <c r="AW162">
+        <v>9</v>
+      </c>
+      <c r="AX162">
+        <v>7</v>
+      </c>
+      <c r="AY162">
+        <v>12</v>
+      </c>
+      <c r="AZ162">
+        <v>13</v>
+      </c>
+      <c r="BA162">
+        <v>7</v>
+      </c>
+      <c r="BB162">
+        <v>2</v>
+      </c>
+      <c r="BC162">
+        <v>9</v>
+      </c>
+      <c r="BD162">
+        <v>3</v>
+      </c>
+      <c r="BE162">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF162">
+        <v>1.57</v>
+      </c>
+      <c r="BG162">
+        <v>1.35</v>
+      </c>
+      <c r="BH162">
+        <v>2.84</v>
+      </c>
+      <c r="BI162">
+        <v>1.66</v>
+      </c>
+      <c r="BJ162">
+        <v>2.09</v>
+      </c>
+      <c r="BK162">
+        <v>2.1</v>
+      </c>
+      <c r="BL162">
+        <v>1.62</v>
+      </c>
+      <c r="BM162">
+        <v>2.95</v>
+      </c>
+      <c r="BN162">
+        <v>1.35</v>
+      </c>
+      <c r="BO162">
+        <v>3.6</v>
+      </c>
+      <c r="BP162">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7345640</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45381.875</v>
+      </c>
+      <c r="F163">
+        <v>12</v>
+      </c>
+      <c r="G163" t="s">
+        <v>75</v>
+      </c>
+      <c r="H163" t="s">
+        <v>88</v>
+      </c>
+      <c r="I163">
+        <v>1</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>191</v>
+      </c>
+      <c r="P163" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q163">
+        <v>2.6</v>
+      </c>
+      <c r="R163">
+        <v>2.1</v>
+      </c>
+      <c r="S163">
+        <v>4.75</v>
+      </c>
+      <c r="T163">
+        <v>1.44</v>
+      </c>
+      <c r="U163">
+        <v>2.63</v>
+      </c>
+      <c r="V163">
+        <v>3.4</v>
+      </c>
+      <c r="W163">
+        <v>1.3</v>
+      </c>
+      <c r="X163">
+        <v>10</v>
+      </c>
+      <c r="Y163">
+        <v>1.06</v>
+      </c>
+      <c r="Z163">
+        <v>1.91</v>
+      </c>
+      <c r="AA163">
+        <v>3.4</v>
+      </c>
+      <c r="AB163">
+        <v>4.33</v>
+      </c>
+      <c r="AC163">
+        <v>1.04</v>
+      </c>
+      <c r="AD163">
+        <v>9.550000000000001</v>
+      </c>
+      <c r="AE163">
+        <v>1.35</v>
+      </c>
+      <c r="AF163">
+        <v>2.9</v>
+      </c>
+      <c r="AG163">
+        <v>2.1</v>
+      </c>
+      <c r="AH163">
+        <v>1.7</v>
+      </c>
+      <c r="AI163">
+        <v>1.91</v>
+      </c>
+      <c r="AJ163">
+        <v>1.8</v>
+      </c>
+      <c r="AK163">
+        <v>1.27</v>
+      </c>
+      <c r="AL163">
+        <v>1.32</v>
+      </c>
+      <c r="AM163">
+        <v>1.72</v>
+      </c>
+      <c r="AN163">
+        <v>2</v>
+      </c>
+      <c r="AO163">
+        <v>1.6</v>
+      </c>
+      <c r="AP163">
+        <v>2.17</v>
+      </c>
+      <c r="AQ163">
+        <v>1.33</v>
+      </c>
+      <c r="AR163">
+        <v>2.03</v>
+      </c>
+      <c r="AS163">
+        <v>1.22</v>
+      </c>
+      <c r="AT163">
+        <v>3.25</v>
+      </c>
+      <c r="AU163">
+        <v>9</v>
+      </c>
+      <c r="AV163">
+        <v>4</v>
+      </c>
+      <c r="AW163">
+        <v>5</v>
+      </c>
+      <c r="AX163">
+        <v>6</v>
+      </c>
+      <c r="AY163">
+        <v>14</v>
+      </c>
+      <c r="AZ163">
+        <v>10</v>
+      </c>
+      <c r="BA163">
+        <v>6</v>
+      </c>
+      <c r="BB163">
+        <v>6</v>
+      </c>
+      <c r="BC163">
+        <v>12</v>
+      </c>
+      <c r="BD163">
+        <v>0</v>
+      </c>
+      <c r="BE163">
+        <v>0</v>
+      </c>
+      <c r="BF163">
+        <v>0</v>
+      </c>
+      <c r="BG163">
+        <v>1.3</v>
+      </c>
+      <c r="BH163">
+        <v>3.52</v>
+      </c>
+      <c r="BI163">
+        <v>1.53</v>
+      </c>
+      <c r="BJ163">
+        <v>2.5</v>
+      </c>
+      <c r="BK163">
+        <v>2.01</v>
+      </c>
+      <c r="BL163">
+        <v>1.81</v>
+      </c>
+      <c r="BM163">
+        <v>2.39</v>
+      </c>
+      <c r="BN163">
+        <v>1.58</v>
+      </c>
+      <c r="BO163">
+        <v>3.29</v>
+      </c>
+      <c r="BP163">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7345652</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45382.66666666666</v>
+      </c>
+      <c r="F164">
+        <v>12</v>
+      </c>
+      <c r="G164" t="s">
+        <v>97</v>
+      </c>
+      <c r="H164" t="s">
+        <v>96</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>0</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>1</v>
+      </c>
+      <c r="O164" t="s">
+        <v>98</v>
+      </c>
+      <c r="P164" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q164">
+        <v>4.33</v>
+      </c>
+      <c r="R164">
+        <v>1.83</v>
+      </c>
+      <c r="S164">
+        <v>3.25</v>
+      </c>
+      <c r="T164">
+        <v>1.67</v>
+      </c>
+      <c r="U164">
+        <v>2.1</v>
+      </c>
+      <c r="V164">
+        <v>4</v>
+      </c>
+      <c r="W164">
+        <v>1.22</v>
+      </c>
+      <c r="X164">
+        <v>15</v>
+      </c>
+      <c r="Y164">
+        <v>1.03</v>
+      </c>
+      <c r="Z164">
+        <v>3.25</v>
+      </c>
+      <c r="AA164">
+        <v>3.1</v>
+      </c>
+      <c r="AB164">
+        <v>2.38</v>
+      </c>
+      <c r="AC164">
+        <v>1.12</v>
+      </c>
+      <c r="AD164">
+        <v>5.78</v>
+      </c>
+      <c r="AE164">
+        <v>1.62</v>
+      </c>
+      <c r="AF164">
+        <v>2.25</v>
+      </c>
+      <c r="AG164">
+        <v>3.1</v>
+      </c>
+      <c r="AH164">
+        <v>1.36</v>
+      </c>
+      <c r="AI164">
+        <v>2.38</v>
+      </c>
+      <c r="AJ164">
+        <v>1.53</v>
+      </c>
+      <c r="AK164">
+        <v>1.58</v>
+      </c>
+      <c r="AL164">
+        <v>1.36</v>
+      </c>
+      <c r="AM164">
+        <v>1.33</v>
+      </c>
+      <c r="AN164">
+        <v>0.8</v>
+      </c>
+      <c r="AO164">
+        <v>2</v>
+      </c>
+      <c r="AP164">
+        <v>0.67</v>
+      </c>
+      <c r="AQ164">
+        <v>2.17</v>
+      </c>
+      <c r="AR164">
+        <v>1.35</v>
+      </c>
+      <c r="AS164">
+        <v>1.2</v>
+      </c>
+      <c r="AT164">
+        <v>2.55</v>
+      </c>
+      <c r="AU164">
+        <v>6</v>
+      </c>
+      <c r="AV164">
+        <v>4</v>
+      </c>
+      <c r="AW164">
+        <v>8</v>
+      </c>
+      <c r="AX164">
+        <v>4</v>
+      </c>
+      <c r="AY164">
+        <v>14</v>
+      </c>
+      <c r="AZ164">
+        <v>8</v>
+      </c>
+      <c r="BA164">
+        <v>2</v>
+      </c>
+      <c r="BB164">
+        <v>4</v>
+      </c>
+      <c r="BC164">
+        <v>6</v>
+      </c>
+      <c r="BD164">
+        <v>2.27</v>
+      </c>
+      <c r="BE164">
+        <v>7.6</v>
+      </c>
+      <c r="BF164">
+        <v>1.9</v>
+      </c>
+      <c r="BG164">
+        <v>1.38</v>
+      </c>
+      <c r="BH164">
+        <v>2.8</v>
+      </c>
+      <c r="BI164">
+        <v>1.6</v>
+      </c>
+      <c r="BJ164">
+        <v>2.14</v>
+      </c>
+      <c r="BK164">
+        <v>2.06</v>
+      </c>
+      <c r="BL164">
+        <v>1.68</v>
+      </c>
+      <c r="BM164">
+        <v>2.71</v>
+      </c>
+      <c r="BN164">
+        <v>1.38</v>
+      </c>
+      <c r="BO164">
+        <v>3.4</v>
+      </c>
+      <c r="BP164">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7345643</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45382.66666666666</v>
+      </c>
+      <c r="F165">
+        <v>12</v>
+      </c>
+      <c r="G165" t="s">
+        <v>85</v>
+      </c>
+      <c r="H165" t="s">
+        <v>95</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>192</v>
+      </c>
+      <c r="P165" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q165">
+        <v>2.5</v>
+      </c>
+      <c r="R165">
+        <v>2</v>
+      </c>
+      <c r="S165">
+        <v>5.5</v>
+      </c>
+      <c r="T165">
+        <v>1.53</v>
+      </c>
+      <c r="U165">
+        <v>2.38</v>
+      </c>
+      <c r="V165">
+        <v>3.5</v>
+      </c>
+      <c r="W165">
+        <v>1.29</v>
+      </c>
+      <c r="X165">
+        <v>11</v>
+      </c>
+      <c r="Y165">
+        <v>1.05</v>
+      </c>
+      <c r="Z165">
+        <v>1.8</v>
+      </c>
+      <c r="AA165">
+        <v>3.4</v>
+      </c>
+      <c r="AB165">
+        <v>5</v>
+      </c>
+      <c r="AC165">
+        <v>1.07</v>
+      </c>
+      <c r="AD165">
+        <v>7.61</v>
+      </c>
+      <c r="AE165">
+        <v>1.45</v>
+      </c>
+      <c r="AF165">
+        <v>2.66</v>
+      </c>
+      <c r="AG165">
+        <v>2.4</v>
+      </c>
+      <c r="AH165">
+        <v>1.53</v>
+      </c>
+      <c r="AI165">
+        <v>2.2</v>
+      </c>
+      <c r="AJ165">
+        <v>1.62</v>
+      </c>
+      <c r="AK165">
+        <v>1.2</v>
+      </c>
+      <c r="AL165">
+        <v>1.28</v>
+      </c>
+      <c r="AM165">
+        <v>1.96</v>
+      </c>
+      <c r="AN165">
+        <v>1.4</v>
+      </c>
+      <c r="AO165">
+        <v>1</v>
+      </c>
+      <c r="AP165">
+        <v>1.67</v>
+      </c>
+      <c r="AQ165">
+        <v>0.83</v>
+      </c>
+      <c r="AR165">
+        <v>1.98</v>
+      </c>
+      <c r="AS165">
+        <v>1.06</v>
+      </c>
+      <c r="AT165">
+        <v>3.04</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>2</v>
+      </c>
+      <c r="AW165">
+        <v>5</v>
+      </c>
+      <c r="AX165">
+        <v>5</v>
+      </c>
+      <c r="AY165">
+        <v>12</v>
+      </c>
+      <c r="AZ165">
+        <v>7</v>
+      </c>
+      <c r="BA165">
+        <v>6</v>
+      </c>
+      <c r="BB165">
+        <v>4</v>
+      </c>
+      <c r="BC165">
+        <v>10</v>
+      </c>
+      <c r="BD165">
+        <v>1.47</v>
+      </c>
+      <c r="BE165">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF165">
+        <v>3.45</v>
+      </c>
+      <c r="BG165">
+        <v>1.29</v>
+      </c>
+      <c r="BH165">
+        <v>3.3</v>
+      </c>
+      <c r="BI165">
+        <v>1.55</v>
+      </c>
+      <c r="BJ165">
+        <v>2.3</v>
+      </c>
+      <c r="BK165">
+        <v>1.99</v>
+      </c>
+      <c r="BL165">
+        <v>1.73</v>
+      </c>
+      <c r="BM165">
+        <v>2.6</v>
+      </c>
+      <c r="BN165">
+        <v>1.44</v>
+      </c>
+      <c r="BO165">
+        <v>3.3</v>
+      </c>
+      <c r="BP165">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,12 @@
     <t>['39', '73']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -802,7 +808,13 @@
     <t>['36', '39', '42', '76']</t>
   </si>
   <si>
-    <t>['24', '53', '90+4']</t>
+    <t>['24', '53', '90+5']</t>
+  </si>
+  <si>
+    <t>['36', '40']</t>
+  </si>
+  <si>
+    <t>['3', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP165"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2041,7 +2053,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2247,7 +2259,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2453,7 +2465,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2659,7 +2671,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2943,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9">
         <v>1.83</v>
@@ -3071,7 +3083,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3355,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3895,7 +3907,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4388,7 +4400,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>1.36</v>
@@ -4513,7 +4525,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4719,7 +4731,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5006,7 +5018,7 @@
         <v>2</v>
       </c>
       <c r="AQ19">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5131,7 +5143,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5337,7 +5349,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5955,7 +5967,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6367,7 +6379,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6779,7 +6791,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6985,7 +6997,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7066,7 +7078,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ29">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR29">
         <v>0.9</v>
@@ -7191,7 +7203,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7269,7 +7281,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>1</v>
@@ -7397,7 +7409,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7681,7 +7693,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -8299,7 +8311,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -9045,7 +9057,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9457,7 +9469,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9663,7 +9675,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10693,7 +10705,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11105,7 +11117,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11311,7 +11323,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11392,7 +11404,7 @@
         <v>3</v>
       </c>
       <c r="AQ50">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11929,7 +11941,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12010,7 +12022,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR53">
         <v>1.08</v>
@@ -12135,7 +12147,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12628,7 +12640,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ56">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR56">
         <v>1.77</v>
@@ -12753,7 +12765,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12959,7 +12971,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13371,7 +13383,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13655,7 +13667,7 @@
         <v>0.5</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>0.57</v>
@@ -13989,7 +14001,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14195,7 +14207,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -15019,7 +15031,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15303,7 +15315,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ69">
         <v>0.83</v>
@@ -15431,7 +15443,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15509,7 +15521,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ70">
         <v>1.8</v>
@@ -15637,7 +15649,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16049,7 +16061,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16130,7 +16142,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ73">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR73">
         <v>1.55</v>
@@ -16255,7 +16267,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16667,7 +16679,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16873,7 +16885,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -16954,7 +16966,7 @@
         <v>2</v>
       </c>
       <c r="AQ77">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR77">
         <v>1.76</v>
@@ -17079,7 +17091,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17366,7 +17378,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR79">
         <v>1.31</v>
@@ -18315,7 +18327,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18521,7 +18533,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18805,7 +18817,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
         <v>1.83</v>
@@ -19139,7 +19151,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19345,7 +19357,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19757,7 +19769,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20375,7 +20387,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20456,7 +20468,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.3</v>
@@ -20581,7 +20593,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20662,7 +20674,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ95">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR95">
         <v>1.42</v>
@@ -20993,7 +21005,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21199,7 +21211,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21486,7 +21498,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ99">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR99">
         <v>1.22</v>
@@ -21611,7 +21623,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22023,7 +22035,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22101,7 +22113,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ102">
         <v>1.83</v>
@@ -22719,7 +22731,7 @@
         <v>2.33</v>
       </c>
       <c r="AP105">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ105">
         <v>1.83</v>
@@ -22847,7 +22859,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23259,7 +23271,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23337,7 +23349,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23465,7 +23477,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23671,7 +23683,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23877,7 +23889,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24083,7 +24095,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24289,7 +24301,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24701,7 +24713,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25525,7 +25537,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25937,7 +25949,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26018,7 +26030,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ121">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.8</v>
@@ -27379,7 +27391,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -27663,7 +27675,7 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ129">
         <v>1.5</v>
@@ -27869,7 +27881,7 @@
         <v>0.75</v>
       </c>
       <c r="AP130">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ130">
         <v>0.67</v>
@@ -28203,7 +28215,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28409,7 +28421,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q133">
         <v>3.4</v>
@@ -28615,7 +28627,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28696,7 +28708,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ134">
-        <v>0.2</v>
+        <v>0.33</v>
       </c>
       <c r="AR134">
         <v>2.05</v>
@@ -28821,7 +28833,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29027,7 +29039,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29233,7 +29245,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29439,7 +29451,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29517,7 +29529,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AQ138">
         <v>0.83</v>
@@ -29645,7 +29657,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29851,7 +29863,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31087,7 +31099,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -32117,7 +32129,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32529,7 +32541,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32816,7 +32828,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ154">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AR154">
         <v>1.68</v>
@@ -32941,7 +32953,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33147,7 +33159,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33353,7 +33365,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33765,7 +33777,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34383,7 +34395,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35094,22 +35106,22 @@
         <v>3.04</v>
       </c>
       <c r="AU165">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV165">
         <v>2</v>
       </c>
       <c r="AW165">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX165">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY165">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ165">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA165">
         <v>6</v>
@@ -35158,6 +35170,624 @@
       </c>
       <c r="BP165">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7345642</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45382.77083333334</v>
+      </c>
+      <c r="F166">
+        <v>12</v>
+      </c>
+      <c r="G166" t="s">
+        <v>94</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+      <c r="M166">
+        <v>1</v>
+      </c>
+      <c r="N166">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>116</v>
+      </c>
+      <c r="P166" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q166">
+        <v>2.5</v>
+      </c>
+      <c r="R166">
+        <v>1.95</v>
+      </c>
+      <c r="S166">
+        <v>5.5</v>
+      </c>
+      <c r="T166">
+        <v>1.57</v>
+      </c>
+      <c r="U166">
+        <v>2.25</v>
+      </c>
+      <c r="V166">
+        <v>3.75</v>
+      </c>
+      <c r="W166">
+        <v>1.25</v>
+      </c>
+      <c r="X166">
+        <v>13</v>
+      </c>
+      <c r="Y166">
+        <v>1.04</v>
+      </c>
+      <c r="Z166">
+        <v>1.8</v>
+      </c>
+      <c r="AA166">
+        <v>3.5</v>
+      </c>
+      <c r="AB166">
+        <v>5</v>
+      </c>
+      <c r="AC166">
+        <v>1.09</v>
+      </c>
+      <c r="AD166">
+        <v>6.71</v>
+      </c>
+      <c r="AE166">
+        <v>1.53</v>
+      </c>
+      <c r="AF166">
+        <v>2.37</v>
+      </c>
+      <c r="AG166">
+        <v>2.5</v>
+      </c>
+      <c r="AH166">
+        <v>1.5</v>
+      </c>
+      <c r="AI166">
+        <v>2.38</v>
+      </c>
+      <c r="AJ166">
+        <v>1.53</v>
+      </c>
+      <c r="AK166">
+        <v>1.14</v>
+      </c>
+      <c r="AL166">
+        <v>1.28</v>
+      </c>
+      <c r="AM166">
+        <v>2.15</v>
+      </c>
+      <c r="AN166">
+        <v>1.4</v>
+      </c>
+      <c r="AO166">
+        <v>0.2</v>
+      </c>
+      <c r="AP166">
+        <v>1.33</v>
+      </c>
+      <c r="AQ166">
+        <v>0.33</v>
+      </c>
+      <c r="AR166">
+        <v>1.61</v>
+      </c>
+      <c r="AS166">
+        <v>1.51</v>
+      </c>
+      <c r="AT166">
+        <v>3.12</v>
+      </c>
+      <c r="AU166">
+        <v>5</v>
+      </c>
+      <c r="AV166">
+        <v>3</v>
+      </c>
+      <c r="AW166">
+        <v>9</v>
+      </c>
+      <c r="AX166">
+        <v>4</v>
+      </c>
+      <c r="AY166">
+        <v>14</v>
+      </c>
+      <c r="AZ166">
+        <v>7</v>
+      </c>
+      <c r="BA166">
+        <v>9</v>
+      </c>
+      <c r="BB166">
+        <v>5</v>
+      </c>
+      <c r="BC166">
+        <v>14</v>
+      </c>
+      <c r="BD166">
+        <v>1.62</v>
+      </c>
+      <c r="BE166">
+        <v>8.6</v>
+      </c>
+      <c r="BF166">
+        <v>2.81</v>
+      </c>
+      <c r="BG166">
+        <v>1.29</v>
+      </c>
+      <c r="BH166">
+        <v>3.3</v>
+      </c>
+      <c r="BI166">
+        <v>1.45</v>
+      </c>
+      <c r="BJ166">
+        <v>2.48</v>
+      </c>
+      <c r="BK166">
+        <v>2.38</v>
+      </c>
+      <c r="BL166">
+        <v>1.89</v>
+      </c>
+      <c r="BM166">
+        <v>2.3</v>
+      </c>
+      <c r="BN166">
+        <v>1.52</v>
+      </c>
+      <c r="BO166">
+        <v>2.9</v>
+      </c>
+      <c r="BP166">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7345641</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45382.875</v>
+      </c>
+      <c r="F167">
+        <v>12</v>
+      </c>
+      <c r="G167" t="s">
+        <v>77</v>
+      </c>
+      <c r="H167" t="s">
+        <v>76</v>
+      </c>
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167">
+        <v>2</v>
+      </c>
+      <c r="K167">
+        <v>3</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>2</v>
+      </c>
+      <c r="N167">
+        <v>3</v>
+      </c>
+      <c r="O167" t="s">
+        <v>193</v>
+      </c>
+      <c r="P167" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q167">
+        <v>3.75</v>
+      </c>
+      <c r="R167">
+        <v>1.83</v>
+      </c>
+      <c r="S167">
+        <v>3.5</v>
+      </c>
+      <c r="T167">
+        <v>1.57</v>
+      </c>
+      <c r="U167">
+        <v>2.25</v>
+      </c>
+      <c r="V167">
+        <v>3.75</v>
+      </c>
+      <c r="W167">
+        <v>1.25</v>
+      </c>
+      <c r="X167">
+        <v>13</v>
+      </c>
+      <c r="Y167">
+        <v>1.04</v>
+      </c>
+      <c r="Z167">
+        <v>3</v>
+      </c>
+      <c r="AA167">
+        <v>2.9</v>
+      </c>
+      <c r="AB167">
+        <v>2.7</v>
+      </c>
+      <c r="AC167">
+        <v>1.09</v>
+      </c>
+      <c r="AD167">
+        <v>6.71</v>
+      </c>
+      <c r="AE167">
+        <v>1.53</v>
+      </c>
+      <c r="AF167">
+        <v>2.53</v>
+      </c>
+      <c r="AG167">
+        <v>2.88</v>
+      </c>
+      <c r="AH167">
+        <v>1.4</v>
+      </c>
+      <c r="AI167">
+        <v>2.2</v>
+      </c>
+      <c r="AJ167">
+        <v>1.62</v>
+      </c>
+      <c r="AK167">
+        <v>1.58</v>
+      </c>
+      <c r="AL167">
+        <v>1.33</v>
+      </c>
+      <c r="AM167">
+        <v>1.36</v>
+      </c>
+      <c r="AN167">
+        <v>0.6</v>
+      </c>
+      <c r="AO167">
+        <v>1.2</v>
+      </c>
+      <c r="AP167">
+        <v>0.5</v>
+      </c>
+      <c r="AQ167">
+        <v>1.5</v>
+      </c>
+      <c r="AR167">
+        <v>1.49</v>
+      </c>
+      <c r="AS167">
+        <v>1.19</v>
+      </c>
+      <c r="AT167">
+        <v>2.68</v>
+      </c>
+      <c r="AU167">
+        <v>3</v>
+      </c>
+      <c r="AV167">
+        <v>6</v>
+      </c>
+      <c r="AW167">
+        <v>6</v>
+      </c>
+      <c r="AX167">
+        <v>6</v>
+      </c>
+      <c r="AY167">
+        <v>9</v>
+      </c>
+      <c r="AZ167">
+        <v>12</v>
+      </c>
+      <c r="BA167">
+        <v>1</v>
+      </c>
+      <c r="BB167">
+        <v>7</v>
+      </c>
+      <c r="BC167">
+        <v>8</v>
+      </c>
+      <c r="BD167">
+        <v>2.02</v>
+      </c>
+      <c r="BE167">
+        <v>7.4</v>
+      </c>
+      <c r="BF167">
+        <v>2.13</v>
+      </c>
+      <c r="BG167">
+        <v>1.4</v>
+      </c>
+      <c r="BH167">
+        <v>2.7</v>
+      </c>
+      <c r="BI167">
+        <v>1.63</v>
+      </c>
+      <c r="BJ167">
+        <v>2.09</v>
+      </c>
+      <c r="BK167">
+        <v>2.09</v>
+      </c>
+      <c r="BL167">
+        <v>1.66</v>
+      </c>
+      <c r="BM167">
+        <v>2.78</v>
+      </c>
+      <c r="BN167">
+        <v>1.36</v>
+      </c>
+      <c r="BO167">
+        <v>3.4</v>
+      </c>
+      <c r="BP167">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7345653</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45383.79166666666</v>
+      </c>
+      <c r="F168">
+        <v>12</v>
+      </c>
+      <c r="G168" t="s">
+        <v>79</v>
+      </c>
+      <c r="H168" t="s">
+        <v>81</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>2</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>194</v>
+      </c>
+      <c r="P168" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q168">
+        <v>4.33</v>
+      </c>
+      <c r="R168">
+        <v>1.8</v>
+      </c>
+      <c r="S168">
+        <v>3.4</v>
+      </c>
+      <c r="T168">
+        <v>1.62</v>
+      </c>
+      <c r="U168">
+        <v>2.2</v>
+      </c>
+      <c r="V168">
+        <v>4</v>
+      </c>
+      <c r="W168">
+        <v>1.22</v>
+      </c>
+      <c r="X168">
+        <v>13</v>
+      </c>
+      <c r="Y168">
+        <v>1.04</v>
+      </c>
+      <c r="Z168">
+        <v>3.5</v>
+      </c>
+      <c r="AA168">
+        <v>2.8</v>
+      </c>
+      <c r="AB168">
+        <v>2.45</v>
+      </c>
+      <c r="AC168">
+        <v>1.12</v>
+      </c>
+      <c r="AD168">
+        <v>5.87</v>
+      </c>
+      <c r="AE168">
+        <v>1.63</v>
+      </c>
+      <c r="AF168">
+        <v>2.3</v>
+      </c>
+      <c r="AG168">
+        <v>3.1</v>
+      </c>
+      <c r="AH168">
+        <v>1.36</v>
+      </c>
+      <c r="AI168">
+        <v>2.38</v>
+      </c>
+      <c r="AJ168">
+        <v>1.53</v>
+      </c>
+      <c r="AK168">
+        <v>1.4</v>
+      </c>
+      <c r="AL168">
+        <v>1.45</v>
+      </c>
+      <c r="AM168">
+        <v>1.32</v>
+      </c>
+      <c r="AN168">
+        <v>1.4</v>
+      </c>
+      <c r="AO168">
+        <v>2.4</v>
+      </c>
+      <c r="AP168">
+        <v>1.17</v>
+      </c>
+      <c r="AQ168">
+        <v>2.5</v>
+      </c>
+      <c r="AR168">
+        <v>1.3</v>
+      </c>
+      <c r="AS168">
+        <v>1.44</v>
+      </c>
+      <c r="AT168">
+        <v>2.74</v>
+      </c>
+      <c r="AU168">
+        <v>4</v>
+      </c>
+      <c r="AV168">
+        <v>7</v>
+      </c>
+      <c r="AW168">
+        <v>10</v>
+      </c>
+      <c r="AX168">
+        <v>5</v>
+      </c>
+      <c r="AY168">
+        <v>14</v>
+      </c>
+      <c r="AZ168">
+        <v>12</v>
+      </c>
+      <c r="BA168">
+        <v>5</v>
+      </c>
+      <c r="BB168">
+        <v>2</v>
+      </c>
+      <c r="BC168">
+        <v>7</v>
+      </c>
+      <c r="BD168">
+        <v>2.05</v>
+      </c>
+      <c r="BE168">
+        <v>7.4</v>
+      </c>
+      <c r="BF168">
+        <v>2.1</v>
+      </c>
+      <c r="BG168">
+        <v>1.45</v>
+      </c>
+      <c r="BH168">
+        <v>2.63</v>
+      </c>
+      <c r="BI168">
+        <v>1.8</v>
+      </c>
+      <c r="BJ168">
+        <v>2</v>
+      </c>
+      <c r="BK168">
+        <v>2.4</v>
+      </c>
+      <c r="BL168">
+        <v>1.53</v>
+      </c>
+      <c r="BM168">
+        <v>3.35</v>
+      </c>
+      <c r="BN168">
+        <v>1.3</v>
+      </c>
+      <c r="BO168">
+        <v>3.6</v>
+      </c>
+      <c r="BP168">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -35727,16 +35727,16 @@
         <v>4</v>
       </c>
       <c r="AV168">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW168">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX168">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY168">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ168">
         <v>12</v>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1176,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP170"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2749,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2958,7 +2958,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -5427,10 +5427,10 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ41">
         <v>1.8</v>
@@ -10374,7 +10374,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.39</v>
@@ -10989,7 +10989,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -14491,7 +14491,7 @@
         <v>3</v>
       </c>
       <c r="AP65">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ65">
         <v>1.83</v>
@@ -16551,7 +16551,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>0.5</v>
@@ -16760,7 +16760,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ76">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR76">
         <v>1.4</v>
@@ -21289,7 +21289,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
         <v>0.17</v>
@@ -22525,7 +22525,7 @@
         <v>0.67</v>
       </c>
       <c r="AP104">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ104">
         <v>0.83</v>
@@ -24794,7 +24794,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ115">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR115">
         <v>1.58</v>
@@ -25203,7 +25203,7 @@
         <v>0.8</v>
       </c>
       <c r="AP117">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ117">
         <v>0.57</v>
@@ -29735,7 +29735,7 @@
         <v>1.25</v>
       </c>
       <c r="AP139">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ139">
         <v>1.33</v>
@@ -30150,7 +30150,7 @@
         <v>1</v>
       </c>
       <c r="AQ141">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR141">
         <v>1.3</v>
@@ -30971,7 +30971,7 @@
         <v>2.25</v>
       </c>
       <c r="AP145">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ145">
         <v>1.8</v>
@@ -32001,7 +32001,7 @@
         <v>1.6</v>
       </c>
       <c r="AP150">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ150">
         <v>1.5</v>
@@ -35788,6 +35788,418 @@
       </c>
       <c r="BP168">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7345654</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45387.8125</v>
+      </c>
+      <c r="F169">
+        <v>13</v>
+      </c>
+      <c r="G169" t="s">
+        <v>88</v>
+      </c>
+      <c r="H169" t="s">
+        <v>89</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>0</v>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>0</v>
+      </c>
+      <c r="O169" t="s">
+        <v>98</v>
+      </c>
+      <c r="P169" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q169">
+        <v>3.2</v>
+      </c>
+      <c r="R169">
+        <v>1.95</v>
+      </c>
+      <c r="S169">
+        <v>4</v>
+      </c>
+      <c r="T169">
+        <v>1.5</v>
+      </c>
+      <c r="U169">
+        <v>2.5</v>
+      </c>
+      <c r="V169">
+        <v>3.4</v>
+      </c>
+      <c r="W169">
+        <v>1.3</v>
+      </c>
+      <c r="X169">
+        <v>10</v>
+      </c>
+      <c r="Y169">
+        <v>1.06</v>
+      </c>
+      <c r="Z169">
+        <v>2.4</v>
+      </c>
+      <c r="AA169">
+        <v>3.2</v>
+      </c>
+      <c r="AB169">
+        <v>3.2</v>
+      </c>
+      <c r="AC169">
+        <v>1.07</v>
+      </c>
+      <c r="AD169">
+        <v>7.61</v>
+      </c>
+      <c r="AE169">
+        <v>1.43</v>
+      </c>
+      <c r="AF169">
+        <v>2.75</v>
+      </c>
+      <c r="AG169">
+        <v>2.35</v>
+      </c>
+      <c r="AH169">
+        <v>1.57</v>
+      </c>
+      <c r="AI169">
+        <v>2</v>
+      </c>
+      <c r="AJ169">
+        <v>1.73</v>
+      </c>
+      <c r="AK169">
+        <v>1.26</v>
+      </c>
+      <c r="AL169">
+        <v>1.28</v>
+      </c>
+      <c r="AM169">
+        <v>1.83</v>
+      </c>
+      <c r="AN169">
+        <v>2.17</v>
+      </c>
+      <c r="AO169">
+        <v>1</v>
+      </c>
+      <c r="AP169">
+        <v>2</v>
+      </c>
+      <c r="AQ169">
+        <v>1</v>
+      </c>
+      <c r="AR169">
+        <v>1.83</v>
+      </c>
+      <c r="AS169">
+        <v>1.28</v>
+      </c>
+      <c r="AT169">
+        <v>3.11</v>
+      </c>
+      <c r="AU169">
+        <v>7</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>4</v>
+      </c>
+      <c r="AX169">
+        <v>7</v>
+      </c>
+      <c r="AY169">
+        <v>11</v>
+      </c>
+      <c r="AZ169">
+        <v>11</v>
+      </c>
+      <c r="BA169">
+        <v>3</v>
+      </c>
+      <c r="BB169">
+        <v>6</v>
+      </c>
+      <c r="BC169">
+        <v>9</v>
+      </c>
+      <c r="BD169">
+        <v>1.82</v>
+      </c>
+      <c r="BE169">
+        <v>7</v>
+      </c>
+      <c r="BF169">
+        <v>2.43</v>
+      </c>
+      <c r="BG169">
+        <v>1.28</v>
+      </c>
+      <c r="BH169">
+        <v>3.35</v>
+      </c>
+      <c r="BI169">
+        <v>1.53</v>
+      </c>
+      <c r="BJ169">
+        <v>2.33</v>
+      </c>
+      <c r="BK169">
+        <v>1.99</v>
+      </c>
+      <c r="BL169">
+        <v>1.73</v>
+      </c>
+      <c r="BM169">
+        <v>2.62</v>
+      </c>
+      <c r="BN169">
+        <v>1.43</v>
+      </c>
+      <c r="BO169">
+        <v>3.85</v>
+      </c>
+      <c r="BP169">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7345659</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45387.875</v>
+      </c>
+      <c r="F170">
+        <v>13</v>
+      </c>
+      <c r="G170" t="s">
+        <v>76</v>
+      </c>
+      <c r="H170" t="s">
+        <v>94</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>1</v>
+      </c>
+      <c r="O170" t="s">
+        <v>98</v>
+      </c>
+      <c r="P170" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q170">
+        <v>3.75</v>
+      </c>
+      <c r="R170">
+        <v>1.83</v>
+      </c>
+      <c r="S170">
+        <v>3.75</v>
+      </c>
+      <c r="T170">
+        <v>1.67</v>
+      </c>
+      <c r="U170">
+        <v>2.1</v>
+      </c>
+      <c r="V170">
+        <v>4.33</v>
+      </c>
+      <c r="W170">
+        <v>1.2</v>
+      </c>
+      <c r="X170">
+        <v>15</v>
+      </c>
+      <c r="Y170">
+        <v>1.03</v>
+      </c>
+      <c r="Z170">
+        <v>2.8</v>
+      </c>
+      <c r="AA170">
+        <v>3.1</v>
+      </c>
+      <c r="AB170">
+        <v>2.7</v>
+      </c>
+      <c r="AC170">
+        <v>1.11</v>
+      </c>
+      <c r="AD170">
+        <v>6.18</v>
+      </c>
+      <c r="AE170">
+        <v>1.63</v>
+      </c>
+      <c r="AF170">
+        <v>2.29</v>
+      </c>
+      <c r="AG170">
+        <v>3.1</v>
+      </c>
+      <c r="AH170">
+        <v>1.36</v>
+      </c>
+      <c r="AI170">
+        <v>2.38</v>
+      </c>
+      <c r="AJ170">
+        <v>1.53</v>
+      </c>
+      <c r="AK170">
+        <v>1.5</v>
+      </c>
+      <c r="AL170">
+        <v>1.35</v>
+      </c>
+      <c r="AM170">
+        <v>1.42</v>
+      </c>
+      <c r="AN170">
+        <v>0.83</v>
+      </c>
+      <c r="AO170">
+        <v>1.83</v>
+      </c>
+      <c r="AP170">
+        <v>0.71</v>
+      </c>
+      <c r="AQ170">
+        <v>2</v>
+      </c>
+      <c r="AR170">
+        <v>1.5</v>
+      </c>
+      <c r="AS170">
+        <v>1.49</v>
+      </c>
+      <c r="AT170">
+        <v>2.99</v>
+      </c>
+      <c r="AU170">
+        <v>2</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>4</v>
+      </c>
+      <c r="AX170">
+        <v>5</v>
+      </c>
+      <c r="AY170">
+        <v>6</v>
+      </c>
+      <c r="AZ170">
+        <v>11</v>
+      </c>
+      <c r="BA170">
+        <v>8</v>
+      </c>
+      <c r="BB170">
+        <v>2</v>
+      </c>
+      <c r="BC170">
+        <v>10</v>
+      </c>
+      <c r="BD170">
+        <v>1.9</v>
+      </c>
+      <c r="BE170">
+        <v>7</v>
+      </c>
+      <c r="BF170">
+        <v>2.3</v>
+      </c>
+      <c r="BG170">
+        <v>1.39</v>
+      </c>
+      <c r="BH170">
+        <v>2.77</v>
+      </c>
+      <c r="BI170">
+        <v>1.73</v>
+      </c>
+      <c r="BJ170">
+        <v>1.99</v>
+      </c>
+      <c r="BK170">
+        <v>2.23</v>
+      </c>
+      <c r="BL170">
+        <v>1.58</v>
+      </c>
+      <c r="BM170">
+        <v>3.05</v>
+      </c>
+      <c r="BN170">
+        <v>1.33</v>
+      </c>
+      <c r="BO170">
+        <v>4.4</v>
+      </c>
+      <c r="BP170">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,21 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['9', '30', '49', '56', '72']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['38', '56', '58']</t>
+  </si>
+  <si>
+    <t>['38', '59', '80']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -626,9 +641,6 @@
   </si>
   <si>
     <t>['29', '54']</t>
-  </si>
-  <si>
-    <t>['27']</t>
   </si>
   <si>
     <t>['71', '81']</t>
@@ -815,6 +827,21 @@
   </si>
   <si>
     <t>['3', '90+2']</t>
+  </si>
+  <si>
+    <t>['28', '55', '90']</t>
+  </si>
+  <si>
+    <t>['47', '51']</t>
+  </si>
+  <si>
+    <t>['3', '24']</t>
+  </si>
+  <si>
+    <t>['80', '85']</t>
+  </si>
+  <si>
+    <t>['25', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP170"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1925,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4">
         <v>0.57</v>
@@ -2053,7 +2080,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2259,7 +2286,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2337,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>1.33</v>
@@ -2465,7 +2492,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2543,10 +2570,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2671,7 +2698,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3083,7 +3110,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3161,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ10">
         <v>2.5</v>
@@ -3370,7 +3397,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3782,7 +3809,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3907,7 +3934,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4191,10 +4218,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ15">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4525,7 +4552,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4731,7 +4758,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4812,7 +4839,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5143,7 +5170,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5349,7 +5376,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5967,7 +5994,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6379,7 +6406,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6457,7 +6484,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6791,7 +6818,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -6869,7 +6896,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ28">
         <v>1.33</v>
@@ -6997,7 +7024,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7203,7 +7230,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7284,7 +7311,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR30">
         <v>0</v>
@@ -7409,7 +7436,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7487,7 +7514,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ31">
         <v>0.57</v>
@@ -8314,7 +8341,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR35">
         <v>0.9</v>
@@ -8517,10 +8544,10 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8929,7 +8956,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ38">
         <v>1.5</v>
@@ -9057,7 +9084,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9138,7 +9165,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9341,7 +9368,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ40">
         <v>1.83</v>
@@ -9469,7 +9496,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9550,7 +9577,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ41">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR41">
         <v>1.1</v>
@@ -9675,7 +9702,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9756,7 +9783,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -9959,7 +9986,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10168,7 +10195,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR44">
         <v>1.02</v>
@@ -10577,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ46">
         <v>0.17</v>
@@ -10705,7 +10732,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10783,7 +10810,7 @@
         <v>3</v>
       </c>
       <c r="AP47">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ47">
         <v>2.17</v>
@@ -10992,7 +11019,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR48">
         <v>1.98</v>
@@ -11117,7 +11144,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11323,7 +11350,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11610,7 +11637,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ51">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11941,7 +11968,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12147,7 +12174,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12637,7 +12664,7 @@
         <v>0</v>
       </c>
       <c r="AP56">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>0.33</v>
@@ -12765,7 +12792,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12971,7 +12998,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13049,7 +13076,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ58">
         <v>1.83</v>
@@ -13255,7 +13282,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ59">
         <v>1.33</v>
@@ -13383,7 +13410,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14001,7 +14028,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14082,7 +14109,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14207,7 +14234,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14700,7 +14727,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ66">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR66">
         <v>1.82</v>
@@ -14903,7 +14930,7 @@
         <v>3</v>
       </c>
       <c r="AP67">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
         <v>1.5</v>
@@ -15031,7 +15058,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15318,7 +15345,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR69">
         <v>1.2</v>
@@ -15443,7 +15470,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15524,7 +15551,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ70">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR70">
         <v>1.36</v>
@@ -15649,7 +15676,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15727,7 +15754,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15933,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="AP72">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ72">
         <v>0.17</v>
@@ -16061,7 +16088,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16267,7 +16294,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16348,7 +16375,7 @@
         <v>2</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR74">
         <v>1.14</v>
@@ -16679,7 +16706,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16885,7 +16912,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17091,7 +17118,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17172,7 +17199,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -17581,7 +17608,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ80">
         <v>2.17</v>
@@ -17787,7 +17814,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
@@ -17993,7 +18020,7 @@
         <v>0</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ82">
         <v>0.83</v>
@@ -18327,7 +18354,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18408,7 +18435,7 @@
         <v>3</v>
       </c>
       <c r="AQ84">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR84">
         <v>1.76</v>
@@ -18533,7 +18560,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18614,7 +18641,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ85">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR85">
         <v>1.69</v>
@@ -19151,7 +19178,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19357,7 +19384,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19435,10 +19462,10 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ89">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR89">
         <v>1.48</v>
@@ -19769,7 +19796,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19850,7 +19877,7 @@
         <v>2</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>2.12</v>
@@ -20259,7 +20286,7 @@
         <v>0.33</v>
       </c>
       <c r="AP93">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ93">
         <v>0.57</v>
@@ -20387,7 +20414,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20593,7 +20620,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21005,7 +21032,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21211,7 +21238,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21623,7 +21650,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21704,7 +21731,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ100">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR100">
         <v>2.14</v>
@@ -22035,7 +22062,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22322,7 +22349,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ103">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR103">
         <v>1.44</v>
@@ -22859,7 +22886,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23143,7 +23170,7 @@
         <v>1.33</v>
       </c>
       <c r="AP107">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ107">
         <v>1.33</v>
@@ -23271,7 +23298,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23477,7 +23504,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23555,7 +23582,7 @@
         <v>2.33</v>
       </c>
       <c r="AP109">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>1.5</v>
@@ -23683,7 +23710,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23889,7 +23916,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24095,7 +24122,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24176,7 +24203,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ112">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR112">
         <v>1.69</v>
@@ -24301,7 +24328,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24379,7 +24406,7 @@
         <v>0.67</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ113">
         <v>0.67</v>
@@ -24713,7 +24740,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -24791,7 +24818,7 @@
         <v>2.5</v>
       </c>
       <c r="AP115">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ115">
         <v>2</v>
@@ -25412,7 +25439,7 @@
         <v>3</v>
       </c>
       <c r="AQ118">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR118">
         <v>1.8</v>
@@ -25537,7 +25564,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25615,7 +25642,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ119">
         <v>0.83</v>
@@ -25821,10 +25848,10 @@
         <v>1.25</v>
       </c>
       <c r="AP120">
+        <v>1.14</v>
+      </c>
+      <c r="AQ120">
         <v>1.33</v>
-      </c>
-      <c r="AQ120">
-        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -25949,7 +25976,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26027,7 +26054,7 @@
         <v>0.75</v>
       </c>
       <c r="AP121">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ121">
         <v>1.5</v>
@@ -26236,7 +26263,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR122">
         <v>2.1</v>
@@ -26648,7 +26675,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ124">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR124">
         <v>1.21</v>
@@ -26851,7 +26878,7 @@
         <v>0.25</v>
       </c>
       <c r="AP125">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ125">
         <v>0.17</v>
@@ -27060,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AQ126">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27391,7 +27418,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28090,7 +28117,7 @@
         <v>2</v>
       </c>
       <c r="AQ131">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
         <v>1.23</v>
@@ -28215,7 +28242,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28421,7 +28448,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q133">
         <v>3.4</v>
@@ -28627,7 +28654,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28705,7 +28732,7 @@
         <v>0.25</v>
       </c>
       <c r="AP134">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ134">
         <v>0.33</v>
@@ -28833,7 +28860,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29039,7 +29066,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29245,7 +29272,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29451,7 +29478,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29657,7 +29684,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29863,7 +29890,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -29944,7 +29971,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ140">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR140">
         <v>1.2</v>
@@ -30353,7 +30380,7 @@
         <v>0.8</v>
       </c>
       <c r="AP142">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ142">
         <v>0.83</v>
@@ -30559,7 +30586,7 @@
         <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ143">
         <v>0.83</v>
@@ -30768,7 +30795,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ144">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -30974,7 +31001,7 @@
         <v>2</v>
       </c>
       <c r="AQ145">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
         <v>1.91</v>
@@ -31099,7 +31126,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31177,10 +31204,10 @@
         <v>0.6</v>
       </c>
       <c r="AP146">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AQ146">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR146">
         <v>1.88</v>
@@ -31383,7 +31410,7 @@
         <v>0.6</v>
       </c>
       <c r="AP147">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ147">
         <v>0.5</v>
@@ -31798,7 +31825,7 @@
         <v>2</v>
       </c>
       <c r="AQ149">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR149">
         <v>2.23</v>
@@ -32129,7 +32156,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32207,10 +32234,10 @@
         <v>0.8</v>
       </c>
       <c r="AP151">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ151">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR151">
         <v>1.57</v>
@@ -32541,7 +32568,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32825,7 +32852,7 @@
         <v>3</v>
       </c>
       <c r="AP154">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ154">
         <v>2.5</v>
@@ -32953,7 +32980,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33159,7 +33186,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33365,7 +33392,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33777,7 +33804,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -33858,7 +33885,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ159">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR159">
         <v>1.64</v>
@@ -34395,7 +34422,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34679,7 +34706,7 @@
         <v>1.6</v>
       </c>
       <c r="AP163">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ163">
         <v>1.33</v>
@@ -35219,7 +35246,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35425,7 +35452,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35631,7 +35658,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36200,6 +36227,1448 @@
       </c>
       <c r="BP170">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7345663</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45388.70833333334</v>
+      </c>
+      <c r="F171">
+        <v>13</v>
+      </c>
+      <c r="G171" t="s">
+        <v>96</v>
+      </c>
+      <c r="H171" t="s">
+        <v>92</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+      <c r="M171">
+        <v>3</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>133</v>
+      </c>
+      <c r="P171" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q171">
+        <v>3.75</v>
+      </c>
+      <c r="R171">
+        <v>1.83</v>
+      </c>
+      <c r="S171">
+        <v>3.75</v>
+      </c>
+      <c r="T171">
+        <v>1.67</v>
+      </c>
+      <c r="U171">
+        <v>2.1</v>
+      </c>
+      <c r="V171">
+        <v>4</v>
+      </c>
+      <c r="W171">
+        <v>1.22</v>
+      </c>
+      <c r="X171">
+        <v>15</v>
+      </c>
+      <c r="Y171">
+        <v>1.03</v>
+      </c>
+      <c r="Z171">
+        <v>2.7</v>
+      </c>
+      <c r="AA171">
+        <v>3.1</v>
+      </c>
+      <c r="AB171">
+        <v>2.75</v>
+      </c>
+      <c r="AC171">
+        <v>1.12</v>
+      </c>
+      <c r="AD171">
+        <v>5.25</v>
+      </c>
+      <c r="AE171">
+        <v>1.64</v>
+      </c>
+      <c r="AF171">
+        <v>2.28</v>
+      </c>
+      <c r="AG171">
+        <v>2.88</v>
+      </c>
+      <c r="AH171">
+        <v>1.4</v>
+      </c>
+      <c r="AI171">
+        <v>2.25</v>
+      </c>
+      <c r="AJ171">
+        <v>1.57</v>
+      </c>
+      <c r="AK171">
+        <v>1.42</v>
+      </c>
+      <c r="AL171">
+        <v>1.42</v>
+      </c>
+      <c r="AM171">
+        <v>1.44</v>
+      </c>
+      <c r="AN171">
+        <v>1.33</v>
+      </c>
+      <c r="AO171">
+        <v>1</v>
+      </c>
+      <c r="AP171">
+        <v>1.14</v>
+      </c>
+      <c r="AQ171">
+        <v>1.33</v>
+      </c>
+      <c r="AR171">
+        <v>1.66</v>
+      </c>
+      <c r="AS171">
+        <v>1.35</v>
+      </c>
+      <c r="AT171">
+        <v>3.01</v>
+      </c>
+      <c r="AU171">
+        <v>5</v>
+      </c>
+      <c r="AV171">
+        <v>7</v>
+      </c>
+      <c r="AW171">
+        <v>8</v>
+      </c>
+      <c r="AX171">
+        <v>4</v>
+      </c>
+      <c r="AY171">
+        <v>13</v>
+      </c>
+      <c r="AZ171">
+        <v>11</v>
+      </c>
+      <c r="BA171">
+        <v>5</v>
+      </c>
+      <c r="BB171">
+        <v>5</v>
+      </c>
+      <c r="BC171">
+        <v>10</v>
+      </c>
+      <c r="BD171">
+        <v>2</v>
+      </c>
+      <c r="BE171">
+        <v>7.1</v>
+      </c>
+      <c r="BF171">
+        <v>2.18</v>
+      </c>
+      <c r="BG171">
+        <v>1.67</v>
+      </c>
+      <c r="BH171">
+        <v>2.12</v>
+      </c>
+      <c r="BI171">
+        <v>2.18</v>
+      </c>
+      <c r="BJ171">
+        <v>1.63</v>
+      </c>
+      <c r="BK171">
+        <v>3.05</v>
+      </c>
+      <c r="BL171">
+        <v>1.35</v>
+      </c>
+      <c r="BM171">
+        <v>4.4</v>
+      </c>
+      <c r="BN171">
+        <v>1.19</v>
+      </c>
+      <c r="BO171">
+        <v>6.5</v>
+      </c>
+      <c r="BP171">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7345664</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45388.80208333334</v>
+      </c>
+      <c r="F172">
+        <v>13</v>
+      </c>
+      <c r="G172" t="s">
+        <v>78</v>
+      </c>
+      <c r="H172" t="s">
+        <v>90</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>2</v>
+      </c>
+      <c r="N172">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>98</v>
+      </c>
+      <c r="P172" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q172">
+        <v>3.5</v>
+      </c>
+      <c r="R172">
+        <v>1.91</v>
+      </c>
+      <c r="S172">
+        <v>3.75</v>
+      </c>
+      <c r="T172">
+        <v>1.62</v>
+      </c>
+      <c r="U172">
+        <v>2.2</v>
+      </c>
+      <c r="V172">
+        <v>4</v>
+      </c>
+      <c r="W172">
+        <v>1.22</v>
+      </c>
+      <c r="X172">
+        <v>13</v>
+      </c>
+      <c r="Y172">
+        <v>1.04</v>
+      </c>
+      <c r="Z172">
+        <v>2.5</v>
+      </c>
+      <c r="AA172">
+        <v>3.1</v>
+      </c>
+      <c r="AB172">
+        <v>3</v>
+      </c>
+      <c r="AC172">
+        <v>1.11</v>
+      </c>
+      <c r="AD172">
+        <v>6.28</v>
+      </c>
+      <c r="AE172">
+        <v>1.57</v>
+      </c>
+      <c r="AF172">
+        <v>2.41</v>
+      </c>
+      <c r="AG172">
+        <v>2.7</v>
+      </c>
+      <c r="AH172">
+        <v>1.44</v>
+      </c>
+      <c r="AI172">
+        <v>2.2</v>
+      </c>
+      <c r="AJ172">
+        <v>1.62</v>
+      </c>
+      <c r="AK172">
+        <v>1.28</v>
+      </c>
+      <c r="AL172">
+        <v>1.32</v>
+      </c>
+      <c r="AM172">
+        <v>1.7</v>
+      </c>
+      <c r="AN172">
+        <v>1.83</v>
+      </c>
+      <c r="AO172">
+        <v>1.5</v>
+      </c>
+      <c r="AP172">
+        <v>1.57</v>
+      </c>
+      <c r="AQ172">
+        <v>1.71</v>
+      </c>
+      <c r="AR172">
+        <v>1.58</v>
+      </c>
+      <c r="AS172">
+        <v>1.36</v>
+      </c>
+      <c r="AT172">
+        <v>2.94</v>
+      </c>
+      <c r="AU172">
+        <v>2</v>
+      </c>
+      <c r="AV172">
+        <v>7</v>
+      </c>
+      <c r="AW172">
+        <v>8</v>
+      </c>
+      <c r="AX172">
+        <v>3</v>
+      </c>
+      <c r="AY172">
+        <v>10</v>
+      </c>
+      <c r="AZ172">
+        <v>10</v>
+      </c>
+      <c r="BA172">
+        <v>6</v>
+      </c>
+      <c r="BB172">
+        <v>1</v>
+      </c>
+      <c r="BC172">
+        <v>7</v>
+      </c>
+      <c r="BD172">
+        <v>1.62</v>
+      </c>
+      <c r="BE172">
+        <v>8.6</v>
+      </c>
+      <c r="BF172">
+        <v>2.81</v>
+      </c>
+      <c r="BG172">
+        <v>1.36</v>
+      </c>
+      <c r="BH172">
+        <v>3</v>
+      </c>
+      <c r="BI172">
+        <v>1.66</v>
+      </c>
+      <c r="BJ172">
+        <v>2.15</v>
+      </c>
+      <c r="BK172">
+        <v>2.38</v>
+      </c>
+      <c r="BL172">
+        <v>1.66</v>
+      </c>
+      <c r="BM172">
+        <v>2.88</v>
+      </c>
+      <c r="BN172">
+        <v>1.38</v>
+      </c>
+      <c r="BO172">
+        <v>4.1</v>
+      </c>
+      <c r="BP172">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7345665</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45388.80208333334</v>
+      </c>
+      <c r="F173">
+        <v>13</v>
+      </c>
+      <c r="G173" t="s">
+        <v>83</v>
+      </c>
+      <c r="H173" t="s">
+        <v>73</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173">
+        <v>0</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>5</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>5</v>
+      </c>
+      <c r="O173" t="s">
+        <v>195</v>
+      </c>
+      <c r="P173" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q173">
+        <v>2.05</v>
+      </c>
+      <c r="R173">
+        <v>2.2</v>
+      </c>
+      <c r="S173">
+        <v>7.5</v>
+      </c>
+      <c r="T173">
+        <v>1.44</v>
+      </c>
+      <c r="U173">
+        <v>2.63</v>
+      </c>
+      <c r="V173">
+        <v>3.25</v>
+      </c>
+      <c r="W173">
+        <v>1.33</v>
+      </c>
+      <c r="X173">
+        <v>10</v>
+      </c>
+      <c r="Y173">
+        <v>1.06</v>
+      </c>
+      <c r="Z173">
+        <v>1.45</v>
+      </c>
+      <c r="AA173">
+        <v>4</v>
+      </c>
+      <c r="AB173">
+        <v>8.5</v>
+      </c>
+      <c r="AC173">
+        <v>1.06</v>
+      </c>
+      <c r="AD173">
+        <v>8.27</v>
+      </c>
+      <c r="AE173">
+        <v>1.39</v>
+      </c>
+      <c r="AF173">
+        <v>2.91</v>
+      </c>
+      <c r="AG173">
+        <v>2.15</v>
+      </c>
+      <c r="AH173">
+        <v>1.67</v>
+      </c>
+      <c r="AI173">
+        <v>2.38</v>
+      </c>
+      <c r="AJ173">
+        <v>1.53</v>
+      </c>
+      <c r="AK173">
+        <v>1.1</v>
+      </c>
+      <c r="AL173">
+        <v>1.22</v>
+      </c>
+      <c r="AM173">
+        <v>2.5</v>
+      </c>
+      <c r="AN173">
+        <v>2</v>
+      </c>
+      <c r="AO173">
+        <v>0.83</v>
+      </c>
+      <c r="AP173">
+        <v>2.17</v>
+      </c>
+      <c r="AQ173">
+        <v>0.71</v>
+      </c>
+      <c r="AR173">
+        <v>2.1</v>
+      </c>
+      <c r="AS173">
+        <v>1.07</v>
+      </c>
+      <c r="AT173">
+        <v>3.17</v>
+      </c>
+      <c r="AU173">
+        <v>15</v>
+      </c>
+      <c r="AV173">
+        <v>2</v>
+      </c>
+      <c r="AW173">
+        <v>7</v>
+      </c>
+      <c r="AX173">
+        <v>6</v>
+      </c>
+      <c r="AY173">
+        <v>22</v>
+      </c>
+      <c r="AZ173">
+        <v>8</v>
+      </c>
+      <c r="BA173">
+        <v>7</v>
+      </c>
+      <c r="BB173">
+        <v>2</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.42</v>
+      </c>
+      <c r="BE173">
+        <v>8.4</v>
+      </c>
+      <c r="BF173">
+        <v>3.75</v>
+      </c>
+      <c r="BG173">
+        <v>1.36</v>
+      </c>
+      <c r="BH173">
+        <v>2.95</v>
+      </c>
+      <c r="BI173">
+        <v>1.67</v>
+      </c>
+      <c r="BJ173">
+        <v>2.12</v>
+      </c>
+      <c r="BK173">
+        <v>2.15</v>
+      </c>
+      <c r="BL173">
+        <v>1.65</v>
+      </c>
+      <c r="BM173">
+        <v>2.9</v>
+      </c>
+      <c r="BN173">
+        <v>1.37</v>
+      </c>
+      <c r="BO173">
+        <v>4.1</v>
+      </c>
+      <c r="BP173">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7345660</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F174">
+        <v>13</v>
+      </c>
+      <c r="G174" t="s">
+        <v>75</v>
+      </c>
+      <c r="H174" t="s">
+        <v>77</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>2</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>196</v>
+      </c>
+      <c r="P174" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q174">
+        <v>1.95</v>
+      </c>
+      <c r="R174">
+        <v>2.38</v>
+      </c>
+      <c r="S174">
+        <v>6.5</v>
+      </c>
+      <c r="T174">
+        <v>1.36</v>
+      </c>
+      <c r="U174">
+        <v>3</v>
+      </c>
+      <c r="V174">
+        <v>2.75</v>
+      </c>
+      <c r="W174">
+        <v>1.4</v>
+      </c>
+      <c r="X174">
+        <v>8</v>
+      </c>
+      <c r="Y174">
+        <v>1.08</v>
+      </c>
+      <c r="Z174">
+        <v>1.44</v>
+      </c>
+      <c r="AA174">
+        <v>4.2</v>
+      </c>
+      <c r="AB174">
+        <v>8.5</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>9.4</v>
+      </c>
+      <c r="AE174">
+        <v>1.25</v>
+      </c>
+      <c r="AF174">
+        <v>3.42</v>
+      </c>
+      <c r="AG174">
+        <v>1.8</v>
+      </c>
+      <c r="AH174">
+        <v>2</v>
+      </c>
+      <c r="AI174">
+        <v>1.91</v>
+      </c>
+      <c r="AJ174">
+        <v>1.8</v>
+      </c>
+      <c r="AK174">
+        <v>1.12</v>
+      </c>
+      <c r="AL174">
+        <v>1.22</v>
+      </c>
+      <c r="AM174">
+        <v>2.41</v>
+      </c>
+      <c r="AN174">
+        <v>2.17</v>
+      </c>
+      <c r="AO174">
+        <v>0.67</v>
+      </c>
+      <c r="AP174">
+        <v>2</v>
+      </c>
+      <c r="AQ174">
+        <v>0.71</v>
+      </c>
+      <c r="AR174">
+        <v>2.02</v>
+      </c>
+      <c r="AS174">
+        <v>1.4</v>
+      </c>
+      <c r="AT174">
+        <v>3.42</v>
+      </c>
+      <c r="AU174">
+        <v>6</v>
+      </c>
+      <c r="AV174">
+        <v>4</v>
+      </c>
+      <c r="AW174">
+        <v>11</v>
+      </c>
+      <c r="AX174">
+        <v>1</v>
+      </c>
+      <c r="AY174">
+        <v>17</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>2</v>
+      </c>
+      <c r="BB174">
+        <v>2</v>
+      </c>
+      <c r="BC174">
+        <v>4</v>
+      </c>
+      <c r="BD174">
+        <v>1.46</v>
+      </c>
+      <c r="BE174">
+        <v>8.1</v>
+      </c>
+      <c r="BF174">
+        <v>3.55</v>
+      </c>
+      <c r="BG174">
+        <v>1.36</v>
+      </c>
+      <c r="BH174">
+        <v>2.95</v>
+      </c>
+      <c r="BI174">
+        <v>1.67</v>
+      </c>
+      <c r="BJ174">
+        <v>2.12</v>
+      </c>
+      <c r="BK174">
+        <v>2.15</v>
+      </c>
+      <c r="BL174">
+        <v>1.65</v>
+      </c>
+      <c r="BM174">
+        <v>2.95</v>
+      </c>
+      <c r="BN174">
+        <v>1.37</v>
+      </c>
+      <c r="BO174">
+        <v>4.1</v>
+      </c>
+      <c r="BP174">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7345667</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45388.89583333334</v>
+      </c>
+      <c r="F175">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s">
+        <v>93</v>
+      </c>
+      <c r="H175" t="s">
+        <v>91</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175">
+        <v>2</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+      <c r="M175">
+        <v>2</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>197</v>
+      </c>
+      <c r="P175" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q175">
+        <v>2.5</v>
+      </c>
+      <c r="R175">
+        <v>2</v>
+      </c>
+      <c r="S175">
+        <v>5.5</v>
+      </c>
+      <c r="T175">
+        <v>1.53</v>
+      </c>
+      <c r="U175">
+        <v>2.38</v>
+      </c>
+      <c r="V175">
+        <v>3.75</v>
+      </c>
+      <c r="W175">
+        <v>1.25</v>
+      </c>
+      <c r="X175">
+        <v>11</v>
+      </c>
+      <c r="Y175">
+        <v>1.05</v>
+      </c>
+      <c r="Z175">
+        <v>1.75</v>
+      </c>
+      <c r="AA175">
+        <v>3.3</v>
+      </c>
+      <c r="AB175">
+        <v>5.25</v>
+      </c>
+      <c r="AC175">
+        <v>0</v>
+      </c>
+      <c r="AD175">
+        <v>0</v>
+      </c>
+      <c r="AE175">
+        <v>1.56</v>
+      </c>
+      <c r="AF175">
+        <v>2.48</v>
+      </c>
+      <c r="AG175">
+        <v>2.5</v>
+      </c>
+      <c r="AH175">
+        <v>1.5</v>
+      </c>
+      <c r="AI175">
+        <v>2.25</v>
+      </c>
+      <c r="AJ175">
+        <v>1.57</v>
+      </c>
+      <c r="AK175">
+        <v>0</v>
+      </c>
+      <c r="AL175">
+        <v>0</v>
+      </c>
+      <c r="AM175">
+        <v>0</v>
+      </c>
+      <c r="AN175">
+        <v>1.33</v>
+      </c>
+      <c r="AO175">
+        <v>0.83</v>
+      </c>
+      <c r="AP175">
+        <v>1.14</v>
+      </c>
+      <c r="AQ175">
+        <v>1.14</v>
+      </c>
+      <c r="AR175">
+        <v>1.61</v>
+      </c>
+      <c r="AS175">
+        <v>1.26</v>
+      </c>
+      <c r="AT175">
+        <v>2.87</v>
+      </c>
+      <c r="AU175">
+        <v>6</v>
+      </c>
+      <c r="AV175">
+        <v>5</v>
+      </c>
+      <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>5</v>
+      </c>
+      <c r="AY175">
+        <v>14</v>
+      </c>
+      <c r="AZ175">
+        <v>10</v>
+      </c>
+      <c r="BA175">
+        <v>10</v>
+      </c>
+      <c r="BB175">
+        <v>3</v>
+      </c>
+      <c r="BC175">
+        <v>13</v>
+      </c>
+      <c r="BD175">
+        <v>0</v>
+      </c>
+      <c r="BE175">
+        <v>0</v>
+      </c>
+      <c r="BF175">
+        <v>0</v>
+      </c>
+      <c r="BG175">
+        <v>0</v>
+      </c>
+      <c r="BH175">
+        <v>0</v>
+      </c>
+      <c r="BI175">
+        <v>0</v>
+      </c>
+      <c r="BJ175">
+        <v>0</v>
+      </c>
+      <c r="BK175">
+        <v>0</v>
+      </c>
+      <c r="BL175">
+        <v>0</v>
+      </c>
+      <c r="BM175">
+        <v>0</v>
+      </c>
+      <c r="BN175">
+        <v>0</v>
+      </c>
+      <c r="BO175">
+        <v>0</v>
+      </c>
+      <c r="BP175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7345655</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45389.66666666666</v>
+      </c>
+      <c r="F176">
+        <v>13</v>
+      </c>
+      <c r="G176" t="s">
+        <v>74</v>
+      </c>
+      <c r="H176" t="s">
+        <v>70</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176">
+        <v>0</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>3</v>
+      </c>
+      <c r="M176">
+        <v>2</v>
+      </c>
+      <c r="N176">
+        <v>5</v>
+      </c>
+      <c r="O176" t="s">
+        <v>198</v>
+      </c>
+      <c r="P176" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q176">
+        <v>3.75</v>
+      </c>
+      <c r="R176">
+        <v>1.91</v>
+      </c>
+      <c r="S176">
+        <v>3.4</v>
+      </c>
+      <c r="T176">
+        <v>1.62</v>
+      </c>
+      <c r="U176">
+        <v>2.2</v>
+      </c>
+      <c r="V176">
+        <v>4</v>
+      </c>
+      <c r="W176">
+        <v>1.22</v>
+      </c>
+      <c r="X176">
+        <v>13</v>
+      </c>
+      <c r="Y176">
+        <v>1.04</v>
+      </c>
+      <c r="Z176">
+        <v>2.9</v>
+      </c>
+      <c r="AA176">
+        <v>3.1</v>
+      </c>
+      <c r="AB176">
+        <v>2.6</v>
+      </c>
+      <c r="AC176">
+        <v>1.12</v>
+      </c>
+      <c r="AD176">
+        <v>5.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.56</v>
+      </c>
+      <c r="AF176">
+        <v>2.44</v>
+      </c>
+      <c r="AG176">
+        <v>2.5</v>
+      </c>
+      <c r="AH176">
+        <v>1.5</v>
+      </c>
+      <c r="AI176">
+        <v>2.1</v>
+      </c>
+      <c r="AJ176">
+        <v>1.67</v>
+      </c>
+      <c r="AK176">
+        <v>1.5</v>
+      </c>
+      <c r="AL176">
+        <v>1.35</v>
+      </c>
+      <c r="AM176">
+        <v>1.44</v>
+      </c>
+      <c r="AN176">
+        <v>1.83</v>
+      </c>
+      <c r="AO176">
+        <v>1.8</v>
+      </c>
+      <c r="AP176">
+        <v>2</v>
+      </c>
+      <c r="AQ176">
+        <v>1.5</v>
+      </c>
+      <c r="AR176">
+        <v>1.55</v>
+      </c>
+      <c r="AS176">
+        <v>1.45</v>
+      </c>
+      <c r="AT176">
+        <v>3</v>
+      </c>
+      <c r="AU176">
+        <v>6</v>
+      </c>
+      <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>1</v>
+      </c>
+      <c r="AX176">
+        <v>13</v>
+      </c>
+      <c r="AY176">
+        <v>7</v>
+      </c>
+      <c r="AZ176">
+        <v>19</v>
+      </c>
+      <c r="BA176">
+        <v>4</v>
+      </c>
+      <c r="BB176">
+        <v>8</v>
+      </c>
+      <c r="BC176">
+        <v>12</v>
+      </c>
+      <c r="BD176">
+        <v>2.08</v>
+      </c>
+      <c r="BE176">
+        <v>7.7</v>
+      </c>
+      <c r="BF176">
+        <v>2.05</v>
+      </c>
+      <c r="BG176">
+        <v>1.27</v>
+      </c>
+      <c r="BH176">
+        <v>3.6</v>
+      </c>
+      <c r="BI176">
+        <v>1.46</v>
+      </c>
+      <c r="BJ176">
+        <v>2.55</v>
+      </c>
+      <c r="BK176">
+        <v>2.25</v>
+      </c>
+      <c r="BL176">
+        <v>1.97</v>
+      </c>
+      <c r="BM176">
+        <v>2.25</v>
+      </c>
+      <c r="BN176">
+        <v>1.6</v>
+      </c>
+      <c r="BO176">
+        <v>2.9</v>
+      </c>
+      <c r="BP176">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7345658</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45389.66666666666</v>
+      </c>
+      <c r="F177">
+        <v>13</v>
+      </c>
+      <c r="G177" t="s">
+        <v>72</v>
+      </c>
+      <c r="H177" t="s">
+        <v>85</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>2</v>
+      </c>
+      <c r="L177">
+        <v>3</v>
+      </c>
+      <c r="M177">
+        <v>2</v>
+      </c>
+      <c r="N177">
+        <v>5</v>
+      </c>
+      <c r="O177" t="s">
+        <v>199</v>
+      </c>
+      <c r="P177" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q177">
+        <v>2.63</v>
+      </c>
+      <c r="R177">
+        <v>2.05</v>
+      </c>
+      <c r="S177">
+        <v>4.5</v>
+      </c>
+      <c r="T177">
+        <v>1.53</v>
+      </c>
+      <c r="U177">
+        <v>2.38</v>
+      </c>
+      <c r="V177">
+        <v>3.75</v>
+      </c>
+      <c r="W177">
+        <v>1.25</v>
+      </c>
+      <c r="X177">
+        <v>11</v>
+      </c>
+      <c r="Y177">
+        <v>1.05</v>
+      </c>
+      <c r="Z177">
+        <v>1.95</v>
+      </c>
+      <c r="AA177">
+        <v>3.2</v>
+      </c>
+      <c r="AB177">
+        <v>4.5</v>
+      </c>
+      <c r="AC177">
+        <v>1.08</v>
+      </c>
+      <c r="AD177">
+        <v>7.15</v>
+      </c>
+      <c r="AE177">
+        <v>1.47</v>
+      </c>
+      <c r="AF177">
+        <v>2.59</v>
+      </c>
+      <c r="AG177">
+        <v>2.2</v>
+      </c>
+      <c r="AH177">
+        <v>1.65</v>
+      </c>
+      <c r="AI177">
+        <v>1.91</v>
+      </c>
+      <c r="AJ177">
+        <v>1.8</v>
+      </c>
+      <c r="AK177">
+        <v>1.22</v>
+      </c>
+      <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>1.92</v>
+      </c>
+      <c r="AN177">
+        <v>0.83</v>
+      </c>
+      <c r="AO177">
+        <v>1</v>
+      </c>
+      <c r="AP177">
+        <v>1.14</v>
+      </c>
+      <c r="AQ177">
+        <v>0.86</v>
+      </c>
+      <c r="AR177">
+        <v>1.88</v>
+      </c>
+      <c r="AS177">
+        <v>1.29</v>
+      </c>
+      <c r="AT177">
+        <v>3.17</v>
+      </c>
+      <c r="AU177">
+        <v>10</v>
+      </c>
+      <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>9</v>
+      </c>
+      <c r="AX177">
+        <v>5</v>
+      </c>
+      <c r="AY177">
+        <v>19</v>
+      </c>
+      <c r="AZ177">
+        <v>9</v>
+      </c>
+      <c r="BA177">
+        <v>6</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>8</v>
+      </c>
+      <c r="BD177">
+        <v>1.59</v>
+      </c>
+      <c r="BE177">
+        <v>9</v>
+      </c>
+      <c r="BF177">
+        <v>2.86</v>
+      </c>
+      <c r="BG177">
+        <v>1.17</v>
+      </c>
+      <c r="BH177">
+        <v>4.8</v>
+      </c>
+      <c r="BI177">
+        <v>1.3</v>
+      </c>
+      <c r="BJ177">
+        <v>3.25</v>
+      </c>
+      <c r="BK177">
+        <v>1.91</v>
+      </c>
+      <c r="BL177">
+        <v>2.4</v>
+      </c>
+      <c r="BM177">
+        <v>1.85</v>
+      </c>
+      <c r="BN177">
+        <v>1.9</v>
+      </c>
+      <c r="BO177">
+        <v>2.3</v>
+      </c>
+      <c r="BP177">
+        <v>1.57</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,12 @@
     <t>['38', '59', '80']</t>
   </si>
   <si>
+    <t>['6', '56']</t>
+  </si>
+  <si>
+    <t>['67', '87']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -842,6 +848,9 @@
   </si>
   <si>
     <t>['25', '90+3']</t>
+  </si>
+  <si>
+    <t>['14']</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1955,7 +1964,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2080,7 +2089,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2286,7 +2295,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2492,7 +2501,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2698,7 +2707,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3110,7 +3119,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3191,7 +3200,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ10">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3600,7 +3609,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3934,7 +3943,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4012,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4552,7 +4561,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4758,7 +4767,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5170,7 +5179,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5994,7 +6003,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6278,7 +6287,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ25">
         <v>0.17</v>
@@ -6406,7 +6415,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6818,7 +6827,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -7024,7 +7033,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7436,7 +7445,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7517,7 +7526,7 @@
         <v>2</v>
       </c>
       <c r="AQ31">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR31">
         <v>2.28</v>
@@ -8132,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ34">
         <v>1.33</v>
@@ -8753,7 +8762,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ37">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR37">
         <v>1.86</v>
@@ -9084,7 +9093,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9496,7 +9505,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9702,7 +9711,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10732,7 +10741,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11144,7 +11153,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11222,7 +11231,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ49">
         <v>0.67</v>
@@ -11350,7 +11359,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11968,7 +11977,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12174,7 +12183,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12792,7 +12801,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12998,7 +13007,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13410,7 +13419,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13697,7 +13706,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR61">
         <v>1.83</v>
@@ -14028,7 +14037,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14234,7 +14243,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14315,7 +14324,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ64">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR64">
         <v>1.54</v>
@@ -15058,7 +15067,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15470,7 +15479,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15676,7 +15685,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16088,7 +16097,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16166,7 +16175,7 @@
         <v>3</v>
       </c>
       <c r="AP73">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ73">
         <v>2.5</v>
@@ -16294,7 +16303,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16706,7 +16715,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16912,7 +16921,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -16990,7 +16999,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
         <v>1.5</v>
@@ -17118,7 +17127,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -18354,7 +18363,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18560,7 +18569,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19178,7 +19187,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19384,7 +19393,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19796,7 +19805,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19874,7 +19883,7 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ91">
         <v>1.33</v>
@@ -20289,7 +20298,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ93">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR93">
         <v>1.25</v>
@@ -20414,7 +20423,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20620,7 +20629,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21032,7 +21041,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21238,7 +21247,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21650,7 +21659,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21937,7 +21946,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ101">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR101">
         <v>0.96</v>
@@ -22062,7 +22071,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22886,7 +22895,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23298,7 +23307,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23504,7 +23513,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23710,7 +23719,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23916,7 +23925,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -23997,7 +24006,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ111">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR111">
         <v>1.76</v>
@@ -24122,7 +24131,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24328,7 +24337,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24740,7 +24749,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25024,7 +25033,7 @@
         <v>0.5</v>
       </c>
       <c r="AP116">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116">
         <v>0.83</v>
@@ -25233,7 +25242,7 @@
         <v>2</v>
       </c>
       <c r="AQ117">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.88</v>
@@ -25564,7 +25573,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25976,7 +25985,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26260,7 +26269,7 @@
         <v>0.75</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ122">
         <v>0.71</v>
@@ -27418,7 +27427,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28242,7 +28251,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28654,7 +28663,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28860,7 +28869,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29066,7 +29075,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29272,7 +29281,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29353,7 +29362,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ137">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR137">
         <v>1.56</v>
@@ -29478,7 +29487,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29684,7 +29693,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29890,7 +29899,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30792,7 +30801,7 @@
         <v>1.6</v>
       </c>
       <c r="AP144">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ144">
         <v>1.71</v>
@@ -31126,7 +31135,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31822,7 +31831,7 @@
         <v>1.2</v>
       </c>
       <c r="AP149">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ149">
         <v>0.86</v>
@@ -32156,7 +32165,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32443,7 +32452,7 @@
         <v>3</v>
       </c>
       <c r="AQ152">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AR152">
         <v>1.69</v>
@@ -32568,7 +32577,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32649,7 +32658,7 @@
         <v>1</v>
       </c>
       <c r="AQ153">
-        <v>2.5</v>
+        <v>2.14</v>
       </c>
       <c r="AR153">
         <v>1.5</v>
@@ -32980,7 +32989,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33186,7 +33195,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33392,7 +33401,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33804,7 +33813,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34422,7 +34431,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35246,7 +35255,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35452,7 +35461,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35658,7 +35667,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36276,7 +36285,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36482,7 +36491,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -37100,7 +37109,7 @@
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q175">
         <v>2.5</v>
@@ -37306,7 +37315,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q176">
         <v>3.75</v>
@@ -37399,22 +37408,22 @@
         <v>3</v>
       </c>
       <c r="AU176">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV176">
         <v>6</v>
       </c>
       <c r="AW176">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX176">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY176">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ176">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA176">
         <v>4</v>
@@ -37512,7 +37521,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q177">
         <v>2.63</v>
@@ -37605,22 +37614,22 @@
         <v>3.17</v>
       </c>
       <c r="AU177">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV177">
         <v>4</v>
       </c>
       <c r="AW177">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX177">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY177">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ177">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA177">
         <v>6</v>
@@ -37669,6 +37678,418 @@
       </c>
       <c r="BP177">
         <v>1.57</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7345666</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45389.77083333334</v>
+      </c>
+      <c r="F178">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>80</v>
+      </c>
+      <c r="H178" t="s">
+        <v>87</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>2</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>200</v>
+      </c>
+      <c r="P178" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q178">
+        <v>2.75</v>
+      </c>
+      <c r="R178">
+        <v>2</v>
+      </c>
+      <c r="S178">
+        <v>4.5</v>
+      </c>
+      <c r="T178">
+        <v>1.5</v>
+      </c>
+      <c r="U178">
+        <v>2.5</v>
+      </c>
+      <c r="V178">
+        <v>3.5</v>
+      </c>
+      <c r="W178">
+        <v>1.29</v>
+      </c>
+      <c r="X178">
+        <v>11</v>
+      </c>
+      <c r="Y178">
+        <v>1.05</v>
+      </c>
+      <c r="Z178">
+        <v>2</v>
+      </c>
+      <c r="AA178">
+        <v>3.4</v>
+      </c>
+      <c r="AB178">
+        <v>3.8</v>
+      </c>
+      <c r="AC178">
+        <v>1.07</v>
+      </c>
+      <c r="AD178">
+        <v>7.61</v>
+      </c>
+      <c r="AE178">
+        <v>1.44</v>
+      </c>
+      <c r="AF178">
+        <v>2.72</v>
+      </c>
+      <c r="AG178">
+        <v>2.25</v>
+      </c>
+      <c r="AH178">
+        <v>1.62</v>
+      </c>
+      <c r="AI178">
+        <v>2.1</v>
+      </c>
+      <c r="AJ178">
+        <v>1.67</v>
+      </c>
+      <c r="AK178">
+        <v>1.25</v>
+      </c>
+      <c r="AL178">
+        <v>1.28</v>
+      </c>
+      <c r="AM178">
+        <v>1.85</v>
+      </c>
+      <c r="AN178">
+        <v>1.17</v>
+      </c>
+      <c r="AO178">
+        <v>2.5</v>
+      </c>
+      <c r="AP178">
+        <v>1.43</v>
+      </c>
+      <c r="AQ178">
+        <v>2.14</v>
+      </c>
+      <c r="AR178">
+        <v>1.89</v>
+      </c>
+      <c r="AS178">
+        <v>1.54</v>
+      </c>
+      <c r="AT178">
+        <v>3.43</v>
+      </c>
+      <c r="AU178">
+        <v>6</v>
+      </c>
+      <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>5</v>
+      </c>
+      <c r="AX178">
+        <v>5</v>
+      </c>
+      <c r="AY178">
+        <v>11</v>
+      </c>
+      <c r="AZ178">
+        <v>10</v>
+      </c>
+      <c r="BA178">
+        <v>9</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>13</v>
+      </c>
+      <c r="BD178">
+        <v>1.46</v>
+      </c>
+      <c r="BE178">
+        <v>8.1</v>
+      </c>
+      <c r="BF178">
+        <v>3.55</v>
+      </c>
+      <c r="BG178">
+        <v>1.38</v>
+      </c>
+      <c r="BH178">
+        <v>2.8</v>
+      </c>
+      <c r="BI178">
+        <v>1.67</v>
+      </c>
+      <c r="BJ178">
+        <v>2.1</v>
+      </c>
+      <c r="BK178">
+        <v>2.1</v>
+      </c>
+      <c r="BL178">
+        <v>1.67</v>
+      </c>
+      <c r="BM178">
+        <v>2.75</v>
+      </c>
+      <c r="BN178">
+        <v>1.4</v>
+      </c>
+      <c r="BO178">
+        <v>3.8</v>
+      </c>
+      <c r="BP178">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7345656</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45389.875</v>
+      </c>
+      <c r="F179">
+        <v>13</v>
+      </c>
+      <c r="G179" t="s">
+        <v>82</v>
+      </c>
+      <c r="H179" t="s">
+        <v>86</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>2</v>
+      </c>
+      <c r="M179">
+        <v>1</v>
+      </c>
+      <c r="N179">
+        <v>3</v>
+      </c>
+      <c r="O179" t="s">
+        <v>201</v>
+      </c>
+      <c r="P179" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q179">
+        <v>1.62</v>
+      </c>
+      <c r="R179">
+        <v>2.75</v>
+      </c>
+      <c r="S179">
+        <v>10</v>
+      </c>
+      <c r="T179">
+        <v>1.36</v>
+      </c>
+      <c r="U179">
+        <v>3</v>
+      </c>
+      <c r="V179">
+        <v>2.63</v>
+      </c>
+      <c r="W179">
+        <v>1.44</v>
+      </c>
+      <c r="X179">
+        <v>7</v>
+      </c>
+      <c r="Y179">
+        <v>1.1</v>
+      </c>
+      <c r="Z179">
+        <v>1.2</v>
+      </c>
+      <c r="AA179">
+        <v>6.5</v>
+      </c>
+      <c r="AB179">
+        <v>15</v>
+      </c>
+      <c r="AC179">
+        <v>1.04</v>
+      </c>
+      <c r="AD179">
+        <v>12</v>
+      </c>
+      <c r="AE179">
+        <v>1.26</v>
+      </c>
+      <c r="AF179">
+        <v>3.67</v>
+      </c>
+      <c r="AG179">
+        <v>1.57</v>
+      </c>
+      <c r="AH179">
+        <v>2.35</v>
+      </c>
+      <c r="AI179">
+        <v>2.2</v>
+      </c>
+      <c r="AJ179">
+        <v>1.62</v>
+      </c>
+      <c r="AK179">
+        <v>1.06</v>
+      </c>
+      <c r="AL179">
+        <v>1.2</v>
+      </c>
+      <c r="AM179">
+        <v>2.88</v>
+      </c>
+      <c r="AN179">
+        <v>2</v>
+      </c>
+      <c r="AO179">
+        <v>0.57</v>
+      </c>
+      <c r="AP179">
+        <v>2.14</v>
+      </c>
+      <c r="AQ179">
+        <v>0.5</v>
+      </c>
+      <c r="AR179">
+        <v>2.3</v>
+      </c>
+      <c r="AS179">
+        <v>1.05</v>
+      </c>
+      <c r="AT179">
+        <v>3.35</v>
+      </c>
+      <c r="AU179">
+        <v>8</v>
+      </c>
+      <c r="AV179">
+        <v>3</v>
+      </c>
+      <c r="AW179">
+        <v>11</v>
+      </c>
+      <c r="AX179">
+        <v>2</v>
+      </c>
+      <c r="AY179">
+        <v>19</v>
+      </c>
+      <c r="AZ179">
+        <v>5</v>
+      </c>
+      <c r="BA179">
+        <v>6</v>
+      </c>
+      <c r="BB179">
+        <v>1</v>
+      </c>
+      <c r="BC179">
+        <v>7</v>
+      </c>
+      <c r="BD179">
+        <v>1.31</v>
+      </c>
+      <c r="BE179">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="BF179">
+        <v>4.46</v>
+      </c>
+      <c r="BG179">
+        <v>1.14</v>
+      </c>
+      <c r="BH179">
+        <v>5.6</v>
+      </c>
+      <c r="BI179">
+        <v>1.25</v>
+      </c>
+      <c r="BJ179">
+        <v>3.7</v>
+      </c>
+      <c r="BK179">
+        <v>1.91</v>
+      </c>
+      <c r="BL179">
+        <v>2.65</v>
+      </c>
+      <c r="BM179">
+        <v>1.7</v>
+      </c>
+      <c r="BN179">
+        <v>2.05</v>
+      </c>
+      <c r="BO179">
+        <v>2.1</v>
+      </c>
+      <c r="BP179">
+        <v>1.7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -271,16 +271,16 @@
     <t>Huracán</t>
   </si>
   <si>
+    <t>Rosario Central</t>
+  </si>
+  <si>
     <t>Gimnasia La Plata</t>
   </si>
   <si>
-    <t>Rosario Central</t>
+    <t>Vélez Sarsfield</t>
   </si>
   <si>
     <t>Lanús</t>
-  </si>
-  <si>
-    <t>Vélez Sarsfield</t>
   </si>
   <si>
     <t>Argentinos Juniors</t>
@@ -439,10 +439,10 @@
     <t>['50']</t>
   </si>
   <si>
-    <t>['82', '90+2']</t>
+    <t>['2', '50']</t>
   </si>
   <si>
-    <t>['2', '50']</t>
+    <t>['82', '90+2']</t>
   </si>
   <si>
     <t>['29', '31', '40', '71']</t>
@@ -517,10 +517,10 @@
     <t>['22', '34']</t>
   </si>
   <si>
-    <t>['78', '88']</t>
+    <t>['22', '80', '90+3']</t>
   </si>
   <si>
-    <t>['22', '80', '90+3']</t>
+    <t>['78', '88']</t>
   </si>
   <si>
     <t>['38']</t>
@@ -532,10 +532,10 @@
     <t>['12']</t>
   </si>
   <si>
-    <t>['3', '27', '54', '68']</t>
+    <t>['34', '62']</t>
   </si>
   <si>
-    <t>['34', '62']</t>
+    <t>['3', '27', '54', '68']</t>
   </si>
   <si>
     <t>['26', '49', '60', '81']</t>
@@ -604,22 +604,25 @@
     <t>['9', '30', '49', '56', '72']</t>
   </si>
   <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['37']</t>
   </si>
   <si>
-    <t>['27']</t>
+    <t>['38', '59', '80']</t>
   </si>
   <si>
     <t>['38', '56', '58']</t>
-  </si>
-  <si>
-    <t>['38', '59', '80']</t>
   </si>
   <si>
     <t>['6', '56']</t>
   </si>
   <si>
     <t>['67', '87']</t>
+  </si>
+  <si>
+    <t>['5', '53', '90+6']</t>
   </si>
   <si>
     <t>['90+5']</t>
@@ -694,10 +697,10 @@
     <t>['34']</t>
   </si>
   <si>
-    <t>['77']</t>
+    <t>['73']</t>
   </si>
   <si>
-    <t>['73']</t>
+    <t>['77']</t>
   </si>
   <si>
     <t>['69', '90+1']</t>
@@ -787,10 +790,10 @@
     <t>['45+3']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['42']</t>
   </si>
   <si>
-    <t>['42']</t>
+    <t>['41']</t>
   </si>
   <si>
     <t>['33', '47']</t>
@@ -844,13 +847,16 @@
     <t>['3', '24']</t>
   </si>
   <si>
+    <t>['25', '90+3']</t>
+  </si>
+  <si>
     <t>['80', '85']</t>
   </si>
   <si>
-    <t>['25', '90+3']</t>
+    <t>['14']</t>
   </si>
   <si>
-    <t>['14']</t>
+    <t>['45+4']</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP179"/>
+  <dimension ref="A1:BP182"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1758,7 +1764,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ3">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1859,7 +1865,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -2089,7 +2095,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2271,7 +2277,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2295,7 +2301,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2477,7 +2483,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -2501,7 +2507,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2707,7 +2713,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -2788,7 +2794,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3095,7 +3101,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3119,7 +3125,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3403,7 +3409,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3815,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ13">
         <v>1.71</v>
@@ -3943,7 +3949,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4561,7 +4567,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4725,7 +4731,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7345497</v>
+        <v>7345499</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4743,85 +4749,85 @@
         <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>98</v>
       </c>
       <c r="Q18">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R18">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S18">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T18">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="U18">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V18">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="W18">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="X18">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y18">
         <v>1.03</v>
       </c>
       <c r="Z18">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="AA18">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AB18">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="AC18">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="AD18">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="AE18">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="AF18">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AG18">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="AH18">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="AI18">
         <v>2.38</v>
@@ -4830,13 +4836,13 @@
         <v>1.53</v>
       </c>
       <c r="AK18">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="AL18">
-        <v>1.35</v>
+        <v>1.4</v>
       </c>
       <c r="AM18">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AN18">
         <v>0</v>
@@ -4845,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4860,70 +4866,70 @@
         <v>0</v>
       </c>
       <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>3</v>
+      </c>
+      <c r="AW18">
+        <v>3</v>
+      </c>
+      <c r="AX18">
+        <v>4</v>
+      </c>
+      <c r="AY18">
+        <v>6</v>
+      </c>
+      <c r="AZ18">
         <v>7</v>
       </c>
-      <c r="AV18">
+      <c r="BA18">
+        <v>4</v>
+      </c>
+      <c r="BB18">
         <v>6</v>
       </c>
-      <c r="AW18">
+      <c r="BC18">
         <v>10</v>
       </c>
-      <c r="AX18">
-        <v>2</v>
-      </c>
-      <c r="AY18">
-        <v>17</v>
-      </c>
-      <c r="AZ18">
-        <v>8</v>
-      </c>
-      <c r="BA18">
-        <v>6</v>
-      </c>
-      <c r="BB18">
-        <v>3</v>
-      </c>
-      <c r="BC18">
-        <v>9</v>
-      </c>
       <c r="BD18">
-        <v>1.62</v>
+        <v>1.87</v>
       </c>
       <c r="BE18">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="BF18">
-        <v>2.91</v>
+        <v>2.37</v>
       </c>
       <c r="BG18">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BH18">
-        <v>3.08</v>
+        <v>3.52</v>
       </c>
       <c r="BI18">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="BJ18">
-        <v>2.26</v>
+        <v>2.5</v>
       </c>
       <c r="BK18">
-        <v>2.03</v>
+        <v>1.92</v>
       </c>
       <c r="BL18">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="BM18">
-        <v>2.72</v>
+        <v>2.39</v>
       </c>
       <c r="BN18">
-        <v>1.46</v>
+        <v>1.58</v>
       </c>
       <c r="BO18">
-        <v>3.87</v>
+        <v>3.29</v>
       </c>
       <c r="BP18">
-        <v>1.26</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4931,7 +4937,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7345499</v>
+        <v>7345497</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4949,85 +4955,85 @@
         <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O19" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>98</v>
+        <v>210</v>
       </c>
       <c r="Q19">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="R19">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S19">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="T19">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="U19">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V19">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="W19">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="X19">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y19">
         <v>1.03</v>
       </c>
       <c r="Z19">
+        <v>1.95</v>
+      </c>
+      <c r="AA19">
+        <v>3.2</v>
+      </c>
+      <c r="AB19">
+        <v>4.5</v>
+      </c>
+      <c r="AC19">
+        <v>1.11</v>
+      </c>
+      <c r="AD19">
+        <v>5.75</v>
+      </c>
+      <c r="AE19">
+        <v>1.55</v>
+      </c>
+      <c r="AF19">
         <v>2.25</v>
       </c>
-      <c r="AA19">
-        <v>2.9</v>
-      </c>
-      <c r="AB19">
-        <v>3.8</v>
-      </c>
-      <c r="AC19">
-        <v>1.14</v>
-      </c>
-      <c r="AD19">
-        <v>5</v>
-      </c>
-      <c r="AE19">
-        <v>1.57</v>
-      </c>
-      <c r="AF19">
-        <v>2.3</v>
-      </c>
       <c r="AG19">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH19">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="AI19">
         <v>2.38</v>
@@ -5036,13 +5042,13 @@
         <v>1.53</v>
       </c>
       <c r="AK19">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="AL19">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AM19">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="AN19">
         <v>0</v>
@@ -5051,10 +5057,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5066,70 +5072,70 @@
         <v>0</v>
       </c>
       <c r="AU19">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW19">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AX19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY19">
+        <v>17</v>
+      </c>
+      <c r="AZ19">
+        <v>8</v>
+      </c>
+      <c r="BA19">
         <v>6</v>
       </c>
-      <c r="AZ19">
-        <v>7</v>
-      </c>
-      <c r="BA19">
-        <v>4</v>
-      </c>
       <c r="BB19">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC19">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD19">
-        <v>1.87</v>
+        <v>1.62</v>
       </c>
       <c r="BE19">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="BF19">
-        <v>2.37</v>
+        <v>2.91</v>
       </c>
       <c r="BG19">
-        <v>1.3</v>
+        <v>1.38</v>
       </c>
       <c r="BH19">
-        <v>3.52</v>
+        <v>3.08</v>
       </c>
       <c r="BI19">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="BJ19">
-        <v>2.5</v>
+        <v>2.26</v>
       </c>
       <c r="BK19">
-        <v>1.92</v>
+        <v>2.03</v>
       </c>
       <c r="BL19">
-        <v>1.89</v>
+        <v>1.74</v>
       </c>
       <c r="BM19">
-        <v>2.39</v>
+        <v>2.72</v>
       </c>
       <c r="BN19">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="BO19">
-        <v>3.29</v>
+        <v>3.87</v>
       </c>
       <c r="BP19">
-        <v>1.34</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -5137,7 +5143,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7345501</v>
+        <v>7345500</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -5155,7 +5161,7 @@
         <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5170,16 +5176,16 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5191,37 +5197,37 @@
         <v>4</v>
       </c>
       <c r="T20">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="W20">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X20">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y20">
         <v>1.02</v>
       </c>
       <c r="Z20">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AA20">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AB20">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AC20">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AD20">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AE20">
         <v>1.67</v>
@@ -5230,10 +5236,10 @@
         <v>2.1</v>
       </c>
       <c r="AG20">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AH20">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI20">
         <v>2.5</v>
@@ -5245,10 +5251,10 @@
         <v>1.37</v>
       </c>
       <c r="AL20">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AM20">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -5257,85 +5263,85 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="AT20">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="AU20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV20">
         <v>3</v>
       </c>
       <c r="AW20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20">
         <v>13</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD20">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="BE20">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF20">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="BG20">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BH20">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="BI20">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="BJ20">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="BK20">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="BL20">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="BM20">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="BN20">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BO20">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="BP20">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -5343,7 +5349,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7345500</v>
+        <v>7345501</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5361,7 +5367,7 @@
         <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5376,16 +5382,16 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5397,37 +5403,37 @@
         <v>4</v>
       </c>
       <c r="T21">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V21">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="W21">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X21">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y21">
         <v>1.02</v>
       </c>
       <c r="Z21">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AA21">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AB21">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AC21">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AD21">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AE21">
         <v>1.67</v>
@@ -5436,10 +5442,10 @@
         <v>2.1</v>
       </c>
       <c r="AG21">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AH21">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI21">
         <v>2.5</v>
@@ -5451,97 +5457,97 @@
         <v>1.37</v>
       </c>
       <c r="AL21">
+        <v>1.41</v>
+      </c>
+      <c r="AM21">
+        <v>1.46</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>1.33</v>
+      </c>
+      <c r="AQ21">
+        <v>2.17</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>1.42</v>
       </c>
-      <c r="AM21">
-        <v>1.44</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>3</v>
-      </c>
-      <c r="AP21">
-        <v>2</v>
-      </c>
-      <c r="AQ21">
-        <v>2</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>1.97</v>
-      </c>
       <c r="AT21">
-        <v>1.97</v>
+        <v>1.42</v>
       </c>
       <c r="AU21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV21">
         <v>3</v>
       </c>
       <c r="AW21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY21">
         <v>13</v>
       </c>
       <c r="AZ21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD21">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="BE21">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="BF21">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="BG21">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BH21">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="BI21">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="BJ21">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="BK21">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="BL21">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="BM21">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="BN21">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BO21">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="BP21">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -6003,7 +6009,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6290,7 +6296,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ25">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR25">
         <v>0.93</v>
@@ -6415,7 +6421,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6702,7 +6708,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR27">
         <v>0</v>
@@ -6827,7 +6833,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -7033,7 +7039,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7215,7 +7221,7 @@
         <v>94</v>
       </c>
       <c r="H30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -7239,7 +7245,7 @@
         <v>98</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>2.75</v>
@@ -7421,7 +7427,7 @@
         <v>75</v>
       </c>
       <c r="H31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I31">
         <v>3</v>
@@ -7445,7 +7451,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7732,7 +7738,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR32">
         <v>1.01</v>
@@ -8039,7 +8045,7 @@
         <v>82</v>
       </c>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -8347,7 +8353,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ35">
         <v>0.71</v>
@@ -8657,7 +8663,7 @@
         <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -8759,7 +8765,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ37">
         <v>2.14</v>
@@ -9093,7 +9099,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9505,7 +9511,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9711,7 +9717,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10096,7 +10102,7 @@
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H44" t="s">
         <v>77</v>
@@ -10616,7 +10622,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ46">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR46">
         <v>1.82</v>
@@ -10741,7 +10747,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10920,10 +10926,10 @@
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -11153,7 +11159,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11359,7 +11365,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11852,7 +11858,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
         <v>1.01</v>
@@ -11977,7 +11983,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12183,7 +12189,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12362,7 +12368,7 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s">
         <v>79</v>
@@ -12801,7 +12807,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13007,7 +13013,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13392,7 +13398,7 @@
         <v>5</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H60" t="s">
         <v>84</v>
@@ -13419,7 +13425,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13500,7 +13506,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR60">
         <v>2.22</v>
@@ -13583,7 +13589,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7345542</v>
+        <v>7345539</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13598,190 +13604,190 @@
         <v>5</v>
       </c>
       <c r="G61" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J61">
         <v>0</v>
       </c>
       <c r="K61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61">
         <v>0</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O61" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="P61" t="s">
         <v>98</v>
       </c>
       <c r="Q61">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="R61">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="S61">
-        <v>4.5</v>
+        <v>5.51</v>
       </c>
       <c r="T61">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="U61">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V61">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W61">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X61">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y61">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Z61">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AA61">
         <v>2.83</v>
       </c>
       <c r="AB61">
-        <v>3.64</v>
+        <v>4.17</v>
       </c>
       <c r="AC61">
         <v>1.11</v>
       </c>
       <c r="AD61">
-        <v>7.5</v>
+        <v>6.28</v>
       </c>
       <c r="AE61">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AF61">
-        <v>2.47</v>
+        <v>2.26</v>
       </c>
       <c r="AG61">
-        <v>2.6</v>
+        <v>2.78</v>
       </c>
       <c r="AH61">
-        <v>1.48</v>
+        <v>1.35</v>
       </c>
       <c r="AI61">
-        <v>2.2</v>
+        <v>2.43</v>
       </c>
       <c r="AJ61">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AK61">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AL61">
         <v>1.4</v>
       </c>
       <c r="AM61">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AN61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO61">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
-        <v>1.83</v>
+        <v>1.97</v>
       </c>
       <c r="AS61">
-        <v>1.55</v>
+        <v>1.19</v>
       </c>
       <c r="AT61">
-        <v>3.38</v>
+        <v>3.16</v>
       </c>
       <c r="AU61">
+        <v>9</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>8</v>
+      </c>
+      <c r="AX61">
+        <v>2</v>
+      </c>
+      <c r="AY61">
+        <v>17</v>
+      </c>
+      <c r="AZ61">
         <v>6</v>
       </c>
-      <c r="AV61">
-        <v>2</v>
-      </c>
-      <c r="AW61">
-        <v>7</v>
-      </c>
-      <c r="AX61">
-        <v>2</v>
-      </c>
-      <c r="AY61">
-        <v>13</v>
-      </c>
-      <c r="AZ61">
-        <v>4</v>
-      </c>
       <c r="BA61">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB61">
+        <v>0</v>
+      </c>
+      <c r="BC61">
         <v>5</v>
-      </c>
-      <c r="BC61">
-        <v>11</v>
       </c>
       <c r="BD61">
         <v>1.53</v>
       </c>
       <c r="BE61">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF61">
-        <v>2.91</v>
+        <v>2.97</v>
       </c>
       <c r="BG61">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="BH61">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="BI61">
-        <v>1.47</v>
+        <v>1.92</v>
       </c>
       <c r="BJ61">
-        <v>2.55</v>
+        <v>1.88</v>
       </c>
       <c r="BK61">
-        <v>1.82</v>
+        <v>2.25</v>
       </c>
       <c r="BL61">
-        <v>1.98</v>
+        <v>1.6</v>
       </c>
       <c r="BM61">
-        <v>2.38</v>
+        <v>2.8</v>
       </c>
       <c r="BN61">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="BO61">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="BP61">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -13789,7 +13795,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7345539</v>
+        <v>7345542</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13804,190 +13810,190 @@
         <v>5</v>
       </c>
       <c r="G62" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H62" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62">
         <v>0</v>
       </c>
       <c r="K62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="P62" t="s">
         <v>98</v>
       </c>
       <c r="Q62">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="R62">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="S62">
-        <v>5.51</v>
+        <v>4.5</v>
       </c>
       <c r="T62">
-        <v>1.63</v>
+        <v>1.57</v>
       </c>
       <c r="U62">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V62">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W62">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X62">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y62">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Z62">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="AA62">
         <v>2.83</v>
       </c>
       <c r="AB62">
-        <v>4.17</v>
+        <v>3.64</v>
       </c>
       <c r="AC62">
         <v>1.11</v>
       </c>
       <c r="AD62">
-        <v>6.28</v>
+        <v>7.5</v>
       </c>
       <c r="AE62">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AF62">
-        <v>2.26</v>
+        <v>2.47</v>
       </c>
       <c r="AG62">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AH62">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AI62">
-        <v>2.43</v>
+        <v>2.2</v>
       </c>
       <c r="AJ62">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AK62">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="AL62">
         <v>1.4</v>
       </c>
       <c r="AM62">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AN62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO62">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AP62">
+        <v>1.33</v>
+      </c>
+      <c r="AQ62">
+        <v>0.5</v>
+      </c>
+      <c r="AR62">
         <v>1.83</v>
       </c>
-      <c r="AQ62">
-        <v>1.5</v>
-      </c>
-      <c r="AR62">
-        <v>1.97</v>
-      </c>
       <c r="AS62">
-        <v>1.19</v>
+        <v>1.55</v>
       </c>
       <c r="AT62">
-        <v>3.16</v>
+        <v>3.38</v>
       </c>
       <c r="AU62">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV62">
+        <v>2</v>
+      </c>
+      <c r="AW62">
+        <v>7</v>
+      </c>
+      <c r="AX62">
+        <v>2</v>
+      </c>
+      <c r="AY62">
+        <v>13</v>
+      </c>
+      <c r="AZ62">
         <v>4</v>
       </c>
-      <c r="AW62">
-        <v>8</v>
-      </c>
-      <c r="AX62">
-        <v>2</v>
-      </c>
-      <c r="AY62">
-        <v>17</v>
-      </c>
-      <c r="AZ62">
+      <c r="BA62">
         <v>6</v>
       </c>
-      <c r="BA62">
+      <c r="BB62">
         <v>5</v>
       </c>
-      <c r="BB62">
-        <v>0</v>
-      </c>
       <c r="BC62">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="BD62">
         <v>1.53</v>
       </c>
       <c r="BE62">
-        <v>8.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BF62">
-        <v>2.97</v>
+        <v>2.91</v>
       </c>
       <c r="BG62">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="BH62">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="BI62">
-        <v>1.92</v>
+        <v>1.47</v>
       </c>
       <c r="BJ62">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="BK62">
-        <v>2.25</v>
+        <v>1.82</v>
       </c>
       <c r="BL62">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="BM62">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="BN62">
-        <v>1.38</v>
+        <v>1.54</v>
       </c>
       <c r="BO62">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="BP62">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="63" spans="1:68">
@@ -13995,7 +14001,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>7345543</v>
+        <v>7345544</v>
       </c>
       <c r="C63" t="s">
         <v>68</v>
@@ -14010,10 +14016,10 @@
         <v>5</v>
       </c>
       <c r="G63" t="s">
-        <v>71</v>
+        <v>97</v>
       </c>
       <c r="H63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -14037,163 +14043,163 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q63">
+        <v>4</v>
+      </c>
+      <c r="R63">
+        <v>1.83</v>
+      </c>
+      <c r="S63">
         <v>3.4</v>
       </c>
-      <c r="R63">
-        <v>1.91</v>
-      </c>
-      <c r="S63">
-        <v>4</v>
-      </c>
       <c r="T63">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="U63">
         <v>2.2</v>
       </c>
       <c r="V63">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="W63">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="X63">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Y63">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="Z63">
+        <v>3.2</v>
+      </c>
+      <c r="AA63">
+        <v>2.9</v>
+      </c>
+      <c r="AB63">
         <v>2.5</v>
-      </c>
-      <c r="AA63">
-        <v>3</v>
-      </c>
-      <c r="AB63">
-        <v>3.1</v>
       </c>
       <c r="AC63">
         <v>1.12</v>
       </c>
       <c r="AD63">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="AE63">
         <v>1.57</v>
       </c>
       <c r="AF63">
-        <v>2.42</v>
+        <v>2.36</v>
       </c>
       <c r="AG63">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="AH63">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="AI63">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ63">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK63">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="AL63">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="AM63">
-        <v>1.61</v>
+        <v>1.46</v>
       </c>
       <c r="AN63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO63">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP63">
         <v>0.67</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>2.14</v>
       </c>
       <c r="AR63">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="AS63">
-        <v>0.98</v>
+        <v>1.4</v>
       </c>
       <c r="AT63">
-        <v>2.53</v>
+        <v>2.94</v>
       </c>
       <c r="AU63">
         <v>3</v>
       </c>
       <c r="AV63">
+        <v>4</v>
+      </c>
+      <c r="AW63">
         <v>5</v>
       </c>
-      <c r="AW63">
-        <v>6</v>
-      </c>
       <c r="AX63">
+        <v>7</v>
+      </c>
+      <c r="AY63">
+        <v>8</v>
+      </c>
+      <c r="AZ63">
         <v>11</v>
       </c>
-      <c r="AY63">
-        <v>9</v>
-      </c>
-      <c r="AZ63">
-        <v>16</v>
-      </c>
       <c r="BA63">
+        <v>7</v>
+      </c>
+      <c r="BB63">
         <v>4</v>
       </c>
-      <c r="BB63">
-        <v>3</v>
-      </c>
       <c r="BC63">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD63">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="BE63">
         <v>7</v>
       </c>
       <c r="BF63">
-        <v>2.88</v>
+        <v>1.9</v>
       </c>
       <c r="BG63">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="BH63">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BI63">
-        <v>1.55</v>
+        <v>1.49</v>
       </c>
       <c r="BJ63">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="BK63">
-        <v>2.03</v>
+        <v>2.38</v>
       </c>
       <c r="BL63">
-        <v>1.7</v>
+        <v>1.92</v>
       </c>
       <c r="BM63">
-        <v>2.65</v>
+        <v>2.37</v>
       </c>
       <c r="BN63">
-        <v>1.42</v>
+        <v>1.51</v>
       </c>
       <c r="BO63">
-        <v>4.1</v>
+        <v>3.2</v>
       </c>
       <c r="BP63">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="64" spans="1:68">
@@ -14201,7 +14207,7 @@
         <v>63</v>
       </c>
       <c r="B64">
-        <v>7345544</v>
+        <v>7345543</v>
       </c>
       <c r="C64" t="s">
         <v>68</v>
@@ -14216,10 +14222,10 @@
         <v>5</v>
       </c>
       <c r="G64" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -14243,163 +14249,163 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q64">
+        <v>3.4</v>
+      </c>
+      <c r="R64">
+        <v>1.91</v>
+      </c>
+      <c r="S64">
         <v>4</v>
       </c>
-      <c r="R64">
-        <v>1.83</v>
-      </c>
-      <c r="S64">
-        <v>3.4</v>
-      </c>
       <c r="T64">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="U64">
         <v>2.2</v>
       </c>
       <c r="V64">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="W64">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="X64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y64">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Z64">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="AA64">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AB64">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="AC64">
         <v>1.12</v>
       </c>
       <c r="AD64">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="AE64">
         <v>1.57</v>
       </c>
       <c r="AF64">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AG64">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="AH64">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="AI64">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ64">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AK64">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="AL64">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="AM64">
-        <v>1.46</v>
+        <v>1.61</v>
       </c>
       <c r="AN64">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO64">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP64">
         <v>0.67</v>
       </c>
       <c r="AQ64">
-        <v>2.14</v>
+        <v>1.71</v>
       </c>
       <c r="AR64">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="AS64">
-        <v>1.4</v>
+        <v>0.98</v>
       </c>
       <c r="AT64">
-        <v>2.94</v>
+        <v>2.53</v>
       </c>
       <c r="AU64">
         <v>3</v>
       </c>
       <c r="AV64">
+        <v>5</v>
+      </c>
+      <c r="AW64">
+        <v>6</v>
+      </c>
+      <c r="AX64">
+        <v>11</v>
+      </c>
+      <c r="AY64">
+        <v>9</v>
+      </c>
+      <c r="AZ64">
+        <v>16</v>
+      </c>
+      <c r="BA64">
         <v>4</v>
       </c>
-      <c r="AW64">
-        <v>5</v>
-      </c>
-      <c r="AX64">
+      <c r="BB64">
+        <v>3</v>
+      </c>
+      <c r="BC64">
         <v>7</v>
       </c>
-      <c r="AY64">
-        <v>8</v>
-      </c>
-      <c r="AZ64">
-        <v>11</v>
-      </c>
-      <c r="BA64">
-        <v>7</v>
-      </c>
-      <c r="BB64">
-        <v>4</v>
-      </c>
-      <c r="BC64">
-        <v>11</v>
-      </c>
       <c r="BD64">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="BE64">
         <v>7</v>
       </c>
       <c r="BF64">
-        <v>1.9</v>
+        <v>2.88</v>
       </c>
       <c r="BG64">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="BH64">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI64">
-        <v>1.49</v>
+        <v>1.55</v>
       </c>
       <c r="BJ64">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="BK64">
-        <v>2.38</v>
+        <v>2.03</v>
       </c>
       <c r="BL64">
-        <v>1.92</v>
+        <v>1.7</v>
       </c>
       <c r="BM64">
-        <v>2.37</v>
+        <v>2.65</v>
       </c>
       <c r="BN64">
-        <v>1.51</v>
+        <v>1.42</v>
       </c>
       <c r="BO64">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="BP64">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="65" spans="1:68">
@@ -15043,7 +15049,7 @@
         <v>95</v>
       </c>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -15067,7 +15073,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15351,7 +15357,7 @@
         <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ69">
         <v>1.14</v>
@@ -15479,7 +15485,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15685,7 +15691,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -15972,7 +15978,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ72">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR72">
         <v>1.56</v>
@@ -16097,7 +16103,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16276,10 +16282,10 @@
         <v>6</v>
       </c>
       <c r="G74" t="s">
+        <v>85</v>
+      </c>
+      <c r="H74" t="s">
         <v>86</v>
-      </c>
-      <c r="H74" t="s">
-        <v>85</v>
       </c>
       <c r="I74">
         <v>2</v>
@@ -16303,7 +16309,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16482,7 +16488,7 @@
         <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
         <v>84</v>
@@ -16590,7 +16596,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR75">
         <v>2.21</v>
@@ -16715,7 +16721,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16921,7 +16927,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17100,7 +17106,7 @@
         <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s">
         <v>92</v>
@@ -17127,7 +17133,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17497,7 +17503,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7345561</v>
+        <v>7345560</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17512,190 +17518,190 @@
         <v>6</v>
       </c>
       <c r="G80" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H80" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L80">
         <v>2</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O80" t="s">
         <v>141</v>
       </c>
       <c r="P80" t="s">
-        <v>98</v>
+        <v>130</v>
       </c>
       <c r="Q80">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="R80">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S80">
-        <v>4.75</v>
+        <v>2.6</v>
       </c>
       <c r="T80">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="U80">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="V80">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="W80">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="X80">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="Y80">
         <v>1.04</v>
       </c>
       <c r="Z80">
-        <v>2.05</v>
+        <v>4.2</v>
       </c>
       <c r="AA80">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AB80">
-        <v>3.8</v>
+        <v>1.91</v>
       </c>
       <c r="AC80">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="AD80">
-        <v>7.15</v>
+        <v>6.7</v>
       </c>
       <c r="AE80">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="AF80">
-        <v>2.54</v>
+        <v>2.42</v>
       </c>
       <c r="AG80">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="AH80">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="AI80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AJ80">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="AK80">
-        <v>1.3</v>
+        <v>1.66</v>
       </c>
       <c r="AL80">
+        <v>1.36</v>
+      </c>
+      <c r="AM80">
+        <v>1.28</v>
+      </c>
+      <c r="AN80">
         <v>1.33</v>
       </c>
-      <c r="AM80">
-        <v>1.68</v>
-      </c>
-      <c r="AN80">
-        <v>2.33</v>
-      </c>
       <c r="AO80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AP80">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="AS80">
-        <v>1.35</v>
+        <v>1.87</v>
       </c>
       <c r="AT80">
-        <v>3.25</v>
+        <v>3.62</v>
       </c>
       <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>5</v>
+      </c>
+      <c r="AW80">
+        <v>4</v>
+      </c>
+      <c r="AX80">
+        <v>7</v>
+      </c>
+      <c r="AY80">
+        <v>8</v>
+      </c>
+      <c r="AZ80">
         <v>12</v>
       </c>
-      <c r="AV80">
-        <v>3</v>
-      </c>
-      <c r="AW80">
-        <v>9</v>
-      </c>
-      <c r="AX80">
-        <v>8</v>
-      </c>
-      <c r="AY80">
-        <v>21</v>
-      </c>
-      <c r="AZ80">
-        <v>11</v>
-      </c>
       <c r="BA80">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="BB80">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC80">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD80">
-        <v>1.75</v>
+        <v>2.43</v>
       </c>
       <c r="BE80">
         <v>7</v>
       </c>
       <c r="BF80">
-        <v>2.6</v>
+        <v>1.81</v>
       </c>
       <c r="BG80">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="BH80">
-        <v>3</v>
+        <v>3.55</v>
       </c>
       <c r="BI80">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="BJ80">
-        <v>2.15</v>
+        <v>2.48</v>
       </c>
       <c r="BK80">
-        <v>2.12</v>
+        <v>1.87</v>
       </c>
       <c r="BL80">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="BM80">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="BN80">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BO80">
-        <v>4.1</v>
+        <v>3.4</v>
       </c>
       <c r="BP80">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17703,7 +17709,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7345560</v>
+        <v>7345561</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17718,190 +17724,190 @@
         <v>6</v>
       </c>
       <c r="G81" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="H81" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L81">
         <v>2</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O81" t="s">
         <v>142</v>
       </c>
       <c r="P81" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="Q81">
+        <v>2.88</v>
+      </c>
+      <c r="R81">
+        <v>1.91</v>
+      </c>
+      <c r="S81">
         <v>4.75</v>
       </c>
-      <c r="R81">
-        <v>2.05</v>
-      </c>
-      <c r="S81">
-        <v>2.6</v>
-      </c>
       <c r="T81">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="U81">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="V81">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="W81">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="X81">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="Y81">
         <v>1.04</v>
       </c>
       <c r="Z81">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="AA81">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="AB81">
-        <v>1.91</v>
+        <v>3.8</v>
       </c>
       <c r="AC81">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="AD81">
-        <v>6.7</v>
+        <v>7.15</v>
       </c>
       <c r="AE81">
+        <v>1.52</v>
+      </c>
+      <c r="AF81">
+        <v>2.54</v>
+      </c>
+      <c r="AG81">
+        <v>2.6</v>
+      </c>
+      <c r="AH81">
+        <v>1.48</v>
+      </c>
+      <c r="AI81">
+        <v>2.25</v>
+      </c>
+      <c r="AJ81">
         <v>1.57</v>
       </c>
-      <c r="AF81">
-        <v>2.42</v>
-      </c>
-      <c r="AG81">
-        <v>2.2</v>
-      </c>
-      <c r="AH81">
-        <v>1.65</v>
-      </c>
-      <c r="AI81">
-        <v>2</v>
-      </c>
-      <c r="AJ81">
-        <v>1.73</v>
-      </c>
       <c r="AK81">
-        <v>1.66</v>
+        <v>1.3</v>
       </c>
       <c r="AL81">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AM81">
-        <v>1.28</v>
+        <v>1.68</v>
       </c>
       <c r="AN81">
-        <v>1.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO81">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP81">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AR81">
+        <v>1.9</v>
+      </c>
+      <c r="AS81">
+        <v>1.35</v>
+      </c>
+      <c r="AT81">
+        <v>3.25</v>
+      </c>
+      <c r="AU81">
+        <v>12</v>
+      </c>
+      <c r="AV81">
+        <v>3</v>
+      </c>
+      <c r="AW81">
+        <v>9</v>
+      </c>
+      <c r="AX81">
+        <v>8</v>
+      </c>
+      <c r="AY81">
+        <v>21</v>
+      </c>
+      <c r="AZ81">
+        <v>11</v>
+      </c>
+      <c r="BA81">
+        <v>4</v>
+      </c>
+      <c r="BB81">
+        <v>2</v>
+      </c>
+      <c r="BC81">
+        <v>6</v>
+      </c>
+      <c r="BD81">
         <v>1.75</v>
-      </c>
-      <c r="AS81">
-        <v>1.87</v>
-      </c>
-      <c r="AT81">
-        <v>3.62</v>
-      </c>
-      <c r="AU81">
-        <v>4</v>
-      </c>
-      <c r="AV81">
-        <v>5</v>
-      </c>
-      <c r="AW81">
-        <v>4</v>
-      </c>
-      <c r="AX81">
-        <v>7</v>
-      </c>
-      <c r="AY81">
-        <v>8</v>
-      </c>
-      <c r="AZ81">
-        <v>12</v>
-      </c>
-      <c r="BA81">
-        <v>0</v>
-      </c>
-      <c r="BB81">
-        <v>7</v>
-      </c>
-      <c r="BC81">
-        <v>7</v>
-      </c>
-      <c r="BD81">
-        <v>2.43</v>
       </c>
       <c r="BE81">
         <v>7</v>
       </c>
       <c r="BF81">
-        <v>1.81</v>
+        <v>2.6</v>
       </c>
       <c r="BG81">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="BH81">
-        <v>3.55</v>
+        <v>3</v>
       </c>
       <c r="BI81">
-        <v>1.5</v>
+        <v>1.66</v>
       </c>
       <c r="BJ81">
-        <v>2.48</v>
+        <v>2.15</v>
       </c>
       <c r="BK81">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="BL81">
-        <v>1.87</v>
+        <v>1.66</v>
       </c>
       <c r="BM81">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="BN81">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BO81">
-        <v>3.4</v>
+        <v>4.1</v>
       </c>
       <c r="BP81">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -18238,7 +18244,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR83">
         <v>1.36</v>
@@ -18363,7 +18369,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18569,7 +18575,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18939,7 +18945,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7345568</v>
+        <v>7345573</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18954,190 +18960,190 @@
         <v>7</v>
       </c>
       <c r="G87" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="H87" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O87" t="s">
-        <v>98</v>
+        <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>98</v>
+        <v>238</v>
       </c>
       <c r="Q87">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="R87">
+        <v>1.91</v>
+      </c>
+      <c r="S87">
+        <v>3.25</v>
+      </c>
+      <c r="T87">
+        <v>1.57</v>
+      </c>
+      <c r="U87">
+        <v>2.25</v>
+      </c>
+      <c r="V87">
+        <v>3.75</v>
+      </c>
+      <c r="W87">
+        <v>1.25</v>
+      </c>
+      <c r="X87">
+        <v>13</v>
+      </c>
+      <c r="Y87">
+        <v>1.04</v>
+      </c>
+      <c r="Z87">
+        <v>3.2</v>
+      </c>
+      <c r="AA87">
+        <v>3.1</v>
+      </c>
+      <c r="AB87">
+        <v>2.45</v>
+      </c>
+      <c r="AC87">
+        <v>1.09</v>
+      </c>
+      <c r="AD87">
+        <v>6.83</v>
+      </c>
+      <c r="AE87">
+        <v>1.52</v>
+      </c>
+      <c r="AF87">
+        <v>2.56</v>
+      </c>
+      <c r="AG87">
+        <v>2.6</v>
+      </c>
+      <c r="AH87">
+        <v>1.48</v>
+      </c>
+      <c r="AI87">
+        <v>2.1</v>
+      </c>
+      <c r="AJ87">
+        <v>1.67</v>
+      </c>
+      <c r="AK87">
+        <v>1.7</v>
+      </c>
+      <c r="AL87">
+        <v>1.32</v>
+      </c>
+      <c r="AM87">
+        <v>1.3</v>
+      </c>
+      <c r="AN87">
+        <v>1.33</v>
+      </c>
+      <c r="AO87">
+        <v>1.33</v>
+      </c>
+      <c r="AP87">
+        <v>1</v>
+      </c>
+      <c r="AQ87">
+        <v>1.5</v>
+      </c>
+      <c r="AR87">
+        <v>1.49</v>
+      </c>
+      <c r="AS87">
+        <v>1.8</v>
+      </c>
+      <c r="AT87">
+        <v>3.29</v>
+      </c>
+      <c r="AU87">
+        <v>3</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>3</v>
+      </c>
+      <c r="AX87">
+        <v>7</v>
+      </c>
+      <c r="AY87">
+        <v>6</v>
+      </c>
+      <c r="AZ87">
+        <v>12</v>
+      </c>
+      <c r="BA87">
+        <v>6</v>
+      </c>
+      <c r="BB87">
+        <v>0</v>
+      </c>
+      <c r="BC87">
+        <v>6</v>
+      </c>
+      <c r="BD87">
+        <v>2.4</v>
+      </c>
+      <c r="BE87">
+        <v>7.7</v>
+      </c>
+      <c r="BF87">
+        <v>1.84</v>
+      </c>
+      <c r="BG87">
+        <v>1.28</v>
+      </c>
+      <c r="BH87">
+        <v>3.35</v>
+      </c>
+      <c r="BI87">
+        <v>1.53</v>
+      </c>
+      <c r="BJ87">
+        <v>2.33</v>
+      </c>
+      <c r="BK87">
+        <v>1.99</v>
+      </c>
+      <c r="BL87">
         <v>1.73</v>
       </c>
-      <c r="S87">
-        <v>4.33</v>
-      </c>
-      <c r="T87">
-        <v>1.73</v>
-      </c>
-      <c r="U87">
-        <v>2</v>
-      </c>
-      <c r="V87">
-        <v>4.5</v>
-      </c>
-      <c r="W87">
-        <v>1.18</v>
-      </c>
-      <c r="X87">
-        <v>15</v>
-      </c>
-      <c r="Y87">
-        <v>1.03</v>
-      </c>
-      <c r="Z87">
-        <v>2.63</v>
-      </c>
-      <c r="AA87">
-        <v>2.63</v>
-      </c>
-      <c r="AB87">
-        <v>3.4</v>
-      </c>
-      <c r="AC87">
-        <v>1.15</v>
-      </c>
-      <c r="AD87">
-        <v>5.25</v>
-      </c>
-      <c r="AE87">
-        <v>1.7</v>
-      </c>
-      <c r="AF87">
-        <v>2.1</v>
-      </c>
-      <c r="AG87">
-        <v>3.5</v>
-      </c>
-      <c r="AH87">
+      <c r="BM87">
+        <v>2.62</v>
+      </c>
+      <c r="BN87">
+        <v>1.43</v>
+      </c>
+      <c r="BO87">
+        <v>3.35</v>
+      </c>
+      <c r="BP87">
         <v>1.3</v>
-      </c>
-      <c r="AI87">
-        <v>2.63</v>
-      </c>
-      <c r="AJ87">
-        <v>1.44</v>
-      </c>
-      <c r="AK87">
-        <v>1.35</v>
-      </c>
-      <c r="AL87">
-        <v>1.41</v>
-      </c>
-      <c r="AM87">
-        <v>1.49</v>
-      </c>
-      <c r="AN87">
-        <v>0.5</v>
-      </c>
-      <c r="AO87">
-        <v>0.5</v>
-      </c>
-      <c r="AP87">
-        <v>1.5</v>
-      </c>
-      <c r="AQ87">
-        <v>0.67</v>
-      </c>
-      <c r="AR87">
-        <v>1.09</v>
-      </c>
-      <c r="AS87">
-        <v>1.34</v>
-      </c>
-      <c r="AT87">
-        <v>2.43</v>
-      </c>
-      <c r="AU87">
-        <v>0</v>
-      </c>
-      <c r="AV87">
-        <v>2</v>
-      </c>
-      <c r="AW87">
-        <v>5</v>
-      </c>
-      <c r="AX87">
-        <v>5</v>
-      </c>
-      <c r="AY87">
-        <v>5</v>
-      </c>
-      <c r="AZ87">
-        <v>7</v>
-      </c>
-      <c r="BA87">
-        <v>2</v>
-      </c>
-      <c r="BB87">
-        <v>1</v>
-      </c>
-      <c r="BC87">
-        <v>3</v>
-      </c>
-      <c r="BD87">
-        <v>1.67</v>
-      </c>
-      <c r="BE87">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="BF87">
-        <v>2.71</v>
-      </c>
-      <c r="BG87">
-        <v>1.44</v>
-      </c>
-      <c r="BH87">
-        <v>2.65</v>
-      </c>
-      <c r="BI87">
-        <v>1.85</v>
-      </c>
-      <c r="BJ87">
-        <v>1.95</v>
-      </c>
-      <c r="BK87">
-        <v>2.25</v>
-      </c>
-      <c r="BL87">
-        <v>1.6</v>
-      </c>
-      <c r="BM87">
-        <v>2.95</v>
-      </c>
-      <c r="BN87">
-        <v>1.36</v>
-      </c>
-      <c r="BO87">
-        <v>4.1</v>
-      </c>
-      <c r="BP87">
-        <v>1.22</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -19145,7 +19151,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7345573</v>
+        <v>7345568</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -19160,190 +19166,190 @@
         <v>7</v>
       </c>
       <c r="G88" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="H88" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M88">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N88">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O88" t="s">
-        <v>145</v>
+        <v>98</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>98</v>
       </c>
       <c r="Q88">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="R88">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="S88">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="T88">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="U88">
+        <v>2</v>
+      </c>
+      <c r="V88">
+        <v>4.5</v>
+      </c>
+      <c r="W88">
+        <v>1.18</v>
+      </c>
+      <c r="X88">
+        <v>15</v>
+      </c>
+      <c r="Y88">
+        <v>1.03</v>
+      </c>
+      <c r="Z88">
+        <v>2.63</v>
+      </c>
+      <c r="AA88">
+        <v>2.63</v>
+      </c>
+      <c r="AB88">
+        <v>3.4</v>
+      </c>
+      <c r="AC88">
+        <v>1.15</v>
+      </c>
+      <c r="AD88">
+        <v>5.25</v>
+      </c>
+      <c r="AE88">
+        <v>1.7</v>
+      </c>
+      <c r="AF88">
+        <v>2.1</v>
+      </c>
+      <c r="AG88">
+        <v>3.5</v>
+      </c>
+      <c r="AH88">
+        <v>1.3</v>
+      </c>
+      <c r="AI88">
+        <v>2.63</v>
+      </c>
+      <c r="AJ88">
+        <v>1.44</v>
+      </c>
+      <c r="AK88">
+        <v>1.35</v>
+      </c>
+      <c r="AL88">
+        <v>1.41</v>
+      </c>
+      <c r="AM88">
+        <v>1.49</v>
+      </c>
+      <c r="AN88">
+        <v>0.5</v>
+      </c>
+      <c r="AO88">
+        <v>0.5</v>
+      </c>
+      <c r="AP88">
+        <v>1.5</v>
+      </c>
+      <c r="AQ88">
+        <v>0.67</v>
+      </c>
+      <c r="AR88">
+        <v>1.09</v>
+      </c>
+      <c r="AS88">
+        <v>1.34</v>
+      </c>
+      <c r="AT88">
+        <v>2.43</v>
+      </c>
+      <c r="AU88">
+        <v>0</v>
+      </c>
+      <c r="AV88">
+        <v>2</v>
+      </c>
+      <c r="AW88">
+        <v>5</v>
+      </c>
+      <c r="AX88">
+        <v>5</v>
+      </c>
+      <c r="AY88">
+        <v>5</v>
+      </c>
+      <c r="AZ88">
+        <v>7</v>
+      </c>
+      <c r="BA88">
+        <v>2</v>
+      </c>
+      <c r="BB88">
+        <v>1</v>
+      </c>
+      <c r="BC88">
+        <v>3</v>
+      </c>
+      <c r="BD88">
+        <v>1.67</v>
+      </c>
+      <c r="BE88">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="BF88">
+        <v>2.71</v>
+      </c>
+      <c r="BG88">
+        <v>1.44</v>
+      </c>
+      <c r="BH88">
+        <v>2.65</v>
+      </c>
+      <c r="BI88">
+        <v>1.85</v>
+      </c>
+      <c r="BJ88">
+        <v>1.95</v>
+      </c>
+      <c r="BK88">
         <v>2.25</v>
       </c>
-      <c r="V88">
-        <v>3.75</v>
-      </c>
-      <c r="W88">
-        <v>1.25</v>
-      </c>
-      <c r="X88">
-        <v>13</v>
-      </c>
-      <c r="Y88">
-        <v>1.04</v>
-      </c>
-      <c r="Z88">
-        <v>3.2</v>
-      </c>
-      <c r="AA88">
-        <v>3.1</v>
-      </c>
-      <c r="AB88">
-        <v>2.45</v>
-      </c>
-      <c r="AC88">
-        <v>1.09</v>
-      </c>
-      <c r="AD88">
-        <v>6.83</v>
-      </c>
-      <c r="AE88">
-        <v>1.52</v>
-      </c>
-      <c r="AF88">
-        <v>2.56</v>
-      </c>
-      <c r="AG88">
-        <v>2.6</v>
-      </c>
-      <c r="AH88">
-        <v>1.48</v>
-      </c>
-      <c r="AI88">
-        <v>2.1</v>
-      </c>
-      <c r="AJ88">
-        <v>1.67</v>
-      </c>
-      <c r="AK88">
-        <v>1.7</v>
-      </c>
-      <c r="AL88">
-        <v>1.32</v>
-      </c>
-      <c r="AM88">
-        <v>1.3</v>
-      </c>
-      <c r="AN88">
-        <v>1.33</v>
-      </c>
-      <c r="AO88">
-        <v>1.33</v>
-      </c>
-      <c r="AP88">
-        <v>1</v>
-      </c>
-      <c r="AQ88">
-        <v>1.5</v>
-      </c>
-      <c r="AR88">
-        <v>1.49</v>
-      </c>
-      <c r="AS88">
-        <v>1.8</v>
-      </c>
-      <c r="AT88">
-        <v>3.29</v>
-      </c>
-      <c r="AU88">
-        <v>3</v>
-      </c>
-      <c r="AV88">
-        <v>5</v>
-      </c>
-      <c r="AW88">
-        <v>3</v>
-      </c>
-      <c r="AX88">
-        <v>7</v>
-      </c>
-      <c r="AY88">
-        <v>6</v>
-      </c>
-      <c r="AZ88">
-        <v>12</v>
-      </c>
-      <c r="BA88">
-        <v>6</v>
-      </c>
-      <c r="BB88">
-        <v>0</v>
-      </c>
-      <c r="BC88">
-        <v>6</v>
-      </c>
-      <c r="BD88">
-        <v>2.4</v>
-      </c>
-      <c r="BE88">
-        <v>7.7</v>
-      </c>
-      <c r="BF88">
-        <v>1.84</v>
-      </c>
-      <c r="BG88">
-        <v>1.28</v>
-      </c>
-      <c r="BH88">
-        <v>3.35</v>
-      </c>
-      <c r="BI88">
-        <v>1.53</v>
-      </c>
-      <c r="BJ88">
-        <v>2.33</v>
-      </c>
-      <c r="BK88">
-        <v>1.99</v>
-      </c>
       <c r="BL88">
-        <v>1.73</v>
+        <v>1.6</v>
       </c>
       <c r="BM88">
-        <v>2.62</v>
+        <v>2.95</v>
       </c>
       <c r="BN88">
-        <v>1.43</v>
+        <v>1.36</v>
       </c>
       <c r="BO88">
-        <v>3.35</v>
+        <v>4.1</v>
       </c>
       <c r="BP88">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19393,7 +19399,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19805,7 +19811,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19984,7 +19990,7 @@
         <v>7</v>
       </c>
       <c r="G92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s">
         <v>83</v>
@@ -20193,7 +20199,7 @@
         <v>96</v>
       </c>
       <c r="H93" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -20396,7 +20402,7 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s">
         <v>76</v>
@@ -20423,7 +20429,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20629,7 +20635,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21041,7 +21047,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21220,7 +21226,7 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s">
         <v>71</v>
@@ -21247,7 +21253,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21328,7 +21334,7 @@
         <v>2</v>
       </c>
       <c r="AQ98">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR98">
         <v>1.94</v>
@@ -21632,7 +21638,7 @@
         <v>8</v>
       </c>
       <c r="G100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s">
         <v>70</v>
@@ -21659,7 +21665,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21841,7 +21847,7 @@
         <v>84</v>
       </c>
       <c r="H101" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I101">
         <v>2</v>
@@ -22071,7 +22077,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22767,7 +22773,7 @@
         <v>2.33</v>
       </c>
       <c r="AP105">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ105">
         <v>1.83</v>
@@ -22895,7 +22901,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23077,7 +23083,7 @@
         <v>72</v>
       </c>
       <c r="H107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -23307,7 +23313,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23513,7 +23519,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23719,7 +23725,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23797,7 +23803,7 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
         <v>1.33</v>
@@ -23901,7 +23907,7 @@
         <v>90</v>
       </c>
       <c r="H111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -23925,7 +23931,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24131,7 +24137,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24337,7 +24343,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24624,7 +24630,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ114">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR114">
         <v>1.55</v>
@@ -24749,7 +24755,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25036,7 +25042,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR116">
         <v>1.72</v>
@@ -25134,10 +25140,10 @@
         <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H117" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -25343,7 +25349,7 @@
         <v>89</v>
       </c>
       <c r="H118" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I118">
         <v>1</v>
@@ -25573,7 +25579,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25985,7 +25991,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26576,7 +26582,7 @@
         <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H124" t="s">
         <v>73</v>
@@ -26890,7 +26896,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ125">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR125">
         <v>1.65</v>
@@ -27179,7 +27185,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7345616</v>
+        <v>7345623</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27194,49 +27200,49 @@
         <v>10</v>
       </c>
       <c r="G127" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="H127" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N127">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O127" t="s">
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="Q127">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R127">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="S127">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T127">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="U127">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V127">
         <v>3.75</v>
@@ -27245,139 +27251,139 @@
         <v>1.25</v>
       </c>
       <c r="X127">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y127">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Z127">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="AA127">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB127">
-        <v>3.4</v>
+        <v>2.55</v>
       </c>
       <c r="AC127">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD127">
-        <v>6.83</v>
+        <v>7.61</v>
       </c>
       <c r="AE127">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AF127">
-        <v>2.54</v>
+        <v>2.66</v>
       </c>
       <c r="AG127">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="AH127">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="AI127">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AJ127">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AK127">
-        <v>1.47</v>
+        <v>1.88</v>
       </c>
       <c r="AL127">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="AM127">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="AN127">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="AO127">
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AQ127">
-        <v>1.83</v>
+        <v>1.33</v>
       </c>
       <c r="AR127">
-        <v>1.95</v>
+        <v>1.32</v>
       </c>
       <c r="AS127">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="AT127">
-        <v>3</v>
+        <v>2.61</v>
       </c>
       <c r="AU127">
+        <v>4</v>
+      </c>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>7</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>11</v>
+      </c>
+      <c r="AZ127">
+        <v>7</v>
+      </c>
+      <c r="BA127">
         <v>5</v>
       </c>
-      <c r="AV127">
-        <v>5</v>
-      </c>
-      <c r="AW127">
-        <v>14</v>
-      </c>
-      <c r="AX127">
-        <v>1</v>
-      </c>
-      <c r="AY127">
-        <v>19</v>
-      </c>
-      <c r="AZ127">
-        <v>6</v>
-      </c>
-      <c r="BA127">
-        <v>10</v>
-      </c>
       <c r="BB127">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC127">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD127">
-        <v>1.85</v>
+        <v>2.86</v>
       </c>
       <c r="BE127">
-        <v>8.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF127">
-        <v>2.35</v>
+        <v>1.6</v>
       </c>
       <c r="BG127">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="BH127">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="BI127">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="BJ127">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="BK127">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="BL127">
-        <v>2.33</v>
+        <v>1.99</v>
       </c>
       <c r="BM127">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BN127">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="BO127">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="BP127">
-        <v>1.47</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -27385,7 +27391,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7345623</v>
+        <v>7345616</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27400,49 +27406,49 @@
         <v>10</v>
       </c>
       <c r="G128" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H128" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N128">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O128" t="s">
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="Q128">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R128">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="S128">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T128">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="U128">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V128">
         <v>3.75</v>
@@ -27451,139 +27457,139 @@
         <v>1.25</v>
       </c>
       <c r="X128">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y128">
+        <v>1.04</v>
+      </c>
+      <c r="Z128">
+        <v>2.25</v>
+      </c>
+      <c r="AA128">
+        <v>3.2</v>
+      </c>
+      <c r="AB128">
+        <v>3.4</v>
+      </c>
+      <c r="AC128">
+        <v>1.09</v>
+      </c>
+      <c r="AD128">
+        <v>6.83</v>
+      </c>
+      <c r="AE128">
+        <v>1.49</v>
+      </c>
+      <c r="AF128">
+        <v>2.54</v>
+      </c>
+      <c r="AG128">
+        <v>2.25</v>
+      </c>
+      <c r="AH128">
+        <v>1.62</v>
+      </c>
+      <c r="AI128">
+        <v>1.91</v>
+      </c>
+      <c r="AJ128">
+        <v>1.8</v>
+      </c>
+      <c r="AK128">
+        <v>1.47</v>
+      </c>
+      <c r="AL128">
+        <v>1.37</v>
+      </c>
+      <c r="AM128">
+        <v>1.4</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>2</v>
+      </c>
+      <c r="AP128">
+        <v>1.67</v>
+      </c>
+      <c r="AQ128">
+        <v>1.83</v>
+      </c>
+      <c r="AR128">
+        <v>1.95</v>
+      </c>
+      <c r="AS128">
         <v>1.05</v>
       </c>
-      <c r="Z128">
-        <v>2.9</v>
-      </c>
-      <c r="AA128">
-        <v>3.1</v>
-      </c>
-      <c r="AB128">
-        <v>2.55</v>
-      </c>
-      <c r="AC128">
-        <v>1.07</v>
-      </c>
-      <c r="AD128">
-        <v>7.61</v>
-      </c>
-      <c r="AE128">
-        <v>1.45</v>
-      </c>
-      <c r="AF128">
-        <v>2.66</v>
-      </c>
-      <c r="AG128">
-        <v>2.7</v>
-      </c>
-      <c r="AH128">
-        <v>1.44</v>
-      </c>
-      <c r="AI128">
-        <v>2.1</v>
-      </c>
-      <c r="AJ128">
-        <v>1.67</v>
-      </c>
-      <c r="AK128">
-        <v>1.88</v>
-      </c>
-      <c r="AL128">
-        <v>1.32</v>
-      </c>
-      <c r="AM128">
-        <v>1.2</v>
-      </c>
-      <c r="AN128">
-        <v>0.25</v>
-      </c>
-      <c r="AO128">
-        <v>2</v>
-      </c>
-      <c r="AP128">
-        <v>0.67</v>
-      </c>
-      <c r="AQ128">
-        <v>1.33</v>
-      </c>
-      <c r="AR128">
-        <v>1.32</v>
-      </c>
-      <c r="AS128">
+      <c r="AT128">
+        <v>3</v>
+      </c>
+      <c r="AU128">
+        <v>5</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>14</v>
+      </c>
+      <c r="AX128">
+        <v>1</v>
+      </c>
+      <c r="AY128">
+        <v>19</v>
+      </c>
+      <c r="AZ128">
+        <v>6</v>
+      </c>
+      <c r="BA128">
+        <v>10</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>13</v>
+      </c>
+      <c r="BD128">
+        <v>1.85</v>
+      </c>
+      <c r="BE128">
+        <v>8.1</v>
+      </c>
+      <c r="BF128">
+        <v>2.35</v>
+      </c>
+      <c r="BG128">
+        <v>1.16</v>
+      </c>
+      <c r="BH128">
+        <v>4.9</v>
+      </c>
+      <c r="BI128">
         <v>1.29</v>
       </c>
-      <c r="AT128">
-        <v>2.61</v>
-      </c>
-      <c r="AU128">
-        <v>4</v>
-      </c>
-      <c r="AV128">
-        <v>3</v>
-      </c>
-      <c r="AW128">
-        <v>7</v>
-      </c>
-      <c r="AX128">
-        <v>4</v>
-      </c>
-      <c r="AY128">
-        <v>11</v>
-      </c>
-      <c r="AZ128">
-        <v>7</v>
-      </c>
-      <c r="BA128">
-        <v>5</v>
-      </c>
-      <c r="BB128">
-        <v>4</v>
-      </c>
-      <c r="BC128">
-        <v>9</v>
-      </c>
-      <c r="BD128">
-        <v>2.86</v>
-      </c>
-      <c r="BE128">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="BF128">
-        <v>1.6</v>
-      </c>
-      <c r="BG128">
-        <v>1.22</v>
-      </c>
-      <c r="BH128">
-        <v>4</v>
-      </c>
-      <c r="BI128">
-        <v>1.41</v>
-      </c>
       <c r="BJ128">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="BK128">
-        <v>2.2</v>
+        <v>1.91</v>
       </c>
       <c r="BL128">
-        <v>1.99</v>
+        <v>2.33</v>
       </c>
       <c r="BM128">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BN128">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="BO128">
-        <v>2.95</v>
+        <v>2.5</v>
       </c>
       <c r="BP128">
-        <v>1.35</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27917,7 +27923,7 @@
         <v>0.75</v>
       </c>
       <c r="AP130">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ130">
         <v>0.67</v>
@@ -28018,7 +28024,7 @@
         <v>10</v>
       </c>
       <c r="G131" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H131" t="s">
         <v>70</v>
@@ -28251,7 +28257,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28329,7 +28335,7 @@
         <v>2.25</v>
       </c>
       <c r="AP132">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ132">
         <v>2.17</v>
@@ -28457,7 +28463,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q133">
         <v>3.4</v>
@@ -28621,7 +28627,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7345613</v>
+        <v>7345621</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28636,160 +28642,160 @@
         <v>10</v>
       </c>
       <c r="G134" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H134" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="I134">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J134">
         <v>1</v>
       </c>
       <c r="K134">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M134">
         <v>1</v>
       </c>
       <c r="N134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O134" t="s">
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q134">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R134">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="S134">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T134">
+        <v>1.62</v>
+      </c>
+      <c r="U134">
+        <v>2.2</v>
+      </c>
+      <c r="V134">
+        <v>4</v>
+      </c>
+      <c r="W134">
+        <v>1.22</v>
+      </c>
+      <c r="X134">
+        <v>13</v>
+      </c>
+      <c r="Y134">
+        <v>1.04</v>
+      </c>
+      <c r="Z134">
+        <v>2.25</v>
+      </c>
+      <c r="AA134">
+        <v>3</v>
+      </c>
+      <c r="AB134">
+        <v>3.75</v>
+      </c>
+      <c r="AC134">
+        <v>1.11</v>
+      </c>
+      <c r="AD134">
+        <v>6.28</v>
+      </c>
+      <c r="AE134">
+        <v>1.57</v>
+      </c>
+      <c r="AF134">
+        <v>2.43</v>
+      </c>
+      <c r="AG134">
+        <v>2.5</v>
+      </c>
+      <c r="AH134">
         <v>1.5</v>
       </c>
-      <c r="U134">
-        <v>2.5</v>
-      </c>
-      <c r="V134">
-        <v>3.5</v>
-      </c>
-      <c r="W134">
-        <v>1.29</v>
-      </c>
-      <c r="X134">
-        <v>11</v>
-      </c>
-      <c r="Y134">
-        <v>1.05</v>
-      </c>
-      <c r="Z134">
-        <v>2.05</v>
-      </c>
-      <c r="AA134">
-        <v>3.1</v>
-      </c>
-      <c r="AB134">
-        <v>4.2</v>
-      </c>
-      <c r="AC134">
-        <v>1.06</v>
-      </c>
-      <c r="AD134">
-        <v>8.09</v>
-      </c>
-      <c r="AE134">
-        <v>1.45</v>
-      </c>
-      <c r="AF134">
-        <v>2.66</v>
-      </c>
-      <c r="AG134">
-        <v>2.25</v>
-      </c>
-      <c r="AH134">
-        <v>1.62</v>
-      </c>
       <c r="AI134">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AJ134">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="AK134">
-        <v>1.16</v>
+        <v>1.25</v>
       </c>
       <c r="AL134">
+        <v>1.32</v>
+      </c>
+      <c r="AM134">
+        <v>1.78</v>
+      </c>
+      <c r="AN134">
         <v>1.25</v>
       </c>
-      <c r="AM134">
-        <v>2.15</v>
-      </c>
-      <c r="AN134">
-        <v>1.75</v>
-      </c>
       <c r="AO134">
-        <v>0.25</v>
+        <v>2</v>
       </c>
       <c r="AP134">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR134">
-        <v>2.05</v>
+        <v>1.67</v>
       </c>
       <c r="AS134">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="AT134">
-        <v>3.57</v>
+        <v>2.86</v>
       </c>
       <c r="AU134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV134">
         <v>5</v>
       </c>
       <c r="AW134">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AX134">
         <v>6</v>
       </c>
       <c r="AY134">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="AZ134">
         <v>11</v>
       </c>
       <c r="BA134">
+        <v>3</v>
+      </c>
+      <c r="BB134">
         <v>4</v>
       </c>
-      <c r="BB134">
-        <v>9</v>
-      </c>
       <c r="BC134">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BD134">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="BE134">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="BF134">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="BG134">
         <v>1.27</v>
@@ -28798,16 +28804,16 @@
         <v>3.55</v>
       </c>
       <c r="BI134">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="BJ134">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="BK134">
         <v>2.38</v>
       </c>
       <c r="BL134">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BM134">
         <v>2.37</v>
@@ -28827,7 +28833,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7345621</v>
+        <v>7345613</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28842,160 +28848,160 @@
         <v>10</v>
       </c>
       <c r="G135" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H135" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="I135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J135">
         <v>1</v>
       </c>
       <c r="K135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L135">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M135">
         <v>1</v>
       </c>
       <c r="N135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O135" t="s">
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q135">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R135">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="S135">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T135">
+        <v>1.5</v>
+      </c>
+      <c r="U135">
+        <v>2.5</v>
+      </c>
+      <c r="V135">
+        <v>3.5</v>
+      </c>
+      <c r="W135">
+        <v>1.29</v>
+      </c>
+      <c r="X135">
+        <v>11</v>
+      </c>
+      <c r="Y135">
+        <v>1.05</v>
+      </c>
+      <c r="Z135">
+        <v>2.05</v>
+      </c>
+      <c r="AA135">
+        <v>3.1</v>
+      </c>
+      <c r="AB135">
+        <v>4.2</v>
+      </c>
+      <c r="AC135">
+        <v>1.06</v>
+      </c>
+      <c r="AD135">
+        <v>8.09</v>
+      </c>
+      <c r="AE135">
+        <v>1.45</v>
+      </c>
+      <c r="AF135">
+        <v>2.66</v>
+      </c>
+      <c r="AG135">
+        <v>2.25</v>
+      </c>
+      <c r="AH135">
         <v>1.62</v>
       </c>
-      <c r="U135">
-        <v>2.2</v>
-      </c>
-      <c r="V135">
-        <v>4</v>
-      </c>
-      <c r="W135">
-        <v>1.22</v>
-      </c>
-      <c r="X135">
-        <v>13</v>
-      </c>
-      <c r="Y135">
-        <v>1.04</v>
-      </c>
-      <c r="Z135">
-        <v>2.25</v>
-      </c>
-      <c r="AA135">
-        <v>3</v>
-      </c>
-      <c r="AB135">
-        <v>3.75</v>
-      </c>
-      <c r="AC135">
-        <v>1.11</v>
-      </c>
-      <c r="AD135">
-        <v>6.28</v>
-      </c>
-      <c r="AE135">
-        <v>1.57</v>
-      </c>
-      <c r="AF135">
-        <v>2.43</v>
-      </c>
-      <c r="AG135">
-        <v>2.5</v>
-      </c>
-      <c r="AH135">
-        <v>1.5</v>
-      </c>
       <c r="AI135">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AJ135">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="AK135">
+        <v>1.16</v>
+      </c>
+      <c r="AL135">
         <v>1.25</v>
       </c>
-      <c r="AL135">
-        <v>1.32</v>
-      </c>
       <c r="AM135">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="AN135">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO135">
-        <v>2</v>
+        <v>0.25</v>
       </c>
       <c r="AP135">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ135">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR135">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="AS135">
-        <v>1.19</v>
+        <v>1.52</v>
       </c>
       <c r="AT135">
-        <v>2.86</v>
+        <v>3.57</v>
       </c>
       <c r="AU135">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV135">
         <v>5</v>
       </c>
       <c r="AW135">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AX135">
         <v>6</v>
       </c>
       <c r="AY135">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AZ135">
         <v>11</v>
       </c>
       <c r="BA135">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB135">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC135">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD135">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="BE135">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="BF135">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="BG135">
         <v>1.27</v>
@@ -29004,16 +29010,16 @@
         <v>3.55</v>
       </c>
       <c r="BI135">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="BJ135">
-        <v>2.52</v>
+        <v>2.4</v>
       </c>
       <c r="BK135">
         <v>2.38</v>
       </c>
       <c r="BL135">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BM135">
         <v>2.37</v>
@@ -29075,7 +29081,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29257,7 +29263,7 @@
         <v>71</v>
       </c>
       <c r="H137" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -29281,7 +29287,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29487,7 +29493,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29669,7 +29675,7 @@
         <v>76</v>
       </c>
       <c r="H139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -29693,7 +29699,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29899,7 +29905,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30598,7 +30604,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ143">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR143">
         <v>1.63</v>
@@ -30902,7 +30908,7 @@
         <v>11</v>
       </c>
       <c r="G145" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H145" t="s">
         <v>70</v>
@@ -31135,7 +31141,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -31299,7 +31305,7 @@
         <v>146</v>
       </c>
       <c r="B147">
-        <v>7345628</v>
+        <v>7345633</v>
       </c>
       <c r="C147" t="s">
         <v>68</v>
@@ -31314,10 +31320,10 @@
         <v>11</v>
       </c>
       <c r="G147" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H147" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="I147">
         <v>1</v>
@@ -31338,64 +31344,64 @@
         <v>1</v>
       </c>
       <c r="O147" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="P147" t="s">
         <v>98</v>
       </c>
       <c r="Q147">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="R147">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="S147">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="T147">
+        <v>1.5</v>
+      </c>
+      <c r="U147">
+        <v>2.5</v>
+      </c>
+      <c r="V147">
+        <v>3.5</v>
+      </c>
+      <c r="W147">
+        <v>1.29</v>
+      </c>
+      <c r="X147">
+        <v>11</v>
+      </c>
+      <c r="Y147">
+        <v>1.05</v>
+      </c>
+      <c r="Z147">
+        <v>1.55</v>
+      </c>
+      <c r="AA147">
+        <v>4</v>
+      </c>
+      <c r="AB147">
+        <v>6</v>
+      </c>
+      <c r="AC147">
+        <v>1.08</v>
+      </c>
+      <c r="AD147">
+        <v>7.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.45</v>
+      </c>
+      <c r="AF147">
+        <v>2.7</v>
+      </c>
+      <c r="AG147">
+        <v>2.15</v>
+      </c>
+      <c r="AH147">
         <v>1.67</v>
-      </c>
-      <c r="U147">
-        <v>2.1</v>
-      </c>
-      <c r="V147">
-        <v>4.33</v>
-      </c>
-      <c r="W147">
-        <v>1.2</v>
-      </c>
-      <c r="X147">
-        <v>15</v>
-      </c>
-      <c r="Y147">
-        <v>1.03</v>
-      </c>
-      <c r="Z147">
-        <v>3.5</v>
-      </c>
-      <c r="AA147">
-        <v>2.9</v>
-      </c>
-      <c r="AB147">
-        <v>2.38</v>
-      </c>
-      <c r="AC147">
-        <v>1.12</v>
-      </c>
-      <c r="AD147">
-        <v>5.78</v>
-      </c>
-      <c r="AE147">
-        <v>1.61</v>
-      </c>
-      <c r="AF147">
-        <v>2.15</v>
-      </c>
-      <c r="AG147">
-        <v>2.7</v>
-      </c>
-      <c r="AH147">
-        <v>1.44</v>
       </c>
       <c r="AI147">
         <v>2.2</v>
@@ -31404,100 +31410,100 @@
         <v>1.62</v>
       </c>
       <c r="AK147">
-        <v>1.43</v>
+        <v>1.12</v>
       </c>
       <c r="AL147">
-        <v>1.4</v>
+        <v>1.27</v>
       </c>
       <c r="AM147">
-        <v>1.4</v>
+        <v>2.22</v>
       </c>
       <c r="AN147">
         <v>1.6</v>
       </c>
       <c r="AO147">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP147">
         <v>2</v>
       </c>
       <c r="AQ147">
-        <v>0.5</v>
+        <v>0.14</v>
       </c>
       <c r="AR147">
-        <v>1.53</v>
+        <v>2.04</v>
       </c>
       <c r="AS147">
+        <v>1.22</v>
+      </c>
+      <c r="AT147">
+        <v>3.26</v>
+      </c>
+      <c r="AU147">
+        <v>8</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>8</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>16</v>
+      </c>
+      <c r="AZ147">
+        <v>10</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>2</v>
+      </c>
+      <c r="BC147">
+        <v>7</v>
+      </c>
+      <c r="BD147">
+        <v>1.51</v>
+      </c>
+      <c r="BE147">
+        <v>8.4</v>
+      </c>
+      <c r="BF147">
+        <v>3.24</v>
+      </c>
+      <c r="BG147">
         <v>1.44</v>
       </c>
-      <c r="AT147">
-        <v>2.97</v>
-      </c>
-      <c r="AU147">
-        <v>7</v>
-      </c>
-      <c r="AV147">
-        <v>3</v>
-      </c>
-      <c r="AW147">
-        <v>7</v>
-      </c>
-      <c r="AX147">
-        <v>19</v>
-      </c>
-      <c r="AY147">
-        <v>14</v>
-      </c>
-      <c r="AZ147">
-        <v>22</v>
-      </c>
-      <c r="BA147">
-        <v>4</v>
-      </c>
-      <c r="BB147">
-        <v>11</v>
-      </c>
-      <c r="BC147">
-        <v>15</v>
-      </c>
-      <c r="BD147">
-        <v>2.1</v>
-      </c>
-      <c r="BE147">
-        <v>7.4</v>
-      </c>
-      <c r="BF147">
-        <v>2.05</v>
-      </c>
-      <c r="BG147">
-        <v>1.33</v>
-      </c>
       <c r="BH147">
-        <v>3.05</v>
+        <v>2.6</v>
       </c>
       <c r="BI147">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BJ147">
-        <v>2.07</v>
+        <v>1.85</v>
       </c>
       <c r="BK147">
-        <v>2.13</v>
+        <v>2.4</v>
       </c>
       <c r="BL147">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="BM147">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="BN147">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="BO147">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="BP147">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
     </row>
     <row r="148" spans="1:68">
@@ -31505,7 +31511,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7345633</v>
+        <v>7345628</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31520,10 +31526,10 @@
         <v>11</v>
       </c>
       <c r="G148" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H148" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="I148">
         <v>1</v>
@@ -31544,64 +31550,64 @@
         <v>1</v>
       </c>
       <c r="O148" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="P148" t="s">
         <v>98</v>
       </c>
       <c r="Q148">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="R148">
+        <v>1.91</v>
+      </c>
+      <c r="S148">
+        <v>3.2</v>
+      </c>
+      <c r="T148">
+        <v>1.67</v>
+      </c>
+      <c r="U148">
         <v>2.1</v>
       </c>
-      <c r="S148">
-        <v>6.5</v>
-      </c>
-      <c r="T148">
-        <v>1.5</v>
-      </c>
-      <c r="U148">
-        <v>2.5</v>
-      </c>
       <c r="V148">
+        <v>4.33</v>
+      </c>
+      <c r="W148">
+        <v>1.2</v>
+      </c>
+      <c r="X148">
+        <v>15</v>
+      </c>
+      <c r="Y148">
+        <v>1.03</v>
+      </c>
+      <c r="Z148">
         <v>3.5</v>
       </c>
-      <c r="W148">
-        <v>1.29</v>
-      </c>
-      <c r="X148">
-        <v>11</v>
-      </c>
-      <c r="Y148">
-        <v>1.05</v>
-      </c>
-      <c r="Z148">
-        <v>1.55</v>
-      </c>
       <c r="AA148">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="AB148">
-        <v>6</v>
+        <v>2.38</v>
       </c>
       <c r="AC148">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="AD148">
-        <v>7.5</v>
+        <v>5.78</v>
       </c>
       <c r="AE148">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AF148">
+        <v>2.15</v>
+      </c>
+      <c r="AG148">
         <v>2.7</v>
       </c>
-      <c r="AG148">
-        <v>2.15</v>
-      </c>
       <c r="AH148">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="AI148">
         <v>2.2</v>
@@ -31610,100 +31616,100 @@
         <v>1.62</v>
       </c>
       <c r="AK148">
-        <v>1.12</v>
+        <v>1.43</v>
       </c>
       <c r="AL148">
-        <v>1.27</v>
+        <v>1.4</v>
       </c>
       <c r="AM148">
-        <v>2.22</v>
+        <v>1.4</v>
       </c>
       <c r="AN148">
         <v>1.6</v>
       </c>
       <c r="AO148">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP148">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ148">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR148">
-        <v>2.04</v>
+        <v>1.53</v>
       </c>
       <c r="AS148">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="AT148">
-        <v>3.26</v>
+        <v>2.97</v>
       </c>
       <c r="AU148">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV148">
+        <v>3</v>
+      </c>
+      <c r="AW148">
+        <v>7</v>
+      </c>
+      <c r="AX148">
+        <v>19</v>
+      </c>
+      <c r="AY148">
+        <v>14</v>
+      </c>
+      <c r="AZ148">
+        <v>22</v>
+      </c>
+      <c r="BA148">
         <v>4</v>
       </c>
-      <c r="AW148">
-        <v>8</v>
-      </c>
-      <c r="AX148">
-        <v>6</v>
-      </c>
-      <c r="AY148">
-        <v>16</v>
-      </c>
-      <c r="AZ148">
-        <v>10</v>
-      </c>
-      <c r="BA148">
-        <v>5</v>
-      </c>
       <c r="BB148">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="BC148">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BD148">
-        <v>1.51</v>
+        <v>2.1</v>
       </c>
       <c r="BE148">
-        <v>8.4</v>
+        <v>7.4</v>
       </c>
       <c r="BF148">
-        <v>3.24</v>
+        <v>2.05</v>
       </c>
       <c r="BG148">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="BH148">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="BI148">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BJ148">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="BK148">
-        <v>2.4</v>
+        <v>2.13</v>
       </c>
       <c r="BL148">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="BM148">
-        <v>3.5</v>
+        <v>2.9</v>
       </c>
       <c r="BN148">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BO148">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="BP148">
-        <v>1.15</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31729,7 +31735,7 @@
         <v>82</v>
       </c>
       <c r="H149" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I149">
         <v>1</v>
@@ -32165,7 +32171,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32347,7 +32353,7 @@
         <v>89</v>
       </c>
       <c r="H152" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I152">
         <v>2</v>
@@ -32553,7 +32559,7 @@
         <v>91</v>
       </c>
       <c r="H153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -32577,7 +32583,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32962,7 +32968,7 @@
         <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H155" t="s">
         <v>93</v>
@@ -32989,7 +32995,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33168,7 +33174,7 @@
         <v>12</v>
       </c>
       <c r="G156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H156" t="s">
         <v>74</v>
@@ -33195,7 +33201,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33401,7 +33407,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33813,7 +33819,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34431,7 +34437,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34613,7 +34619,7 @@
         <v>75</v>
       </c>
       <c r="H163" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -35022,7 +35028,7 @@
         <v>12</v>
       </c>
       <c r="G165" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H165" t="s">
         <v>95</v>
@@ -35255,7 +35261,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35461,7 +35467,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35667,7 +35673,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35745,7 +35751,7 @@
         <v>2.4</v>
       </c>
       <c r="AP168">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ168">
         <v>2.5</v>
@@ -35846,7 +35852,7 @@
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H169" t="s">
         <v>89</v>
@@ -36285,7 +36291,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36491,7 +36497,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36861,7 +36867,7 @@
         <v>173</v>
       </c>
       <c r="B174">
-        <v>7345660</v>
+        <v>7345667</v>
       </c>
       <c r="C174" t="s">
         <v>68</v>
@@ -36876,190 +36882,190 @@
         <v>13</v>
       </c>
       <c r="G174" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="H174" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I174">
         <v>1</v>
       </c>
       <c r="J174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L174">
         <v>1</v>
       </c>
       <c r="M174">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O174" t="s">
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>197</v>
+        <v>276</v>
       </c>
       <c r="Q174">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="R174">
+        <v>2</v>
+      </c>
+      <c r="S174">
+        <v>5.5</v>
+      </c>
+      <c r="T174">
+        <v>1.53</v>
+      </c>
+      <c r="U174">
         <v>2.38</v>
       </c>
-      <c r="S174">
-        <v>6.5</v>
-      </c>
-      <c r="T174">
-        <v>1.36</v>
-      </c>
-      <c r="U174">
-        <v>3</v>
-      </c>
       <c r="V174">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="W174">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="X174">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y174">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="Z174">
-        <v>1.44</v>
+        <v>1.75</v>
       </c>
       <c r="AA174">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB174">
-        <v>8.5</v>
+        <v>5.25</v>
       </c>
       <c r="AC174">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AD174">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AE174">
-        <v>1.25</v>
+        <v>1.56</v>
       </c>
       <c r="AF174">
-        <v>3.42</v>
+        <v>2.48</v>
       </c>
       <c r="AG174">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="AH174">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AI174">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="AJ174">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AK174">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="AL174">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AM174">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="AN174">
-        <v>2.17</v>
+        <v>1.33</v>
       </c>
       <c r="AO174">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AP174">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="AQ174">
-        <v>0.71</v>
+        <v>1.14</v>
       </c>
       <c r="AR174">
-        <v>2.02</v>
+        <v>1.61</v>
       </c>
       <c r="AS174">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AT174">
-        <v>3.42</v>
+        <v>2.87</v>
       </c>
       <c r="AU174">
         <v>6</v>
       </c>
       <c r="AV174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW174">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AX174">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY174">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AZ174">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA174">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="BB174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC174">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD174">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="BE174">
-        <v>8.1</v>
+        <v>0</v>
       </c>
       <c r="BF174">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="BG174">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="BH174">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="BI174">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="BJ174">
-        <v>2.12</v>
+        <v>0</v>
       </c>
       <c r="BK174">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BL174">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="BM174">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="BN174">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BO174">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="BP174">
-        <v>1.21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:68">
@@ -37067,7 +37073,7 @@
         <v>174</v>
       </c>
       <c r="B175">
-        <v>7345667</v>
+        <v>7345660</v>
       </c>
       <c r="C175" t="s">
         <v>68</v>
@@ -37082,190 +37088,190 @@
         <v>13</v>
       </c>
       <c r="G175" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="H175" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="I175">
         <v>1</v>
       </c>
       <c r="J175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L175">
         <v>1</v>
       </c>
       <c r="M175">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O175" t="s">
         <v>197</v>
       </c>
       <c r="P175" t="s">
-        <v>275</v>
+        <v>196</v>
       </c>
       <c r="Q175">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="R175">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="S175">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="T175">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="U175">
-        <v>2.38</v>
+        <v>3</v>
       </c>
       <c r="V175">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>8</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>1.44</v>
+      </c>
+      <c r="AA175">
+        <v>4.2</v>
+      </c>
+      <c r="AB175">
+        <v>8.5</v>
+      </c>
+      <c r="AC175">
+        <v>1.01</v>
+      </c>
+      <c r="AD175">
+        <v>9.4</v>
+      </c>
+      <c r="AE175">
         <v>1.25</v>
       </c>
-      <c r="X175">
-        <v>11</v>
-      </c>
-      <c r="Y175">
-        <v>1.05</v>
-      </c>
-      <c r="Z175">
-        <v>1.75</v>
-      </c>
-      <c r="AA175">
-        <v>3.3</v>
-      </c>
-      <c r="AB175">
-        <v>5.25</v>
-      </c>
-      <c r="AC175">
-        <v>0</v>
-      </c>
-      <c r="AD175">
-        <v>0</v>
-      </c>
-      <c r="AE175">
-        <v>1.56</v>
-      </c>
       <c r="AF175">
-        <v>2.48</v>
+        <v>3.42</v>
       </c>
       <c r="AG175">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="AH175">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AI175">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="AJ175">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AK175">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AL175">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM175">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AN175">
-        <v>1.33</v>
+        <v>2.17</v>
       </c>
       <c r="AO175">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AP175">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AQ175">
-        <v>1.14</v>
+        <v>0.71</v>
       </c>
       <c r="AR175">
-        <v>1.61</v>
+        <v>2.02</v>
       </c>
       <c r="AS175">
-        <v>1.26</v>
+        <v>1.4</v>
       </c>
       <c r="AT175">
-        <v>2.87</v>
+        <v>3.42</v>
       </c>
       <c r="AU175">
         <v>6</v>
       </c>
       <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>11</v>
+      </c>
+      <c r="AX175">
+        <v>1</v>
+      </c>
+      <c r="AY175">
+        <v>17</v>
+      </c>
+      <c r="AZ175">
         <v>5</v>
       </c>
-      <c r="AW175">
-        <v>8</v>
-      </c>
-      <c r="AX175">
-        <v>5</v>
-      </c>
-      <c r="AY175">
-        <v>14</v>
-      </c>
-      <c r="AZ175">
-        <v>10</v>
-      </c>
       <c r="BA175">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BB175">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC175">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="BD175">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="BE175">
-        <v>0</v>
+        <v>8.1</v>
       </c>
       <c r="BF175">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="BG175">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BH175">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="BI175">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BJ175">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="BK175">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="BL175">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="BM175">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="BN175">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="BO175">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="BP175">
-        <v>0</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="176" spans="1:68">
@@ -37273,7 +37279,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7345655</v>
+        <v>7345658</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37288,19 +37294,19 @@
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H176" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L176">
         <v>3</v>
@@ -37315,163 +37321,163 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q176">
+        <v>2.63</v>
+      </c>
+      <c r="R176">
+        <v>2.05</v>
+      </c>
+      <c r="S176">
+        <v>4.5</v>
+      </c>
+      <c r="T176">
+        <v>1.53</v>
+      </c>
+      <c r="U176">
+        <v>2.38</v>
+      </c>
+      <c r="V176">
         <v>3.75</v>
       </c>
-      <c r="R176">
+      <c r="W176">
+        <v>1.25</v>
+      </c>
+      <c r="X176">
+        <v>11</v>
+      </c>
+      <c r="Y176">
+        <v>1.05</v>
+      </c>
+      <c r="Z176">
+        <v>1.95</v>
+      </c>
+      <c r="AA176">
+        <v>3.2</v>
+      </c>
+      <c r="AB176">
+        <v>4.5</v>
+      </c>
+      <c r="AC176">
+        <v>1.08</v>
+      </c>
+      <c r="AD176">
+        <v>7.15</v>
+      </c>
+      <c r="AE176">
+        <v>1.47</v>
+      </c>
+      <c r="AF176">
+        <v>2.59</v>
+      </c>
+      <c r="AG176">
+        <v>2.2</v>
+      </c>
+      <c r="AH176">
+        <v>1.65</v>
+      </c>
+      <c r="AI176">
         <v>1.91</v>
       </c>
-      <c r="S176">
-        <v>3.4</v>
-      </c>
-      <c r="T176">
-        <v>1.62</v>
-      </c>
-      <c r="U176">
-        <v>2.2</v>
-      </c>
-      <c r="V176">
+      <c r="AJ176">
+        <v>1.8</v>
+      </c>
+      <c r="AK176">
+        <v>1.22</v>
+      </c>
+      <c r="AL176">
+        <v>1.28</v>
+      </c>
+      <c r="AM176">
+        <v>1.92</v>
+      </c>
+      <c r="AN176">
+        <v>0.83</v>
+      </c>
+      <c r="AO176">
+        <v>1</v>
+      </c>
+      <c r="AP176">
+        <v>1.14</v>
+      </c>
+      <c r="AQ176">
+        <v>0.86</v>
+      </c>
+      <c r="AR176">
+        <v>1.88</v>
+      </c>
+      <c r="AS176">
+        <v>1.29</v>
+      </c>
+      <c r="AT176">
+        <v>3.17</v>
+      </c>
+      <c r="AU176">
+        <v>8</v>
+      </c>
+      <c r="AV176">
         <v>4</v>
       </c>
-      <c r="W176">
-        <v>1.22</v>
-      </c>
-      <c r="X176">
-        <v>13</v>
-      </c>
-      <c r="Y176">
-        <v>1.04</v>
-      </c>
-      <c r="Z176">
-        <v>2.9</v>
-      </c>
-      <c r="AA176">
-        <v>3.1</v>
-      </c>
-      <c r="AB176">
-        <v>2.6</v>
-      </c>
-      <c r="AC176">
-        <v>1.12</v>
-      </c>
-      <c r="AD176">
-        <v>5.5</v>
-      </c>
-      <c r="AE176">
-        <v>1.56</v>
-      </c>
-      <c r="AF176">
-        <v>2.44</v>
-      </c>
-      <c r="AG176">
-        <v>2.5</v>
-      </c>
-      <c r="AH176">
-        <v>1.5</v>
-      </c>
-      <c r="AI176">
-        <v>2.1</v>
-      </c>
-      <c r="AJ176">
-        <v>1.67</v>
-      </c>
-      <c r="AK176">
-        <v>1.5</v>
-      </c>
-      <c r="AL176">
-        <v>1.35</v>
-      </c>
-      <c r="AM176">
-        <v>1.44</v>
-      </c>
-      <c r="AN176">
-        <v>1.83</v>
-      </c>
-      <c r="AO176">
-        <v>1.8</v>
-      </c>
-      <c r="AP176">
-        <v>2</v>
-      </c>
-      <c r="AQ176">
-        <v>1.5</v>
-      </c>
-      <c r="AR176">
-        <v>1.55</v>
-      </c>
-      <c r="AS176">
-        <v>1.45</v>
-      </c>
-      <c r="AT176">
-        <v>3</v>
-      </c>
-      <c r="AU176">
+      <c r="AW176">
         <v>7</v>
       </c>
-      <c r="AV176">
+      <c r="AX176">
+        <v>4</v>
+      </c>
+      <c r="AY176">
+        <v>15</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
         <v>6</v>
       </c>
-      <c r="AW176">
-        <v>3</v>
-      </c>
-      <c r="AX176">
-        <v>14</v>
-      </c>
-      <c r="AY176">
-        <v>10</v>
-      </c>
-      <c r="AZ176">
-        <v>20</v>
-      </c>
-      <c r="BA176">
-        <v>4</v>
-      </c>
       <c r="BB176">
+        <v>2</v>
+      </c>
+      <c r="BC176">
         <v>8</v>
       </c>
-      <c r="BC176">
-        <v>12</v>
-      </c>
       <c r="BD176">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="BE176">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="BF176">
-        <v>2.05</v>
+        <v>2.86</v>
       </c>
       <c r="BG176">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="BH176">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="BI176">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="BJ176">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="BK176">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="BL176">
-        <v>1.97</v>
+        <v>2.4</v>
       </c>
       <c r="BM176">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="BN176">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="BO176">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="BP176">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="177" spans="1:68">
@@ -37479,7 +37485,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7345658</v>
+        <v>7345655</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37494,19 +37500,19 @@
         <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H177" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K177">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L177">
         <v>3</v>
@@ -37521,163 +37527,163 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q177">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="R177">
+        <v>1.91</v>
+      </c>
+      <c r="S177">
+        <v>3.4</v>
+      </c>
+      <c r="T177">
+        <v>1.62</v>
+      </c>
+      <c r="U177">
+        <v>2.2</v>
+      </c>
+      <c r="V177">
+        <v>4</v>
+      </c>
+      <c r="W177">
+        <v>1.22</v>
+      </c>
+      <c r="X177">
+        <v>13</v>
+      </c>
+      <c r="Y177">
+        <v>1.04</v>
+      </c>
+      <c r="Z177">
+        <v>2.9</v>
+      </c>
+      <c r="AA177">
+        <v>3.1</v>
+      </c>
+      <c r="AB177">
+        <v>2.6</v>
+      </c>
+      <c r="AC177">
+        <v>1.12</v>
+      </c>
+      <c r="AD177">
+        <v>5.5</v>
+      </c>
+      <c r="AE177">
+        <v>1.56</v>
+      </c>
+      <c r="AF177">
+        <v>2.44</v>
+      </c>
+      <c r="AG177">
+        <v>2.5</v>
+      </c>
+      <c r="AH177">
+        <v>1.5</v>
+      </c>
+      <c r="AI177">
+        <v>2.1</v>
+      </c>
+      <c r="AJ177">
+        <v>1.67</v>
+      </c>
+      <c r="AK177">
+        <v>1.5</v>
+      </c>
+      <c r="AL177">
+        <v>1.35</v>
+      </c>
+      <c r="AM177">
+        <v>1.44</v>
+      </c>
+      <c r="AN177">
+        <v>1.83</v>
+      </c>
+      <c r="AO177">
+        <v>1.8</v>
+      </c>
+      <c r="AP177">
+        <v>2</v>
+      </c>
+      <c r="AQ177">
+        <v>1.5</v>
+      </c>
+      <c r="AR177">
+        <v>1.55</v>
+      </c>
+      <c r="AS177">
+        <v>1.45</v>
+      </c>
+      <c r="AT177">
+        <v>3</v>
+      </c>
+      <c r="AU177">
+        <v>7</v>
+      </c>
+      <c r="AV177">
+        <v>6</v>
+      </c>
+      <c r="AW177">
+        <v>3</v>
+      </c>
+      <c r="AX177">
+        <v>14</v>
+      </c>
+      <c r="AY177">
+        <v>10</v>
+      </c>
+      <c r="AZ177">
+        <v>20</v>
+      </c>
+      <c r="BA177">
+        <v>4</v>
+      </c>
+      <c r="BB177">
+        <v>8</v>
+      </c>
+      <c r="BC177">
+        <v>12</v>
+      </c>
+      <c r="BD177">
+        <v>2.08</v>
+      </c>
+      <c r="BE177">
+        <v>7.7</v>
+      </c>
+      <c r="BF177">
         <v>2.05</v>
       </c>
-      <c r="S177">
-        <v>4.5</v>
-      </c>
-      <c r="T177">
-        <v>1.53</v>
-      </c>
-      <c r="U177">
-        <v>2.38</v>
-      </c>
-      <c r="V177">
-        <v>3.75</v>
-      </c>
-      <c r="W177">
-        <v>1.25</v>
-      </c>
-      <c r="X177">
-        <v>11</v>
-      </c>
-      <c r="Y177">
-        <v>1.05</v>
-      </c>
-      <c r="Z177">
-        <v>1.95</v>
-      </c>
-      <c r="AA177">
-        <v>3.2</v>
-      </c>
-      <c r="AB177">
-        <v>4.5</v>
-      </c>
-      <c r="AC177">
-        <v>1.08</v>
-      </c>
-      <c r="AD177">
-        <v>7.15</v>
-      </c>
-      <c r="AE177">
-        <v>1.47</v>
-      </c>
-      <c r="AF177">
-        <v>2.59</v>
-      </c>
-      <c r="AG177">
-        <v>2.2</v>
-      </c>
-      <c r="AH177">
-        <v>1.65</v>
-      </c>
-      <c r="AI177">
-        <v>1.91</v>
-      </c>
-      <c r="AJ177">
-        <v>1.8</v>
-      </c>
-      <c r="AK177">
-        <v>1.22</v>
-      </c>
-      <c r="AL177">
-        <v>1.28</v>
-      </c>
-      <c r="AM177">
-        <v>1.92</v>
-      </c>
-      <c r="AN177">
-        <v>0.83</v>
-      </c>
-      <c r="AO177">
-        <v>1</v>
-      </c>
-      <c r="AP177">
-        <v>1.14</v>
-      </c>
-      <c r="AQ177">
-        <v>0.86</v>
-      </c>
-      <c r="AR177">
-        <v>1.88</v>
-      </c>
-      <c r="AS177">
-        <v>1.29</v>
-      </c>
-      <c r="AT177">
-        <v>3.17</v>
-      </c>
-      <c r="AU177">
-        <v>8</v>
-      </c>
-      <c r="AV177">
-        <v>4</v>
-      </c>
-      <c r="AW177">
-        <v>7</v>
-      </c>
-      <c r="AX177">
-        <v>4</v>
-      </c>
-      <c r="AY177">
-        <v>15</v>
-      </c>
-      <c r="AZ177">
-        <v>8</v>
-      </c>
-      <c r="BA177">
-        <v>6</v>
-      </c>
-      <c r="BB177">
-        <v>2</v>
-      </c>
-      <c r="BC177">
-        <v>8</v>
-      </c>
-      <c r="BD177">
-        <v>1.59</v>
-      </c>
-      <c r="BE177">
-        <v>9</v>
-      </c>
-      <c r="BF177">
-        <v>2.86</v>
-      </c>
       <c r="BG177">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="BH177">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI177">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="BJ177">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="BK177">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="BL177">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="BM177">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="BN177">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="BO177">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP177">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37703,7 +37709,7 @@
         <v>80</v>
       </c>
       <c r="H178" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -37909,7 +37915,7 @@
         <v>82</v>
       </c>
       <c r="H179" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -37933,7 +37939,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q179">
         <v>1.62</v>
@@ -38090,6 +38096,624 @@
       </c>
       <c r="BP179">
         <v>1.7</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7345657</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45390.64583333334</v>
+      </c>
+      <c r="F180">
+        <v>13</v>
+      </c>
+      <c r="G180" t="s">
+        <v>95</v>
+      </c>
+      <c r="H180" t="s">
+        <v>84</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>0</v>
+      </c>
+      <c r="O180" t="s">
+        <v>98</v>
+      </c>
+      <c r="P180" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q180">
+        <v>4.33</v>
+      </c>
+      <c r="R180">
+        <v>1.91</v>
+      </c>
+      <c r="S180">
+        <v>3.1</v>
+      </c>
+      <c r="T180">
+        <v>1.62</v>
+      </c>
+      <c r="U180">
+        <v>2.2</v>
+      </c>
+      <c r="V180">
+        <v>4</v>
+      </c>
+      <c r="W180">
+        <v>1.22</v>
+      </c>
+      <c r="X180">
+        <v>15</v>
+      </c>
+      <c r="Y180">
+        <v>1.03</v>
+      </c>
+      <c r="Z180">
+        <v>3.6</v>
+      </c>
+      <c r="AA180">
+        <v>3</v>
+      </c>
+      <c r="AB180">
+        <v>2.25</v>
+      </c>
+      <c r="AC180">
+        <v>1.12</v>
+      </c>
+      <c r="AD180">
+        <v>5.87</v>
+      </c>
+      <c r="AE180">
+        <v>1.61</v>
+      </c>
+      <c r="AF180">
+        <v>2.33</v>
+      </c>
+      <c r="AG180">
+        <v>2.88</v>
+      </c>
+      <c r="AH180">
+        <v>1.4</v>
+      </c>
+      <c r="AI180">
+        <v>2.25</v>
+      </c>
+      <c r="AJ180">
+        <v>1.57</v>
+      </c>
+      <c r="AK180">
+        <v>1.55</v>
+      </c>
+      <c r="AL180">
+        <v>1.4</v>
+      </c>
+      <c r="AM180">
+        <v>1.3</v>
+      </c>
+      <c r="AN180">
+        <v>1</v>
+      </c>
+      <c r="AO180">
+        <v>0.5</v>
+      </c>
+      <c r="AP180">
+        <v>1</v>
+      </c>
+      <c r="AQ180">
+        <v>0.57</v>
+      </c>
+      <c r="AR180">
+        <v>1.27</v>
+      </c>
+      <c r="AS180">
+        <v>1.57</v>
+      </c>
+      <c r="AT180">
+        <v>2.84</v>
+      </c>
+      <c r="AU180">
+        <v>3</v>
+      </c>
+      <c r="AV180">
+        <v>4</v>
+      </c>
+      <c r="AW180">
+        <v>5</v>
+      </c>
+      <c r="AX180">
+        <v>8</v>
+      </c>
+      <c r="AY180">
+        <v>8</v>
+      </c>
+      <c r="AZ180">
+        <v>12</v>
+      </c>
+      <c r="BA180">
+        <v>3</v>
+      </c>
+      <c r="BB180">
+        <v>2</v>
+      </c>
+      <c r="BC180">
+        <v>5</v>
+      </c>
+      <c r="BD180">
+        <v>2.42</v>
+      </c>
+      <c r="BE180">
+        <v>7.5</v>
+      </c>
+      <c r="BF180">
+        <v>1.84</v>
+      </c>
+      <c r="BG180">
+        <v>1.6</v>
+      </c>
+      <c r="BH180">
+        <v>2.25</v>
+      </c>
+      <c r="BI180">
+        <v>2</v>
+      </c>
+      <c r="BJ180">
+        <v>1.75</v>
+      </c>
+      <c r="BK180">
+        <v>2.65</v>
+      </c>
+      <c r="BL180">
+        <v>1.42</v>
+      </c>
+      <c r="BM180">
+        <v>3.7</v>
+      </c>
+      <c r="BN180">
+        <v>1.25</v>
+      </c>
+      <c r="BO180">
+        <v>5.4</v>
+      </c>
+      <c r="BP180">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7345661</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45390.83333333334</v>
+      </c>
+      <c r="F181">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>79</v>
+      </c>
+      <c r="H181" t="s">
+        <v>71</v>
+      </c>
+      <c r="I181">
+        <v>1</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>2</v>
+      </c>
+      <c r="L181">
+        <v>3</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>4</v>
+      </c>
+      <c r="O181" t="s">
+        <v>202</v>
+      </c>
+      <c r="P181" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q181">
+        <v>3.1</v>
+      </c>
+      <c r="R181">
+        <v>1.91</v>
+      </c>
+      <c r="S181">
+        <v>4.33</v>
+      </c>
+      <c r="T181">
+        <v>1.62</v>
+      </c>
+      <c r="U181">
+        <v>2.2</v>
+      </c>
+      <c r="V181">
+        <v>4</v>
+      </c>
+      <c r="W181">
+        <v>1.22</v>
+      </c>
+      <c r="X181">
+        <v>13</v>
+      </c>
+      <c r="Y181">
+        <v>1.04</v>
+      </c>
+      <c r="Z181">
+        <v>2.25</v>
+      </c>
+      <c r="AA181">
+        <v>3</v>
+      </c>
+      <c r="AB181">
+        <v>3.6</v>
+      </c>
+      <c r="AC181">
+        <v>1.12</v>
+      </c>
+      <c r="AD181">
+        <v>6.6</v>
+      </c>
+      <c r="AE181">
+        <v>1.58</v>
+      </c>
+      <c r="AF181">
+        <v>2.41</v>
+      </c>
+      <c r="AG181">
+        <v>2.7</v>
+      </c>
+      <c r="AH181">
+        <v>1.44</v>
+      </c>
+      <c r="AI181">
+        <v>2.2</v>
+      </c>
+      <c r="AJ181">
+        <v>1.62</v>
+      </c>
+      <c r="AK181">
+        <v>1.18</v>
+      </c>
+      <c r="AL181">
+        <v>1.36</v>
+      </c>
+      <c r="AM181">
+        <v>1.8</v>
+      </c>
+      <c r="AN181">
+        <v>1.17</v>
+      </c>
+      <c r="AO181">
+        <v>0.17</v>
+      </c>
+      <c r="AP181">
+        <v>1.43</v>
+      </c>
+      <c r="AQ181">
+        <v>0.14</v>
+      </c>
+      <c r="AR181">
+        <v>1.28</v>
+      </c>
+      <c r="AS181">
+        <v>1.23</v>
+      </c>
+      <c r="AT181">
+        <v>2.51</v>
+      </c>
+      <c r="AU181">
+        <v>6</v>
+      </c>
+      <c r="AV181">
+        <v>5</v>
+      </c>
+      <c r="AW181">
+        <v>5</v>
+      </c>
+      <c r="AX181">
+        <v>1</v>
+      </c>
+      <c r="AY181">
+        <v>11</v>
+      </c>
+      <c r="AZ181">
+        <v>6</v>
+      </c>
+      <c r="BA181">
+        <v>3</v>
+      </c>
+      <c r="BB181">
+        <v>3</v>
+      </c>
+      <c r="BC181">
+        <v>6</v>
+      </c>
+      <c r="BD181">
+        <v>1.57</v>
+      </c>
+      <c r="BE181">
+        <v>7.6</v>
+      </c>
+      <c r="BF181">
+        <v>3.1</v>
+      </c>
+      <c r="BG181">
+        <v>1.67</v>
+      </c>
+      <c r="BH181">
+        <v>2.12</v>
+      </c>
+      <c r="BI181">
+        <v>2.18</v>
+      </c>
+      <c r="BJ181">
+        <v>1.63</v>
+      </c>
+      <c r="BK181">
+        <v>3.05</v>
+      </c>
+      <c r="BL181">
+        <v>1.35</v>
+      </c>
+      <c r="BM181">
+        <v>4.4</v>
+      </c>
+      <c r="BN181">
+        <v>1.19</v>
+      </c>
+      <c r="BO181">
+        <v>6.5</v>
+      </c>
+      <c r="BP181">
+        <v>1.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:68">
+      <c r="A182" s="1">
+        <v>181</v>
+      </c>
+      <c r="B182">
+        <v>7345662</v>
+      </c>
+      <c r="C182" t="s">
+        <v>68</v>
+      </c>
+      <c r="D182" t="s">
+        <v>69</v>
+      </c>
+      <c r="E182" s="2">
+        <v>45390.83333333334</v>
+      </c>
+      <c r="F182">
+        <v>13</v>
+      </c>
+      <c r="G182" t="s">
+        <v>81</v>
+      </c>
+      <c r="H182" t="s">
+        <v>97</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>0</v>
+      </c>
+      <c r="K182">
+        <v>0</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>1</v>
+      </c>
+      <c r="O182" t="s">
+        <v>152</v>
+      </c>
+      <c r="P182" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q182">
+        <v>2.2</v>
+      </c>
+      <c r="R182">
+        <v>2.1</v>
+      </c>
+      <c r="S182">
+        <v>7.5</v>
+      </c>
+      <c r="T182">
+        <v>1.57</v>
+      </c>
+      <c r="U182">
+        <v>2.25</v>
+      </c>
+      <c r="V182">
+        <v>3.75</v>
+      </c>
+      <c r="W182">
+        <v>1.25</v>
+      </c>
+      <c r="X182">
+        <v>11</v>
+      </c>
+      <c r="Y182">
+        <v>1.05</v>
+      </c>
+      <c r="Z182">
+        <v>1.5</v>
+      </c>
+      <c r="AA182">
+        <v>4.2</v>
+      </c>
+      <c r="AB182">
+        <v>6.5</v>
+      </c>
+      <c r="AC182">
+        <v>1.1</v>
+      </c>
+      <c r="AD182">
+        <v>7.65</v>
+      </c>
+      <c r="AE182">
+        <v>1.52</v>
+      </c>
+      <c r="AF182">
+        <v>2.55</v>
+      </c>
+      <c r="AG182">
+        <v>2.35</v>
+      </c>
+      <c r="AH182">
+        <v>1.57</v>
+      </c>
+      <c r="AI182">
+        <v>2.5</v>
+      </c>
+      <c r="AJ182">
+        <v>1.5</v>
+      </c>
+      <c r="AK182">
+        <v>1.17</v>
+      </c>
+      <c r="AL182">
+        <v>1.28</v>
+      </c>
+      <c r="AM182">
+        <v>2.15</v>
+      </c>
+      <c r="AN182">
+        <v>1.83</v>
+      </c>
+      <c r="AO182">
+        <v>0.83</v>
+      </c>
+      <c r="AP182">
+        <v>2</v>
+      </c>
+      <c r="AQ182">
+        <v>0.71</v>
+      </c>
+      <c r="AR182">
+        <v>2.05</v>
+      </c>
+      <c r="AS182">
+        <v>1.26</v>
+      </c>
+      <c r="AT182">
+        <v>3.31</v>
+      </c>
+      <c r="AU182">
+        <v>5</v>
+      </c>
+      <c r="AV182">
+        <v>5</v>
+      </c>
+      <c r="AW182">
+        <v>7</v>
+      </c>
+      <c r="AX182">
+        <v>6</v>
+      </c>
+      <c r="AY182">
+        <v>12</v>
+      </c>
+      <c r="AZ182">
+        <v>11</v>
+      </c>
+      <c r="BA182">
+        <v>0</v>
+      </c>
+      <c r="BB182">
+        <v>3</v>
+      </c>
+      <c r="BC182">
+        <v>3</v>
+      </c>
+      <c r="BD182">
+        <v>1.44</v>
+      </c>
+      <c r="BE182">
+        <v>9.5</v>
+      </c>
+      <c r="BF182">
+        <v>3.44</v>
+      </c>
+      <c r="BG182">
+        <v>1.38</v>
+      </c>
+      <c r="BH182">
+        <v>2.8</v>
+      </c>
+      <c r="BI182">
+        <v>1.67</v>
+      </c>
+      <c r="BJ182">
+        <v>2.1</v>
+      </c>
+      <c r="BK182">
+        <v>2.38</v>
+      </c>
+      <c r="BL182">
+        <v>1.67</v>
+      </c>
+      <c r="BM182">
+        <v>2.75</v>
+      </c>
+      <c r="BN182">
+        <v>1.4</v>
+      </c>
+      <c r="BO182">
+        <v>3.8</v>
+      </c>
+      <c r="BP182">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="282">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -625,6 +625,9 @@
     <t>['5', '53', '90+6']</t>
   </si>
   <si>
+    <t>['4', '21', '43', '69']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -1218,7 +1221,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP182"/>
+  <dimension ref="A1:BP184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1761,7 +1764,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ3">
         <v>0.71</v>
@@ -2095,7 +2098,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2301,7 +2304,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2507,7 +2510,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2713,7 +2716,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3125,7 +3128,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3618,7 +3621,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3949,7 +3952,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4442,7 +4445,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR16">
         <v>1.36</v>
@@ -4567,7 +4570,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4645,7 +4648,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ17">
         <v>1.5</v>
@@ -4979,7 +4982,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>2.75</v>
@@ -5391,7 +5394,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -6009,7 +6012,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6421,7 +6424,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6833,7 +6836,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -7039,7 +7042,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7451,7 +7454,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -8974,7 +8977,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ38">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR38">
         <v>1.15</v>
@@ -9099,7 +9102,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9177,7 +9180,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ39">
         <v>1.33</v>
@@ -9511,7 +9514,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9717,7 +9720,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10413,7 +10416,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10747,7 +10750,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11159,7 +11162,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11365,7 +11368,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11983,7 +11986,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12189,7 +12192,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12682,7 +12685,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR56">
         <v>1.77</v>
@@ -12807,7 +12810,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13013,7 +13016,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13425,7 +13428,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13712,7 +13715,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR61">
         <v>1.97</v>
@@ -14043,7 +14046,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14249,7 +14252,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14327,7 +14330,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ64">
         <v>1.71</v>
@@ -15073,7 +15076,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15485,7 +15488,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15691,7 +15694,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16103,7 +16106,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16309,7 +16312,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16721,7 +16724,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16927,7 +16930,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17133,7 +17136,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17420,7 +17423,7 @@
         <v>1</v>
       </c>
       <c r="AQ79">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR79">
         <v>1.31</v>
@@ -18369,7 +18372,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18575,7 +18578,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18987,7 +18990,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19271,7 +19274,7 @@
         <v>0.5</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ88">
         <v>0.67</v>
@@ -19399,7 +19402,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19811,7 +19814,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20429,7 +20432,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20635,7 +20638,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21047,7 +21050,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21253,7 +21256,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21540,7 +21543,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ99">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR99">
         <v>1.22</v>
@@ -21665,7 +21668,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21949,7 +21952,7 @@
         <v>1</v>
       </c>
       <c r="AP101">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ101">
         <v>0.5</v>
@@ -22077,7 +22080,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22361,7 +22364,7 @@
         <v>0.33</v>
       </c>
       <c r="AP103">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ103">
         <v>0.71</v>
@@ -22901,7 +22904,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -22982,7 +22985,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR106">
         <v>1.32</v>
@@ -23313,7 +23316,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23519,7 +23522,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23725,7 +23728,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23931,7 +23934,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24137,7 +24140,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24343,7 +24346,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24755,7 +24758,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25579,7 +25582,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25991,7 +25994,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -27227,7 +27230,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -28257,7 +28260,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28541,7 +28544,7 @@
         <v>0.5</v>
       </c>
       <c r="AP133">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28669,7 +28672,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28750,7 +28753,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR134">
         <v>1.67</v>
@@ -28875,7 +28878,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -28956,7 +28959,7 @@
         <v>2</v>
       </c>
       <c r="AQ135">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR135">
         <v>2.05</v>
@@ -29081,7 +29084,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29287,7 +29290,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29365,7 +29368,7 @@
         <v>2.25</v>
       </c>
       <c r="AP137">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ137">
         <v>2.14</v>
@@ -29493,7 +29496,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29699,7 +29702,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29905,7 +29908,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31141,7 +31144,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -32171,7 +32174,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32583,7 +32586,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -32995,7 +32998,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33076,7 +33079,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ155">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR155">
         <v>1.3</v>
@@ -33201,7 +33204,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33407,7 +33410,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33819,7 +33822,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -33897,7 +33900,7 @@
         <v>0.4</v>
       </c>
       <c r="AP159">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ159">
         <v>1.14</v>
@@ -34103,7 +34106,7 @@
         <v>1.8</v>
       </c>
       <c r="AP160">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ160">
         <v>1.5</v>
@@ -34437,7 +34440,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -35261,7 +35264,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35342,7 +35345,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ166">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR166">
         <v>1.61</v>
@@ -35467,7 +35470,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35673,7 +35676,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36291,7 +36294,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36497,7 +36500,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36909,7 +36912,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37321,7 +37324,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37527,7 +37530,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37939,7 +37942,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q179">
         <v>1.62</v>
@@ -38351,7 +38354,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38713,6 +38716,418 @@
         <v>3.8</v>
       </c>
       <c r="BP182">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="183" spans="1:68">
+      <c r="A183" s="1">
+        <v>182</v>
+      </c>
+      <c r="B183">
+        <v>7345675</v>
+      </c>
+      <c r="C183" t="s">
+        <v>68</v>
+      </c>
+      <c r="D183" t="s">
+        <v>69</v>
+      </c>
+      <c r="E183" s="2">
+        <v>45395.70833333334</v>
+      </c>
+      <c r="F183">
+        <v>14</v>
+      </c>
+      <c r="G183" t="s">
+        <v>71</v>
+      </c>
+      <c r="H183" t="s">
+        <v>93</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183">
+        <v>0</v>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+      <c r="M183">
+        <v>1</v>
+      </c>
+      <c r="N183">
+        <v>1</v>
+      </c>
+      <c r="O183" t="s">
+        <v>98</v>
+      </c>
+      <c r="P183" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q183">
+        <v>3.75</v>
+      </c>
+      <c r="R183">
+        <v>1.95</v>
+      </c>
+      <c r="S183">
+        <v>3.2</v>
+      </c>
+      <c r="T183">
+        <v>1.53</v>
+      </c>
+      <c r="U183">
+        <v>2.38</v>
+      </c>
+      <c r="V183">
+        <v>3.5</v>
+      </c>
+      <c r="W183">
+        <v>1.29</v>
+      </c>
+      <c r="X183">
+        <v>11</v>
+      </c>
+      <c r="Y183">
+        <v>1.05</v>
+      </c>
+      <c r="Z183">
+        <v>3.2</v>
+      </c>
+      <c r="AA183">
+        <v>3.1</v>
+      </c>
+      <c r="AB183">
+        <v>2.4</v>
+      </c>
+      <c r="AC183">
+        <v>1.07</v>
+      </c>
+      <c r="AD183">
+        <v>7.61</v>
+      </c>
+      <c r="AE183">
+        <v>1.46</v>
+      </c>
+      <c r="AF183">
+        <v>2.65</v>
+      </c>
+      <c r="AG183">
+        <v>2.5</v>
+      </c>
+      <c r="AH183">
+        <v>1.5</v>
+      </c>
+      <c r="AI183">
+        <v>2</v>
+      </c>
+      <c r="AJ183">
+        <v>1.73</v>
+      </c>
+      <c r="AK183">
+        <v>1.5</v>
+      </c>
+      <c r="AL183">
+        <v>1.32</v>
+      </c>
+      <c r="AM183">
+        <v>1.45</v>
+      </c>
+      <c r="AN183">
+        <v>0.67</v>
+      </c>
+      <c r="AO183">
+        <v>1.5</v>
+      </c>
+      <c r="AP183">
+        <v>0.57</v>
+      </c>
+      <c r="AQ183">
+        <v>1.71</v>
+      </c>
+      <c r="AR183">
+        <v>1.55</v>
+      </c>
+      <c r="AS183">
+        <v>1.28</v>
+      </c>
+      <c r="AT183">
+        <v>2.83</v>
+      </c>
+      <c r="AU183">
+        <v>2</v>
+      </c>
+      <c r="AV183">
+        <v>6</v>
+      </c>
+      <c r="AW183">
+        <v>5</v>
+      </c>
+      <c r="AX183">
+        <v>5</v>
+      </c>
+      <c r="AY183">
+        <v>7</v>
+      </c>
+      <c r="AZ183">
+        <v>11</v>
+      </c>
+      <c r="BA183">
+        <v>0</v>
+      </c>
+      <c r="BB183">
+        <v>5</v>
+      </c>
+      <c r="BC183">
+        <v>5</v>
+      </c>
+      <c r="BD183">
+        <v>2.29</v>
+      </c>
+      <c r="BE183">
+        <v>8.35</v>
+      </c>
+      <c r="BF183">
+        <v>1.9</v>
+      </c>
+      <c r="BG183">
+        <v>1.42</v>
+      </c>
+      <c r="BH183">
+        <v>2.65</v>
+      </c>
+      <c r="BI183">
+        <v>1.9</v>
+      </c>
+      <c r="BJ183">
+        <v>1.9</v>
+      </c>
+      <c r="BK183">
+        <v>2.4</v>
+      </c>
+      <c r="BL183">
+        <v>1.5</v>
+      </c>
+      <c r="BM183">
+        <v>2.88</v>
+      </c>
+      <c r="BN183">
+        <v>1.36</v>
+      </c>
+      <c r="BO183">
+        <v>3.8</v>
+      </c>
+      <c r="BP183">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="184" spans="1:68">
+      <c r="A184" s="1">
+        <v>183</v>
+      </c>
+      <c r="B184">
+        <v>7345671</v>
+      </c>
+      <c r="C184" t="s">
+        <v>68</v>
+      </c>
+      <c r="D184" t="s">
+        <v>69</v>
+      </c>
+      <c r="E184" s="2">
+        <v>45395.79166666666</v>
+      </c>
+      <c r="F184">
+        <v>14</v>
+      </c>
+      <c r="G184" t="s">
+        <v>84</v>
+      </c>
+      <c r="H184" t="s">
+        <v>72</v>
+      </c>
+      <c r="I184">
+        <v>3</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184">
+        <v>3</v>
+      </c>
+      <c r="L184">
+        <v>4</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>4</v>
+      </c>
+      <c r="O184" t="s">
+        <v>203</v>
+      </c>
+      <c r="P184" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q184">
+        <v>2.75</v>
+      </c>
+      <c r="R184">
+        <v>1.95</v>
+      </c>
+      <c r="S184">
+        <v>4.75</v>
+      </c>
+      <c r="T184">
+        <v>1.57</v>
+      </c>
+      <c r="U184">
+        <v>2.25</v>
+      </c>
+      <c r="V184">
+        <v>3.75</v>
+      </c>
+      <c r="W184">
+        <v>1.25</v>
+      </c>
+      <c r="X184">
+        <v>11</v>
+      </c>
+      <c r="Y184">
+        <v>1.05</v>
+      </c>
+      <c r="Z184">
+        <v>2</v>
+      </c>
+      <c r="AA184">
+        <v>3.3</v>
+      </c>
+      <c r="AB184">
+        <v>4</v>
+      </c>
+      <c r="AC184">
+        <v>1.1</v>
+      </c>
+      <c r="AD184">
+        <v>6.5</v>
+      </c>
+      <c r="AE184">
+        <v>1.5</v>
+      </c>
+      <c r="AF184">
+        <v>2.55</v>
+      </c>
+      <c r="AG184">
+        <v>2.4</v>
+      </c>
+      <c r="AH184">
+        <v>1.53</v>
+      </c>
+      <c r="AI184">
+        <v>2.2</v>
+      </c>
+      <c r="AJ184">
+        <v>1.62</v>
+      </c>
+      <c r="AK184">
+        <v>1.22</v>
+      </c>
+      <c r="AL184">
+        <v>1.28</v>
+      </c>
+      <c r="AM184">
+        <v>1.77</v>
+      </c>
+      <c r="AN184">
+        <v>1.5</v>
+      </c>
+      <c r="AO184">
+        <v>0.33</v>
+      </c>
+      <c r="AP184">
+        <v>1.71</v>
+      </c>
+      <c r="AQ184">
+        <v>0.29</v>
+      </c>
+      <c r="AR184">
+        <v>1.21</v>
+      </c>
+      <c r="AS184">
+        <v>1.44</v>
+      </c>
+      <c r="AT184">
+        <v>2.65</v>
+      </c>
+      <c r="AU184">
+        <v>7</v>
+      </c>
+      <c r="AV184">
+        <v>4</v>
+      </c>
+      <c r="AW184">
+        <v>8</v>
+      </c>
+      <c r="AX184">
+        <v>7</v>
+      </c>
+      <c r="AY184">
+        <v>15</v>
+      </c>
+      <c r="AZ184">
+        <v>11</v>
+      </c>
+      <c r="BA184">
+        <v>5</v>
+      </c>
+      <c r="BB184">
+        <v>6</v>
+      </c>
+      <c r="BC184">
+        <v>11</v>
+      </c>
+      <c r="BD184">
+        <v>1.68</v>
+      </c>
+      <c r="BE184">
+        <v>8.5</v>
+      </c>
+      <c r="BF184">
+        <v>2.71</v>
+      </c>
+      <c r="BG184">
+        <v>1.44</v>
+      </c>
+      <c r="BH184">
+        <v>2.6</v>
+      </c>
+      <c r="BI184">
+        <v>1.92</v>
+      </c>
+      <c r="BJ184">
+        <v>1.88</v>
+      </c>
+      <c r="BK184">
+        <v>2.2</v>
+      </c>
+      <c r="BL184">
+        <v>1.62</v>
+      </c>
+      <c r="BM184">
+        <v>2.8</v>
+      </c>
+      <c r="BN184">
+        <v>1.38</v>
+      </c>
+      <c r="BO184">
+        <v>3.6</v>
+      </c>
+      <c r="BP184">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1166" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -861,6 +861,9 @@
   <si>
     <t>['45+4']</t>
   </si>
+  <si>
+    <t>['74', '76']</t>
+  </si>
 </sst>
 </file>
 
@@ -1221,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP184"/>
+  <dimension ref="A1:BP187"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2176,7 +2179,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ5">
         <v>2.17</v>
@@ -4857,7 +4860,7 @@
         <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5060,7 +5063,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
         <v>0.71</v>
@@ -5887,7 +5890,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ23">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -6093,7 +6096,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -7120,7 +7123,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ29">
         <v>2.5</v>
@@ -9798,7 +9801,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ42">
         <v>1.71</v>
@@ -11243,7 +11246,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ49">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR49">
         <v>1.37</v>
@@ -11449,7 +11452,7 @@
         <v>3</v>
       </c>
       <c r="AQ50">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR50">
         <v>1.99</v>
@@ -11858,7 +11861,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
         <v>0.71</v>
@@ -12479,7 +12482,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ55">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR55">
         <v>1.69</v>
@@ -13506,7 +13509,7 @@
         <v>1.5</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ60">
         <v>0.57</v>
@@ -14124,7 +14127,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ63">
         <v>2.14</v>
@@ -17011,7 +17014,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ77">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR77">
         <v>1.76</v>
@@ -18041,7 +18044,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ82">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR82">
         <v>1.58</v>
@@ -19277,7 +19280,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ88">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR88">
         <v>1.09</v>
@@ -19686,7 +19689,7 @@
         <v>2</v>
       </c>
       <c r="AP90">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ90">
         <v>1.83</v>
@@ -20098,7 +20101,7 @@
         <v>2</v>
       </c>
       <c r="AP92">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ92">
         <v>1.33</v>
@@ -20513,7 +20516,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR94">
         <v>1.3</v>
@@ -21131,7 +21134,7 @@
         <v>3</v>
       </c>
       <c r="AQ97">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR97">
         <v>1.9</v>
@@ -21540,7 +21543,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ99">
         <v>0.29</v>
@@ -21746,7 +21749,7 @@
         <v>3</v>
       </c>
       <c r="AP100">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ100">
         <v>1.5</v>
@@ -22982,7 +22985,7 @@
         <v>1.67</v>
       </c>
       <c r="AP106">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ106">
         <v>1.71</v>
@@ -24427,7 +24430,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ113">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR113">
         <v>1.66</v>
@@ -25663,7 +25666,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ119">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR119">
         <v>2.14</v>
@@ -26075,7 +26078,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR121">
         <v>1.8</v>
@@ -27308,7 +27311,7 @@
         <v>2</v>
       </c>
       <c r="AP127">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ127">
         <v>1.33</v>
@@ -27514,7 +27517,7 @@
         <v>2</v>
       </c>
       <c r="AP128">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ128">
         <v>1.83</v>
@@ -27929,7 +27932,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ130">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR130">
         <v>1.26</v>
@@ -29986,7 +29989,7 @@
         <v>0.25</v>
       </c>
       <c r="AP140">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ140">
         <v>1.14</v>
@@ -30401,7 +30404,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ142">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR142">
         <v>1.68</v>
@@ -34315,7 +34318,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ161">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR161">
         <v>1.7</v>
@@ -34518,7 +34521,7 @@
         <v>1.6</v>
       </c>
       <c r="AP162">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ162">
         <v>1.83</v>
@@ -34930,7 +34933,7 @@
         <v>2</v>
       </c>
       <c r="AP164">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ164">
         <v>2.17</v>
@@ -35136,7 +35139,7 @@
         <v>1</v>
       </c>
       <c r="AP165">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ165">
         <v>0.83</v>
@@ -35551,7 +35554,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ167">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR167">
         <v>1.49</v>
@@ -39128,6 +39131,624 @@
         <v>3.6</v>
       </c>
       <c r="BP184">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="185" spans="1:68">
+      <c r="A185" s="1">
+        <v>184</v>
+      </c>
+      <c r="B185">
+        <v>7345681</v>
+      </c>
+      <c r="C185" t="s">
+        <v>68</v>
+      </c>
+      <c r="D185" t="s">
+        <v>69</v>
+      </c>
+      <c r="E185" s="2">
+        <v>45396.66666666666</v>
+      </c>
+      <c r="F185">
+        <v>14</v>
+      </c>
+      <c r="G185" t="s">
+        <v>97</v>
+      </c>
+      <c r="H185" t="s">
+        <v>79</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>0</v>
+      </c>
+      <c r="M185">
+        <v>1</v>
+      </c>
+      <c r="N185">
+        <v>1</v>
+      </c>
+      <c r="O185" t="s">
+        <v>98</v>
+      </c>
+      <c r="P185" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q185">
+        <v>3.6</v>
+      </c>
+      <c r="R185">
+        <v>1.8</v>
+      </c>
+      <c r="S185">
+        <v>4</v>
+      </c>
+      <c r="T185">
+        <v>1.67</v>
+      </c>
+      <c r="U185">
+        <v>2.1</v>
+      </c>
+      <c r="V185">
+        <v>4</v>
+      </c>
+      <c r="W185">
+        <v>1.22</v>
+      </c>
+      <c r="X185">
+        <v>15</v>
+      </c>
+      <c r="Y185">
+        <v>1.03</v>
+      </c>
+      <c r="Z185">
+        <v>2.6</v>
+      </c>
+      <c r="AA185">
+        <v>2.88</v>
+      </c>
+      <c r="AB185">
+        <v>3.1</v>
+      </c>
+      <c r="AC185">
+        <v>1.11</v>
+      </c>
+      <c r="AD185">
+        <v>5.5</v>
+      </c>
+      <c r="AE185">
+        <v>1.57</v>
+      </c>
+      <c r="AF185">
+        <v>2.25</v>
+      </c>
+      <c r="AG185">
+        <v>3.4</v>
+      </c>
+      <c r="AH185">
+        <v>1.33</v>
+      </c>
+      <c r="AI185">
+        <v>2.5</v>
+      </c>
+      <c r="AJ185">
+        <v>1.5</v>
+      </c>
+      <c r="AK185">
+        <v>1.36</v>
+      </c>
+      <c r="AL185">
+        <v>1.4</v>
+      </c>
+      <c r="AM185">
+        <v>1.53</v>
+      </c>
+      <c r="AN185">
+        <v>0.67</v>
+      </c>
+      <c r="AO185">
+        <v>0.83</v>
+      </c>
+      <c r="AP185">
+        <v>0.57</v>
+      </c>
+      <c r="AQ185">
+        <v>1.14</v>
+      </c>
+      <c r="AR185">
+        <v>1.41</v>
+      </c>
+      <c r="AS185">
+        <v>1.37</v>
+      </c>
+      <c r="AT185">
+        <v>2.78</v>
+      </c>
+      <c r="AU185">
+        <v>2</v>
+      </c>
+      <c r="AV185">
+        <v>7</v>
+      </c>
+      <c r="AW185">
+        <v>1</v>
+      </c>
+      <c r="AX185">
+        <v>9</v>
+      </c>
+      <c r="AY185">
+        <v>3</v>
+      </c>
+      <c r="AZ185">
+        <v>16</v>
+      </c>
+      <c r="BA185">
+        <v>0</v>
+      </c>
+      <c r="BB185">
+        <v>5</v>
+      </c>
+      <c r="BC185">
+        <v>5</v>
+      </c>
+      <c r="BD185">
+        <v>1.98</v>
+      </c>
+      <c r="BE185">
+        <v>7.41</v>
+      </c>
+      <c r="BF185">
+        <v>2.26</v>
+      </c>
+      <c r="BG185">
+        <v>1.44</v>
+      </c>
+      <c r="BH185">
+        <v>2.6</v>
+      </c>
+      <c r="BI185">
+        <v>1.8</v>
+      </c>
+      <c r="BJ185">
+        <v>2</v>
+      </c>
+      <c r="BK185">
+        <v>2.2</v>
+      </c>
+      <c r="BL185">
+        <v>1.62</v>
+      </c>
+      <c r="BM185">
+        <v>2.8</v>
+      </c>
+      <c r="BN185">
+        <v>1.38</v>
+      </c>
+      <c r="BO185">
+        <v>3.6</v>
+      </c>
+      <c r="BP185">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="186" spans="1:68">
+      <c r="A186" s="1">
+        <v>185</v>
+      </c>
+      <c r="B186">
+        <v>7345670</v>
+      </c>
+      <c r="C186" t="s">
+        <v>68</v>
+      </c>
+      <c r="D186" t="s">
+        <v>69</v>
+      </c>
+      <c r="E186" s="2">
+        <v>45396.76041666666</v>
+      </c>
+      <c r="F186">
+        <v>14</v>
+      </c>
+      <c r="G186" t="s">
+        <v>86</v>
+      </c>
+      <c r="H186" t="s">
+        <v>76</v>
+      </c>
+      <c r="I186">
+        <v>1</v>
+      </c>
+      <c r="J186">
+        <v>0</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+      <c r="M186">
+        <v>2</v>
+      </c>
+      <c r="N186">
+        <v>3</v>
+      </c>
+      <c r="O186" t="s">
+        <v>176</v>
+      </c>
+      <c r="P186" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q186">
+        <v>3.5</v>
+      </c>
+      <c r="R186">
+        <v>1.91</v>
+      </c>
+      <c r="S186">
+        <v>3.75</v>
+      </c>
+      <c r="T186">
+        <v>1.57</v>
+      </c>
+      <c r="U186">
+        <v>2.25</v>
+      </c>
+      <c r="V186">
+        <v>3.75</v>
+      </c>
+      <c r="W186">
+        <v>1.25</v>
+      </c>
+      <c r="X186">
+        <v>13</v>
+      </c>
+      <c r="Y186">
+        <v>1.04</v>
+      </c>
+      <c r="Z186">
+        <v>2.6</v>
+      </c>
+      <c r="AA186">
+        <v>3.2</v>
+      </c>
+      <c r="AB186">
+        <v>2.88</v>
+      </c>
+      <c r="AC186">
+        <v>1.1</v>
+      </c>
+      <c r="AD186">
+        <v>6.5</v>
+      </c>
+      <c r="AE186">
+        <v>1.5</v>
+      </c>
+      <c r="AF186">
+        <v>2.5</v>
+      </c>
+      <c r="AG186">
+        <v>2.7</v>
+      </c>
+      <c r="AH186">
+        <v>1.44</v>
+      </c>
+      <c r="AI186">
+        <v>2.1</v>
+      </c>
+      <c r="AJ186">
+        <v>1.67</v>
+      </c>
+      <c r="AK186">
+        <v>1.35</v>
+      </c>
+      <c r="AL186">
+        <v>1.3</v>
+      </c>
+      <c r="AM186">
+        <v>1.55</v>
+      </c>
+      <c r="AN186">
+        <v>1.67</v>
+      </c>
+      <c r="AO186">
+        <v>1.5</v>
+      </c>
+      <c r="AP186">
+        <v>1.43</v>
+      </c>
+      <c r="AQ186">
+        <v>1.71</v>
+      </c>
+      <c r="AR186">
+        <v>1.95</v>
+      </c>
+      <c r="AS186">
+        <v>1.29</v>
+      </c>
+      <c r="AT186">
+        <v>3.24</v>
+      </c>
+      <c r="AU186">
+        <v>5</v>
+      </c>
+      <c r="AV186">
+        <v>8</v>
+      </c>
+      <c r="AW186">
+        <v>6</v>
+      </c>
+      <c r="AX186">
+        <v>5</v>
+      </c>
+      <c r="AY186">
+        <v>11</v>
+      </c>
+      <c r="AZ186">
+        <v>13</v>
+      </c>
+      <c r="BA186">
+        <v>2</v>
+      </c>
+      <c r="BB186">
+        <v>7</v>
+      </c>
+      <c r="BC186">
+        <v>9</v>
+      </c>
+      <c r="BD186">
+        <v>1.85</v>
+      </c>
+      <c r="BE186">
+        <v>8.15</v>
+      </c>
+      <c r="BF186">
+        <v>2.38</v>
+      </c>
+      <c r="BG186">
+        <v>1.29</v>
+      </c>
+      <c r="BH186">
+        <v>3.4</v>
+      </c>
+      <c r="BI186">
+        <v>1.36</v>
+      </c>
+      <c r="BJ186">
+        <v>2.9</v>
+      </c>
+      <c r="BK186">
+        <v>2.1</v>
+      </c>
+      <c r="BL186">
+        <v>2.07</v>
+      </c>
+      <c r="BM186">
+        <v>2.1</v>
+      </c>
+      <c r="BN186">
+        <v>1.65</v>
+      </c>
+      <c r="BO186">
+        <v>2.77</v>
+      </c>
+      <c r="BP186">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="187" spans="1:68">
+      <c r="A187" s="1">
+        <v>186</v>
+      </c>
+      <c r="B187">
+        <v>7345678</v>
+      </c>
+      <c r="C187" t="s">
+        <v>68</v>
+      </c>
+      <c r="D187" t="s">
+        <v>69</v>
+      </c>
+      <c r="E187" s="2">
+        <v>45396.83333333334</v>
+      </c>
+      <c r="F187">
+        <v>14</v>
+      </c>
+      <c r="G187" t="s">
+        <v>73</v>
+      </c>
+      <c r="H187" t="s">
+        <v>78</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>0</v>
+      </c>
+      <c r="K187">
+        <v>0</v>
+      </c>
+      <c r="L187">
+        <v>0</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>0</v>
+      </c>
+      <c r="O187" t="s">
+        <v>98</v>
+      </c>
+      <c r="P187" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q187">
+        <v>4</v>
+      </c>
+      <c r="R187">
+        <v>1.83</v>
+      </c>
+      <c r="S187">
+        <v>3.4</v>
+      </c>
+      <c r="T187">
+        <v>1.62</v>
+      </c>
+      <c r="U187">
+        <v>2.2</v>
+      </c>
+      <c r="V187">
+        <v>4</v>
+      </c>
+      <c r="W187">
+        <v>1.22</v>
+      </c>
+      <c r="X187">
+        <v>13</v>
+      </c>
+      <c r="Y187">
+        <v>1.04</v>
+      </c>
+      <c r="Z187">
+        <v>3.1</v>
+      </c>
+      <c r="AA187">
+        <v>3.1</v>
+      </c>
+      <c r="AB187">
+        <v>2.5</v>
+      </c>
+      <c r="AC187">
+        <v>1.11</v>
+      </c>
+      <c r="AD187">
+        <v>5.5</v>
+      </c>
+      <c r="AE187">
+        <v>1.57</v>
+      </c>
+      <c r="AF187">
+        <v>2.25</v>
+      </c>
+      <c r="AG187">
+        <v>2.88</v>
+      </c>
+      <c r="AH187">
+        <v>1.4</v>
+      </c>
+      <c r="AI187">
+        <v>2.38</v>
+      </c>
+      <c r="AJ187">
+        <v>1.53</v>
+      </c>
+      <c r="AK187">
+        <v>1.55</v>
+      </c>
+      <c r="AL187">
+        <v>1.4</v>
+      </c>
+      <c r="AM187">
+        <v>1.35</v>
+      </c>
+      <c r="AN187">
+        <v>0.83</v>
+      </c>
+      <c r="AO187">
+        <v>0.67</v>
+      </c>
+      <c r="AP187">
+        <v>0.86</v>
+      </c>
+      <c r="AQ187">
+        <v>0.71</v>
+      </c>
+      <c r="AR187">
+        <v>1.31</v>
+      </c>
+      <c r="AS187">
+        <v>1.15</v>
+      </c>
+      <c r="AT187">
+        <v>2.46</v>
+      </c>
+      <c r="AU187">
+        <v>0</v>
+      </c>
+      <c r="AV187">
+        <v>7</v>
+      </c>
+      <c r="AW187">
+        <v>5</v>
+      </c>
+      <c r="AX187">
+        <v>8</v>
+      </c>
+      <c r="AY187">
+        <v>5</v>
+      </c>
+      <c r="AZ187">
+        <v>15</v>
+      </c>
+      <c r="BA187">
+        <v>1</v>
+      </c>
+      <c r="BB187">
+        <v>3</v>
+      </c>
+      <c r="BC187">
+        <v>4</v>
+      </c>
+      <c r="BD187">
+        <v>2.18</v>
+      </c>
+      <c r="BE187">
+        <v>7.42</v>
+      </c>
+      <c r="BF187">
+        <v>2.05</v>
+      </c>
+      <c r="BG187">
+        <v>1.42</v>
+      </c>
+      <c r="BH187">
+        <v>2.65</v>
+      </c>
+      <c r="BI187">
+        <v>1.85</v>
+      </c>
+      <c r="BJ187">
+        <v>1.85</v>
+      </c>
+      <c r="BK187">
+        <v>2.4</v>
+      </c>
+      <c r="BL187">
+        <v>1.5</v>
+      </c>
+      <c r="BM187">
+        <v>2.8</v>
+      </c>
+      <c r="BN187">
+        <v>1.38</v>
+      </c>
+      <c r="BO187">
+        <v>3.6</v>
+      </c>
+      <c r="BP187">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="288">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -628,6 +628,12 @@
     <t>['4', '21', '43', '69']</t>
   </si>
   <si>
+    <t>['34', '45+7']</t>
+  </si>
+  <si>
+    <t>['18', '21', '40']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -863,6 +869,15 @@
   </si>
   <si>
     <t>['74', '76']</t>
+  </si>
+  <si>
+    <t>['50', '52']</t>
+  </si>
+  <si>
+    <t>['57', '62', '73']</t>
+  </si>
+  <si>
+    <t>['1', '68', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1239,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP187"/>
+  <dimension ref="A1:BP191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0.83</v>
@@ -2101,7 +2116,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2307,7 +2322,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2388,7 +2403,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2513,7 +2528,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2719,7 +2734,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3003,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ9">
         <v>2</v>
@@ -3131,7 +3146,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3955,7 +3970,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4445,7 +4460,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>0.29</v>
@@ -4573,7 +4588,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4654,7 +4669,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ17">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4985,7 +5000,7 @@
         <v>105</v>
       </c>
       <c r="P19" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q19">
         <v>2.75</v>
@@ -5397,7 +5412,7 @@
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5681,7 +5696,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ22">
         <v>0.83</v>
@@ -6015,7 +6030,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6427,7 +6442,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6508,7 +6523,7 @@
         <v>2</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR26">
         <v>1.28</v>
@@ -6839,7 +6854,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>3.6</v>
@@ -7045,7 +7060,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q29">
         <v>5</v>
@@ -7329,7 +7344,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ30">
         <v>0.86</v>
@@ -7457,7 +7472,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7741,7 +7756,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ32">
         <v>0.57</v>
@@ -7950,7 +7965,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8156,7 +8171,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR34">
         <v>1.54</v>
@@ -9105,7 +9120,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9517,7 +9532,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9723,7 +9738,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10753,7 +10768,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11165,7 +11180,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11371,7 +11386,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11449,7 +11464,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -11989,7 +12004,7 @@
         <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12195,7 +12210,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12276,7 +12291,7 @@
         <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR54">
         <v>1.2</v>
@@ -12813,7 +12828,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12891,10 +12906,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR57">
         <v>1.51</v>
@@ -13019,7 +13034,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13431,7 +13446,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13921,7 +13936,7 @@
         <v>0.5</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
         <v>0.5</v>
@@ -14049,7 +14064,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>4</v>
@@ -14255,7 +14270,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>3.4</v>
@@ -14542,7 +14557,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ65">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -14954,7 +14969,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ67">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR67">
         <v>1.68</v>
@@ -15079,7 +15094,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15160,7 +15175,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15491,7 +15506,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15569,7 +15584,7 @@
         <v>3</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ70">
         <v>1.5</v>
@@ -15697,7 +15712,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16109,7 +16124,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16315,7 +16330,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16727,7 +16742,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16805,7 +16820,7 @@
         <v>2.33</v>
       </c>
       <c r="AP76">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ76">
         <v>2</v>
@@ -16933,7 +16948,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17139,7 +17154,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17632,7 +17647,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
         <v>1.75</v>
@@ -18375,7 +18390,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18453,7 +18468,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ84">
         <v>0.71</v>
@@ -18581,7 +18596,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -18865,7 +18880,7 @@
         <v>2</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ86">
         <v>1.83</v>
@@ -18993,7 +19008,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q87">
         <v>4</v>
@@ -19074,7 +19089,7 @@
         <v>1</v>
       </c>
       <c r="AQ87">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR87">
         <v>1.49</v>
@@ -19405,7 +19420,7 @@
         <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19692,7 +19707,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ90">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR90">
         <v>1.4</v>
@@ -19817,7 +19832,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20435,7 +20450,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20641,7 +20656,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20719,7 +20734,7 @@
         <v>3</v>
       </c>
       <c r="AP95">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>2.5</v>
@@ -21053,7 +21068,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21131,7 +21146,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ97">
         <v>1.14</v>
@@ -21259,7 +21274,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21671,7 +21686,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22083,7 +22098,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22161,10 +22176,10 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ102">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR102">
         <v>1.31</v>
@@ -22907,7 +22922,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23194,7 +23209,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23319,7 +23334,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23397,7 +23412,7 @@
         <v>0.67</v>
       </c>
       <c r="AP108">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23525,7 +23540,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23606,7 +23621,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR109">
         <v>2.06</v>
@@ -23731,7 +23746,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23937,7 +23952,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24143,7 +24158,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24349,7 +24364,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24633,7 +24648,7 @@
         <v>0.75</v>
       </c>
       <c r="AP114">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ114">
         <v>0.57</v>
@@ -24761,7 +24776,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25457,7 +25472,7 @@
         <v>1.5</v>
       </c>
       <c r="AP118">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ118">
         <v>0.86</v>
@@ -25585,7 +25600,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25997,7 +26012,7 @@
         <v>98</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>2.88</v>
@@ -26490,7 +26505,7 @@
         <v>1</v>
       </c>
       <c r="AQ123">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR123">
         <v>1.2</v>
@@ -27233,7 +27248,7 @@
         <v>167</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q127">
         <v>3.75</v>
@@ -27520,7 +27535,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ128">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR128">
         <v>1.95</v>
@@ -27723,10 +27738,10 @@
         <v>2</v>
       </c>
       <c r="AP129">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ129">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR129">
         <v>1.69</v>
@@ -28263,7 +28278,7 @@
         <v>170</v>
       </c>
       <c r="P132" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>3</v>
@@ -28675,7 +28690,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>3</v>
@@ -28881,7 +28896,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>2.75</v>
@@ -29087,7 +29102,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29293,7 +29308,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29499,7 +29514,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29577,7 +29592,7 @@
         <v>0.5</v>
       </c>
       <c r="AP138">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ138">
         <v>0.83</v>
@@ -29705,7 +29720,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29786,7 +29801,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR139">
         <v>1.56</v>
@@ -29911,7 +29926,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -31147,7 +31162,7 @@
         <v>180</v>
       </c>
       <c r="P146" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q146">
         <v>2.5</v>
@@ -32052,7 +32067,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ150">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="AR150">
         <v>1.58</v>
@@ -32177,7 +32192,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32461,7 +32476,7 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>3</v>
+        <v>2.71</v>
       </c>
       <c r="AQ152">
         <v>0.5</v>
@@ -32589,7 +32604,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33001,7 +33016,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33207,7 +33222,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33288,7 +33303,7 @@
         <v>2</v>
       </c>
       <c r="AQ156">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR156">
         <v>1.28</v>
@@ -33413,7 +33428,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33491,7 +33506,7 @@
         <v>0.6</v>
       </c>
       <c r="AP157">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ157">
         <v>1</v>
@@ -33825,7 +33840,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34112,7 +34127,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ160">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR160">
         <v>1.18</v>
@@ -34443,7 +34458,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34730,7 +34745,7 @@
         <v>2</v>
       </c>
       <c r="AQ163">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR163">
         <v>2.03</v>
@@ -35267,7 +35282,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35345,7 +35360,7 @@
         <v>0.2</v>
       </c>
       <c r="AP166">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ166">
         <v>0.29</v>
@@ -35473,7 +35488,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35551,7 +35566,7 @@
         <v>1.2</v>
       </c>
       <c r="AP167">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AQ167">
         <v>1.71</v>
@@ -35679,7 +35694,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36297,7 +36312,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36503,7 +36518,7 @@
         <v>98</v>
       </c>
       <c r="P172" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q172">
         <v>3.5</v>
@@ -36915,7 +36930,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37327,7 +37342,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37533,7 +37548,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37945,7 +37960,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q179">
         <v>1.62</v>
@@ -38357,7 +38372,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39181,7 +39196,7 @@
         <v>98</v>
       </c>
       <c r="P185" t="s">
-        <v>260</v>
+        <v>189</v>
       </c>
       <c r="Q185">
         <v>3.6</v>
@@ -39387,7 +39402,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39750,6 +39765,830 @@
       </c>
       <c r="BP187">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="188" spans="1:68">
+      <c r="A188" s="1">
+        <v>187</v>
+      </c>
+      <c r="B188">
+        <v>7345669</v>
+      </c>
+      <c r="C188" t="s">
+        <v>68</v>
+      </c>
+      <c r="D188" t="s">
+        <v>69</v>
+      </c>
+      <c r="E188" s="2">
+        <v>45397.83333333334</v>
+      </c>
+      <c r="F188">
+        <v>14</v>
+      </c>
+      <c r="G188" t="s">
+        <v>94</v>
+      </c>
+      <c r="H188" t="s">
+        <v>75</v>
+      </c>
+      <c r="I188">
+        <v>2</v>
+      </c>
+      <c r="J188">
+        <v>0</v>
+      </c>
+      <c r="K188">
+        <v>2</v>
+      </c>
+      <c r="L188">
+        <v>2</v>
+      </c>
+      <c r="M188">
+        <v>2</v>
+      </c>
+      <c r="N188">
+        <v>4</v>
+      </c>
+      <c r="O188" t="s">
+        <v>204</v>
+      </c>
+      <c r="P188" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q188">
+        <v>3.1</v>
+      </c>
+      <c r="R188">
+        <v>1.95</v>
+      </c>
+      <c r="S188">
+        <v>4</v>
+      </c>
+      <c r="T188">
+        <v>1.53</v>
+      </c>
+      <c r="U188">
+        <v>2.38</v>
+      </c>
+      <c r="V188">
+        <v>3.5</v>
+      </c>
+      <c r="W188">
+        <v>1.29</v>
+      </c>
+      <c r="X188">
+        <v>11</v>
+      </c>
+      <c r="Y188">
+        <v>1.05</v>
+      </c>
+      <c r="Z188">
+        <v>2.3</v>
+      </c>
+      <c r="AA188">
+        <v>3.1</v>
+      </c>
+      <c r="AB188">
+        <v>3.4</v>
+      </c>
+      <c r="AC188">
+        <v>1.08</v>
+      </c>
+      <c r="AD188">
+        <v>7.29</v>
+      </c>
+      <c r="AE188">
+        <v>1.46</v>
+      </c>
+      <c r="AF188">
+        <v>2.65</v>
+      </c>
+      <c r="AG188">
+        <v>2.4</v>
+      </c>
+      <c r="AH188">
+        <v>1.53</v>
+      </c>
+      <c r="AI188">
+        <v>2.1</v>
+      </c>
+      <c r="AJ188">
+        <v>1.67</v>
+      </c>
+      <c r="AK188">
+        <v>1.36</v>
+      </c>
+      <c r="AL188">
+        <v>1.32</v>
+      </c>
+      <c r="AM188">
+        <v>1.62</v>
+      </c>
+      <c r="AN188">
+        <v>1.33</v>
+      </c>
+      <c r="AO188">
+        <v>1.5</v>
+      </c>
+      <c r="AP188">
+        <v>1.29</v>
+      </c>
+      <c r="AQ188">
+        <v>1.43</v>
+      </c>
+      <c r="AR188">
+        <v>1.64</v>
+      </c>
+      <c r="AS188">
+        <v>1.65</v>
+      </c>
+      <c r="AT188">
+        <v>3.29</v>
+      </c>
+      <c r="AU188">
+        <v>9</v>
+      </c>
+      <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>9</v>
+      </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
+      <c r="AY188">
+        <v>18</v>
+      </c>
+      <c r="AZ188">
+        <v>9</v>
+      </c>
+      <c r="BA188">
+        <v>10</v>
+      </c>
+      <c r="BB188">
+        <v>2</v>
+      </c>
+      <c r="BC188">
+        <v>12</v>
+      </c>
+      <c r="BD188">
+        <v>1.6</v>
+      </c>
+      <c r="BE188">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BF188">
+        <v>2.93</v>
+      </c>
+      <c r="BG188">
+        <v>1.26</v>
+      </c>
+      <c r="BH188">
+        <v>3.45</v>
+      </c>
+      <c r="BI188">
+        <v>1.53</v>
+      </c>
+      <c r="BJ188">
+        <v>2.28</v>
+      </c>
+      <c r="BK188">
+        <v>1.92</v>
+      </c>
+      <c r="BL188">
+        <v>1.79</v>
+      </c>
+      <c r="BM188">
+        <v>2.5</v>
+      </c>
+      <c r="BN188">
+        <v>1.44</v>
+      </c>
+      <c r="BO188">
+        <v>3</v>
+      </c>
+      <c r="BP188">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="189" spans="1:68">
+      <c r="A189" s="1">
+        <v>188</v>
+      </c>
+      <c r="B189">
+        <v>7345673</v>
+      </c>
+      <c r="C189" t="s">
+        <v>68</v>
+      </c>
+      <c r="D189" t="s">
+        <v>69</v>
+      </c>
+      <c r="E189" s="2">
+        <v>45397.83333333334</v>
+      </c>
+      <c r="F189">
+        <v>14</v>
+      </c>
+      <c r="G189" t="s">
+        <v>70</v>
+      </c>
+      <c r="H189" t="s">
+        <v>82</v>
+      </c>
+      <c r="I189">
+        <v>1</v>
+      </c>
+      <c r="J189">
+        <v>0</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+      <c r="M189">
+        <v>3</v>
+      </c>
+      <c r="N189">
+        <v>4</v>
+      </c>
+      <c r="O189" t="s">
+        <v>108</v>
+      </c>
+      <c r="P189" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q189">
+        <v>4.5</v>
+      </c>
+      <c r="R189">
+        <v>1.95</v>
+      </c>
+      <c r="S189">
+        <v>2.88</v>
+      </c>
+      <c r="T189">
+        <v>1.44</v>
+      </c>
+      <c r="U189">
+        <v>2.63</v>
+      </c>
+      <c r="V189">
+        <v>3.25</v>
+      </c>
+      <c r="W189">
+        <v>1.33</v>
+      </c>
+      <c r="X189">
+        <v>10</v>
+      </c>
+      <c r="Y189">
+        <v>1.06</v>
+      </c>
+      <c r="Z189">
+        <v>3.8</v>
+      </c>
+      <c r="AA189">
+        <v>3.2</v>
+      </c>
+      <c r="AB189">
+        <v>2.05</v>
+      </c>
+      <c r="AC189">
+        <v>1.08</v>
+      </c>
+      <c r="AD189">
+        <v>9.15</v>
+      </c>
+      <c r="AE189">
+        <v>1.39</v>
+      </c>
+      <c r="AF189">
+        <v>3</v>
+      </c>
+      <c r="AG189">
+        <v>2.4</v>
+      </c>
+      <c r="AH189">
+        <v>1.53</v>
+      </c>
+      <c r="AI189">
+        <v>2.1</v>
+      </c>
+      <c r="AJ189">
+        <v>1.67</v>
+      </c>
+      <c r="AK189">
+        <v>2</v>
+      </c>
+      <c r="AL189">
+        <v>1.25</v>
+      </c>
+      <c r="AM189">
+        <v>1.18</v>
+      </c>
+      <c r="AN189">
+        <v>1.14</v>
+      </c>
+      <c r="AO189">
+        <v>1.5</v>
+      </c>
+      <c r="AP189">
+        <v>1</v>
+      </c>
+      <c r="AQ189">
+        <v>1.71</v>
+      </c>
+      <c r="AR189">
+        <v>1.51</v>
+      </c>
+      <c r="AS189">
+        <v>1.54</v>
+      </c>
+      <c r="AT189">
+        <v>3.05</v>
+      </c>
+      <c r="AU189">
+        <v>2</v>
+      </c>
+      <c r="AV189">
+        <v>10</v>
+      </c>
+      <c r="AW189">
+        <v>6</v>
+      </c>
+      <c r="AX189">
+        <v>6</v>
+      </c>
+      <c r="AY189">
+        <v>8</v>
+      </c>
+      <c r="AZ189">
+        <v>16</v>
+      </c>
+      <c r="BA189">
+        <v>4</v>
+      </c>
+      <c r="BB189">
+        <v>7</v>
+      </c>
+      <c r="BC189">
+        <v>11</v>
+      </c>
+      <c r="BD189">
+        <v>2.86</v>
+      </c>
+      <c r="BE189">
+        <v>9</v>
+      </c>
+      <c r="BF189">
+        <v>1.59</v>
+      </c>
+      <c r="BG189">
+        <v>1.13</v>
+      </c>
+      <c r="BH189">
+        <v>5.07</v>
+      </c>
+      <c r="BI189">
+        <v>1.26</v>
+      </c>
+      <c r="BJ189">
+        <v>3.45</v>
+      </c>
+      <c r="BK189">
+        <v>1.91</v>
+      </c>
+      <c r="BL189">
+        <v>2.55</v>
+      </c>
+      <c r="BM189">
+        <v>1.78</v>
+      </c>
+      <c r="BN189">
+        <v>1.97</v>
+      </c>
+      <c r="BO189">
+        <v>2.2</v>
+      </c>
+      <c r="BP189">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="190" spans="1:68">
+      <c r="A190" s="1">
+        <v>189</v>
+      </c>
+      <c r="B190">
+        <v>7345674</v>
+      </c>
+      <c r="C190" t="s">
+        <v>68</v>
+      </c>
+      <c r="D190" t="s">
+        <v>69</v>
+      </c>
+      <c r="E190" s="2">
+        <v>45397.83333333334</v>
+      </c>
+      <c r="F190">
+        <v>14</v>
+      </c>
+      <c r="G190" t="s">
+        <v>89</v>
+      </c>
+      <c r="H190" t="s">
+        <v>74</v>
+      </c>
+      <c r="I190">
+        <v>3</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>4</v>
+      </c>
+      <c r="L190">
+        <v>3</v>
+      </c>
+      <c r="M190">
+        <v>3</v>
+      </c>
+      <c r="N190">
+        <v>6</v>
+      </c>
+      <c r="O190" t="s">
+        <v>205</v>
+      </c>
+      <c r="P190" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q190">
+        <v>2.6</v>
+      </c>
+      <c r="R190">
+        <v>2.05</v>
+      </c>
+      <c r="S190">
+        <v>4.75</v>
+      </c>
+      <c r="T190">
+        <v>1.5</v>
+      </c>
+      <c r="U190">
+        <v>2.5</v>
+      </c>
+      <c r="V190">
+        <v>3.4</v>
+      </c>
+      <c r="W190">
+        <v>1.3</v>
+      </c>
+      <c r="X190">
+        <v>10</v>
+      </c>
+      <c r="Y190">
+        <v>1.06</v>
+      </c>
+      <c r="Z190">
+        <v>1.85</v>
+      </c>
+      <c r="AA190">
+        <v>3.1</v>
+      </c>
+      <c r="AB190">
+        <v>5.25</v>
+      </c>
+      <c r="AC190">
+        <v>1.1</v>
+      </c>
+      <c r="AD190">
+        <v>7.9</v>
+      </c>
+      <c r="AE190">
+        <v>1.4</v>
+      </c>
+      <c r="AF190">
+        <v>2.97</v>
+      </c>
+      <c r="AG190">
+        <v>2.15</v>
+      </c>
+      <c r="AH190">
+        <v>1.67</v>
+      </c>
+      <c r="AI190">
+        <v>1.91</v>
+      </c>
+      <c r="AJ190">
+        <v>1.8</v>
+      </c>
+      <c r="AK190">
+        <v>1.19</v>
+      </c>
+      <c r="AL190">
+        <v>1.4</v>
+      </c>
+      <c r="AM190">
+        <v>1.75</v>
+      </c>
+      <c r="AN190">
+        <v>3</v>
+      </c>
+      <c r="AO190">
+        <v>1.83</v>
+      </c>
+      <c r="AP190">
+        <v>2.71</v>
+      </c>
+      <c r="AQ190">
+        <v>1.71</v>
+      </c>
+      <c r="AR190">
+        <v>1.7</v>
+      </c>
+      <c r="AS190">
+        <v>1.14</v>
+      </c>
+      <c r="AT190">
+        <v>2.84</v>
+      </c>
+      <c r="AU190">
+        <v>7</v>
+      </c>
+      <c r="AV190">
+        <v>7</v>
+      </c>
+      <c r="AW190">
+        <v>5</v>
+      </c>
+      <c r="AX190">
+        <v>2</v>
+      </c>
+      <c r="AY190">
+        <v>12</v>
+      </c>
+      <c r="AZ190">
+        <v>9</v>
+      </c>
+      <c r="BA190">
+        <v>7</v>
+      </c>
+      <c r="BB190">
+        <v>3</v>
+      </c>
+      <c r="BC190">
+        <v>10</v>
+      </c>
+      <c r="BD190">
+        <v>1.58</v>
+      </c>
+      <c r="BE190">
+        <v>8.35</v>
+      </c>
+      <c r="BF190">
+        <v>3.03</v>
+      </c>
+      <c r="BG190">
+        <v>1.35</v>
+      </c>
+      <c r="BH190">
+        <v>3</v>
+      </c>
+      <c r="BI190">
+        <v>1.62</v>
+      </c>
+      <c r="BJ190">
+        <v>2.2</v>
+      </c>
+      <c r="BK190">
+        <v>2.38</v>
+      </c>
+      <c r="BL190">
+        <v>1.75</v>
+      </c>
+      <c r="BM190">
+        <v>2.6</v>
+      </c>
+      <c r="BN190">
+        <v>1.45</v>
+      </c>
+      <c r="BO190">
+        <v>3.51</v>
+      </c>
+      <c r="BP190">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:68">
+      <c r="A191" s="1">
+        <v>190</v>
+      </c>
+      <c r="B191">
+        <v>7345668</v>
+      </c>
+      <c r="C191" t="s">
+        <v>68</v>
+      </c>
+      <c r="D191" t="s">
+        <v>69</v>
+      </c>
+      <c r="E191" s="2">
+        <v>45397.83333333334</v>
+      </c>
+      <c r="F191">
+        <v>14</v>
+      </c>
+      <c r="G191" t="s">
+        <v>77</v>
+      </c>
+      <c r="H191" t="s">
+        <v>87</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>0</v>
+      </c>
+      <c r="M191">
+        <v>1</v>
+      </c>
+      <c r="N191">
+        <v>1</v>
+      </c>
+      <c r="O191" t="s">
+        <v>98</v>
+      </c>
+      <c r="P191" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q191">
+        <v>5</v>
+      </c>
+      <c r="R191">
+        <v>2</v>
+      </c>
+      <c r="S191">
+        <v>2.6</v>
+      </c>
+      <c r="T191">
+        <v>1.5</v>
+      </c>
+      <c r="U191">
+        <v>2.5</v>
+      </c>
+      <c r="V191">
+        <v>3.4</v>
+      </c>
+      <c r="W191">
+        <v>1.3</v>
+      </c>
+      <c r="X191">
+        <v>10</v>
+      </c>
+      <c r="Y191">
+        <v>1.06</v>
+      </c>
+      <c r="Z191">
+        <v>4.33</v>
+      </c>
+      <c r="AA191">
+        <v>3.4</v>
+      </c>
+      <c r="AB191">
+        <v>1.85</v>
+      </c>
+      <c r="AC191">
+        <v>1.07</v>
+      </c>
+      <c r="AD191">
+        <v>7.77</v>
+      </c>
+      <c r="AE191">
+        <v>1.43</v>
+      </c>
+      <c r="AF191">
+        <v>2.76</v>
+      </c>
+      <c r="AG191">
+        <v>2.35</v>
+      </c>
+      <c r="AH191">
+        <v>1.57</v>
+      </c>
+      <c r="AI191">
+        <v>2.2</v>
+      </c>
+      <c r="AJ191">
+        <v>1.62</v>
+      </c>
+      <c r="AK191">
+        <v>1.75</v>
+      </c>
+      <c r="AL191">
+        <v>1.3</v>
+      </c>
+      <c r="AM191">
+        <v>1.28</v>
+      </c>
+      <c r="AN191">
+        <v>0.5</v>
+      </c>
+      <c r="AO191">
+        <v>1.33</v>
+      </c>
+      <c r="AP191">
+        <v>0.43</v>
+      </c>
+      <c r="AQ191">
+        <v>1.57</v>
+      </c>
+      <c r="AR191">
+        <v>1.46</v>
+      </c>
+      <c r="AS191">
+        <v>1.24</v>
+      </c>
+      <c r="AT191">
+        <v>2.7</v>
+      </c>
+      <c r="AU191">
+        <v>3</v>
+      </c>
+      <c r="AV191">
+        <v>13</v>
+      </c>
+      <c r="AW191">
+        <v>6</v>
+      </c>
+      <c r="AX191">
+        <v>7</v>
+      </c>
+      <c r="AY191">
+        <v>9</v>
+      </c>
+      <c r="AZ191">
+        <v>20</v>
+      </c>
+      <c r="BA191">
+        <v>2</v>
+      </c>
+      <c r="BB191">
+        <v>3</v>
+      </c>
+      <c r="BC191">
+        <v>5</v>
+      </c>
+      <c r="BD191">
+        <v>2.4</v>
+      </c>
+      <c r="BE191">
+        <v>7.85</v>
+      </c>
+      <c r="BF191">
+        <v>1.86</v>
+      </c>
+      <c r="BG191">
+        <v>1.35</v>
+      </c>
+      <c r="BH191">
+        <v>3</v>
+      </c>
+      <c r="BI191">
+        <v>1.62</v>
+      </c>
+      <c r="BJ191">
+        <v>2.2</v>
+      </c>
+      <c r="BK191">
+        <v>2</v>
+      </c>
+      <c r="BL191">
+        <v>1.75</v>
+      </c>
+      <c r="BM191">
+        <v>2.6</v>
+      </c>
+      <c r="BN191">
+        <v>1.45</v>
+      </c>
+      <c r="BO191">
+        <v>3.51</v>
+      </c>
+      <c r="BP191">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1238" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="296">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -643,6 +643,15 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['85']</t>
+  </si>
+  <si>
+    <t>['2', '62', '86']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['90+5']</t>
   </si>
   <si>
@@ -890,6 +899,9 @@
   </si>
   <si>
     <t>['77', '90+6']</t>
+  </si>
+  <si>
+    <t>['24', '68']</t>
   </si>
 </sst>
 </file>
@@ -1251,7 +1263,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP196"/>
+  <dimension ref="A1:BP199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2128,7 +2140,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2334,7 +2346,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2415,7 +2427,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2540,7 +2552,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2746,7 +2758,7 @@
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q8">
         <v>4</v>
@@ -3158,7 +3170,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3854,10 +3866,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3982,7 +3994,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4266,7 +4278,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ15">
         <v>1.14</v>
@@ -4600,7 +4612,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4806,7 +4818,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5218,7 +5230,7 @@
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5708,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
         <v>0.86</v>
@@ -6042,7 +6054,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6454,7 +6466,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6866,7 +6878,7 @@
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q28">
         <v>5</v>
@@ -7072,7 +7084,7 @@
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q29">
         <v>3.6</v>
@@ -7484,7 +7496,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7977,7 +7989,7 @@
         <v>1</v>
       </c>
       <c r="AQ33">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
         <v>0</v>
@@ -8183,7 +8195,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ34">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.54</v>
@@ -8798,7 +8810,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ37">
         <v>2.14</v>
@@ -9132,7 +9144,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9416,7 +9428,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ40">
         <v>2</v>
@@ -9544,7 +9556,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9750,7 +9762,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9831,7 +9843,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ42">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10652,7 +10664,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ46">
         <v>0.14</v>
@@ -10780,7 +10792,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -11192,7 +11204,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11398,7 +11410,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11476,7 +11488,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -11685,7 +11697,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ51">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR51">
         <v>1.35</v>
@@ -11810,7 +11822,7 @@
         <v>98</v>
       </c>
       <c r="P52" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12222,7 +12234,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12840,7 +12852,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13046,7 +13058,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13458,7 +13470,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -13948,7 +13960,7 @@
         <v>2</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62">
         <v>1.71</v>
@@ -14076,7 +14088,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14157,7 +14169,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ63">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR63">
         <v>1.55</v>
@@ -14282,7 +14294,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14569,7 +14581,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ65">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR65">
         <v>1.22</v>
@@ -15106,7 +15118,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15187,7 +15199,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -15518,7 +15530,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15724,7 +15736,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16136,7 +16148,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16342,7 +16354,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16754,7 +16766,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16960,7 +16972,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17166,7 +17178,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17656,7 +17668,7 @@
         <v>3</v>
       </c>
       <c r="AP80">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ80">
         <v>1.86</v>
@@ -18402,7 +18414,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18480,7 +18492,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ84">
         <v>0.71</v>
@@ -18608,7 +18620,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19226,7 +19238,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19513,7 +19525,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ89">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR89">
         <v>1.4</v>
@@ -19844,7 +19856,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -20462,7 +20474,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20668,7 +20680,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21080,7 +21092,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21158,7 +21170,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ97">
         <v>1.14</v>
@@ -21286,7 +21298,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21698,7 +21710,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -22110,7 +22122,7 @@
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>3.4</v>
@@ -22191,7 +22203,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ102">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR102">
         <v>1.31</v>
@@ -22934,7 +22946,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23221,7 +23233,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ107">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -23346,7 +23358,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23552,7 +23564,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23758,7 +23770,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23836,7 +23848,7 @@
         <v>1.67</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
         <v>1.57</v>
@@ -23964,7 +23976,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24170,7 +24182,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24376,7 +24388,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24788,7 +24800,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25484,7 +25496,7 @@
         <v>1.5</v>
       </c>
       <c r="AP118">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118">
         <v>0.86</v>
@@ -25612,7 +25624,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25690,7 +25702,7 @@
         <v>0.25</v>
       </c>
       <c r="AP119">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ119">
         <v>1.14</v>
@@ -26230,7 +26242,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26929,7 +26941,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ125">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR125">
         <v>1.38</v>
@@ -27341,7 +27353,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ127">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR127">
         <v>1.95</v>
@@ -27466,7 +27478,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28496,7 +28508,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28574,7 +28586,7 @@
         <v>2.25</v>
       </c>
       <c r="AP133">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ133">
         <v>1.86</v>
@@ -28702,7 +28714,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28908,7 +28920,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29114,7 +29126,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29320,7 +29332,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29526,7 +29538,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29732,7 +29744,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29813,7 +29825,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ139">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR139">
         <v>1.56</v>
@@ -29938,7 +29950,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30843,7 +30855,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ144">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR144">
         <v>1.84</v>
@@ -30968,7 +30980,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31458,7 +31470,7 @@
         <v>0.2</v>
       </c>
       <c r="AP147">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ147">
         <v>0.14</v>
@@ -32204,7 +32216,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32488,7 +32500,7 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ152">
         <v>0.5</v>
@@ -32616,7 +32628,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33028,7 +33040,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33234,7 +33246,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33315,7 +33327,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ156">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR156">
         <v>1.28</v>
@@ -33440,7 +33452,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33852,7 +33864,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34470,7 +34482,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34757,7 +34769,7 @@
         <v>2</v>
       </c>
       <c r="AQ163">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR163">
         <v>2.03</v>
@@ -35294,7 +35306,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35500,7 +35512,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35706,7 +35718,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -36324,7 +36336,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36608,7 +36620,7 @@
         <v>0.83</v>
       </c>
       <c r="AP172">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ172">
         <v>0.71</v>
@@ -36736,7 +36748,7 @@
         <v>98</v>
       </c>
       <c r="P173" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36817,7 +36829,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ173">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AR173">
         <v>1.58</v>
@@ -36942,7 +36954,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37354,7 +37366,7 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="Q176">
         <v>2.63</v>
@@ -37560,7 +37572,7 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="Q177">
         <v>3.75</v>
@@ -37972,7 +37984,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q179">
         <v>1.62</v>
@@ -38384,7 +38396,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -38668,7 +38680,7 @@
         <v>0.83</v>
       </c>
       <c r="AP182">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ182">
         <v>0.71</v>
@@ -39414,7 +39426,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39826,7 +39838,7 @@
         <v>98</v>
       </c>
       <c r="P188" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q188">
         <v>5</v>
@@ -39907,7 +39919,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ188">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR188">
         <v>1.46</v>
@@ -40032,7 +40044,7 @@
         <v>204</v>
       </c>
       <c r="P189" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="Q189">
         <v>2.6</v>
@@ -40110,10 +40122,10 @@
         <v>1.83</v>
       </c>
       <c r="AP189">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ189">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR189">
         <v>1.7</v>
@@ -40238,7 +40250,7 @@
         <v>205</v>
       </c>
       <c r="P190" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q190">
         <v>3.1</v>
@@ -40444,7 +40456,7 @@
         <v>108</v>
       </c>
       <c r="P191" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="Q191">
         <v>4.5</v>
@@ -40650,7 +40662,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40856,7 +40868,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41474,7 +41486,7 @@
         <v>208</v>
       </c>
       <c r="P196" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="Q196">
         <v>2.4</v>
@@ -41631,6 +41643,624 @@
       </c>
       <c r="BP196">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="197" spans="1:68">
+      <c r="A197" s="1">
+        <v>196</v>
+      </c>
+      <c r="B197">
+        <v>7416425</v>
+      </c>
+      <c r="C197" t="s">
+        <v>68</v>
+      </c>
+      <c r="D197" t="s">
+        <v>69</v>
+      </c>
+      <c r="E197" s="2">
+        <v>45402.64583333334</v>
+      </c>
+      <c r="F197">
+        <v>0</v>
+      </c>
+      <c r="G197" t="s">
+        <v>89</v>
+      </c>
+      <c r="H197" t="s">
+        <v>90</v>
+      </c>
+      <c r="I197">
+        <v>0</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+      <c r="M197">
+        <v>1</v>
+      </c>
+      <c r="N197">
+        <v>2</v>
+      </c>
+      <c r="O197" t="s">
+        <v>209</v>
+      </c>
+      <c r="P197" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q197">
+        <v>3</v>
+      </c>
+      <c r="R197">
+        <v>2.05</v>
+      </c>
+      <c r="S197">
+        <v>3.75</v>
+      </c>
+      <c r="T197">
+        <v>1.44</v>
+      </c>
+      <c r="U197">
+        <v>2.63</v>
+      </c>
+      <c r="V197">
+        <v>3.4</v>
+      </c>
+      <c r="W197">
+        <v>1.3</v>
+      </c>
+      <c r="X197">
+        <v>10</v>
+      </c>
+      <c r="Y197">
+        <v>1.06</v>
+      </c>
+      <c r="Z197">
+        <v>2.2</v>
+      </c>
+      <c r="AA197">
+        <v>3.3</v>
+      </c>
+      <c r="AB197">
+        <v>3.1</v>
+      </c>
+      <c r="AC197">
+        <v>1.06</v>
+      </c>
+      <c r="AD197">
+        <v>8.5</v>
+      </c>
+      <c r="AE197">
+        <v>1.4</v>
+      </c>
+      <c r="AF197">
+        <v>2.9</v>
+      </c>
+      <c r="AG197">
+        <v>2.2</v>
+      </c>
+      <c r="AH197">
+        <v>1.65</v>
+      </c>
+      <c r="AI197">
+        <v>1.91</v>
+      </c>
+      <c r="AJ197">
+        <v>1.8</v>
+      </c>
+      <c r="AK197">
+        <v>1.3</v>
+      </c>
+      <c r="AL197">
+        <v>1.33</v>
+      </c>
+      <c r="AM197">
+        <v>1.66</v>
+      </c>
+      <c r="AN197">
+        <v>1.86</v>
+      </c>
+      <c r="AO197">
+        <v>1.86</v>
+      </c>
+      <c r="AP197">
+        <v>1.8</v>
+      </c>
+      <c r="AQ197">
+        <v>1.8</v>
+      </c>
+      <c r="AR197">
+        <v>1.7</v>
+      </c>
+      <c r="AS197">
+        <v>1.37</v>
+      </c>
+      <c r="AT197">
+        <v>3.07</v>
+      </c>
+      <c r="AU197">
+        <v>9</v>
+      </c>
+      <c r="AV197">
+        <v>4</v>
+      </c>
+      <c r="AW197">
+        <v>7</v>
+      </c>
+      <c r="AX197">
+        <v>1</v>
+      </c>
+      <c r="AY197">
+        <v>16</v>
+      </c>
+      <c r="AZ197">
+        <v>5</v>
+      </c>
+      <c r="BA197">
+        <v>14</v>
+      </c>
+      <c r="BB197">
+        <v>3</v>
+      </c>
+      <c r="BC197">
+        <v>17</v>
+      </c>
+      <c r="BD197">
+        <v>1.55</v>
+      </c>
+      <c r="BE197">
+        <v>8.9</v>
+      </c>
+      <c r="BF197">
+        <v>2.88</v>
+      </c>
+      <c r="BG197">
+        <v>1.22</v>
+      </c>
+      <c r="BH197">
+        <v>3.65</v>
+      </c>
+      <c r="BI197">
+        <v>1.47</v>
+      </c>
+      <c r="BJ197">
+        <v>2.59</v>
+      </c>
+      <c r="BK197">
+        <v>1.8</v>
+      </c>
+      <c r="BL197">
+        <v>2</v>
+      </c>
+      <c r="BM197">
+        <v>2.25</v>
+      </c>
+      <c r="BN197">
+        <v>1.61</v>
+      </c>
+      <c r="BO197">
+        <v>2.98</v>
+      </c>
+      <c r="BP197">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:68">
+      <c r="A198" s="1">
+        <v>197</v>
+      </c>
+      <c r="B198">
+        <v>7416427</v>
+      </c>
+      <c r="C198" t="s">
+        <v>68</v>
+      </c>
+      <c r="D198" t="s">
+        <v>69</v>
+      </c>
+      <c r="E198" s="2">
+        <v>45402.77083333334</v>
+      </c>
+      <c r="F198">
+        <v>0</v>
+      </c>
+      <c r="G198" t="s">
+        <v>83</v>
+      </c>
+      <c r="H198" t="s">
+        <v>74</v>
+      </c>
+      <c r="I198">
+        <v>1</v>
+      </c>
+      <c r="J198">
+        <v>0</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>3</v>
+      </c>
+      <c r="M198">
+        <v>0</v>
+      </c>
+      <c r="N198">
+        <v>3</v>
+      </c>
+      <c r="O198" t="s">
+        <v>210</v>
+      </c>
+      <c r="P198" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q198">
+        <v>2.2</v>
+      </c>
+      <c r="R198">
+        <v>2.2</v>
+      </c>
+      <c r="S198">
+        <v>6</v>
+      </c>
+      <c r="T198">
+        <v>1.5</v>
+      </c>
+      <c r="U198">
+        <v>2.5</v>
+      </c>
+      <c r="V198">
+        <v>3.4</v>
+      </c>
+      <c r="W198">
+        <v>1.3</v>
+      </c>
+      <c r="X198">
+        <v>10</v>
+      </c>
+      <c r="Y198">
+        <v>1.06</v>
+      </c>
+      <c r="Z198">
+        <v>1.57</v>
+      </c>
+      <c r="AA198">
+        <v>3.75</v>
+      </c>
+      <c r="AB198">
+        <v>6.5</v>
+      </c>
+      <c r="AC198">
+        <v>1.03</v>
+      </c>
+      <c r="AD198">
+        <v>8.75</v>
+      </c>
+      <c r="AE198">
+        <v>1.36</v>
+      </c>
+      <c r="AF198">
+        <v>3.15</v>
+      </c>
+      <c r="AG198">
+        <v>2.08</v>
+      </c>
+      <c r="AH198">
+        <v>1.73</v>
+      </c>
+      <c r="AI198">
+        <v>2.1</v>
+      </c>
+      <c r="AJ198">
+        <v>1.67</v>
+      </c>
+      <c r="AK198">
+        <v>1.15</v>
+      </c>
+      <c r="AL198">
+        <v>1.28</v>
+      </c>
+      <c r="AM198">
+        <v>2.14</v>
+      </c>
+      <c r="AN198">
+        <v>1.85</v>
+      </c>
+      <c r="AO198">
+        <v>1.86</v>
+      </c>
+      <c r="AP198">
+        <v>1.93</v>
+      </c>
+      <c r="AQ198">
+        <v>1.73</v>
+      </c>
+      <c r="AR198">
+        <v>2.23</v>
+      </c>
+      <c r="AS198">
+        <v>1.17</v>
+      </c>
+      <c r="AT198">
+        <v>3.4</v>
+      </c>
+      <c r="AU198">
+        <v>7</v>
+      </c>
+      <c r="AV198">
+        <v>2</v>
+      </c>
+      <c r="AW198">
+        <v>9</v>
+      </c>
+      <c r="AX198">
+        <v>7</v>
+      </c>
+      <c r="AY198">
+        <v>16</v>
+      </c>
+      <c r="AZ198">
+        <v>9</v>
+      </c>
+      <c r="BA198">
+        <v>3</v>
+      </c>
+      <c r="BB198">
+        <v>1</v>
+      </c>
+      <c r="BC198">
+        <v>4</v>
+      </c>
+      <c r="BD198">
+        <v>1.41</v>
+      </c>
+      <c r="BE198">
+        <v>9.4</v>
+      </c>
+      <c r="BF198">
+        <v>3.45</v>
+      </c>
+      <c r="BG198">
+        <v>1.2</v>
+      </c>
+      <c r="BH198">
+        <v>3.86</v>
+      </c>
+      <c r="BI198">
+        <v>1.39</v>
+      </c>
+      <c r="BJ198">
+        <v>2.67</v>
+      </c>
+      <c r="BK198">
+        <v>1.75</v>
+      </c>
+      <c r="BL198">
+        <v>2.06</v>
+      </c>
+      <c r="BM198">
+        <v>2.2</v>
+      </c>
+      <c r="BN198">
+        <v>1.66</v>
+      </c>
+      <c r="BO198">
+        <v>2.84</v>
+      </c>
+      <c r="BP198">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="199" spans="1:68">
+      <c r="A199" s="1">
+        <v>198</v>
+      </c>
+      <c r="B199">
+        <v>7416426</v>
+      </c>
+      <c r="C199" t="s">
+        <v>68</v>
+      </c>
+      <c r="D199" t="s">
+        <v>69</v>
+      </c>
+      <c r="E199" s="2">
+        <v>45402.89583333334</v>
+      </c>
+      <c r="F199">
+        <v>0</v>
+      </c>
+      <c r="G199" t="s">
+        <v>81</v>
+      </c>
+      <c r="H199" t="s">
+        <v>88</v>
+      </c>
+      <c r="I199">
+        <v>1</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>2</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+      <c r="M199">
+        <v>2</v>
+      </c>
+      <c r="N199">
+        <v>3</v>
+      </c>
+      <c r="O199" t="s">
+        <v>211</v>
+      </c>
+      <c r="P199" t="s">
+        <v>295</v>
+      </c>
+      <c r="Q199">
+        <v>3.6</v>
+      </c>
+      <c r="R199">
+        <v>1.83</v>
+      </c>
+      <c r="S199">
+        <v>4</v>
+      </c>
+      <c r="T199">
+        <v>1.62</v>
+      </c>
+      <c r="U199">
+        <v>2.2</v>
+      </c>
+      <c r="V199">
+        <v>4</v>
+      </c>
+      <c r="W199">
+        <v>1.22</v>
+      </c>
+      <c r="X199">
+        <v>15</v>
+      </c>
+      <c r="Y199">
+        <v>1.03</v>
+      </c>
+      <c r="Z199">
+        <v>2.63</v>
+      </c>
+      <c r="AA199">
+        <v>2.88</v>
+      </c>
+      <c r="AB199">
+        <v>2.9</v>
+      </c>
+      <c r="AC199">
+        <v>1.11</v>
+      </c>
+      <c r="AD199">
+        <v>6.25</v>
+      </c>
+      <c r="AE199">
+        <v>1.62</v>
+      </c>
+      <c r="AF199">
+        <v>2.25</v>
+      </c>
+      <c r="AG199">
+        <v>2.88</v>
+      </c>
+      <c r="AH199">
+        <v>1.4</v>
+      </c>
+      <c r="AI199">
+        <v>2.25</v>
+      </c>
+      <c r="AJ199">
+        <v>1.57</v>
+      </c>
+      <c r="AK199">
+        <v>1.33</v>
+      </c>
+      <c r="AL199">
+        <v>1.3</v>
+      </c>
+      <c r="AM199">
+        <v>1.57</v>
+      </c>
+      <c r="AN199">
+        <v>2.07</v>
+      </c>
+      <c r="AO199">
+        <v>1.79</v>
+      </c>
+      <c r="AP199">
+        <v>1.93</v>
+      </c>
+      <c r="AQ199">
+        <v>1.87</v>
+      </c>
+      <c r="AR199">
+        <v>2.01</v>
+      </c>
+      <c r="AS199">
+        <v>1.45</v>
+      </c>
+      <c r="AT199">
+        <v>3.46</v>
+      </c>
+      <c r="AU199">
+        <v>5</v>
+      </c>
+      <c r="AV199">
+        <v>7</v>
+      </c>
+      <c r="AW199">
+        <v>1</v>
+      </c>
+      <c r="AX199">
+        <v>1</v>
+      </c>
+      <c r="AY199">
+        <v>6</v>
+      </c>
+      <c r="AZ199">
+        <v>8</v>
+      </c>
+      <c r="BA199">
+        <v>3</v>
+      </c>
+      <c r="BB199">
+        <v>3</v>
+      </c>
+      <c r="BC199">
+        <v>6</v>
+      </c>
+      <c r="BD199">
+        <v>1.88</v>
+      </c>
+      <c r="BE199">
+        <v>9.4</v>
+      </c>
+      <c r="BF199">
+        <v>2.19</v>
+      </c>
+      <c r="BG199">
+        <v>1.27</v>
+      </c>
+      <c r="BH199">
+        <v>3.28</v>
+      </c>
+      <c r="BI199">
+        <v>1.56</v>
+      </c>
+      <c r="BJ199">
+        <v>2.37</v>
+      </c>
+      <c r="BK199">
+        <v>1.94</v>
+      </c>
+      <c r="BL199">
+        <v>1.85</v>
+      </c>
+      <c r="BM199">
+        <v>2.47</v>
+      </c>
+      <c r="BN199">
+        <v>1.52</v>
+      </c>
+      <c r="BO199">
+        <v>3.34</v>
+      </c>
+      <c r="BP199">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -244,10 +244,10 @@
     <t>Talleres Córdoba</t>
   </si>
   <si>
-    <t>Banfield</t>
+    <t>Independiente Rivadavia</t>
   </si>
   <si>
-    <t>Independiente Rivadavia</t>
+    <t>Banfield</t>
   </si>
   <si>
     <t>San Lorenzo</t>
@@ -277,10 +277,10 @@
     <t>Rosario Central</t>
   </si>
   <si>
-    <t>Lanús</t>
+    <t>Vélez Sarsfield</t>
   </si>
   <si>
-    <t>Vélez Sarsfield</t>
+    <t>Lanús</t>
   </si>
   <si>
     <t>Argentinos Juniors</t>
@@ -475,10 +475,10 @@
     <t>['60']</t>
   </si>
   <si>
-    <t>['22', '31']</t>
+    <t>['53']</t>
   </si>
   <si>
-    <t>['53']</t>
+    <t>['22', '31']</t>
   </si>
   <si>
     <t>['24', '78']</t>
@@ -610,10 +610,10 @@
     <t>['37']</t>
   </si>
   <si>
-    <t>['38', '59', '80']</t>
+    <t>['38', '56', '58']</t>
   </si>
   <si>
-    <t>['38', '56', '58']</t>
+    <t>['38', '59', '80']</t>
   </si>
   <si>
     <t>['6', '56']</t>
@@ -628,10 +628,10 @@
     <t>['4', '21', '43', '69']</t>
   </si>
   <si>
-    <t>['18', '21', '40']</t>
+    <t>['34', '45+7']</t>
   </si>
   <si>
-    <t>['34', '45+7']</t>
+    <t>['18', '21', '40']</t>
   </si>
   <si>
     <t>['22']</t>
@@ -650,6 +650,9 @@
   </si>
   <si>
     <t>['18']</t>
+  </si>
+  <si>
+    <t>['10', '90+7']</t>
   </si>
   <si>
     <t>['90+5']</t>
@@ -682,10 +685,10 @@
     <t>['71', '81']</t>
   </si>
   <si>
-    <t>['17', '24']</t>
+    <t>['76']</t>
   </si>
   <si>
-    <t>['76']</t>
+    <t>['17', '24']</t>
   </si>
   <si>
     <t>['30']</t>
@@ -871,10 +874,10 @@
     <t>['3', '24']</t>
   </si>
   <si>
-    <t>['25', '90+3']</t>
+    <t>['80', '85']</t>
   </si>
   <si>
-    <t>['80', '85']</t>
+    <t>['25', '90+3']</t>
   </si>
   <si>
     <t>['14']</t>
@@ -886,10 +889,10 @@
     <t>['74', '76']</t>
   </si>
   <si>
-    <t>['1', '68', '90+2']</t>
+    <t>['50', '52']</t>
   </si>
   <si>
-    <t>['50', '52']</t>
+    <t>['1', '68', '90+2']</t>
   </si>
   <si>
     <t>['57', '62', '73']</t>
@@ -902,6 +905,9 @@
   </si>
   <si>
     <t>['24', '68']</t>
+  </si>
+  <si>
+    <t>['45+1', '62', '67']</t>
   </si>
 </sst>
 </file>
@@ -1263,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP199"/>
+  <dimension ref="A1:BP200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2140,7 +2146,7 @@
         <v>98</v>
       </c>
       <c r="P5" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q5">
         <v>4.33</v>
@@ -2322,7 +2328,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -2346,7 +2352,7 @@
         <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q6">
         <v>4.33</v>
@@ -2552,7 +2558,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q7">
         <v>2.5</v>
@@ -2716,7 +2722,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7345488</v>
+        <v>7345489</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -2734,187 +2740,187 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O8" t="s">
         <v>98</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="Q8">
+        <v>4.33</v>
+      </c>
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>3.4</v>
+      </c>
+      <c r="T8">
+        <v>1.67</v>
+      </c>
+      <c r="U8">
+        <v>2.1</v>
+      </c>
+      <c r="V8">
+        <v>4.5</v>
+      </c>
+      <c r="W8">
+        <v>1.18</v>
+      </c>
+      <c r="X8">
+        <v>15</v>
+      </c>
+      <c r="Y8">
+        <v>1.03</v>
+      </c>
+      <c r="Z8">
+        <v>3.5</v>
+      </c>
+      <c r="AA8">
+        <v>2.75</v>
+      </c>
+      <c r="AB8">
+        <v>2.38</v>
+      </c>
+      <c r="AC8">
+        <v>1.14</v>
+      </c>
+      <c r="AD8">
+        <v>6.4</v>
+      </c>
+      <c r="AE8">
+        <v>1.69</v>
+      </c>
+      <c r="AF8">
+        <v>2.13</v>
+      </c>
+      <c r="AG8">
+        <v>3.4</v>
+      </c>
+      <c r="AH8">
+        <v>1.33</v>
+      </c>
+      <c r="AI8">
+        <v>2.5</v>
+      </c>
+      <c r="AJ8">
+        <v>1.5</v>
+      </c>
+      <c r="AK8">
+        <v>1.6</v>
+      </c>
+      <c r="AL8">
+        <v>1.36</v>
+      </c>
+      <c r="AM8">
+        <v>1.3</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0.43</v>
+      </c>
+      <c r="AQ8">
+        <v>2</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
         <v>4</v>
-      </c>
-      <c r="R8">
-        <v>1.73</v>
-      </c>
-      <c r="S8">
-        <v>4</v>
-      </c>
-      <c r="T8">
-        <v>1.8</v>
-      </c>
-      <c r="U8">
-        <v>1.91</v>
-      </c>
-      <c r="V8">
-        <v>5.5</v>
-      </c>
-      <c r="W8">
-        <v>1.14</v>
-      </c>
-      <c r="X8">
-        <v>19</v>
-      </c>
-      <c r="Y8">
-        <v>1.02</v>
-      </c>
-      <c r="Z8">
-        <v>2.8</v>
-      </c>
-      <c r="AA8">
-        <v>2.63</v>
-      </c>
-      <c r="AB8">
-        <v>2.9</v>
-      </c>
-      <c r="AC8">
-        <v>1.17</v>
-      </c>
-      <c r="AD8">
-        <v>5.3</v>
-      </c>
-      <c r="AE8">
-        <v>1.82</v>
-      </c>
-      <c r="AF8">
-        <v>1.96</v>
-      </c>
-      <c r="AG8">
-        <v>3.6</v>
-      </c>
-      <c r="AH8">
-        <v>1.29</v>
-      </c>
-      <c r="AI8">
-        <v>2.63</v>
-      </c>
-      <c r="AJ8">
-        <v>1.44</v>
-      </c>
-      <c r="AK8">
-        <v>1.4</v>
-      </c>
-      <c r="AL8">
-        <v>1.45</v>
-      </c>
-      <c r="AM8">
-        <v>1.43</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0.71</v>
-      </c>
-      <c r="AQ8">
-        <v>0.57</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
       </c>
       <c r="AV8">
         <v>7</v>
       </c>
       <c r="AW8">
+        <v>2</v>
+      </c>
+      <c r="AX8">
         <v>11</v>
       </c>
-      <c r="AX8">
-        <v>7</v>
-      </c>
       <c r="AY8">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AZ8">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB8">
         <v>5</v>
       </c>
       <c r="BC8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD8">
-        <v>1.59</v>
+        <v>2.07</v>
       </c>
       <c r="BE8">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="BF8">
-        <v>3.01</v>
+        <v>2.08</v>
       </c>
       <c r="BG8">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="BH8">
-        <v>2.57</v>
+        <v>3.16</v>
       </c>
       <c r="BI8">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="BJ8">
-        <v>1.9</v>
+        <v>2.32</v>
       </c>
       <c r="BK8">
-        <v>2.41</v>
+        <v>2.03</v>
       </c>
       <c r="BL8">
-        <v>1.57</v>
+        <v>1.74</v>
       </c>
       <c r="BM8">
-        <v>3.39</v>
+        <v>2.62</v>
       </c>
       <c r="BN8">
-        <v>1.32</v>
+        <v>1.43</v>
       </c>
       <c r="BO8">
-        <v>5.13</v>
+        <v>3.57</v>
       </c>
       <c r="BP8">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -2922,7 +2928,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7345489</v>
+        <v>7345488</v>
       </c>
       <c r="C9" t="s">
         <v>68</v>
@@ -2940,100 +2946,100 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O9" t="s">
         <v>98</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="Q9">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R9">
+        <v>1.73</v>
+      </c>
+      <c r="S9">
+        <v>4</v>
+      </c>
+      <c r="T9">
         <v>1.8</v>
       </c>
-      <c r="S9">
-        <v>3.4</v>
-      </c>
-      <c r="T9">
-        <v>1.67</v>
-      </c>
       <c r="U9">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="V9">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="W9">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="X9">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="Y9">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="Z9">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="AA9">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AB9">
-        <v>2.38</v>
+        <v>2.9</v>
       </c>
       <c r="AC9">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AD9">
-        <v>6.4</v>
+        <v>5.3</v>
       </c>
       <c r="AE9">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="AF9">
-        <v>2.13</v>
+        <v>1.96</v>
       </c>
       <c r="AG9">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AH9">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AI9">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AJ9">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AK9">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AL9">
-        <v>1.36</v>
+        <v>1.45</v>
       </c>
       <c r="AM9">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="AN9">
         <v>0</v>
@@ -3042,10 +3048,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.43</v>
+        <v>0.71</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3057,70 +3063,70 @@
         <v>0</v>
       </c>
       <c r="AU9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV9">
         <v>7</v>
       </c>
       <c r="AW9">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="AX9">
+        <v>7</v>
+      </c>
+      <c r="AY9">
         <v>11</v>
       </c>
-      <c r="AY9">
-        <v>6</v>
-      </c>
       <c r="AZ9">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="BA9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB9">
         <v>5</v>
       </c>
       <c r="BC9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD9">
-        <v>2.07</v>
+        <v>1.59</v>
       </c>
       <c r="BE9">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="BF9">
-        <v>2.08</v>
+        <v>3.01</v>
       </c>
       <c r="BG9">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BH9">
-        <v>3.16</v>
+        <v>2.57</v>
       </c>
       <c r="BI9">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="BJ9">
-        <v>2.32</v>
+        <v>1.9</v>
       </c>
       <c r="BK9">
-        <v>2.03</v>
+        <v>2.41</v>
       </c>
       <c r="BL9">
-        <v>1.74</v>
+        <v>1.57</v>
       </c>
       <c r="BM9">
-        <v>2.62</v>
+        <v>3.39</v>
       </c>
       <c r="BN9">
-        <v>1.43</v>
+        <v>1.32</v>
       </c>
       <c r="BO9">
-        <v>3.57</v>
+        <v>5.13</v>
       </c>
       <c r="BP9">
-        <v>1.21</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="10" spans="1:68">
@@ -3146,7 +3152,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -3170,7 +3176,7 @@
         <v>98</v>
       </c>
       <c r="P10" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3457,7 +3463,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3994,7 +4000,7 @@
         <v>102</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q14">
         <v>2.2</v>
@@ -4072,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ14">
         <v>1</v>
@@ -4612,7 +4618,7 @@
         <v>100</v>
       </c>
       <c r="P17" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4794,7 +4800,7 @@
         <v>85</v>
       </c>
       <c r="H18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -4818,7 +4824,7 @@
         <v>105</v>
       </c>
       <c r="P18" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -5000,7 +5006,7 @@
         <v>86</v>
       </c>
       <c r="H19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -5188,7 +5194,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7345501</v>
+        <v>7345500</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -5206,7 +5212,7 @@
         <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -5221,16 +5227,16 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O20" t="s">
         <v>98</v>
       </c>
       <c r="P20" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5242,37 +5248,37 @@
         <v>4</v>
       </c>
       <c r="T20">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="W20">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="X20">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y20">
         <v>1.02</v>
       </c>
       <c r="Z20">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AA20">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="AB20">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AC20">
-        <v>1.15</v>
+        <v>1.17</v>
       </c>
       <c r="AD20">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AE20">
         <v>1.67</v>
@@ -5281,10 +5287,10 @@
         <v>2.1</v>
       </c>
       <c r="AG20">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AH20">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AI20">
         <v>2.5</v>
@@ -5296,10 +5302,10 @@
         <v>1.37</v>
       </c>
       <c r="AL20">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="AM20">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -5308,85 +5314,85 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>1.14</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>0</v>
       </c>
       <c r="AS20">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="AT20">
-        <v>1.42</v>
+        <v>1.97</v>
       </c>
       <c r="AU20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV20">
         <v>3</v>
       </c>
       <c r="AW20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AX20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY20">
         <v>13</v>
       </c>
       <c r="AZ20">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA20">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB20">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC20">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD20">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="BE20">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF20">
-        <v>2.1</v>
+        <v>2.17</v>
       </c>
       <c r="BG20">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BH20">
-        <v>3.08</v>
+        <v>3.16</v>
       </c>
       <c r="BI20">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="BJ20">
-        <v>2.21</v>
+        <v>2.32</v>
       </c>
       <c r="BK20">
-        <v>2.04</v>
+        <v>2.03</v>
       </c>
       <c r="BL20">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="BM20">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="BN20">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
       <c r="BO20">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="BP20">
-        <v>1.26</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -5394,7 +5400,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7345500</v>
+        <v>7345501</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -5412,7 +5418,7 @@
         <v>88</v>
       </c>
       <c r="H21" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -5427,16 +5433,16 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
         <v>98</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="Q21">
         <v>3.6</v>
@@ -5448,37 +5454,37 @@
         <v>4</v>
       </c>
       <c r="T21">
-        <v>1.7</v>
+        <v>1.66</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V21">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="W21">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="X21">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y21">
         <v>1.02</v>
       </c>
       <c r="Z21">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AA21">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="AB21">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AC21">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AD21">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AE21">
         <v>1.67</v>
@@ -5487,10 +5493,10 @@
         <v>2.1</v>
       </c>
       <c r="AG21">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AH21">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AI21">
         <v>2.5</v>
@@ -5502,97 +5508,97 @@
         <v>1.37</v>
       </c>
       <c r="AL21">
+        <v>1.41</v>
+      </c>
+      <c r="AM21">
+        <v>1.46</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>3</v>
+      </c>
+      <c r="AP21">
+        <v>1.14</v>
+      </c>
+      <c r="AQ21">
+        <v>1.86</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
         <v>1.42</v>
       </c>
-      <c r="AM21">
-        <v>1.44</v>
-      </c>
-      <c r="AN21">
-        <v>0</v>
-      </c>
-      <c r="AO21">
-        <v>3</v>
-      </c>
-      <c r="AP21">
-        <v>2</v>
-      </c>
-      <c r="AQ21">
-        <v>2</v>
-      </c>
-      <c r="AR21">
-        <v>0</v>
-      </c>
-      <c r="AS21">
-        <v>1.97</v>
-      </c>
       <c r="AT21">
-        <v>1.97</v>
+        <v>1.42</v>
       </c>
       <c r="AU21">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV21">
         <v>3</v>
       </c>
       <c r="AW21">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AY21">
         <v>13</v>
       </c>
       <c r="AZ21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA21">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC21">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD21">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="BE21">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="BF21">
-        <v>2.17</v>
+        <v>2.1</v>
       </c>
       <c r="BG21">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BH21">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="BI21">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="BJ21">
-        <v>2.32</v>
+        <v>2.21</v>
       </c>
       <c r="BK21">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="BL21">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="BM21">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="BN21">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="BO21">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="BP21">
-        <v>1.21</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -6054,7 +6060,7 @@
         <v>108</v>
       </c>
       <c r="P24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>3</v>
@@ -6466,7 +6472,7 @@
         <v>98</v>
       </c>
       <c r="P26" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q26">
         <v>6</v>
@@ -6836,7 +6842,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7345509</v>
+        <v>7345508</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6851,43 +6857,43 @@
         <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I28">
         <v>0</v>
       </c>
       <c r="J28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O28" t="s">
         <v>98</v>
       </c>
       <c r="P28" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q28">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="R28">
         <v>1.83</v>
       </c>
       <c r="S28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T28">
         <v>1.67</v>
@@ -6896,10 +6902,10 @@
         <v>2.1</v>
       </c>
       <c r="V28">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W28">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X28">
         <v>15</v>
@@ -6908,46 +6914,46 @@
         <v>1.03</v>
       </c>
       <c r="Z28">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="AA28">
         <v>3</v>
       </c>
       <c r="AB28">
-        <v>2.15</v>
+        <v>2.9</v>
       </c>
       <c r="AC28">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="AD28">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="AE28">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AF28">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="AG28">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="AH28">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AI28">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AJ28">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AK28">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="AL28">
         <v>1.39</v>
       </c>
       <c r="AM28">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="AN28">
         <v>0</v>
@@ -6956,85 +6962,85 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.86</v>
+        <v>1.14</v>
       </c>
       <c r="AQ28">
-        <v>2.14</v>
+        <v>1.57</v>
       </c>
       <c r="AR28">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AS28">
         <v>0</v>
       </c>
       <c r="AT28">
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="AU28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV28">
+        <v>3</v>
+      </c>
+      <c r="AW28">
+        <v>9</v>
+      </c>
+      <c r="AX28">
+        <v>3</v>
+      </c>
+      <c r="AY28">
+        <v>11</v>
+      </c>
+      <c r="AZ28">
         <v>6</v>
       </c>
-      <c r="AW28">
-        <v>4</v>
-      </c>
-      <c r="AX28">
-        <v>7</v>
-      </c>
-      <c r="AY28">
-        <v>7</v>
-      </c>
-      <c r="AZ28">
-        <v>13</v>
-      </c>
       <c r="BA28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC28">
         <v>12</v>
       </c>
       <c r="BD28">
-        <v>2.25</v>
+        <v>1.87</v>
       </c>
       <c r="BE28">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="BF28">
-        <v>1.8</v>
+        <v>2.36</v>
       </c>
       <c r="BG28">
-        <v>1.18</v>
+        <v>1.34</v>
       </c>
       <c r="BH28">
-        <v>3.99</v>
+        <v>3.27</v>
       </c>
       <c r="BI28">
-        <v>1.41</v>
+        <v>1.59</v>
       </c>
       <c r="BJ28">
-        <v>2.79</v>
+        <v>2.36</v>
       </c>
       <c r="BK28">
-        <v>2.25</v>
+        <v>1.94</v>
       </c>
       <c r="BL28">
-        <v>2.03</v>
+        <v>1.81</v>
       </c>
       <c r="BM28">
-        <v>2.13</v>
+        <v>2.56</v>
       </c>
       <c r="BN28">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="BO28">
-        <v>2.83</v>
+        <v>3.59</v>
       </c>
       <c r="BP28">
-        <v>1.39</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -7042,7 +7048,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7345508</v>
+        <v>7345509</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -7057,43 +7063,43 @@
         <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H29" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O29" t="s">
         <v>98</v>
       </c>
       <c r="P29" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q29">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="R29">
         <v>1.83</v>
       </c>
       <c r="S29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T29">
         <v>1.67</v>
@@ -7102,10 +7108,10 @@
         <v>2.1</v>
       </c>
       <c r="V29">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W29">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X29">
         <v>15</v>
@@ -7114,46 +7120,46 @@
         <v>1.03</v>
       </c>
       <c r="Z29">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="AA29">
         <v>3</v>
       </c>
       <c r="AB29">
-        <v>2.9</v>
+        <v>2.15</v>
       </c>
       <c r="AC29">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="AD29">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="AE29">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AF29">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AG29">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AH29">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AI29">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AJ29">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AK29">
-        <v>1.39</v>
+        <v>1.66</v>
       </c>
       <c r="AL29">
         <v>1.39</v>
       </c>
       <c r="AM29">
-        <v>1.46</v>
+        <v>1.24</v>
       </c>
       <c r="AN29">
         <v>0</v>
@@ -7162,85 +7168,85 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.14</v>
+        <v>0.86</v>
       </c>
       <c r="AQ29">
-        <v>1.57</v>
+        <v>2.14</v>
       </c>
       <c r="AR29">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AS29">
         <v>0</v>
       </c>
       <c r="AT29">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="AU29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AX29">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY29">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AZ29">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA29">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB29">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC29">
         <v>12</v>
       </c>
       <c r="BD29">
-        <v>1.87</v>
+        <v>2.25</v>
       </c>
       <c r="BE29">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="BF29">
-        <v>2.36</v>
+        <v>1.8</v>
       </c>
       <c r="BG29">
-        <v>1.34</v>
+        <v>1.18</v>
       </c>
       <c r="BH29">
-        <v>3.27</v>
+        <v>3.99</v>
       </c>
       <c r="BI29">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="BJ29">
-        <v>2.36</v>
+        <v>2.79</v>
       </c>
       <c r="BK29">
-        <v>1.94</v>
+        <v>2.25</v>
       </c>
       <c r="BL29">
-        <v>1.81</v>
+        <v>2.03</v>
       </c>
       <c r="BM29">
-        <v>2.56</v>
+        <v>2.13</v>
       </c>
       <c r="BN29">
-        <v>1.51</v>
+        <v>1.62</v>
       </c>
       <c r="BO29">
-        <v>3.59</v>
+        <v>2.83</v>
       </c>
       <c r="BP29">
-        <v>1.29</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -7496,7 +7502,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q31">
         <v>2.5</v>
@@ -7675,7 +7681,7 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H32" t="s">
         <v>84</v>
@@ -8090,7 +8096,7 @@
         <v>82</v>
       </c>
       <c r="H34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I34">
         <v>4</v>
@@ -8192,7 +8198,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -8708,7 +8714,7 @@
         <v>81</v>
       </c>
       <c r="H37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -9144,7 +9150,7 @@
         <v>98</v>
       </c>
       <c r="P39" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q39">
         <v>4.33</v>
@@ -9225,7 +9231,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ39">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR39">
         <v>1.56</v>
@@ -9529,7 +9535,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H41" t="s">
         <v>71</v>
@@ -9556,7 +9562,7 @@
         <v>98</v>
       </c>
       <c r="P41" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q41">
         <v>3.5</v>
@@ -9762,7 +9768,7 @@
         <v>117</v>
       </c>
       <c r="P42" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -10150,7 +10156,7 @@
         <v>86</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -10792,7 +10798,7 @@
         <v>120</v>
       </c>
       <c r="P47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q47">
         <v>4</v>
@@ -10971,7 +10977,7 @@
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s">
         <v>85</v>
@@ -10998,7 +11004,7 @@
         <v>121</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>2.88</v>
@@ -11204,7 +11210,7 @@
         <v>122</v>
       </c>
       <c r="P49" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q49">
         <v>2.88</v>
@@ -11386,7 +11392,7 @@
         <v>89</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -11410,7 +11416,7 @@
         <v>123</v>
       </c>
       <c r="P50" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q50">
         <v>3</v>
@@ -11780,7 +11786,7 @@
         <v>51</v>
       </c>
       <c r="B52">
-        <v>7345532</v>
+        <v>7345533</v>
       </c>
       <c r="C52" t="s">
         <v>68</v>
@@ -11795,190 +11801,190 @@
         <v>4</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="H52" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="I52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52">
         <v>0</v>
       </c>
       <c r="K52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O52" t="s">
+        <v>124</v>
+      </c>
+      <c r="P52" t="s">
         <v>98</v>
       </c>
-      <c r="P52" t="s">
-        <v>231</v>
-      </c>
       <c r="Q52">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="R52">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="S52">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T52">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U52">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V52">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W52">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="X52">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y52">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="Z52">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="AA52">
+        <v>2.88</v>
+      </c>
+      <c r="AB52">
+        <v>2.88</v>
+      </c>
+      <c r="AC52">
+        <v>1.14</v>
+      </c>
+      <c r="AD52">
+        <v>5.31</v>
+      </c>
+      <c r="AE52">
+        <v>1.69</v>
+      </c>
+      <c r="AF52">
+        <v>2.18</v>
+      </c>
+      <c r="AG52">
         <v>3.1</v>
       </c>
-      <c r="AB52">
-        <v>3.2</v>
-      </c>
-      <c r="AC52">
-        <v>1.11</v>
-      </c>
-      <c r="AD52">
-        <v>6.28</v>
-      </c>
-      <c r="AE52">
-        <v>1.59</v>
-      </c>
-      <c r="AF52">
-        <v>2.39</v>
-      </c>
-      <c r="AG52">
-        <v>2.6</v>
-      </c>
       <c r="AH52">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AI52">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AJ52">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="AK52">
-        <v>1.42</v>
+        <v>1.36</v>
       </c>
       <c r="AL52">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AM52">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="AN52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO52">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AP52">
         <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>2.14</v>
+        <v>0.71</v>
       </c>
       <c r="AR52">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="AS52">
-        <v>1.69</v>
+        <v>1.24</v>
       </c>
       <c r="AT52">
-        <v>2.77</v>
+        <v>2.25</v>
       </c>
       <c r="AU52">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AV52">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AW52">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX52">
         <v>6</v>
       </c>
       <c r="AY52">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ52">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC52">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD52">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="BE52">
-        <v>7.4</v>
+        <v>8.6</v>
       </c>
       <c r="BF52">
-        <v>2.05</v>
+        <v>2.44</v>
       </c>
       <c r="BG52">
-        <v>1.38</v>
+        <v>1.32</v>
       </c>
       <c r="BH52">
-        <v>2.85</v>
+        <v>3.2</v>
       </c>
       <c r="BI52">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
       <c r="BJ52">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="BK52">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="BL52">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="BM52">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="BN52">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BO52">
-        <v>3.7</v>
+        <v>3.25</v>
       </c>
       <c r="BP52">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="53" spans="1:68">
@@ -11986,7 +11992,7 @@
         <v>52</v>
       </c>
       <c r="B53">
-        <v>7345533</v>
+        <v>7345532</v>
       </c>
       <c r="C53" t="s">
         <v>68</v>
@@ -12001,190 +12007,190 @@
         <v>4</v>
       </c>
       <c r="G53" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="H53" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="I53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53">
         <v>0</v>
       </c>
       <c r="K53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L53">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O53" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="P53" t="s">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="Q53">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="R53">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S53">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T53">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U53">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V53">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="W53">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="X53">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y53">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="Z53">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="AA53">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="AB53">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AC53">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="AD53">
-        <v>5.31</v>
+        <v>6.28</v>
       </c>
       <c r="AE53">
-        <v>1.69</v>
+        <v>1.59</v>
       </c>
       <c r="AF53">
-        <v>2.18</v>
+        <v>2.39</v>
       </c>
       <c r="AG53">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AH53">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="AI53">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AJ53">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AK53">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="AL53">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AM53">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AN53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO53">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP53">
         <v>0.86</v>
       </c>
       <c r="AQ53">
-        <v>0.71</v>
+        <v>2.14</v>
       </c>
       <c r="AR53">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="AS53">
-        <v>1.24</v>
+        <v>1.69</v>
       </c>
       <c r="AT53">
-        <v>2.25</v>
+        <v>2.77</v>
       </c>
       <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>7</v>
+      </c>
+      <c r="AW53">
         <v>8</v>
-      </c>
-      <c r="AV53">
-        <v>3</v>
-      </c>
-      <c r="AW53">
-        <v>3</v>
       </c>
       <c r="AX53">
         <v>6</v>
       </c>
       <c r="AY53">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ53">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA53">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC53">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD53">
-        <v>1.73</v>
+        <v>2.1</v>
       </c>
       <c r="BE53">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="BF53">
-        <v>2.44</v>
+        <v>2.05</v>
       </c>
       <c r="BG53">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="BH53">
-        <v>3.2</v>
+        <v>2.85</v>
       </c>
       <c r="BI53">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="BJ53">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BK53">
-        <v>1.92</v>
+        <v>2.1</v>
       </c>
       <c r="BL53">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="BM53">
-        <v>2.45</v>
+        <v>2.7</v>
       </c>
       <c r="BN53">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BO53">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="BP53">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="54" spans="1:68">
@@ -12234,7 +12240,7 @@
         <v>98</v>
       </c>
       <c r="P54" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q54">
         <v>7</v>
@@ -12413,7 +12419,7 @@
         <v>4</v>
       </c>
       <c r="G55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H55" t="s">
         <v>79</v>
@@ -12852,7 +12858,7 @@
         <v>127</v>
       </c>
       <c r="P57" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -13058,7 +13064,7 @@
         <v>98</v>
       </c>
       <c r="P58" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q58">
         <v>2.88</v>
@@ -13470,7 +13476,7 @@
         <v>129</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q60">
         <v>3.5</v>
@@ -14088,7 +14094,7 @@
         <v>98</v>
       </c>
       <c r="P63" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q63">
         <v>3.4</v>
@@ -14270,7 +14276,7 @@
         <v>97</v>
       </c>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -14294,7 +14300,7 @@
         <v>98</v>
       </c>
       <c r="P64" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q64">
         <v>4</v>
@@ -14473,7 +14479,7 @@
         <v>5</v>
       </c>
       <c r="G65" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H65" t="s">
         <v>74</v>
@@ -15094,7 +15100,7 @@
         <v>95</v>
       </c>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I68">
         <v>1</v>
@@ -15118,7 +15124,7 @@
         <v>132</v>
       </c>
       <c r="P68" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q68">
         <v>4.75</v>
@@ -15503,7 +15509,7 @@
         <v>5</v>
       </c>
       <c r="G70" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H70" t="s">
         <v>71</v>
@@ -15530,7 +15536,7 @@
         <v>98</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>4</v>
@@ -15736,7 +15742,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>2.63</v>
@@ -16148,7 +16154,7 @@
         <v>98</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>2.38</v>
@@ -16354,7 +16360,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q74">
         <v>3.2</v>
@@ -16533,7 +16539,7 @@
         <v>6</v>
       </c>
       <c r="G75" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s">
         <v>84</v>
@@ -16766,7 +16772,7 @@
         <v>98</v>
       </c>
       <c r="P76" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q76">
         <v>3.6</v>
@@ -16948,7 +16954,7 @@
         <v>82</v>
       </c>
       <c r="H77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -16972,7 +16978,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q77">
         <v>2.05</v>
@@ -17050,7 +17056,7 @@
         <v>0.5</v>
       </c>
       <c r="AP77">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ77">
         <v>1.71</v>
@@ -17151,7 +17157,7 @@
         <v>6</v>
       </c>
       <c r="G78" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s">
         <v>92</v>
@@ -17178,7 +17184,7 @@
         <v>139</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q78">
         <v>4.33</v>
@@ -17259,7 +17265,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ78">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR78">
         <v>1.53</v>
@@ -18390,7 +18396,7 @@
         <v>89</v>
       </c>
       <c r="H84" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I84">
         <v>1</v>
@@ -18414,7 +18420,7 @@
         <v>144</v>
       </c>
       <c r="P84" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18620,7 +18626,7 @@
         <v>108</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>2.38</v>
@@ -19238,7 +19244,7 @@
         <v>145</v>
       </c>
       <c r="P88" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -19402,7 +19408,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7345566</v>
+        <v>7345567</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19417,43 +19423,43 @@
         <v>7</v>
       </c>
       <c r="G89" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I89">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K89">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O89" t="s">
-        <v>98</v>
+        <v>146</v>
       </c>
       <c r="P89" t="s">
-        <v>98</v>
+        <v>208</v>
       </c>
       <c r="Q89">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="R89">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="S89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="T89">
         <v>1.67</v>
@@ -19462,10 +19468,10 @@
         <v>2.1</v>
       </c>
       <c r="V89">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="W89">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="X89">
         <v>15</v>
@@ -19474,133 +19480,133 @@
         <v>1.03</v>
       </c>
       <c r="Z89">
-        <v>2.63</v>
+        <v>1.8</v>
       </c>
       <c r="AA89">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="AB89">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="AC89">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AD89">
-        <v>5.75</v>
+        <v>5.7</v>
       </c>
       <c r="AE89">
-        <v>1.6</v>
+        <v>1.69</v>
       </c>
       <c r="AF89">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AG89">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="AH89">
+        <v>1.44</v>
+      </c>
+      <c r="AI89">
+        <v>2.5</v>
+      </c>
+      <c r="AJ89">
+        <v>1.5</v>
+      </c>
+      <c r="AK89">
+        <v>1.2</v>
+      </c>
+      <c r="AL89">
+        <v>1.33</v>
+      </c>
+      <c r="AM89">
+        <v>1.83</v>
+      </c>
+      <c r="AN89">
+        <v>0.33</v>
+      </c>
+      <c r="AO89">
+        <v>1</v>
+      </c>
+      <c r="AP89">
+        <v>1.14</v>
+      </c>
+      <c r="AQ89">
+        <v>0.71</v>
+      </c>
+      <c r="AR89">
+        <v>1.48</v>
+      </c>
+      <c r="AS89">
+        <v>1.48</v>
+      </c>
+      <c r="AT89">
+        <v>2.96</v>
+      </c>
+      <c r="AU89">
+        <v>8</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>5</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>13</v>
+      </c>
+      <c r="AZ89">
+        <v>6</v>
+      </c>
+      <c r="BA89">
+        <v>7</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>13</v>
+      </c>
+      <c r="BD89">
+        <v>1.46</v>
+      </c>
+      <c r="BE89">
+        <v>8.1</v>
+      </c>
+      <c r="BF89">
+        <v>3.55</v>
+      </c>
+      <c r="BG89">
         <v>1.36</v>
       </c>
-      <c r="AI89">
-        <v>2.25</v>
-      </c>
-      <c r="AJ89">
-        <v>1.57</v>
-      </c>
-      <c r="AK89">
-        <v>1.38</v>
-      </c>
-      <c r="AL89">
-        <v>1.35</v>
-      </c>
-      <c r="AM89">
-        <v>1.48</v>
-      </c>
-      <c r="AN89">
-        <v>0</v>
-      </c>
-      <c r="AO89">
-        <v>2</v>
-      </c>
-      <c r="AP89">
-        <v>0.57</v>
-      </c>
-      <c r="AQ89">
-        <v>1.5</v>
-      </c>
-      <c r="AR89">
-        <v>1.4</v>
-      </c>
-      <c r="AS89">
-        <v>1.14</v>
-      </c>
-      <c r="AT89">
-        <v>2.54</v>
-      </c>
-      <c r="AU89">
-        <v>3</v>
-      </c>
-      <c r="AV89">
-        <v>0</v>
-      </c>
-      <c r="AW89">
-        <v>6</v>
-      </c>
-      <c r="AX89">
-        <v>5</v>
-      </c>
-      <c r="AY89">
-        <v>9</v>
-      </c>
-      <c r="AZ89">
-        <v>5</v>
-      </c>
-      <c r="BA89">
-        <v>3</v>
-      </c>
-      <c r="BB89">
-        <v>1</v>
-      </c>
-      <c r="BC89">
-        <v>4</v>
-      </c>
-      <c r="BD89">
+      <c r="BH89">
+        <v>2.95</v>
+      </c>
+      <c r="BI89">
+        <v>1.62</v>
+      </c>
+      <c r="BJ89">
+        <v>2.2</v>
+      </c>
+      <c r="BK89">
         <v>2.05</v>
       </c>
-      <c r="BE89">
-        <v>7.4</v>
-      </c>
-      <c r="BF89">
-        <v>2.1</v>
-      </c>
-      <c r="BG89">
-        <v>1.3</v>
-      </c>
-      <c r="BH89">
-        <v>3.35</v>
-      </c>
-      <c r="BI89">
-        <v>1.53</v>
-      </c>
-      <c r="BJ89">
-        <v>2.33</v>
-      </c>
-      <c r="BK89">
-        <v>2</v>
-      </c>
       <c r="BL89">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="BM89">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="BN89">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="BO89">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="BP89">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19608,7 +19614,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7345567</v>
+        <v>7345566</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19623,43 +19629,43 @@
         <v>7</v>
       </c>
       <c r="G90" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H90" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90" t="s">
+        <v>98</v>
+      </c>
+      <c r="P90" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q90">
+        <v>3.5</v>
+      </c>
+      <c r="R90">
+        <v>1.83</v>
+      </c>
+      <c r="S90">
         <v>4</v>
-      </c>
-      <c r="M90">
-        <v>1</v>
-      </c>
-      <c r="N90">
-        <v>5</v>
-      </c>
-      <c r="O90" t="s">
-        <v>146</v>
-      </c>
-      <c r="P90" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q90">
-        <v>2.5</v>
-      </c>
-      <c r="R90">
-        <v>1.91</v>
-      </c>
-      <c r="S90">
-        <v>6</v>
       </c>
       <c r="T90">
         <v>1.67</v>
@@ -19668,10 +19674,10 @@
         <v>2.1</v>
       </c>
       <c r="V90">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="W90">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="X90">
         <v>15</v>
@@ -19680,133 +19686,133 @@
         <v>1.03</v>
       </c>
       <c r="Z90">
+        <v>2.63</v>
+      </c>
+      <c r="AA90">
+        <v>2.8</v>
+      </c>
+      <c r="AB90">
+        <v>3.2</v>
+      </c>
+      <c r="AC90">
+        <v>1.12</v>
+      </c>
+      <c r="AD90">
+        <v>5.75</v>
+      </c>
+      <c r="AE90">
+        <v>1.6</v>
+      </c>
+      <c r="AF90">
+        <v>2.3</v>
+      </c>
+      <c r="AG90">
+        <v>3.1</v>
+      </c>
+      <c r="AH90">
+        <v>1.36</v>
+      </c>
+      <c r="AI90">
+        <v>2.25</v>
+      </c>
+      <c r="AJ90">
+        <v>1.57</v>
+      </c>
+      <c r="AK90">
+        <v>1.38</v>
+      </c>
+      <c r="AL90">
+        <v>1.35</v>
+      </c>
+      <c r="AM90">
+        <v>1.48</v>
+      </c>
+      <c r="AN90">
+        <v>0</v>
+      </c>
+      <c r="AO90">
+        <v>2</v>
+      </c>
+      <c r="AP90">
+        <v>0.57</v>
+      </c>
+      <c r="AQ90">
+        <v>1.5</v>
+      </c>
+      <c r="AR90">
+        <v>1.4</v>
+      </c>
+      <c r="AS90">
+        <v>1.14</v>
+      </c>
+      <c r="AT90">
+        <v>2.54</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>0</v>
+      </c>
+      <c r="AW90">
+        <v>6</v>
+      </c>
+      <c r="AX90">
+        <v>5</v>
+      </c>
+      <c r="AY90">
+        <v>9</v>
+      </c>
+      <c r="AZ90">
+        <v>5</v>
+      </c>
+      <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>1</v>
+      </c>
+      <c r="BC90">
+        <v>4</v>
+      </c>
+      <c r="BD90">
+        <v>2.05</v>
+      </c>
+      <c r="BE90">
+        <v>7.4</v>
+      </c>
+      <c r="BF90">
+        <v>2.1</v>
+      </c>
+      <c r="BG90">
+        <v>1.3</v>
+      </c>
+      <c r="BH90">
+        <v>3.35</v>
+      </c>
+      <c r="BI90">
+        <v>1.53</v>
+      </c>
+      <c r="BJ90">
+        <v>2.33</v>
+      </c>
+      <c r="BK90">
+        <v>2</v>
+      </c>
+      <c r="BL90">
         <v>1.8</v>
       </c>
-      <c r="AA90">
-        <v>3.2</v>
-      </c>
-      <c r="AB90">
-        <v>5.75</v>
-      </c>
-      <c r="AC90">
-        <v>1.13</v>
-      </c>
-      <c r="AD90">
-        <v>5.7</v>
-      </c>
-      <c r="AE90">
-        <v>1.69</v>
-      </c>
-      <c r="AF90">
-        <v>2.18</v>
-      </c>
-      <c r="AG90">
-        <v>2.7</v>
-      </c>
-      <c r="AH90">
-        <v>1.44</v>
-      </c>
-      <c r="AI90">
+      <c r="BM90">
         <v>2.5</v>
       </c>
-      <c r="AJ90">
-        <v>1.5</v>
-      </c>
-      <c r="AK90">
-        <v>1.2</v>
-      </c>
-      <c r="AL90">
-        <v>1.33</v>
-      </c>
-      <c r="AM90">
-        <v>1.83</v>
-      </c>
-      <c r="AN90">
-        <v>0.33</v>
-      </c>
-      <c r="AO90">
-        <v>1</v>
-      </c>
-      <c r="AP90">
-        <v>1.14</v>
-      </c>
-      <c r="AQ90">
-        <v>0.71</v>
-      </c>
-      <c r="AR90">
-        <v>1.48</v>
-      </c>
-      <c r="AS90">
-        <v>1.48</v>
-      </c>
-      <c r="AT90">
-        <v>2.96</v>
-      </c>
-      <c r="AU90">
-        <v>8</v>
-      </c>
-      <c r="AV90">
-        <v>4</v>
-      </c>
-      <c r="AW90">
-        <v>5</v>
-      </c>
-      <c r="AX90">
-        <v>2</v>
-      </c>
-      <c r="AY90">
-        <v>13</v>
-      </c>
-      <c r="AZ90">
-        <v>6</v>
-      </c>
-      <c r="BA90">
-        <v>7</v>
-      </c>
-      <c r="BB90">
-        <v>6</v>
-      </c>
-      <c r="BC90">
-        <v>13</v>
-      </c>
-      <c r="BD90">
-        <v>1.46</v>
-      </c>
-      <c r="BE90">
-        <v>8.1</v>
-      </c>
-      <c r="BF90">
-        <v>3.55</v>
-      </c>
-      <c r="BG90">
-        <v>1.36</v>
-      </c>
-      <c r="BH90">
-        <v>2.95</v>
-      </c>
-      <c r="BI90">
-        <v>1.62</v>
-      </c>
-      <c r="BJ90">
-        <v>2.2</v>
-      </c>
-      <c r="BK90">
-        <v>2.05</v>
-      </c>
-      <c r="BL90">
-        <v>1.72</v>
-      </c>
-      <c r="BM90">
-        <v>2.65</v>
-      </c>
       <c r="BN90">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="BO90">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="BP90">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19856,7 +19862,7 @@
         <v>147</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q91">
         <v>2.6</v>
@@ -19934,10 +19940,10 @@
         <v>1.33</v>
       </c>
       <c r="AP91">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR91">
         <v>2.12</v>
@@ -20447,10 +20453,10 @@
         <v>7</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -20474,7 +20480,7 @@
         <v>148</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q94">
         <v>3</v>
@@ -20680,7 +20686,7 @@
         <v>98</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -21092,7 +21098,7 @@
         <v>150</v>
       </c>
       <c r="P97" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>2.88</v>
@@ -21271,7 +21277,7 @@
         <v>7</v>
       </c>
       <c r="G98" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s">
         <v>70</v>
@@ -21298,7 +21304,7 @@
         <v>151</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>2.1</v>
@@ -21710,7 +21716,7 @@
         <v>152</v>
       </c>
       <c r="P100" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q100">
         <v>3.25</v>
@@ -21874,7 +21880,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7345586</v>
+        <v>7345583</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21889,55 +21895,55 @@
         <v>8</v>
       </c>
       <c r="G101" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="H101" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O101" t="s">
         <v>153</v>
       </c>
       <c r="P101" t="s">
-        <v>98</v>
+        <v>255</v>
       </c>
       <c r="Q101">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R101">
         <v>1.91</v>
       </c>
       <c r="S101">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T101">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U101">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V101">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W101">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="X101">
         <v>13</v>
@@ -21946,133 +21952,133 @@
         <v>1.04</v>
       </c>
       <c r="Z101">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="AA101">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="AB101">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AC101">
-        <v>1.12</v>
+        <v>1.09</v>
       </c>
       <c r="AD101">
-        <v>5.5</v>
+        <v>6.71</v>
       </c>
       <c r="AE101">
-        <v>1.56</v>
+        <v>1.52</v>
       </c>
       <c r="AF101">
-        <v>2.43</v>
+        <v>2.56</v>
       </c>
       <c r="AG101">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AH101">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AI101">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AJ101">
+        <v>1.67</v>
+      </c>
+      <c r="AK101">
         <v>1.57</v>
       </c>
-      <c r="AK101">
+      <c r="AL101">
         <v>1.36</v>
       </c>
-      <c r="AL101">
-        <v>1.38</v>
-      </c>
       <c r="AM101">
+        <v>1.33</v>
+      </c>
+      <c r="AN101">
+        <v>1</v>
+      </c>
+      <c r="AO101">
+        <v>1.67</v>
+      </c>
+      <c r="AP101">
+        <v>0.43</v>
+      </c>
+      <c r="AQ101">
         <v>1.5</v>
       </c>
-      <c r="AN101">
-        <v>0.67</v>
-      </c>
-      <c r="AO101">
-        <v>1</v>
-      </c>
-      <c r="AP101">
-        <v>1.71</v>
-      </c>
-      <c r="AQ101">
-        <v>0.5</v>
-      </c>
       <c r="AR101">
-        <v>0.96</v>
+        <v>1.31</v>
       </c>
       <c r="AS101">
-        <v>1.23</v>
+        <v>1.01</v>
       </c>
       <c r="AT101">
-        <v>2.19</v>
+        <v>2.32</v>
       </c>
       <c r="AU101">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AV101">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW101">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="AX101">
         <v>5</v>
       </c>
       <c r="AY101">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ101">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA101">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB101">
         <v>4</v>
       </c>
       <c r="BC101">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD101">
-        <v>1.68</v>
+        <v>1.91</v>
       </c>
       <c r="BE101">
         <v>7</v>
       </c>
       <c r="BF101">
-        <v>2.75</v>
+        <v>2.32</v>
       </c>
       <c r="BG101">
         <v>1.36</v>
       </c>
       <c r="BH101">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="BI101">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="BJ101">
+        <v>2.12</v>
+      </c>
+      <c r="BK101">
         <v>2.15</v>
       </c>
-      <c r="BK101">
-        <v>2.12</v>
-      </c>
       <c r="BL101">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="BM101">
-        <v>2.88</v>
+        <v>2.95</v>
       </c>
       <c r="BN101">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="BO101">
         <v>4.1</v>
       </c>
       <c r="BP101">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -22080,7 +22086,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7345583</v>
+        <v>7345586</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -22095,55 +22101,55 @@
         <v>8</v>
       </c>
       <c r="G102" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H102" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O102" t="s">
         <v>154</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>98</v>
       </c>
       <c r="Q102">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="R102">
         <v>1.91</v>
       </c>
       <c r="S102">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="T102">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U102">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V102">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="W102">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="X102">
         <v>13</v>
@@ -22152,133 +22158,133 @@
         <v>1.04</v>
       </c>
       <c r="Z102">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="AA102">
+        <v>3</v>
+      </c>
+      <c r="AB102">
+        <v>3.75</v>
+      </c>
+      <c r="AC102">
+        <v>1.12</v>
+      </c>
+      <c r="AD102">
+        <v>5.5</v>
+      </c>
+      <c r="AE102">
+        <v>1.56</v>
+      </c>
+      <c r="AF102">
+        <v>2.43</v>
+      </c>
+      <c r="AG102">
         <v>2.88</v>
       </c>
-      <c r="AB102">
-        <v>3.1</v>
-      </c>
-      <c r="AC102">
-        <v>1.09</v>
-      </c>
-      <c r="AD102">
-        <v>6.71</v>
-      </c>
-      <c r="AE102">
-        <v>1.52</v>
-      </c>
-      <c r="AF102">
-        <v>2.56</v>
-      </c>
-      <c r="AG102">
-        <v>2.7</v>
-      </c>
       <c r="AH102">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="AI102">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AJ102">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AK102">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="AL102">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="AM102">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AN102">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO102">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP102">
-        <v>0.43</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AR102">
-        <v>1.31</v>
+        <v>0.96</v>
       </c>
       <c r="AS102">
-        <v>1.01</v>
+        <v>1.23</v>
       </c>
       <c r="AT102">
-        <v>2.32</v>
+        <v>2.19</v>
       </c>
       <c r="AU102">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV102">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AW102">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AX102">
         <v>5</v>
       </c>
       <c r="AY102">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ102">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA102">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="BB102">
         <v>4</v>
       </c>
       <c r="BC102">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD102">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="BE102">
         <v>7</v>
       </c>
       <c r="BF102">
-        <v>2.32</v>
+        <v>2.75</v>
       </c>
       <c r="BG102">
         <v>1.36</v>
       </c>
       <c r="BH102">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="BI102">
-        <v>1.67</v>
+        <v>1.66</v>
       </c>
       <c r="BJ102">
+        <v>2.15</v>
+      </c>
+      <c r="BK102">
         <v>2.12</v>
       </c>
-      <c r="BK102">
-        <v>2.15</v>
-      </c>
       <c r="BL102">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BM102">
-        <v>2.95</v>
+        <v>2.88</v>
       </c>
       <c r="BN102">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BO102">
         <v>4.1</v>
       </c>
       <c r="BP102">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22507,7 +22513,7 @@
         <v>8</v>
       </c>
       <c r="G104" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H104" t="s">
         <v>95</v>
@@ -22946,7 +22952,7 @@
         <v>156</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q106">
         <v>4</v>
@@ -23128,7 +23134,7 @@
         <v>72</v>
       </c>
       <c r="H107" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -23358,7 +23364,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q108">
         <v>3</v>
@@ -23564,7 +23570,7 @@
         <v>158</v>
       </c>
       <c r="P109" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>3.5</v>
@@ -23770,7 +23776,7 @@
         <v>118</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>3.1</v>
@@ -23952,7 +23958,7 @@
         <v>90</v>
       </c>
       <c r="H111" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -23976,7 +23982,7 @@
         <v>98</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q111">
         <v>3.1</v>
@@ -24182,7 +24188,7 @@
         <v>159</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q112">
         <v>2.38</v>
@@ -24388,7 +24394,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q113">
         <v>3.1</v>
@@ -24800,7 +24806,7 @@
         <v>162</v>
       </c>
       <c r="P115" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>5</v>
@@ -25185,7 +25191,7 @@
         <v>9</v>
       </c>
       <c r="G117" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H117" t="s">
         <v>86</v>
@@ -25624,7 +25630,7 @@
         <v>165</v>
       </c>
       <c r="P119" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25911,7 +25917,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR120">
         <v>1.58</v>
@@ -26012,7 +26018,7 @@
         <v>82</v>
       </c>
       <c r="H121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I121">
         <v>2</v>
@@ -26114,7 +26120,7 @@
         <v>0.75</v>
       </c>
       <c r="AP121">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ121">
         <v>0.71</v>
@@ -26218,7 +26224,7 @@
         <v>72</v>
       </c>
       <c r="H122" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -26242,7 +26248,7 @@
         <v>98</v>
       </c>
       <c r="P122" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>2.88</v>
@@ -26627,7 +26633,7 @@
         <v>9</v>
       </c>
       <c r="G124" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H124" t="s">
         <v>73</v>
@@ -27478,7 +27484,7 @@
         <v>168</v>
       </c>
       <c r="P128" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q128">
         <v>3.75</v>
@@ -28508,7 +28514,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28714,7 +28720,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>2.75</v>
@@ -28920,7 +28926,7 @@
         <v>173</v>
       </c>
       <c r="P135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q135">
         <v>3</v>
@@ -29126,7 +29132,7 @@
         <v>174</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q136">
         <v>3.6</v>
@@ -29308,7 +29314,7 @@
         <v>70</v>
       </c>
       <c r="H137" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I137">
         <v>2</v>
@@ -29332,7 +29338,7 @@
         <v>175</v>
       </c>
       <c r="P137" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q137">
         <v>4.5</v>
@@ -29511,7 +29517,7 @@
         <v>10</v>
       </c>
       <c r="G138" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H138" t="s">
         <v>95</v>
@@ -29538,7 +29544,7 @@
         <v>176</v>
       </c>
       <c r="P138" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29717,10 +29723,10 @@
         <v>10</v>
       </c>
       <c r="G139" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H139" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I139">
         <v>1</v>
@@ -29744,7 +29750,7 @@
         <v>156</v>
       </c>
       <c r="P139" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q139">
         <v>3.75</v>
@@ -29950,7 +29956,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q140">
         <v>3.6</v>
@@ -30956,7 +30962,7 @@
         <v>72</v>
       </c>
       <c r="H145" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I145">
         <v>2</v>
@@ -30980,7 +30986,7 @@
         <v>179</v>
       </c>
       <c r="P145" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q145">
         <v>2.5</v>
@@ -31159,7 +31165,7 @@
         <v>11</v>
       </c>
       <c r="G146" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H146" t="s">
         <v>71</v>
@@ -31882,7 +31888,7 @@
         <v>1.2</v>
       </c>
       <c r="AP149">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ149">
         <v>0.86</v>
@@ -31983,7 +31989,7 @@
         <v>11</v>
       </c>
       <c r="G150" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H150" t="s">
         <v>75</v>
@@ -32216,7 +32222,7 @@
         <v>183</v>
       </c>
       <c r="P151" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q151">
         <v>2.63</v>
@@ -32604,7 +32610,7 @@
         <v>91</v>
       </c>
       <c r="H153" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -32628,7 +32634,7 @@
         <v>98</v>
       </c>
       <c r="P153" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -33013,7 +33019,7 @@
         <v>12</v>
       </c>
       <c r="G155" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H155" t="s">
         <v>93</v>
@@ -33040,7 +33046,7 @@
         <v>186</v>
       </c>
       <c r="P155" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q155">
         <v>2.75</v>
@@ -33246,7 +33252,7 @@
         <v>187</v>
       </c>
       <c r="P156" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q156">
         <v>2.75</v>
@@ -33452,7 +33458,7 @@
         <v>188</v>
       </c>
       <c r="P157" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q157">
         <v>3.2</v>
@@ -33864,7 +33870,7 @@
         <v>189</v>
       </c>
       <c r="P159" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q159">
         <v>3.6</v>
@@ -34482,7 +34488,7 @@
         <v>148</v>
       </c>
       <c r="P162" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q162">
         <v>5</v>
@@ -34664,7 +34670,7 @@
         <v>75</v>
       </c>
       <c r="H163" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I163">
         <v>1</v>
@@ -35306,7 +35312,7 @@
         <v>116</v>
       </c>
       <c r="P166" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q166">
         <v>2.5</v>
@@ -35485,10 +35491,10 @@
         <v>12</v>
       </c>
       <c r="G167" t="s">
+        <v>76</v>
+      </c>
+      <c r="H167" t="s">
         <v>77</v>
-      </c>
-      <c r="H167" t="s">
-        <v>76</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -35512,7 +35518,7 @@
         <v>193</v>
       </c>
       <c r="P167" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q167">
         <v>3.75</v>
@@ -35718,7 +35724,7 @@
         <v>194</v>
       </c>
       <c r="P168" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q168">
         <v>4.33</v>
@@ -35897,7 +35903,7 @@
         <v>13</v>
       </c>
       <c r="G169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H169" t="s">
         <v>89</v>
@@ -36103,7 +36109,7 @@
         <v>13</v>
       </c>
       <c r="G170" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H170" t="s">
         <v>94</v>
@@ -36336,7 +36342,7 @@
         <v>133</v>
       </c>
       <c r="P171" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q171">
         <v>3.75</v>
@@ -36417,7 +36423,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ171">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR171">
         <v>1.66</v>
@@ -36748,7 +36754,7 @@
         <v>98</v>
       </c>
       <c r="P173" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q173">
         <v>3.5</v>
@@ -36954,7 +36960,7 @@
         <v>196</v>
       </c>
       <c r="P174" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q174">
         <v>2.5</v>
@@ -37136,7 +37142,7 @@
         <v>75</v>
       </c>
       <c r="H175" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -37324,7 +37330,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>7345658</v>
+        <v>7345655</v>
       </c>
       <c r="C176" t="s">
         <v>68</v>
@@ -37339,19 +37345,19 @@
         <v>13</v>
       </c>
       <c r="G176" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H176" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="I176">
         <v>1</v>
       </c>
       <c r="J176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K176">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L176">
         <v>3</v>
@@ -37366,163 +37372,163 @@
         <v>198</v>
       </c>
       <c r="P176" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q176">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="R176">
+        <v>1.91</v>
+      </c>
+      <c r="S176">
+        <v>3.4</v>
+      </c>
+      <c r="T176">
+        <v>1.62</v>
+      </c>
+      <c r="U176">
+        <v>2.2</v>
+      </c>
+      <c r="V176">
+        <v>4</v>
+      </c>
+      <c r="W176">
+        <v>1.22</v>
+      </c>
+      <c r="X176">
+        <v>13</v>
+      </c>
+      <c r="Y176">
+        <v>1.04</v>
+      </c>
+      <c r="Z176">
+        <v>2.9</v>
+      </c>
+      <c r="AA176">
+        <v>3.1</v>
+      </c>
+      <c r="AB176">
+        <v>2.6</v>
+      </c>
+      <c r="AC176">
+        <v>1.12</v>
+      </c>
+      <c r="AD176">
+        <v>5.5</v>
+      </c>
+      <c r="AE176">
+        <v>1.56</v>
+      </c>
+      <c r="AF176">
+        <v>2.44</v>
+      </c>
+      <c r="AG176">
+        <v>2.5</v>
+      </c>
+      <c r="AH176">
+        <v>1.5</v>
+      </c>
+      <c r="AI176">
+        <v>2.1</v>
+      </c>
+      <c r="AJ176">
+        <v>1.67</v>
+      </c>
+      <c r="AK176">
+        <v>1.5</v>
+      </c>
+      <c r="AL176">
+        <v>1.35</v>
+      </c>
+      <c r="AM176">
+        <v>1.44</v>
+      </c>
+      <c r="AN176">
+        <v>1.83</v>
+      </c>
+      <c r="AO176">
+        <v>1.8</v>
+      </c>
+      <c r="AP176">
+        <v>2</v>
+      </c>
+      <c r="AQ176">
+        <v>1.5</v>
+      </c>
+      <c r="AR176">
+        <v>1.55</v>
+      </c>
+      <c r="AS176">
+        <v>1.45</v>
+      </c>
+      <c r="AT176">
+        <v>3</v>
+      </c>
+      <c r="AU176">
+        <v>7</v>
+      </c>
+      <c r="AV176">
+        <v>6</v>
+      </c>
+      <c r="AW176">
+        <v>3</v>
+      </c>
+      <c r="AX176">
+        <v>14</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>20</v>
+      </c>
+      <c r="BA176">
+        <v>4</v>
+      </c>
+      <c r="BB176">
+        <v>8</v>
+      </c>
+      <c r="BC176">
+        <v>12</v>
+      </c>
+      <c r="BD176">
+        <v>2.08</v>
+      </c>
+      <c r="BE176">
+        <v>7.7</v>
+      </c>
+      <c r="BF176">
         <v>2.05</v>
       </c>
-      <c r="S176">
-        <v>4.5</v>
-      </c>
-      <c r="T176">
-        <v>1.53</v>
-      </c>
-      <c r="U176">
-        <v>2.38</v>
-      </c>
-      <c r="V176">
-        <v>3.75</v>
-      </c>
-      <c r="W176">
-        <v>1.25</v>
-      </c>
-      <c r="X176">
-        <v>11</v>
-      </c>
-      <c r="Y176">
-        <v>1.05</v>
-      </c>
-      <c r="Z176">
-        <v>1.95</v>
-      </c>
-      <c r="AA176">
-        <v>3.2</v>
-      </c>
-      <c r="AB176">
-        <v>4.5</v>
-      </c>
-      <c r="AC176">
-        <v>1.08</v>
-      </c>
-      <c r="AD176">
-        <v>7.15</v>
-      </c>
-      <c r="AE176">
-        <v>1.47</v>
-      </c>
-      <c r="AF176">
-        <v>2.59</v>
-      </c>
-      <c r="AG176">
-        <v>2.2</v>
-      </c>
-      <c r="AH176">
-        <v>1.65</v>
-      </c>
-      <c r="AI176">
-        <v>1.91</v>
-      </c>
-      <c r="AJ176">
-        <v>1.8</v>
-      </c>
-      <c r="AK176">
-        <v>1.22</v>
-      </c>
-      <c r="AL176">
-        <v>1.28</v>
-      </c>
-      <c r="AM176">
-        <v>1.92</v>
-      </c>
-      <c r="AN176">
-        <v>0.83</v>
-      </c>
-      <c r="AO176">
-        <v>1</v>
-      </c>
-      <c r="AP176">
-        <v>1.14</v>
-      </c>
-      <c r="AQ176">
-        <v>0.86</v>
-      </c>
-      <c r="AR176">
-        <v>1.88</v>
-      </c>
-      <c r="AS176">
-        <v>1.29</v>
-      </c>
-      <c r="AT176">
-        <v>3.17</v>
-      </c>
-      <c r="AU176">
-        <v>8</v>
-      </c>
-      <c r="AV176">
-        <v>4</v>
-      </c>
-      <c r="AW176">
-        <v>7</v>
-      </c>
-      <c r="AX176">
-        <v>4</v>
-      </c>
-      <c r="AY176">
-        <v>15</v>
-      </c>
-      <c r="AZ176">
-        <v>8</v>
-      </c>
-      <c r="BA176">
-        <v>6</v>
-      </c>
-      <c r="BB176">
-        <v>2</v>
-      </c>
-      <c r="BC176">
-        <v>8</v>
-      </c>
-      <c r="BD176">
-        <v>1.59</v>
-      </c>
-      <c r="BE176">
-        <v>9</v>
-      </c>
-      <c r="BF176">
-        <v>2.86</v>
-      </c>
       <c r="BG176">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="BH176">
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="BI176">
-        <v>1.3</v>
+        <v>1.46</v>
       </c>
       <c r="BJ176">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="BK176">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="BL176">
-        <v>2.4</v>
+        <v>1.97</v>
       </c>
       <c r="BM176">
-        <v>1.85</v>
+        <v>2.25</v>
       </c>
       <c r="BN176">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="BO176">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="BP176">
-        <v>1.57</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="177" spans="1:68">
@@ -37530,7 +37536,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>7345655</v>
+        <v>7345658</v>
       </c>
       <c r="C177" t="s">
         <v>68</v>
@@ -37545,19 +37551,19 @@
         <v>13</v>
       </c>
       <c r="G177" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H177" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="I177">
         <v>1</v>
       </c>
       <c r="J177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L177">
         <v>3</v>
@@ -37572,163 +37578,163 @@
         <v>199</v>
       </c>
       <c r="P177" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q177">
+        <v>2.63</v>
+      </c>
+      <c r="R177">
+        <v>2.05</v>
+      </c>
+      <c r="S177">
+        <v>4.5</v>
+      </c>
+      <c r="T177">
+        <v>1.53</v>
+      </c>
+      <c r="U177">
+        <v>2.38</v>
+      </c>
+      <c r="V177">
         <v>3.75</v>
       </c>
-      <c r="R177">
+      <c r="W177">
+        <v>1.25</v>
+      </c>
+      <c r="X177">
+        <v>11</v>
+      </c>
+      <c r="Y177">
+        <v>1.05</v>
+      </c>
+      <c r="Z177">
+        <v>1.95</v>
+      </c>
+      <c r="AA177">
+        <v>3.2</v>
+      </c>
+      <c r="AB177">
+        <v>4.5</v>
+      </c>
+      <c r="AC177">
+        <v>1.08</v>
+      </c>
+      <c r="AD177">
+        <v>7.15</v>
+      </c>
+      <c r="AE177">
+        <v>1.47</v>
+      </c>
+      <c r="AF177">
+        <v>2.59</v>
+      </c>
+      <c r="AG177">
+        <v>2.2</v>
+      </c>
+      <c r="AH177">
+        <v>1.65</v>
+      </c>
+      <c r="AI177">
         <v>1.91</v>
       </c>
-      <c r="S177">
-        <v>3.4</v>
-      </c>
-      <c r="T177">
-        <v>1.62</v>
-      </c>
-      <c r="U177">
-        <v>2.2</v>
-      </c>
-      <c r="V177">
+      <c r="AJ177">
+        <v>1.8</v>
+      </c>
+      <c r="AK177">
+        <v>1.22</v>
+      </c>
+      <c r="AL177">
+        <v>1.28</v>
+      </c>
+      <c r="AM177">
+        <v>1.92</v>
+      </c>
+      <c r="AN177">
+        <v>0.83</v>
+      </c>
+      <c r="AO177">
+        <v>1</v>
+      </c>
+      <c r="AP177">
+        <v>1.14</v>
+      </c>
+      <c r="AQ177">
+        <v>0.86</v>
+      </c>
+      <c r="AR177">
+        <v>1.88</v>
+      </c>
+      <c r="AS177">
+        <v>1.29</v>
+      </c>
+      <c r="AT177">
+        <v>3.17</v>
+      </c>
+      <c r="AU177">
+        <v>8</v>
+      </c>
+      <c r="AV177">
         <v>4</v>
       </c>
-      <c r="W177">
-        <v>1.22</v>
-      </c>
-      <c r="X177">
-        <v>13</v>
-      </c>
-      <c r="Y177">
-        <v>1.04</v>
-      </c>
-      <c r="Z177">
-        <v>2.9</v>
-      </c>
-      <c r="AA177">
-        <v>3.1</v>
-      </c>
-      <c r="AB177">
-        <v>2.6</v>
-      </c>
-      <c r="AC177">
-        <v>1.12</v>
-      </c>
-      <c r="AD177">
-        <v>5.5</v>
-      </c>
-      <c r="AE177">
-        <v>1.56</v>
-      </c>
-      <c r="AF177">
-        <v>2.44</v>
-      </c>
-      <c r="AG177">
-        <v>2.5</v>
-      </c>
-      <c r="AH177">
-        <v>1.5</v>
-      </c>
-      <c r="AI177">
-        <v>2.1</v>
-      </c>
-      <c r="AJ177">
-        <v>1.67</v>
-      </c>
-      <c r="AK177">
-        <v>1.5</v>
-      </c>
-      <c r="AL177">
-        <v>1.35</v>
-      </c>
-      <c r="AM177">
-        <v>1.44</v>
-      </c>
-      <c r="AN177">
-        <v>1.83</v>
-      </c>
-      <c r="AO177">
-        <v>1.8</v>
-      </c>
-      <c r="AP177">
-        <v>2</v>
-      </c>
-      <c r="AQ177">
-        <v>1.5</v>
-      </c>
-      <c r="AR177">
-        <v>1.55</v>
-      </c>
-      <c r="AS177">
-        <v>1.45</v>
-      </c>
-      <c r="AT177">
-        <v>3</v>
-      </c>
-      <c r="AU177">
+      <c r="AW177">
         <v>7</v>
       </c>
-      <c r="AV177">
+      <c r="AX177">
+        <v>4</v>
+      </c>
+      <c r="AY177">
+        <v>15</v>
+      </c>
+      <c r="AZ177">
+        <v>8</v>
+      </c>
+      <c r="BA177">
         <v>6</v>
       </c>
-      <c r="AW177">
-        <v>3</v>
-      </c>
-      <c r="AX177">
-        <v>14</v>
-      </c>
-      <c r="AY177">
-        <v>10</v>
-      </c>
-      <c r="AZ177">
-        <v>20</v>
-      </c>
-      <c r="BA177">
-        <v>4</v>
-      </c>
       <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
         <v>8</v>
       </c>
-      <c r="BC177">
-        <v>12</v>
-      </c>
       <c r="BD177">
-        <v>2.08</v>
+        <v>1.59</v>
       </c>
       <c r="BE177">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="BF177">
-        <v>2.05</v>
+        <v>2.86</v>
       </c>
       <c r="BG177">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="BH177">
-        <v>3.6</v>
+        <v>4.8</v>
       </c>
       <c r="BI177">
-        <v>1.46</v>
+        <v>1.3</v>
       </c>
       <c r="BJ177">
-        <v>2.55</v>
+        <v>3.25</v>
       </c>
       <c r="BK177">
-        <v>2.25</v>
+        <v>1.91</v>
       </c>
       <c r="BL177">
-        <v>1.97</v>
+        <v>2.4</v>
       </c>
       <c r="BM177">
-        <v>2.25</v>
+        <v>1.85</v>
       </c>
       <c r="BN177">
-        <v>1.6</v>
+        <v>1.9</v>
       </c>
       <c r="BO177">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="BP177">
-        <v>1.37</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="178" spans="1:68">
@@ -37754,7 +37760,7 @@
         <v>80</v>
       </c>
       <c r="H178" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -37984,7 +37990,7 @@
         <v>201</v>
       </c>
       <c r="P179" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q179">
         <v>1.62</v>
@@ -38062,7 +38068,7 @@
         <v>0.57</v>
       </c>
       <c r="AP179">
-        <v>2.14</v>
+        <v>1.88</v>
       </c>
       <c r="AQ179">
         <v>0.5</v>
@@ -38396,7 +38402,7 @@
         <v>202</v>
       </c>
       <c r="P181" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Q181">
         <v>3.1</v>
@@ -39402,7 +39408,7 @@
         <v>85</v>
       </c>
       <c r="H186" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I186">
         <v>1</v>
@@ -39426,7 +39432,7 @@
         <v>176</v>
       </c>
       <c r="P186" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q186">
         <v>3.5</v>
@@ -39796,7 +39802,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>7345668</v>
+        <v>7345669</v>
       </c>
       <c r="C188" t="s">
         <v>68</v>
@@ -39811,190 +39817,190 @@
         <v>14</v>
       </c>
       <c r="G188" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="H188" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="I188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L188">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N188">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O188" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="P188" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="Q188">
-        <v>5</v>
+        <v>3.1</v>
       </c>
       <c r="R188">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S188">
-        <v>2.6</v>
+        <v>4</v>
       </c>
       <c r="T188">
+        <v>1.53</v>
+      </c>
+      <c r="U188">
+        <v>2.38</v>
+      </c>
+      <c r="V188">
+        <v>3.5</v>
+      </c>
+      <c r="W188">
+        <v>1.29</v>
+      </c>
+      <c r="X188">
+        <v>11</v>
+      </c>
+      <c r="Y188">
+        <v>1.05</v>
+      </c>
+      <c r="Z188">
+        <v>2.3</v>
+      </c>
+      <c r="AA188">
+        <v>3.1</v>
+      </c>
+      <c r="AB188">
+        <v>3.4</v>
+      </c>
+      <c r="AC188">
+        <v>1.08</v>
+      </c>
+      <c r="AD188">
+        <v>7.29</v>
+      </c>
+      <c r="AE188">
+        <v>1.46</v>
+      </c>
+      <c r="AF188">
+        <v>2.65</v>
+      </c>
+      <c r="AG188">
+        <v>2.4</v>
+      </c>
+      <c r="AH188">
+        <v>1.53</v>
+      </c>
+      <c r="AI188">
+        <v>2.1</v>
+      </c>
+      <c r="AJ188">
+        <v>1.67</v>
+      </c>
+      <c r="AK188">
+        <v>1.36</v>
+      </c>
+      <c r="AL188">
+        <v>1.32</v>
+      </c>
+      <c r="AM188">
+        <v>1.62</v>
+      </c>
+      <c r="AN188">
+        <v>1.33</v>
+      </c>
+      <c r="AO188">
         <v>1.5</v>
       </c>
-      <c r="U188">
+      <c r="AP188">
+        <v>1.29</v>
+      </c>
+      <c r="AQ188">
+        <v>1.43</v>
+      </c>
+      <c r="AR188">
+        <v>1.64</v>
+      </c>
+      <c r="AS188">
+        <v>1.65</v>
+      </c>
+      <c r="AT188">
+        <v>3.29</v>
+      </c>
+      <c r="AU188">
+        <v>9</v>
+      </c>
+      <c r="AV188">
+        <v>6</v>
+      </c>
+      <c r="AW188">
+        <v>9</v>
+      </c>
+      <c r="AX188">
+        <v>3</v>
+      </c>
+      <c r="AY188">
+        <v>18</v>
+      </c>
+      <c r="AZ188">
+        <v>9</v>
+      </c>
+      <c r="BA188">
+        <v>10</v>
+      </c>
+      <c r="BB188">
+        <v>2</v>
+      </c>
+      <c r="BC188">
+        <v>12</v>
+      </c>
+      <c r="BD188">
+        <v>1.6</v>
+      </c>
+      <c r="BE188">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="BF188">
+        <v>2.93</v>
+      </c>
+      <c r="BG188">
+        <v>1.26</v>
+      </c>
+      <c r="BH188">
+        <v>3.45</v>
+      </c>
+      <c r="BI188">
+        <v>1.53</v>
+      </c>
+      <c r="BJ188">
+        <v>2.28</v>
+      </c>
+      <c r="BK188">
+        <v>1.92</v>
+      </c>
+      <c r="BL188">
+        <v>1.79</v>
+      </c>
+      <c r="BM188">
         <v>2.5</v>
       </c>
-      <c r="V188">
-        <v>3.4</v>
-      </c>
-      <c r="W188">
-        <v>1.3</v>
-      </c>
-      <c r="X188">
-        <v>10</v>
-      </c>
-      <c r="Y188">
-        <v>1.06</v>
-      </c>
-      <c r="Z188">
-        <v>4.33</v>
-      </c>
-      <c r="AA188">
-        <v>3.4</v>
-      </c>
-      <c r="AB188">
-        <v>1.85</v>
-      </c>
-      <c r="AC188">
-        <v>1.07</v>
-      </c>
-      <c r="AD188">
-        <v>7.77</v>
-      </c>
-      <c r="AE188">
-        <v>1.43</v>
-      </c>
-      <c r="AF188">
-        <v>2.76</v>
-      </c>
-      <c r="AG188">
-        <v>2.35</v>
-      </c>
-      <c r="AH188">
-        <v>1.57</v>
-      </c>
-      <c r="AI188">
-        <v>2.2</v>
-      </c>
-      <c r="AJ188">
-        <v>1.62</v>
-      </c>
-      <c r="AK188">
-        <v>1.75</v>
-      </c>
-      <c r="AL188">
-        <v>1.3</v>
-      </c>
-      <c r="AM188">
-        <v>1.28</v>
-      </c>
-      <c r="AN188">
-        <v>0.5</v>
-      </c>
-      <c r="AO188">
-        <v>1.33</v>
-      </c>
-      <c r="AP188">
-        <v>0.43</v>
-      </c>
-      <c r="AQ188">
-        <v>1.75</v>
-      </c>
-      <c r="AR188">
-        <v>1.46</v>
-      </c>
-      <c r="AS188">
-        <v>1.24</v>
-      </c>
-      <c r="AT188">
-        <v>2.7</v>
-      </c>
-      <c r="AU188">
-        <v>3</v>
-      </c>
-      <c r="AV188">
-        <v>13</v>
-      </c>
-      <c r="AW188">
-        <v>6</v>
-      </c>
-      <c r="AX188">
-        <v>7</v>
-      </c>
-      <c r="AY188">
-        <v>9</v>
-      </c>
-      <c r="AZ188">
-        <v>20</v>
-      </c>
-      <c r="BA188">
-        <v>2</v>
-      </c>
-      <c r="BB188">
-        <v>3</v>
-      </c>
-      <c r="BC188">
-        <v>5</v>
-      </c>
-      <c r="BD188">
-        <v>2.4</v>
-      </c>
-      <c r="BE188">
-        <v>7.85</v>
-      </c>
-      <c r="BF188">
-        <v>1.86</v>
-      </c>
-      <c r="BG188">
+      <c r="BN188">
+        <v>1.44</v>
+      </c>
+      <c r="BO188">
+        <v>3</v>
+      </c>
+      <c r="BP188">
         <v>1.35</v>
-      </c>
-      <c r="BH188">
-        <v>3</v>
-      </c>
-      <c r="BI188">
-        <v>1.62</v>
-      </c>
-      <c r="BJ188">
-        <v>2.2</v>
-      </c>
-      <c r="BK188">
-        <v>2</v>
-      </c>
-      <c r="BL188">
-        <v>1.75</v>
-      </c>
-      <c r="BM188">
-        <v>2.6</v>
-      </c>
-      <c r="BN188">
-        <v>1.45</v>
-      </c>
-      <c r="BO188">
-        <v>3.51</v>
-      </c>
-      <c r="BP188">
-        <v>1.26</v>
       </c>
     </row>
     <row r="189" spans="1:68">
@@ -40041,10 +40047,10 @@
         <v>6</v>
       </c>
       <c r="O189" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="P189" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="Q189">
         <v>2.6</v>
@@ -40208,7 +40214,7 @@
         <v>189</v>
       </c>
       <c r="B190">
-        <v>7345669</v>
+        <v>7345673</v>
       </c>
       <c r="C190" t="s">
         <v>68</v>
@@ -40223,82 +40229,82 @@
         <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="H190" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J190">
         <v>0</v>
       </c>
       <c r="K190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L190">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N190">
         <v>4</v>
       </c>
       <c r="O190" t="s">
-        <v>205</v>
+        <v>108</v>
       </c>
       <c r="P190" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q190">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="R190">
         <v>1.95</v>
       </c>
       <c r="S190">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="T190">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U190">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="V190">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="W190">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="X190">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y190">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="Z190">
-        <v>2.3</v>
+        <v>3.8</v>
       </c>
       <c r="AA190">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB190">
-        <v>3.4</v>
+        <v>2.05</v>
       </c>
       <c r="AC190">
         <v>1.08</v>
       </c>
       <c r="AD190">
-        <v>7.29</v>
+        <v>9.15</v>
       </c>
       <c r="AE190">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
       <c r="AF190">
-        <v>2.65</v>
+        <v>3</v>
       </c>
       <c r="AG190">
         <v>2.4</v>
@@ -40313,100 +40319,100 @@
         <v>1.67</v>
       </c>
       <c r="AK190">
-        <v>1.36</v>
+        <v>2</v>
       </c>
       <c r="AL190">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="AM190">
-        <v>1.62</v>
+        <v>1.18</v>
       </c>
       <c r="AN190">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AO190">
         <v>1.5</v>
       </c>
       <c r="AP190">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ190">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR190">
-        <v>1.64</v>
+        <v>1.51</v>
       </c>
       <c r="AS190">
-        <v>1.65</v>
+        <v>1.54</v>
       </c>
       <c r="AT190">
-        <v>3.29</v>
+        <v>3.05</v>
       </c>
       <c r="AU190">
+        <v>2</v>
+      </c>
+      <c r="AV190">
+        <v>10</v>
+      </c>
+      <c r="AW190">
+        <v>6</v>
+      </c>
+      <c r="AX190">
+        <v>6</v>
+      </c>
+      <c r="AY190">
+        <v>8</v>
+      </c>
+      <c r="AZ190">
+        <v>16</v>
+      </c>
+      <c r="BA190">
+        <v>4</v>
+      </c>
+      <c r="BB190">
+        <v>7</v>
+      </c>
+      <c r="BC190">
+        <v>11</v>
+      </c>
+      <c r="BD190">
+        <v>2.86</v>
+      </c>
+      <c r="BE190">
         <v>9</v>
       </c>
-      <c r="AV190">
-        <v>6</v>
-      </c>
-      <c r="AW190">
-        <v>9</v>
-      </c>
-      <c r="AX190">
-        <v>3</v>
-      </c>
-      <c r="AY190">
-        <v>18</v>
-      </c>
-      <c r="AZ190">
-        <v>9</v>
-      </c>
-      <c r="BA190">
-        <v>10</v>
-      </c>
-      <c r="BB190">
-        <v>2</v>
-      </c>
-      <c r="BC190">
-        <v>12</v>
-      </c>
-      <c r="BD190">
-        <v>1.6</v>
-      </c>
-      <c r="BE190">
-        <v>8.550000000000001</v>
-      </c>
       <c r="BF190">
-        <v>2.93</v>
+        <v>1.59</v>
       </c>
       <c r="BG190">
+        <v>1.13</v>
+      </c>
+      <c r="BH190">
+        <v>5.07</v>
+      </c>
+      <c r="BI190">
         <v>1.26</v>
       </c>
-      <c r="BH190">
+      <c r="BJ190">
         <v>3.45</v>
       </c>
-      <c r="BI190">
-        <v>1.53</v>
-      </c>
-      <c r="BJ190">
-        <v>2.28</v>
-      </c>
       <c r="BK190">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="BL190">
-        <v>1.79</v>
+        <v>2.55</v>
       </c>
       <c r="BM190">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="BN190">
-        <v>1.44</v>
+        <v>1.97</v>
       </c>
       <c r="BO190">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="BP190">
-        <v>1.35</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="191" spans="1:68">
@@ -40414,7 +40420,7 @@
         <v>190</v>
       </c>
       <c r="B191">
-        <v>7345673</v>
+        <v>7345668</v>
       </c>
       <c r="C191" t="s">
         <v>68</v>
@@ -40429,55 +40435,55 @@
         <v>14</v>
       </c>
       <c r="G191" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H191" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K191">
         <v>1</v>
       </c>
       <c r="L191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M191">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O191" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="P191" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="Q191">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S191">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="T191">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U191">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V191">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W191">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X191">
         <v>10</v>
@@ -40486,133 +40492,133 @@
         <v>1.06</v>
       </c>
       <c r="Z191">
-        <v>3.8</v>
+        <v>4.33</v>
       </c>
       <c r="AA191">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB191">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AC191">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="AD191">
-        <v>9.15</v>
+        <v>7.77</v>
       </c>
       <c r="AE191">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="AF191">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="AG191">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="AH191">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="AI191">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AJ191">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AK191">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AL191">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM191">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AN191">
-        <v>1.14</v>
+        <v>0.5</v>
       </c>
       <c r="AO191">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AP191">
-        <v>1</v>
+        <v>0.43</v>
       </c>
       <c r="AQ191">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="AR191">
-        <v>1.51</v>
+        <v>1.46</v>
       </c>
       <c r="AS191">
-        <v>1.54</v>
+        <v>1.24</v>
       </c>
       <c r="AT191">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="AU191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV191">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AW191">
         <v>6</v>
       </c>
       <c r="AX191">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY191">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ191">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA191">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB191">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC191">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BD191">
-        <v>2.86</v>
+        <v>2.4</v>
       </c>
       <c r="BE191">
-        <v>9</v>
+        <v>7.85</v>
       </c>
       <c r="BF191">
-        <v>1.59</v>
+        <v>1.86</v>
       </c>
       <c r="BG191">
-        <v>1.13</v>
+        <v>1.35</v>
       </c>
       <c r="BH191">
-        <v>5.07</v>
+        <v>3</v>
       </c>
       <c r="BI191">
+        <v>1.62</v>
+      </c>
+      <c r="BJ191">
+        <v>2.2</v>
+      </c>
+      <c r="BK191">
+        <v>2</v>
+      </c>
+      <c r="BL191">
+        <v>1.75</v>
+      </c>
+      <c r="BM191">
+        <v>2.6</v>
+      </c>
+      <c r="BN191">
+        <v>1.45</v>
+      </c>
+      <c r="BO191">
+        <v>3.51</v>
+      </c>
+      <c r="BP191">
         <v>1.26</v>
-      </c>
-      <c r="BJ191">
-        <v>3.45</v>
-      </c>
-      <c r="BK191">
-        <v>1.91</v>
-      </c>
-      <c r="BL191">
-        <v>2.55</v>
-      </c>
-      <c r="BM191">
-        <v>1.78</v>
-      </c>
-      <c r="BN191">
-        <v>1.97</v>
-      </c>
-      <c r="BO191">
-        <v>2.2</v>
-      </c>
-      <c r="BP191">
-        <v>1.62</v>
       </c>
     </row>
     <row r="192" spans="1:68">
@@ -40662,7 +40668,7 @@
         <v>98</v>
       </c>
       <c r="P192" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q192">
         <v>4.75</v>
@@ -40841,7 +40847,7 @@
         <v>14</v>
       </c>
       <c r="G193" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H193" t="s">
         <v>83</v>
@@ -40868,7 +40874,7 @@
         <v>206</v>
       </c>
       <c r="P193" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q193">
         <v>3.4</v>
@@ -41032,7 +41038,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>7345679</v>
+        <v>7345680</v>
       </c>
       <c r="C194" t="s">
         <v>68</v>
@@ -41047,19 +41053,19 @@
         <v>14</v>
       </c>
       <c r="G194" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H194" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="I194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J194">
         <v>0</v>
       </c>
       <c r="K194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L194">
         <v>1</v>
@@ -41071,25 +41077,25 @@
         <v>1</v>
       </c>
       <c r="O194" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="P194" t="s">
         <v>98</v>
       </c>
       <c r="Q194">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R194">
         <v>2.1</v>
       </c>
       <c r="S194">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="T194">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U194">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V194">
         <v>3.5</v>
@@ -41104,133 +41110,133 @@
         <v>1.05</v>
       </c>
       <c r="Z194">
-        <v>2.45</v>
+        <v>1.57</v>
       </c>
       <c r="AA194">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="AB194">
-        <v>2.88</v>
+        <v>6</v>
       </c>
       <c r="AC194">
-        <v>1.09</v>
+        <v>1.07</v>
       </c>
       <c r="AD194">
+        <v>7.61</v>
+      </c>
+      <c r="AE194">
+        <v>1.46</v>
+      </c>
+      <c r="AF194">
+        <v>2.65</v>
+      </c>
+      <c r="AG194">
+        <v>2.15</v>
+      </c>
+      <c r="AH194">
+        <v>1.67</v>
+      </c>
+      <c r="AI194">
+        <v>2.25</v>
+      </c>
+      <c r="AJ194">
+        <v>1.57</v>
+      </c>
+      <c r="AK194">
+        <v>1.22</v>
+      </c>
+      <c r="AL194">
+        <v>1.28</v>
+      </c>
+      <c r="AM194">
+        <v>1.92</v>
+      </c>
+      <c r="AN194">
+        <v>2.33</v>
+      </c>
+      <c r="AO194">
+        <v>2.5</v>
+      </c>
+      <c r="AP194">
+        <v>2.43</v>
+      </c>
+      <c r="AQ194">
+        <v>2.14</v>
+      </c>
+      <c r="AR194">
+        <v>1.76</v>
+      </c>
+      <c r="AS194">
+        <v>1.49</v>
+      </c>
+      <c r="AT194">
+        <v>3.25</v>
+      </c>
+      <c r="AU194">
         <v>6</v>
       </c>
-      <c r="AE194">
-        <v>1.48</v>
-      </c>
-      <c r="AF194">
-        <v>2.5</v>
-      </c>
-      <c r="AG194">
-        <v>2.05</v>
-      </c>
-      <c r="AH194">
+      <c r="AV194">
+        <v>5</v>
+      </c>
+      <c r="AW194">
+        <v>4</v>
+      </c>
+      <c r="AX194">
+        <v>5</v>
+      </c>
+      <c r="AY194">
+        <v>10</v>
+      </c>
+      <c r="AZ194">
+        <v>10</v>
+      </c>
+      <c r="BA194">
+        <v>4</v>
+      </c>
+      <c r="BB194">
+        <v>3</v>
+      </c>
+      <c r="BC194">
+        <v>7</v>
+      </c>
+      <c r="BD194">
+        <v>1.52</v>
+      </c>
+      <c r="BE194">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="BF194">
+        <v>3.27</v>
+      </c>
+      <c r="BG194">
+        <v>1.44</v>
+      </c>
+      <c r="BH194">
+        <v>2.65</v>
+      </c>
+      <c r="BI194">
         <v>1.75</v>
       </c>
-      <c r="AI194">
-        <v>1.83</v>
-      </c>
-      <c r="AJ194">
-        <v>1.83</v>
-      </c>
-      <c r="AK194">
-        <v>1.35</v>
-      </c>
-      <c r="AL194">
-        <v>1.35</v>
-      </c>
-      <c r="AM194">
+      <c r="BJ194">
+        <v>2</v>
+      </c>
+      <c r="BK194">
+        <v>2.25</v>
+      </c>
+      <c r="BL194">
         <v>1.6</v>
       </c>
-      <c r="AN194">
-        <v>1.83</v>
-      </c>
-      <c r="AO194">
-        <v>2.17</v>
-      </c>
-      <c r="AP194">
-        <v>2</v>
-      </c>
-      <c r="AQ194">
-        <v>1.86</v>
-      </c>
-      <c r="AR194">
-        <v>1.58</v>
-      </c>
-      <c r="AS194">
-        <v>1.22</v>
-      </c>
-      <c r="AT194">
-        <v>2.8</v>
-      </c>
-      <c r="AU194">
-        <v>7</v>
-      </c>
-      <c r="AV194">
-        <v>3</v>
-      </c>
-      <c r="AW194">
-        <v>8</v>
-      </c>
-      <c r="AX194">
-        <v>3</v>
-      </c>
-      <c r="AY194">
-        <v>15</v>
-      </c>
-      <c r="AZ194">
-        <v>6</v>
-      </c>
-      <c r="BA194">
-        <v>8</v>
-      </c>
-      <c r="BB194">
-        <v>3</v>
-      </c>
-      <c r="BC194">
-        <v>11</v>
-      </c>
-      <c r="BD194">
-        <v>1.98</v>
-      </c>
-      <c r="BE194">
-        <v>7.7</v>
-      </c>
-      <c r="BF194">
-        <v>2.24</v>
-      </c>
-      <c r="BG194">
-        <v>1.32</v>
-      </c>
-      <c r="BH194">
-        <v>3.08</v>
-      </c>
-      <c r="BI194">
-        <v>1.57</v>
-      </c>
-      <c r="BJ194">
-        <v>2.25</v>
-      </c>
-      <c r="BK194">
-        <v>1.97</v>
-      </c>
-      <c r="BL194">
-        <v>1.78</v>
-      </c>
       <c r="BM194">
-        <v>2.5</v>
+        <v>2.95</v>
       </c>
       <c r="BN194">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BO194">
-        <v>3.38</v>
+        <v>4.03</v>
       </c>
       <c r="BP194">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="195" spans="1:68">
@@ -41238,7 +41244,7 @@
         <v>194</v>
       </c>
       <c r="B195">
-        <v>7345680</v>
+        <v>7345679</v>
       </c>
       <c r="C195" t="s">
         <v>68</v>
@@ -41253,19 +41259,19 @@
         <v>14</v>
       </c>
       <c r="G195" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H195" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="I195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J195">
         <v>0</v>
       </c>
       <c r="K195">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L195">
         <v>1</v>
@@ -41277,25 +41283,25 @@
         <v>1</v>
       </c>
       <c r="O195" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="P195" t="s">
         <v>98</v>
       </c>
       <c r="Q195">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R195">
         <v>2.1</v>
       </c>
       <c r="S195">
-        <v>6.5</v>
+        <v>3.5</v>
       </c>
       <c r="T195">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U195">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V195">
         <v>3.5</v>
@@ -41310,133 +41316,133 @@
         <v>1.05</v>
       </c>
       <c r="Z195">
+        <v>2.45</v>
+      </c>
+      <c r="AA195">
+        <v>3.4</v>
+      </c>
+      <c r="AB195">
+        <v>2.88</v>
+      </c>
+      <c r="AC195">
+        <v>1.09</v>
+      </c>
+      <c r="AD195">
+        <v>6</v>
+      </c>
+      <c r="AE195">
+        <v>1.48</v>
+      </c>
+      <c r="AF195">
+        <v>2.5</v>
+      </c>
+      <c r="AG195">
+        <v>2.05</v>
+      </c>
+      <c r="AH195">
+        <v>1.75</v>
+      </c>
+      <c r="AI195">
+        <v>1.83</v>
+      </c>
+      <c r="AJ195">
+        <v>1.83</v>
+      </c>
+      <c r="AK195">
+        <v>1.35</v>
+      </c>
+      <c r="AL195">
+        <v>1.35</v>
+      </c>
+      <c r="AM195">
+        <v>1.6</v>
+      </c>
+      <c r="AN195">
+        <v>1.83</v>
+      </c>
+      <c r="AO195">
+        <v>2.17</v>
+      </c>
+      <c r="AP195">
+        <v>2</v>
+      </c>
+      <c r="AQ195">
+        <v>1.86</v>
+      </c>
+      <c r="AR195">
+        <v>1.58</v>
+      </c>
+      <c r="AS195">
+        <v>1.22</v>
+      </c>
+      <c r="AT195">
+        <v>2.8</v>
+      </c>
+      <c r="AU195">
+        <v>7</v>
+      </c>
+      <c r="AV195">
+        <v>3</v>
+      </c>
+      <c r="AW195">
+        <v>8</v>
+      </c>
+      <c r="AX195">
+        <v>3</v>
+      </c>
+      <c r="AY195">
+        <v>15</v>
+      </c>
+      <c r="AZ195">
+        <v>6</v>
+      </c>
+      <c r="BA195">
+        <v>8</v>
+      </c>
+      <c r="BB195">
+        <v>3</v>
+      </c>
+      <c r="BC195">
+        <v>11</v>
+      </c>
+      <c r="BD195">
+        <v>1.98</v>
+      </c>
+      <c r="BE195">
+        <v>7.7</v>
+      </c>
+      <c r="BF195">
+        <v>2.24</v>
+      </c>
+      <c r="BG195">
+        <v>1.32</v>
+      </c>
+      <c r="BH195">
+        <v>3.08</v>
+      </c>
+      <c r="BI195">
         <v>1.57</v>
       </c>
-      <c r="AA195">
-        <v>4</v>
-      </c>
-      <c r="AB195">
-        <v>6</v>
-      </c>
-      <c r="AC195">
-        <v>1.07</v>
-      </c>
-      <c r="AD195">
-        <v>7.61</v>
-      </c>
-      <c r="AE195">
-        <v>1.46</v>
-      </c>
-      <c r="AF195">
-        <v>2.65</v>
-      </c>
-      <c r="AG195">
-        <v>2.15</v>
-      </c>
-      <c r="AH195">
-        <v>1.67</v>
-      </c>
-      <c r="AI195">
+      <c r="BJ195">
         <v>2.25</v>
       </c>
-      <c r="AJ195">
-        <v>1.57</v>
-      </c>
-      <c r="AK195">
-        <v>1.22</v>
-      </c>
-      <c r="AL195">
-        <v>1.28</v>
-      </c>
-      <c r="AM195">
-        <v>1.92</v>
-      </c>
-      <c r="AN195">
-        <v>2.33</v>
-      </c>
-      <c r="AO195">
+      <c r="BK195">
+        <v>1.97</v>
+      </c>
+      <c r="BL195">
+        <v>1.78</v>
+      </c>
+      <c r="BM195">
         <v>2.5</v>
       </c>
-      <c r="AP195">
-        <v>2.43</v>
-      </c>
-      <c r="AQ195">
-        <v>2.14</v>
-      </c>
-      <c r="AR195">
-        <v>1.76</v>
-      </c>
-      <c r="AS195">
-        <v>1.49</v>
-      </c>
-      <c r="AT195">
-        <v>3.25</v>
-      </c>
-      <c r="AU195">
-        <v>6</v>
-      </c>
-      <c r="AV195">
-        <v>5</v>
-      </c>
-      <c r="AW195">
-        <v>4</v>
-      </c>
-      <c r="AX195">
-        <v>5</v>
-      </c>
-      <c r="AY195">
-        <v>10</v>
-      </c>
-      <c r="AZ195">
-        <v>10</v>
-      </c>
-      <c r="BA195">
-        <v>4</v>
-      </c>
-      <c r="BB195">
-        <v>3</v>
-      </c>
-      <c r="BC195">
-        <v>7</v>
-      </c>
-      <c r="BD195">
-        <v>1.52</v>
-      </c>
-      <c r="BE195">
-        <v>8.449999999999999</v>
-      </c>
-      <c r="BF195">
-        <v>3.27</v>
-      </c>
-      <c r="BG195">
-        <v>1.44</v>
-      </c>
-      <c r="BH195">
-        <v>2.65</v>
-      </c>
-      <c r="BI195">
-        <v>1.75</v>
-      </c>
-      <c r="BJ195">
-        <v>2</v>
-      </c>
-      <c r="BK195">
-        <v>2.25</v>
-      </c>
-      <c r="BL195">
-        <v>1.6</v>
-      </c>
-      <c r="BM195">
-        <v>2.95</v>
-      </c>
       <c r="BN195">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BO195">
-        <v>4.03</v>
+        <v>3.38</v>
       </c>
       <c r="BP195">
-        <v>1.2</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="196" spans="1:68">
@@ -41486,7 +41492,7 @@
         <v>208</v>
       </c>
       <c r="P196" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q196">
         <v>2.4</v>
@@ -42080,7 +42086,7 @@
         <v>81</v>
       </c>
       <c r="H199" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -42104,7 +42110,7 @@
         <v>211</v>
       </c>
       <c r="P199" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q199">
         <v>3.6</v>
@@ -42261,6 +42267,212 @@
       </c>
       <c r="BP199">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:68">
+      <c r="A200" s="1">
+        <v>199</v>
+      </c>
+      <c r="B200">
+        <v>7416428</v>
+      </c>
+      <c r="C200" t="s">
+        <v>68</v>
+      </c>
+      <c r="D200" t="s">
+        <v>69</v>
+      </c>
+      <c r="E200" s="2">
+        <v>45403.64583333334</v>
+      </c>
+      <c r="F200">
+        <v>0</v>
+      </c>
+      <c r="G200" t="s">
+        <v>82</v>
+      </c>
+      <c r="H200" t="s">
+        <v>92</v>
+      </c>
+      <c r="I200">
+        <v>1</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>2</v>
+      </c>
+      <c r="L200">
+        <v>2</v>
+      </c>
+      <c r="M200">
+        <v>3</v>
+      </c>
+      <c r="N200">
+        <v>5</v>
+      </c>
+      <c r="O200" t="s">
+        <v>212</v>
+      </c>
+      <c r="P200" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q200">
+        <v>3</v>
+      </c>
+      <c r="R200">
+        <v>1.95</v>
+      </c>
+      <c r="S200">
+        <v>4</v>
+      </c>
+      <c r="T200">
+        <v>1.5</v>
+      </c>
+      <c r="U200">
+        <v>2.5</v>
+      </c>
+      <c r="V200">
+        <v>3.4</v>
+      </c>
+      <c r="W200">
+        <v>1.3</v>
+      </c>
+      <c r="X200">
+        <v>10</v>
+      </c>
+      <c r="Y200">
+        <v>1.06</v>
+      </c>
+      <c r="Z200">
+        <v>2.25</v>
+      </c>
+      <c r="AA200">
+        <v>3</v>
+      </c>
+      <c r="AB200">
+        <v>3.4</v>
+      </c>
+      <c r="AC200">
+        <v>1.09</v>
+      </c>
+      <c r="AD200">
+        <v>8.5</v>
+      </c>
+      <c r="AE200">
+        <v>1.47</v>
+      </c>
+      <c r="AF200">
+        <v>2.75</v>
+      </c>
+      <c r="AG200">
+        <v>2.4</v>
+      </c>
+      <c r="AH200">
+        <v>1.53</v>
+      </c>
+      <c r="AI200">
+        <v>2</v>
+      </c>
+      <c r="AJ200">
+        <v>1.73</v>
+      </c>
+      <c r="AK200">
+        <v>1.3</v>
+      </c>
+      <c r="AL200">
+        <v>1.28</v>
+      </c>
+      <c r="AM200">
+        <v>1.67</v>
+      </c>
+      <c r="AN200">
+        <v>1.93</v>
+      </c>
+      <c r="AO200">
+        <v>1.92</v>
+      </c>
+      <c r="AP200">
+        <v>1.8</v>
+      </c>
+      <c r="AQ200">
+        <v>2</v>
+      </c>
+      <c r="AR200">
+        <v>2.34</v>
+      </c>
+      <c r="AS200">
+        <v>1.4</v>
+      </c>
+      <c r="AT200">
+        <v>3.74</v>
+      </c>
+      <c r="AU200">
+        <v>8</v>
+      </c>
+      <c r="AV200">
+        <v>6</v>
+      </c>
+      <c r="AW200">
+        <v>4</v>
+      </c>
+      <c r="AX200">
+        <v>6</v>
+      </c>
+      <c r="AY200">
+        <v>12</v>
+      </c>
+      <c r="AZ200">
+        <v>12</v>
+      </c>
+      <c r="BA200">
+        <v>4</v>
+      </c>
+      <c r="BB200">
+        <v>4</v>
+      </c>
+      <c r="BC200">
+        <v>8</v>
+      </c>
+      <c r="BD200">
+        <v>1.72</v>
+      </c>
+      <c r="BE200">
+        <v>8.5</v>
+      </c>
+      <c r="BF200">
+        <v>2.46</v>
+      </c>
+      <c r="BG200">
+        <v>1.26</v>
+      </c>
+      <c r="BH200">
+        <v>3.34</v>
+      </c>
+      <c r="BI200">
+        <v>1.53</v>
+      </c>
+      <c r="BJ200">
+        <v>2.41</v>
+      </c>
+      <c r="BK200">
+        <v>1.91</v>
+      </c>
+      <c r="BL200">
+        <v>1.88</v>
+      </c>
+      <c r="BM200">
+        <v>2.41</v>
+      </c>
+      <c r="BN200">
+        <v>1.53</v>
+      </c>
+      <c r="BO200">
+        <v>3.28</v>
+      </c>
+      <c r="BP200">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Argentina Primera División_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1262" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1268" uniqueCount="298">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1269,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP200"/>
+  <dimension ref="A1:BP201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2433,7 +2433,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ22">
         <v>0.86</v>
@@ -8201,7 +8201,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.54</v>
@@ -11494,7 +11494,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ50">
         <v>1.71</v>
@@ -15205,7 +15205,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.27</v>
@@ -18498,7 +18498,7 @@
         <v>1.5</v>
       </c>
       <c r="AP84">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ84">
         <v>0.71</v>
@@ -21176,7 +21176,7 @@
         <v>0.33</v>
       </c>
       <c r="AP97">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ97">
         <v>1.14</v>
@@ -23239,7 +23239,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ107">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR107">
         <v>1.63</v>
@@ -25502,7 +25502,7 @@
         <v>1.5</v>
       </c>
       <c r="AP118">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ118">
         <v>0.86</v>
@@ -29831,7 +29831,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ139">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR139">
         <v>1.56</v>
@@ -32506,7 +32506,7 @@
         <v>0.67</v>
       </c>
       <c r="AP152">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ152">
         <v>0.5</v>
@@ -34775,7 +34775,7 @@
         <v>2</v>
       </c>
       <c r="AQ163">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR163">
         <v>2.03</v>
@@ -40128,7 +40128,7 @@
         <v>1.83</v>
       </c>
       <c r="AP189">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ189">
         <v>1.5</v>
@@ -40543,7 +40543,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ191">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR191">
         <v>1.46</v>
@@ -41776,7 +41776,7 @@
         <v>1.86</v>
       </c>
       <c r="AP197">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AQ197">
         <v>1.8</v>
@@ -42191,7 +42191,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ199">
-        <v>1.87</v>
+        <v>1.81</v>
       </c>
       <c r="AR199">
         <v>2.01</v>
@@ -42473,6 +42473,212 @@
       </c>
       <c r="BP200">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="201" spans="1:68">
+      <c r="A201" s="1">
+        <v>200</v>
+      </c>
+      <c r="B201">
+        <v>7420809</v>
+      </c>
+      <c r="C201" t="s">
+        <v>68</v>
+      </c>
+      <c r="D201" t="s">
+        <v>69</v>
+      </c>
+      <c r="E201" s="2">
+        <v>45410.64583333334</v>
+      </c>
+      <c r="F201">
+        <v>0</v>
+      </c>
+      <c r="G201" t="s">
+        <v>89</v>
+      </c>
+      <c r="H201" t="s">
+        <v>87</v>
+      </c>
+      <c r="I201">
+        <v>0</v>
+      </c>
+      <c r="J201">
+        <v>0</v>
+      </c>
+      <c r="K201">
+        <v>0</v>
+      </c>
+      <c r="L201">
+        <v>0</v>
+      </c>
+      <c r="M201">
+        <v>0</v>
+      </c>
+      <c r="N201">
+        <v>0</v>
+      </c>
+      <c r="O201" t="s">
+        <v>98</v>
+      </c>
+      <c r="P201" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q201">
+        <v>3.6</v>
+      </c>
+      <c r="R201">
+        <v>1.91</v>
+      </c>
+      <c r="S201">
+        <v>3.6</v>
+      </c>
+      <c r="T201">
+        <v>1.53</v>
+      </c>
+      <c r="U201">
+        <v>2.38</v>
+      </c>
+      <c r="V201">
+        <v>3.75</v>
+      </c>
+      <c r="W201">
+        <v>1.25</v>
+      </c>
+      <c r="X201">
+        <v>11</v>
+      </c>
+      <c r="Y201">
+        <v>1.05</v>
+      </c>
+      <c r="Z201">
+        <v>2.8</v>
+      </c>
+      <c r="AA201">
+        <v>2.9</v>
+      </c>
+      <c r="AB201">
+        <v>2.8</v>
+      </c>
+      <c r="AC201">
+        <v>1.1</v>
+      </c>
+      <c r="AD201">
+        <v>7.5</v>
+      </c>
+      <c r="AE201">
+        <v>1.5</v>
+      </c>
+      <c r="AF201">
+        <v>2.65</v>
+      </c>
+      <c r="AG201">
+        <v>2.6</v>
+      </c>
+      <c r="AH201">
+        <v>1.48</v>
+      </c>
+      <c r="AI201">
+        <v>2.1</v>
+      </c>
+      <c r="AJ201">
+        <v>1.67</v>
+      </c>
+      <c r="AK201">
+        <v>1.47</v>
+      </c>
+      <c r="AL201">
+        <v>1.32</v>
+      </c>
+      <c r="AM201">
+        <v>1.48</v>
+      </c>
+      <c r="AN201">
+        <v>1.8</v>
+      </c>
+      <c r="AO201">
+        <v>1.87</v>
+      </c>
+      <c r="AP201">
+        <v>1.75</v>
+      </c>
+      <c r="AQ201">
+        <v>1.81</v>
+      </c>
+      <c r="AR201">
+        <v>1.77</v>
+      </c>
+      <c r="AS201">
+        <v>1.43</v>
+      </c>
+      <c r="AT201">
+        <v>3.2</v>
+      </c>
+      <c r="AU201">
+        <v>6</v>
+      </c>
+      <c r="AV201">
+        <v>7</v>
+      </c>
+      <c r="AW201">
+        <v>2</v>
+      </c>
+      <c r="AX201">
+        <v>4</v>
+      </c>
+      <c r="AY201">
+        <v>8</v>
+      </c>
+      <c r="AZ201">
+        <v>11</v>
+      </c>
+      <c r="BA201">
+        <v>7</v>
+      </c>
+      <c r="BB201">
+        <v>6</v>
+      </c>
+      <c r="BC201">
+        <v>13</v>
+      </c>
+      <c r="BD201">
+        <v>1.68</v>
+      </c>
+      <c r="BE201">
+        <v>8.25</v>
+      </c>
+      <c r="BF201">
+        <v>2.73</v>
+      </c>
+      <c r="BG201">
+        <v>1.35</v>
+      </c>
+      <c r="BH201">
+        <v>3</v>
+      </c>
+      <c r="BI201">
+        <v>1.7</v>
+      </c>
+      <c r="BJ201">
+        <v>2.05</v>
+      </c>
+      <c r="BK201">
+        <v>2</v>
+      </c>
+      <c r="BL201">
+        <v>1.75</v>
+      </c>
+      <c r="BM201">
+        <v>2.6</v>
+      </c>
+      <c r="BN201">
+        <v>1.45</v>
+      </c>
+      <c r="BO201">
+        <v>3.51</v>
+      </c>
+      <c r="BP201">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>
